--- a/tabular/flavi-reference_feature_locations.xlsx
+++ b/tabular/flavi-reference_feature_locations.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16160" yWindow="2680" windowWidth="27820" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="16180" yWindow="2660" windowWidth="27820" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="235">
   <si>
     <t>featureName</t>
   </si>
@@ -34,48 +33,12 @@
     <t>endNT</t>
   </si>
   <si>
-    <t>NS</t>
-  </si>
-  <si>
-    <t>VP</t>
-  </si>
-  <si>
-    <t>MVC</t>
-  </si>
-  <si>
-    <t>Mid-ORF</t>
-  </si>
-  <si>
-    <t>referenceName</t>
-  </si>
-  <si>
-    <t>sequenceID</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>AY149905</t>
-  </si>
-  <si>
     <t>KRV</t>
   </si>
   <si>
-    <t>REF_MASTER_KRV</t>
-  </si>
-  <si>
     <t>capsid</t>
   </si>
   <si>
-    <t>premembrane</t>
-  </si>
-  <si>
-    <t>membrane</t>
-  </si>
-  <si>
-    <t>envelope</t>
-  </si>
-  <si>
     <t>NS1</t>
   </si>
   <si>
@@ -98,6 +61,672 @@
   </si>
   <si>
     <t>3UTR</t>
+  </si>
+  <si>
+    <t>SequenceID</t>
+  </si>
+  <si>
+    <t>Virus name</t>
+  </si>
+  <si>
+    <t>Abbrev</t>
+  </si>
+  <si>
+    <t>Genus</t>
+  </si>
+  <si>
+    <t>NC_001563.2</t>
+  </si>
+  <si>
+    <t>West Nile virus</t>
+  </si>
+  <si>
+    <t>WNV</t>
+  </si>
+  <si>
+    <t>Flavivirus</t>
+  </si>
+  <si>
+    <t>5UTR</t>
+  </si>
+  <si>
+    <t>NC_001563.3</t>
+  </si>
+  <si>
+    <t>protein C</t>
+  </si>
+  <si>
+    <t>NC_001563.4</t>
+  </si>
+  <si>
+    <t>precursor M</t>
+  </si>
+  <si>
+    <t>NC_001563.5</t>
+  </si>
+  <si>
+    <t>envelope protein E</t>
+  </si>
+  <si>
+    <t>NC_001563.6</t>
+  </si>
+  <si>
+    <t>NC_001563.7</t>
+  </si>
+  <si>
+    <t>NC_001563.8</t>
+  </si>
+  <si>
+    <t>NC_001563.9</t>
+  </si>
+  <si>
+    <t>NC_001563.10</t>
+  </si>
+  <si>
+    <t>2K</t>
+  </si>
+  <si>
+    <t>NC_001563.11</t>
+  </si>
+  <si>
+    <t>NC_001563.12</t>
+  </si>
+  <si>
+    <t>NC_001563.13</t>
+  </si>
+  <si>
+    <t>NC_001477.1</t>
+  </si>
+  <si>
+    <t>Dengue virus 1</t>
+  </si>
+  <si>
+    <t>DENV1</t>
+  </si>
+  <si>
+    <t>NC_001477.2</t>
+  </si>
+  <si>
+    <t>Dengue virus 2</t>
+  </si>
+  <si>
+    <t>DENV2</t>
+  </si>
+  <si>
+    <t>NC_001477.3</t>
+  </si>
+  <si>
+    <t>Dengue virus 3</t>
+  </si>
+  <si>
+    <t>DENV3</t>
+  </si>
+  <si>
+    <t>NC_001477.4</t>
+  </si>
+  <si>
+    <t>Dengue virus 4</t>
+  </si>
+  <si>
+    <t>DENV4</t>
+  </si>
+  <si>
+    <t>NC_001477.5</t>
+  </si>
+  <si>
+    <t>Dengue virus 5</t>
+  </si>
+  <si>
+    <t>DENV5</t>
+  </si>
+  <si>
+    <t>NC_001477.6</t>
+  </si>
+  <si>
+    <t>Dengue virus 6</t>
+  </si>
+  <si>
+    <t>DENV6</t>
+  </si>
+  <si>
+    <t>NC_001477.7</t>
+  </si>
+  <si>
+    <t>Dengue virus 7</t>
+  </si>
+  <si>
+    <t>DENV7</t>
+  </si>
+  <si>
+    <t>NC_001477.8</t>
+  </si>
+  <si>
+    <t>Dengue virus 8</t>
+  </si>
+  <si>
+    <t>DENV8</t>
+  </si>
+  <si>
+    <t>NC_001477.9</t>
+  </si>
+  <si>
+    <t>Dengue virus 9</t>
+  </si>
+  <si>
+    <t>DENV9</t>
+  </si>
+  <si>
+    <t>NC_001477.10</t>
+  </si>
+  <si>
+    <t>Dengue virus 10</t>
+  </si>
+  <si>
+    <t>DENV10</t>
+  </si>
+  <si>
+    <t>NC_001477.11</t>
+  </si>
+  <si>
+    <t>Dengue virus 11</t>
+  </si>
+  <si>
+    <t>DENV11</t>
+  </si>
+  <si>
+    <t>NC_001477.12</t>
+  </si>
+  <si>
+    <t>Dengue virus 12</t>
+  </si>
+  <si>
+    <t>DENV12</t>
+  </si>
+  <si>
+    <t>NC_002031.1</t>
+  </si>
+  <si>
+    <t>Yellow fever virus</t>
+  </si>
+  <si>
+    <t>YFV</t>
+  </si>
+  <si>
+    <t>NC_002031.2</t>
+  </si>
+  <si>
+    <t>NC_002031.3</t>
+  </si>
+  <si>
+    <t>NC_002031.4</t>
+  </si>
+  <si>
+    <t>NC_002031.5</t>
+  </si>
+  <si>
+    <t>NC_002031.6</t>
+  </si>
+  <si>
+    <t>NC_002031.7</t>
+  </si>
+  <si>
+    <t>NC_002031.8</t>
+  </si>
+  <si>
+    <t>NC_002031.9</t>
+  </si>
+  <si>
+    <t>NC_002031.10</t>
+  </si>
+  <si>
+    <t>NC_002031.11</t>
+  </si>
+  <si>
+    <t>NC_002031.12</t>
+  </si>
+  <si>
+    <t>NC_002031.13</t>
+  </si>
+  <si>
+    <t>NC_012532.1</t>
+  </si>
+  <si>
+    <t>Zika virus</t>
+  </si>
+  <si>
+    <t>ZIKV</t>
+  </si>
+  <si>
+    <t>NC_012532.2</t>
+  </si>
+  <si>
+    <t>NC_012532.3</t>
+  </si>
+  <si>
+    <t>NC_012532.4</t>
+  </si>
+  <si>
+    <t>NC_012532.5</t>
+  </si>
+  <si>
+    <t>NC_012532.6</t>
+  </si>
+  <si>
+    <t>NC_012532.7</t>
+  </si>
+  <si>
+    <t>NC_012532.8</t>
+  </si>
+  <si>
+    <t>NC_012532.9</t>
+  </si>
+  <si>
+    <t>NC_012532.10</t>
+  </si>
+  <si>
+    <t>NC_012532.11</t>
+  </si>
+  <si>
+    <t>NC_012532.12</t>
+  </si>
+  <si>
+    <t>NC_012532.13</t>
+  </si>
+  <si>
+    <t>NC_005064.1</t>
+  </si>
+  <si>
+    <t>Kamiti River virus</t>
+  </si>
+  <si>
+    <t>NC_005064.2</t>
+  </si>
+  <si>
+    <t>NC_005064.3</t>
+  </si>
+  <si>
+    <t>NC_005064.4</t>
+  </si>
+  <si>
+    <t>NC_005064.5</t>
+  </si>
+  <si>
+    <t>NC_005064.6</t>
+  </si>
+  <si>
+    <t>NC_005064.7</t>
+  </si>
+  <si>
+    <t>NC_005064.8</t>
+  </si>
+  <si>
+    <t>NC_005064.9</t>
+  </si>
+  <si>
+    <t>NC_005064.10</t>
+  </si>
+  <si>
+    <t>NC_005064.11</t>
+  </si>
+  <si>
+    <t>NC_005064.12</t>
+  </si>
+  <si>
+    <t>NC_005064.13</t>
+  </si>
+  <si>
+    <t>NC_003687.1</t>
+  </si>
+  <si>
+    <t>Powassan virus</t>
+  </si>
+  <si>
+    <t>POWV</t>
+  </si>
+  <si>
+    <t>NC_003687.2</t>
+  </si>
+  <si>
+    <t>NC_003687.3</t>
+  </si>
+  <si>
+    <t>NC_003687.4</t>
+  </si>
+  <si>
+    <t>NC_003687.5</t>
+  </si>
+  <si>
+    <t>NC_003687.6</t>
+  </si>
+  <si>
+    <t>NC_003687.7</t>
+  </si>
+  <si>
+    <t>NC_003687.8</t>
+  </si>
+  <si>
+    <t>NC_003687.9</t>
+  </si>
+  <si>
+    <t>NC_003687.10</t>
+  </si>
+  <si>
+    <t>NC_003687.11</t>
+  </si>
+  <si>
+    <t>NC_003687.12</t>
+  </si>
+  <si>
+    <t>NC_003687.13</t>
+  </si>
+  <si>
+    <t>NC_004102.1</t>
+  </si>
+  <si>
+    <t>Hepatitis C virus</t>
+  </si>
+  <si>
+    <t>HCV</t>
+  </si>
+  <si>
+    <t>Hepacivirus</t>
+  </si>
+  <si>
+    <t>NC_004102.2</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>NC_004102.3</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>NC_004102.4</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>NC_004102.5</t>
+  </si>
+  <si>
+    <t>p7</t>
+  </si>
+  <si>
+    <t>NC_004102.6</t>
+  </si>
+  <si>
+    <t>NS2</t>
+  </si>
+  <si>
+    <t>NC_004102.7</t>
+  </si>
+  <si>
+    <t>NC_004102.8</t>
+  </si>
+  <si>
+    <t>NC_004102.9</t>
+  </si>
+  <si>
+    <t>NC_004102.10</t>
+  </si>
+  <si>
+    <t>NS5A</t>
+  </si>
+  <si>
+    <t>NC_004102.11</t>
+  </si>
+  <si>
+    <t>NS5B</t>
+  </si>
+  <si>
+    <t>NC_004102.12</t>
+  </si>
+  <si>
+    <t>NC_027998.2</t>
+  </si>
+  <si>
+    <t>Human pegivirus 2</t>
+  </si>
+  <si>
+    <t>HPgV-2</t>
+  </si>
+  <si>
+    <t>Pegivirus</t>
+  </si>
+  <si>
+    <t>NC_027998.3</t>
+  </si>
+  <si>
+    <t>Human pegivirus 3</t>
+  </si>
+  <si>
+    <t>HPgV-3</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>NC_027998.4</t>
+  </si>
+  <si>
+    <t>Human pegivirus 4</t>
+  </si>
+  <si>
+    <t>HPgV-4</t>
+  </si>
+  <si>
+    <t>NC_027998.5</t>
+  </si>
+  <si>
+    <t>Human pegivirus 5</t>
+  </si>
+  <si>
+    <t>HPgV-5</t>
+  </si>
+  <si>
+    <t>NC_027998.6</t>
+  </si>
+  <si>
+    <t>Human pegivirus 6</t>
+  </si>
+  <si>
+    <t>HPgV-6</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>NC_027998.7</t>
+  </si>
+  <si>
+    <t>Human pegivirus 7</t>
+  </si>
+  <si>
+    <t>HPgV-7</t>
+  </si>
+  <si>
+    <t>NC_027998.8</t>
+  </si>
+  <si>
+    <t>Human pegivirus 8</t>
+  </si>
+  <si>
+    <t>HPgV-8</t>
+  </si>
+  <si>
+    <t>NC_027998.9</t>
+  </si>
+  <si>
+    <t>Human pegivirus 9</t>
+  </si>
+  <si>
+    <t>HPgV-9</t>
+  </si>
+  <si>
+    <t>NC_027998.10</t>
+  </si>
+  <si>
+    <t>Human pegivirus 10</t>
+  </si>
+  <si>
+    <t>HPgV-10</t>
+  </si>
+  <si>
+    <t>NC_027998.11</t>
+  </si>
+  <si>
+    <t>Human pegivirus 11</t>
+  </si>
+  <si>
+    <t>HPgV-11</t>
+  </si>
+  <si>
+    <t>NC_027998.12</t>
+  </si>
+  <si>
+    <t>Human pegivirus 12</t>
+  </si>
+  <si>
+    <t>HPgV-12</t>
+  </si>
+  <si>
+    <t>NC_027998.13</t>
+  </si>
+  <si>
+    <t>Human pegivirus 13</t>
+  </si>
+  <si>
+    <t>HPgV-13</t>
+  </si>
+  <si>
+    <t>NC_001461.1</t>
+  </si>
+  <si>
+    <t>Bovine viral diarrhea virus 1</t>
+  </si>
+  <si>
+    <t>BVDV1</t>
+  </si>
+  <si>
+    <t>Pestivirus</t>
+  </si>
+  <si>
+    <t>NC_001461.2</t>
+  </si>
+  <si>
+    <t>Bovine viral diarrhea virus 2</t>
+  </si>
+  <si>
+    <t>BVDV2</t>
+  </si>
+  <si>
+    <t>N-pro</t>
+  </si>
+  <si>
+    <t>NC_001461.3</t>
+  </si>
+  <si>
+    <t>Bovine viral diarrhea virus 3</t>
+  </si>
+  <si>
+    <t>BVDV3</t>
+  </si>
+  <si>
+    <t>NC_001461.4</t>
+  </si>
+  <si>
+    <t>Bovine viral diarrhea virus 4</t>
+  </si>
+  <si>
+    <t>BVDV4</t>
+  </si>
+  <si>
+    <t>RNAse</t>
+  </si>
+  <si>
+    <t>NC_001461.5</t>
+  </si>
+  <si>
+    <t>Bovine viral diarrhea virus 5</t>
+  </si>
+  <si>
+    <t>BVDV5</t>
+  </si>
+  <si>
+    <t>NC_001461.6</t>
+  </si>
+  <si>
+    <t>Bovine viral diarrhea virus 6</t>
+  </si>
+  <si>
+    <t>BVDV6</t>
+  </si>
+  <si>
+    <t>NC_001461.7</t>
+  </si>
+  <si>
+    <t>Bovine viral diarrhea virus 7</t>
+  </si>
+  <si>
+    <t>BVDV7</t>
+  </si>
+  <si>
+    <t>NC_001461.8</t>
+  </si>
+  <si>
+    <t>Bovine viral diarrhea virus 8</t>
+  </si>
+  <si>
+    <t>BVDV8</t>
+  </si>
+  <si>
+    <t>NC_001461.9</t>
+  </si>
+  <si>
+    <t>Bovine viral diarrhea virus 9</t>
+  </si>
+  <si>
+    <t>BVDV9</t>
+  </si>
+  <si>
+    <t>NC_001461.10</t>
+  </si>
+  <si>
+    <t>Bovine viral diarrhea virus 10</t>
+  </si>
+  <si>
+    <t>BVDV10</t>
+  </si>
+  <si>
+    <t>NC_001461.11</t>
+  </si>
+  <si>
+    <t>Bovine viral diarrhea virus 11</t>
+  </si>
+  <si>
+    <t>BVDV11</t>
+  </si>
+  <si>
+    <t>NC_001461.12</t>
+  </si>
+  <si>
+    <t>Bovine viral diarrhea virus 12</t>
+  </si>
+  <si>
+    <t>BVDV12</t>
+  </si>
+  <si>
+    <t>NC_001461.13</t>
+  </si>
+  <si>
+    <t>Bovine viral diarrhea virus 13</t>
+  </si>
+  <si>
+    <t>BVDV13</t>
   </si>
 </sst>
 </file>
@@ -144,14 +773,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -191,7 +820,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1883">
+  <cellStyleXfs count="1893">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2075,20 +2704,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2098,8 +2730,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1883">
+  <cellStyles count="1893">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -3042,6 +3678,11 @@
     <cellStyle name="Followed Hyperlink" xfId="1878" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1880" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1882" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1884" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1886" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1888" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1890" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1892" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -3982,6 +4623,11 @@
     <cellStyle name="Hyperlink" xfId="1877" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1879" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1881" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1883" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1885" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1887" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1889" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1891" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4316,1056 +4962,3018 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1465"/>
+  <dimension ref="A1:G1462"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F13" sqref="C1:F13"/>
+      <selection activeCell="F6" sqref="A1:G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="7">
+        <v>97</v>
+      </c>
+      <c r="G3" s="7">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="7">
+        <v>466</v>
+      </c>
+      <c r="G4" s="7">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7">
+        <v>967</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2458</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7">
+        <v>3514</v>
+      </c>
+      <c r="G7" s="7">
+        <v>4206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="7">
+        <v>4207</v>
+      </c>
+      <c r="G8" s="7">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="F9" s="7">
+        <v>4600</v>
+      </c>
+      <c r="G9" s="7">
+        <v>6456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="7">
+        <v>6835</v>
+      </c>
+      <c r="G10" s="7">
+        <v>6903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7">
+        <v>6904</v>
+      </c>
+      <c r="G11" s="7">
+        <v>7671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7">
+        <v>7572</v>
+      </c>
+      <c r="G12" s="7">
+        <v>10386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="7">
+        <v>10390</v>
+      </c>
+      <c r="G13" s="7">
+        <v>10962</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15">
+        <v>95</v>
+      </c>
+      <c r="G15">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>437</v>
+      </c>
+      <c r="G16">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17">
+        <v>935</v>
+      </c>
+      <c r="G17">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>2420</v>
+      </c>
+      <c r="G18">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>3476</v>
+      </c>
+      <c r="G19">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>4130</v>
+      </c>
+      <c r="G20">
+        <v>4519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>4520</v>
+      </c>
+      <c r="G21">
+        <v>6376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F22">
+        <v>6377</v>
+      </c>
+      <c r="G22">
+        <v>6757</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23">
+        <v>6758</v>
+      </c>
+      <c r="G23">
+        <v>6826</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>7574</v>
+      </c>
+      <c r="G24">
+        <v>10270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>10274</v>
+      </c>
+      <c r="G25">
+        <v>10735</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="7">
+        <v>119</v>
+      </c>
+      <c r="G27" s="7">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="7">
+        <v>482</v>
+      </c>
+      <c r="G28" s="7">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="7">
+        <v>974</v>
+      </c>
+      <c r="G29" s="7">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="7">
+        <v>2453</v>
+      </c>
+      <c r="G30" s="7">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="7">
+        <v>3509</v>
+      </c>
+      <c r="G31" s="7">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F32" s="7">
+        <v>4181</v>
+      </c>
+      <c r="G32" s="7">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="7">
+        <v>4571</v>
+      </c>
+      <c r="G33" s="7">
+        <v>6439</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="7">
+        <v>6440</v>
+      </c>
+      <c r="G34" s="7">
+        <v>6817</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="7">
+        <v>6818</v>
+      </c>
+      <c r="G35" s="7">
+        <v>6886</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="7">
+        <v>6887</v>
+      </c>
+      <c r="G36" s="7">
+        <v>7636</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="7">
+        <v>7637</v>
+      </c>
+      <c r="G37" s="7">
+        <v>10351</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="7">
+        <v>10355</v>
+      </c>
+      <c r="G38" s="7">
+        <v>10862</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="8">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="G39" s="8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="11">
+        <v>107</v>
+      </c>
+      <c r="G40" s="11">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="11">
+        <v>473</v>
+      </c>
+      <c r="G41" s="11">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="11">
+        <v>977</v>
+      </c>
+      <c r="G42" s="11">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="11">
+        <v>2477</v>
+      </c>
+      <c r="G43" s="11">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="11">
+        <v>3533</v>
+      </c>
+      <c r="G44" s="11">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="11">
+        <v>4211</v>
+      </c>
+      <c r="G45" s="11">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="11">
+        <v>4601</v>
+      </c>
+      <c r="G46" s="11">
+        <v>6451</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="11">
+        <v>6452</v>
+      </c>
+      <c r="G47" s="11">
+        <v>6832</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" s="11">
+        <v>6833</v>
+      </c>
+      <c r="G48" s="11">
+        <v>6901</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="F49" s="11">
+        <v>6902</v>
+      </c>
+      <c r="G49" s="11">
+        <v>7654</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="14" customHeight="1">
+      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="F50" s="11">
+        <v>7655</v>
+      </c>
+      <c r="G50" s="11">
+        <v>10363</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="F51" s="11">
+        <v>10367</v>
+      </c>
+      <c r="G51" s="11">
+        <v>10794</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="7">
+        <v>1</v>
+      </c>
+      <c r="G52" s="7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="7">
         <v>97</v>
       </c>
-      <c r="F2" s="10">
+      <c r="G53" s="7">
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="7">
+        <v>526</v>
+      </c>
+      <c r="G54" s="7">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="7">
+        <v>955</v>
+      </c>
+      <c r="G55" s="7">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="16" customHeight="1">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="7">
+        <v>2251</v>
+      </c>
+      <c r="G56" s="7">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="7">
+        <v>3421</v>
+      </c>
+      <c r="G57" s="7">
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="7">
+        <v>4042</v>
+      </c>
+      <c r="G58" s="7">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="7">
+        <v>4489</v>
+      </c>
+      <c r="G59" s="7">
+        <v>6249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="7">
+        <v>6250</v>
+      </c>
+      <c r="G60" s="7">
+        <v>6654</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" s="7">
+        <v>6655</v>
+      </c>
+      <c r="G61" s="7">
+        <v>6723</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="F62" s="7">
+        <v>6724</v>
+      </c>
+      <c r="G62" s="7">
+        <v>7503</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="F63" s="7">
+        <v>7504</v>
+      </c>
+      <c r="G63" s="7">
+        <v>10167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="10">
-        <v>526</v>
-      </c>
-      <c r="F3" s="10">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="F64" s="7">
+        <v>10168</v>
+      </c>
+      <c r="G64" s="7">
+        <v>11375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" t="s">
+        <v>119</v>
+      </c>
+      <c r="D65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" s="10">
+        <v>1</v>
+      </c>
+      <c r="G65" s="10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" t="s">
+        <v>119</v>
+      </c>
+      <c r="D66" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="9">
+        <v>112</v>
+      </c>
+      <c r="G66" s="9">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" t="s">
+        <v>119</v>
+      </c>
+      <c r="D67" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" s="9">
+        <v>442</v>
+      </c>
+      <c r="G67" s="9">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" s="9">
+        <v>946</v>
+      </c>
+      <c r="G68" s="9">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="9">
+        <v>2437</v>
+      </c>
+      <c r="G69" s="9">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70" t="s">
+        <v>119</v>
+      </c>
+      <c r="D70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" s="9">
+        <v>3496</v>
+      </c>
+      <c r="G70" s="9">
+        <v>4185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" t="s">
+        <v>119</v>
+      </c>
+      <c r="D71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="9">
+        <v>4186</v>
+      </c>
+      <c r="G71" s="9">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>126</v>
+      </c>
+      <c r="B72" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" t="s">
+        <v>119</v>
+      </c>
+      <c r="D72" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="9">
+        <v>4579</v>
+      </c>
+      <c r="G72" s="9">
+        <v>6444</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" t="s">
+        <v>119</v>
+      </c>
+      <c r="D73" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="9">
+        <v>6445</v>
+      </c>
+      <c r="G73" s="9">
+        <v>6822</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" t="s">
+        <v>119</v>
+      </c>
+      <c r="D74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F74" s="9">
+        <v>6823</v>
+      </c>
+      <c r="G74" s="9">
+        <v>6891</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>129</v>
+      </c>
+      <c r="B75" t="s">
+        <v>118</v>
+      </c>
+      <c r="C75" t="s">
+        <v>119</v>
+      </c>
+      <c r="D75" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="F75" s="9">
+        <v>6892</v>
+      </c>
+      <c r="G75" s="9">
+        <v>7647</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>130</v>
+      </c>
+      <c r="B76" t="s">
+        <v>118</v>
+      </c>
+      <c r="C76" t="s">
+        <v>119</v>
+      </c>
+      <c r="D76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="F76" s="9">
+        <v>7648</v>
+      </c>
+      <c r="G76" s="9">
+        <v>10356</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>131</v>
+      </c>
+      <c r="B77" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" t="s">
+        <v>119</v>
+      </c>
+      <c r="D77" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="10">
-        <v>772</v>
-      </c>
-      <c r="F4" s="10">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="F77" s="9">
+        <v>10357</v>
+      </c>
+      <c r="G77" s="9">
+        <v>10839</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>132</v>
+      </c>
+      <c r="B78" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" t="s">
+        <v>134</v>
+      </c>
+      <c r="D78" t="s">
+        <v>135</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" s="10">
+        <v>1</v>
+      </c>
+      <c r="G78" s="10">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>136</v>
+      </c>
+      <c r="B79" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" t="s">
+        <v>134</v>
+      </c>
+      <c r="D79" t="s">
+        <v>135</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F79" s="9">
+        <v>342</v>
+      </c>
+      <c r="G79" s="9">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>138</v>
+      </c>
+      <c r="B80" t="s">
+        <v>133</v>
+      </c>
+      <c r="C80" t="s">
+        <v>134</v>
+      </c>
+      <c r="D80" t="s">
+        <v>135</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F80" s="9">
+        <v>915</v>
+      </c>
+      <c r="G80" s="9">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81" t="s">
+        <v>133</v>
+      </c>
+      <c r="C81" t="s">
+        <v>134</v>
+      </c>
+      <c r="D81" t="s">
+        <v>135</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F81" s="9">
+        <v>1491</v>
+      </c>
+      <c r="G81" s="9">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>142</v>
+      </c>
+      <c r="B82" t="s">
+        <v>133</v>
+      </c>
+      <c r="C82" t="s">
+        <v>134</v>
+      </c>
+      <c r="D82" t="s">
+        <v>135</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F82" s="9">
+        <v>2580</v>
+      </c>
+      <c r="G82" s="9">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>144</v>
+      </c>
+      <c r="B83" t="s">
+        <v>133</v>
+      </c>
+      <c r="C83" t="s">
+        <v>134</v>
+      </c>
+      <c r="D83" t="s">
+        <v>135</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F83" s="9">
+        <v>2769</v>
+      </c>
+      <c r="G83" s="9">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>146</v>
+      </c>
+      <c r="B84" t="s">
+        <v>133</v>
+      </c>
+      <c r="C84" t="s">
+        <v>134</v>
+      </c>
+      <c r="D84" t="s">
+        <v>135</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="9">
+        <v>3420</v>
+      </c>
+      <c r="G84" s="9">
+        <v>5312</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>147</v>
+      </c>
+      <c r="B85" t="s">
+        <v>133</v>
+      </c>
+      <c r="C85" t="s">
+        <v>134</v>
+      </c>
+      <c r="D85" t="s">
+        <v>135</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="9">
+        <v>5313</v>
+      </c>
+      <c r="G85" s="9">
+        <v>5474</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>148</v>
+      </c>
+      <c r="B86" t="s">
+        <v>133</v>
+      </c>
+      <c r="C86" t="s">
+        <v>134</v>
+      </c>
+      <c r="D86" t="s">
+        <v>135</v>
+      </c>
+      <c r="E86" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="F86" s="9">
+        <v>5475</v>
+      </c>
+      <c r="G86" s="9">
+        <v>6257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>149</v>
+      </c>
+      <c r="B87" t="s">
+        <v>133</v>
+      </c>
+      <c r="C87" t="s">
+        <v>134</v>
+      </c>
+      <c r="D87" t="s">
+        <v>135</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F87" s="9">
+        <v>6258</v>
+      </c>
+      <c r="G87" s="9">
+        <v>7601</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>151</v>
+      </c>
+      <c r="B88" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" t="s">
+        <v>134</v>
+      </c>
+      <c r="D88" t="s">
+        <v>135</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F88" s="9">
+        <v>7602</v>
+      </c>
+      <c r="G88" s="9">
+        <v>9374</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>153</v>
+      </c>
+      <c r="B89" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89" t="s">
+        <v>134</v>
+      </c>
+      <c r="D89" t="s">
+        <v>135</v>
+      </c>
+      <c r="E89" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="10">
-        <v>955</v>
-      </c>
-      <c r="F5" s="10">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="F89" s="9">
+        <v>9378</v>
+      </c>
+      <c r="G89" s="9">
+        <v>9646</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>154</v>
+      </c>
+      <c r="B90" t="s">
+        <v>155</v>
+      </c>
+      <c r="C90" t="s">
+        <v>156</v>
+      </c>
+      <c r="D90" t="s">
+        <v>157</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F90" s="10">
+        <v>1</v>
+      </c>
+      <c r="G90" s="10">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>158</v>
+      </c>
+      <c r="B91" t="s">
+        <v>159</v>
+      </c>
+      <c r="C91" t="s">
+        <v>160</v>
+      </c>
+      <c r="D91" t="s">
+        <v>157</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F91" s="9">
+        <v>328</v>
+      </c>
+      <c r="G91" s="9">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>162</v>
+      </c>
+      <c r="B92" t="s">
+        <v>163</v>
+      </c>
+      <c r="C92" t="s">
+        <v>164</v>
+      </c>
+      <c r="D92" t="s">
+        <v>157</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F92" s="9">
+        <v>565</v>
+      </c>
+      <c r="G92" s="9">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>165</v>
+      </c>
+      <c r="B93" t="s">
+        <v>166</v>
+      </c>
+      <c r="C93" t="s">
+        <v>167</v>
+      </c>
+      <c r="D93" t="s">
+        <v>157</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F93" s="9">
+        <v>1138</v>
+      </c>
+      <c r="G93" s="9">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>168</v>
+      </c>
+      <c r="B94" t="s">
+        <v>169</v>
+      </c>
+      <c r="C94" t="s">
+        <v>170</v>
+      </c>
+      <c r="D94" t="s">
+        <v>157</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F94" s="9">
+        <v>2200</v>
+      </c>
+      <c r="G94" s="9">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" t="s">
+        <v>173</v>
+      </c>
+      <c r="C95" t="s">
+        <v>174</v>
+      </c>
+      <c r="D95" t="s">
+        <v>157</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F95" s="9">
+        <v>2911</v>
+      </c>
+      <c r="G95" s="9">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>175</v>
+      </c>
+      <c r="B96" t="s">
+        <v>176</v>
+      </c>
+      <c r="C96" t="s">
+        <v>177</v>
+      </c>
+      <c r="D96" t="s">
+        <v>157</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="9">
+        <v>3631</v>
+      </c>
+      <c r="G96" s="9">
+        <v>5514</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>178</v>
+      </c>
+      <c r="B97" t="s">
+        <v>179</v>
+      </c>
+      <c r="C97" t="s">
+        <v>180</v>
+      </c>
+      <c r="D97" t="s">
+        <v>157</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="9">
+        <v>5515</v>
+      </c>
+      <c r="G97" s="9">
+        <v>5637</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>181</v>
+      </c>
+      <c r="B98" t="s">
+        <v>182</v>
+      </c>
+      <c r="C98" t="s">
+        <v>183</v>
+      </c>
+      <c r="D98" t="s">
+        <v>157</v>
+      </c>
+      <c r="E98" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="F98" s="9">
+        <v>5638</v>
+      </c>
+      <c r="G98" s="9">
+        <v>6423</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>184</v>
+      </c>
+      <c r="B99" t="s">
+        <v>185</v>
+      </c>
+      <c r="C99" t="s">
+        <v>186</v>
+      </c>
+      <c r="D99" t="s">
+        <v>157</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F99" s="9">
+        <v>6424</v>
+      </c>
+      <c r="G99" s="9">
+        <v>7797</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>187</v>
+      </c>
+      <c r="B100" t="s">
+        <v>188</v>
+      </c>
+      <c r="C100" t="s">
+        <v>189</v>
+      </c>
+      <c r="D100" t="s">
+        <v>157</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F100" s="9">
+        <v>7798</v>
+      </c>
+      <c r="G100" s="9">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>190</v>
+      </c>
+      <c r="B101" t="s">
+        <v>191</v>
+      </c>
+      <c r="C101" t="s">
+        <v>192</v>
+      </c>
+      <c r="D101" t="s">
+        <v>157</v>
+      </c>
+      <c r="E101" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="10">
-        <v>2251</v>
-      </c>
-      <c r="F6" s="10">
-        <v>3420</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="F101" s="9">
+        <v>9502</v>
+      </c>
+      <c r="G101" s="9">
+        <v>9867</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>193</v>
+      </c>
+      <c r="B102" t="s">
+        <v>194</v>
+      </c>
+      <c r="C102" t="s">
+        <v>195</v>
+      </c>
+      <c r="D102" t="s">
+        <v>196</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F102" s="10">
+        <v>1</v>
+      </c>
+      <c r="G102" s="10">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>197</v>
+      </c>
+      <c r="B103" t="s">
+        <v>198</v>
+      </c>
+      <c r="C103" t="s">
+        <v>199</v>
+      </c>
+      <c r="D103" t="s">
+        <v>196</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" s="9">
+        <v>386</v>
+      </c>
+      <c r="G103" s="9">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>201</v>
+      </c>
+      <c r="B104" t="s">
+        <v>202</v>
+      </c>
+      <c r="C104" t="s">
+        <v>203</v>
+      </c>
+      <c r="D104" t="s">
+        <v>196</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" s="9">
+        <v>890</v>
+      </c>
+      <c r="G104" s="9">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>204</v>
+      </c>
+      <c r="B105" t="s">
+        <v>205</v>
+      </c>
+      <c r="C105" t="s">
+        <v>206</v>
+      </c>
+      <c r="D105" t="s">
+        <v>196</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F105" s="9">
+        <v>1196</v>
+      </c>
+      <c r="G105" s="9">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106" t="s">
+        <v>210</v>
+      </c>
+      <c r="D106" t="s">
+        <v>196</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F106" s="9">
+        <v>1877</v>
+      </c>
+      <c r="G106" s="9">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>211</v>
+      </c>
+      <c r="B107" t="s">
+        <v>212</v>
+      </c>
+      <c r="C107" t="s">
+        <v>213</v>
+      </c>
+      <c r="D107" t="s">
+        <v>196</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F107" s="9">
+        <v>2462</v>
+      </c>
+      <c r="G107" s="9">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" t="s">
+        <v>215</v>
+      </c>
+      <c r="C108" t="s">
+        <v>216</v>
+      </c>
+      <c r="D108" t="s">
+        <v>196</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F108" s="9">
+        <v>3584</v>
+      </c>
+      <c r="G108" s="9">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>217</v>
+      </c>
+      <c r="B109" t="s">
+        <v>218</v>
+      </c>
+      <c r="C109" t="s">
+        <v>219</v>
+      </c>
+      <c r="D109" t="s">
+        <v>196</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="9">
+        <v>3794</v>
+      </c>
+      <c r="G109" s="9">
+        <v>7471</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>220</v>
+      </c>
+      <c r="B110" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110" t="s">
+        <v>222</v>
+      </c>
+      <c r="D110" t="s">
+        <v>196</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" s="9">
+        <v>7472</v>
+      </c>
+      <c r="G110" s="9">
+        <v>7663</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>223</v>
+      </c>
+      <c r="B111" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111" t="s">
+        <v>225</v>
+      </c>
+      <c r="D111" t="s">
+        <v>196</v>
+      </c>
+      <c r="E111" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="F111" s="9">
+        <v>7664</v>
+      </c>
+      <c r="G111" s="9">
+        <v>8704</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>226</v>
+      </c>
+      <c r="B112" t="s">
+        <v>227</v>
+      </c>
+      <c r="C112" t="s">
+        <v>228</v>
+      </c>
+      <c r="D112" t="s">
+        <v>196</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F112" s="9">
+        <v>8705</v>
+      </c>
+      <c r="G112" s="9">
+        <v>10192</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>229</v>
+      </c>
+      <c r="B113" t="s">
+        <v>230</v>
+      </c>
+      <c r="C113" t="s">
+        <v>231</v>
+      </c>
+      <c r="D113" t="s">
+        <v>196</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F113" s="9">
+        <v>10193</v>
+      </c>
+      <c r="G113" s="9">
+        <v>12349</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>232</v>
+      </c>
+      <c r="B114" t="s">
+        <v>233</v>
+      </c>
+      <c r="C114" t="s">
+        <v>234</v>
+      </c>
+      <c r="D114" t="s">
+        <v>196</v>
+      </c>
+      <c r="E114" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="10">
-        <v>4117</v>
-      </c>
-      <c r="F7" s="10">
-        <v>4488</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="10">
-        <v>4489</v>
-      </c>
-      <c r="F8" s="10">
-        <v>6219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="10">
-        <v>4489</v>
-      </c>
-      <c r="F9" s="10">
-        <v>6219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="10">
-        <v>6220</v>
-      </c>
-      <c r="F10" s="10">
-        <v>6723</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="10">
-        <v>6724</v>
-      </c>
-      <c r="F11" s="10">
-        <v>7506</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="10">
-        <v>7507</v>
-      </c>
-      <c r="F12" s="10">
-        <v>10167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="10">
-        <v>10168</v>
-      </c>
-      <c r="F13" s="10">
-        <v>11375</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="7"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="8"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="8"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="8"/>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="2:5">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="2:5">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="2:5" ht="14" customHeight="1">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="8"/>
-    </row>
-    <row r="54" spans="2:5">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="2:5">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="8"/>
-    </row>
-    <row r="56" spans="2:5">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="8"/>
-    </row>
-    <row r="57" spans="2:5">
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="8"/>
-    </row>
-    <row r="58" spans="2:5">
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="8"/>
-    </row>
-    <row r="59" spans="2:5" ht="16" customHeight="1">
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="8"/>
-    </row>
-    <row r="60" spans="2:5">
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="8"/>
-    </row>
-    <row r="61" spans="2:5">
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="2:5">
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="8"/>
-    </row>
-    <row r="63" spans="2:5">
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="8"/>
-    </row>
-    <row r="64" spans="2:5">
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="8"/>
-    </row>
-    <row r="66" spans="2:4">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="8"/>
-    </row>
-    <row r="67" spans="2:4">
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="8"/>
-    </row>
-    <row r="68" spans="2:4">
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="8"/>
-    </row>
-    <row r="69" spans="2:4">
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="2:4">
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="8"/>
-    </row>
-    <row r="71" spans="2:4">
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="8"/>
-    </row>
-    <row r="72" spans="2:4">
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="8"/>
-    </row>
-    <row r="73" spans="2:4">
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="8"/>
-    </row>
-    <row r="74" spans="2:4">
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="8"/>
-    </row>
-    <row r="75" spans="2:4">
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="8"/>
-    </row>
-    <row r="76" spans="2:4">
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="8"/>
-    </row>
-    <row r="77" spans="2:4">
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="8"/>
-    </row>
-    <row r="78" spans="2:4">
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="8"/>
-    </row>
-    <row r="79" spans="2:4">
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="8"/>
-    </row>
-    <row r="80" spans="2:4">
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="8"/>
-    </row>
-    <row r="81" spans="2:4">
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="8"/>
-    </row>
-    <row r="82" spans="2:4">
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="8"/>
-    </row>
-    <row r="83" spans="2:4">
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="8"/>
-    </row>
-    <row r="84" spans="2:4">
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="8"/>
-    </row>
-    <row r="85" spans="2:4">
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="8"/>
-    </row>
-    <row r="86" spans="2:4">
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="8"/>
-    </row>
-    <row r="87" spans="2:4">
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="8"/>
-    </row>
-    <row r="88" spans="2:4">
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="8"/>
-    </row>
-    <row r="89" spans="2:4">
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="8"/>
-    </row>
-    <row r="90" spans="2:4">
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="8"/>
-    </row>
-    <row r="91" spans="2:4">
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="8"/>
-    </row>
-    <row r="92" spans="2:4">
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="8"/>
-    </row>
-    <row r="93" spans="2:4">
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="8"/>
-    </row>
-    <row r="94" spans="2:4">
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="8"/>
-    </row>
-    <row r="95" spans="2:4">
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="8"/>
-    </row>
-    <row r="96" spans="2:4">
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="8"/>
-    </row>
-    <row r="97" spans="2:4">
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="8"/>
-    </row>
-    <row r="98" spans="2:4">
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="8"/>
-    </row>
-    <row r="99" spans="2:4">
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="8"/>
-    </row>
-    <row r="100" spans="2:4">
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="8"/>
-    </row>
-    <row r="101" spans="2:4">
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="8"/>
-    </row>
-    <row r="102" spans="2:4">
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="8"/>
-    </row>
-    <row r="103" spans="2:4">
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="8"/>
-    </row>
-    <row r="104" spans="2:4">
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="8"/>
-    </row>
-    <row r="105" spans="2:4">
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="8"/>
-    </row>
-    <row r="106" spans="2:4">
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="8"/>
-    </row>
-    <row r="107" spans="2:4">
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="8"/>
-    </row>
-    <row r="108" spans="2:4">
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="8"/>
-    </row>
-    <row r="109" spans="2:4">
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="8"/>
-    </row>
-    <row r="110" spans="2:4">
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="8"/>
-    </row>
-    <row r="111" spans="2:4">
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="8"/>
+      <c r="F114" s="9">
+        <v>12360</v>
+      </c>
+      <c r="G114" s="9">
+        <v>12573</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4">
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="5"/>
+    </row>
+    <row r="185" spans="2:4">
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="5"/>
+    </row>
+    <row r="186" spans="2:4">
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="5"/>
     </row>
     <row r="187" spans="2:4">
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
-      <c r="D187" s="8"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="5"/>
     </row>
     <row r="188" spans="2:4">
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="8"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="5"/>
     </row>
     <row r="189" spans="2:4">
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="8"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="5"/>
     </row>
     <row r="190" spans="2:4">
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="8"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="5"/>
     </row>
     <row r="191" spans="2:4">
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="8"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="5"/>
     </row>
     <row r="192" spans="2:4">
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-      <c r="D192" s="8"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="5"/>
     </row>
     <row r="193" spans="2:4">
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="8"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="5"/>
     </row>
     <row r="194" spans="2:4">
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="8"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="5"/>
     </row>
     <row r="195" spans="2:4">
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="8"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="5"/>
     </row>
     <row r="196" spans="2:4">
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="8"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="5"/>
     </row>
     <row r="197" spans="2:4">
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="8"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="5"/>
     </row>
     <row r="198" spans="2:4">
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
-      <c r="D198" s="8"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="5"/>
     </row>
     <row r="199" spans="2:4">
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="8"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="5"/>
     </row>
     <row r="200" spans="2:4">
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="8"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="5"/>
     </row>
     <row r="201" spans="2:4">
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="8"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="5"/>
     </row>
     <row r="202" spans="2:4">
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="8"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="5"/>
     </row>
     <row r="203" spans="2:4">
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="8"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="5"/>
     </row>
     <row r="204" spans="2:4">
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="8"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="5"/>
     </row>
     <row r="205" spans="2:4">
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="8"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="5"/>
     </row>
     <row r="206" spans="2:4">
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="8"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="5"/>
     </row>
     <row r="207" spans="2:4">
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="8"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="5"/>
     </row>
     <row r="208" spans="2:4">
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="8"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
     </row>
     <row r="209" spans="2:4">
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="8"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="5"/>
     </row>
     <row r="210" spans="2:4">
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
-      <c r="D210" s="8"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="5"/>
     </row>
     <row r="211" spans="2:4">
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="5"/>
     </row>
     <row r="212" spans="2:4">
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="8"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="5"/>
     </row>
     <row r="213" spans="2:4">
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="8"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="5"/>
     </row>
     <row r="214" spans="2:4">
-      <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
-      <c r="D214" s="8"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="5"/>
     </row>
     <row r="215" spans="2:4">
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
-      <c r="D215" s="8"/>
-    </row>
-    <row r="216" spans="2:4">
-      <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
-      <c r="D216" s="8"/>
-    </row>
-    <row r="217" spans="2:4">
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="8"/>
-    </row>
-    <row r="218" spans="2:4">
-      <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="8"/>
-    </row>
-    <row r="901" spans="5:5">
-      <c r="E901" s="2"/>
-    </row>
-    <row r="1037" spans="2:3">
-      <c r="B1037" s="2"/>
-      <c r="C1037" s="2"/>
-    </row>
-    <row r="1038" spans="2:3">
-      <c r="B1038" s="2"/>
-      <c r="C1038" s="2"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="5"/>
+    </row>
+    <row r="898" spans="5:5">
+      <c r="E898" s="1"/>
+    </row>
+    <row r="1034" spans="2:3">
+      <c r="B1034" s="1"/>
+      <c r="C1034" s="1"/>
+    </row>
+    <row r="1035" spans="2:3">
+      <c r="B1035" s="1"/>
+      <c r="C1035" s="1"/>
+    </row>
+    <row r="1160" spans="2:3">
+      <c r="B1160" s="1"/>
+      <c r="C1160" s="1"/>
+    </row>
+    <row r="1161" spans="2:3">
+      <c r="B1161" s="1"/>
+      <c r="C1161" s="1"/>
+    </row>
+    <row r="1162" spans="2:3">
+      <c r="B1162" s="1"/>
+      <c r="C1162" s="1"/>
     </row>
     <row r="1163" spans="2:3">
-      <c r="B1163" s="2"/>
-      <c r="C1163" s="2"/>
+      <c r="B1163" s="1"/>
+      <c r="C1163" s="1"/>
     </row>
     <row r="1164" spans="2:3">
-      <c r="B1164" s="2"/>
-      <c r="C1164" s="2"/>
+      <c r="B1164" s="1"/>
+      <c r="C1164" s="1"/>
     </row>
     <row r="1165" spans="2:3">
-      <c r="B1165" s="2"/>
-      <c r="C1165" s="2"/>
-    </row>
-    <row r="1166" spans="2:3">
-      <c r="B1166" s="2"/>
-      <c r="C1166" s="2"/>
-    </row>
-    <row r="1167" spans="2:3">
-      <c r="B1167" s="2"/>
-      <c r="C1167" s="2"/>
-    </row>
-    <row r="1168" spans="2:3">
-      <c r="B1168" s="2"/>
-      <c r="C1168" s="2"/>
-    </row>
-    <row r="1213" spans="5:6">
-      <c r="E1213" s="2"/>
-      <c r="F1213" s="2"/>
-    </row>
-    <row r="1214" spans="5:6">
-      <c r="E1214" s="2"/>
-      <c r="F1214" s="2"/>
-    </row>
-    <row r="1215" spans="5:6">
-      <c r="E1215" s="2"/>
-      <c r="F1215" s="2"/>
+      <c r="B1165" s="1"/>
+      <c r="C1165" s="1"/>
+    </row>
+    <row r="1210" spans="2:6">
+      <c r="E1210" s="1"/>
+      <c r="F1210" s="1"/>
+    </row>
+    <row r="1211" spans="2:6">
+      <c r="E1211" s="1"/>
+      <c r="F1211" s="1"/>
+    </row>
+    <row r="1212" spans="2:6">
+      <c r="E1212" s="1"/>
+      <c r="F1212" s="1"/>
+    </row>
+    <row r="1214" spans="2:6">
+      <c r="B1214" s="1"/>
+      <c r="C1214" s="1"/>
+    </row>
+    <row r="1215" spans="2:6">
+      <c r="B1215" s="1"/>
+      <c r="C1215" s="1"/>
+    </row>
+    <row r="1216" spans="2:6">
+      <c r="B1216" s="1"/>
+      <c r="C1216" s="1"/>
     </row>
     <row r="1217" spans="2:3">
-      <c r="B1217" s="2"/>
-      <c r="C1217" s="2"/>
+      <c r="B1217" s="1"/>
+      <c r="C1217" s="1"/>
     </row>
     <row r="1218" spans="2:3">
-      <c r="B1218" s="2"/>
-      <c r="C1218" s="2"/>
-    </row>
-    <row r="1219" spans="2:3">
-      <c r="B1219" s="2"/>
-      <c r="C1219" s="2"/>
-    </row>
-    <row r="1220" spans="2:3">
-      <c r="B1220" s="2"/>
-      <c r="C1220" s="2"/>
-    </row>
-    <row r="1221" spans="2:3">
-      <c r="B1221" s="2"/>
-      <c r="C1221" s="2"/>
+      <c r="B1218" s="1"/>
+      <c r="C1218" s="1"/>
+    </row>
+    <row r="1237" spans="2:3">
+      <c r="B1237" s="1"/>
+      <c r="C1237" s="1"/>
+    </row>
+    <row r="1238" spans="2:3">
+      <c r="B1238" s="1"/>
+      <c r="C1238" s="1"/>
+    </row>
+    <row r="1239" spans="2:3">
+      <c r="B1239" s="1"/>
+      <c r="C1239" s="1"/>
     </row>
     <row r="1240" spans="2:3">
-      <c r="B1240" s="2"/>
-      <c r="C1240" s="2"/>
+      <c r="B1240" s="1"/>
+      <c r="C1240" s="1"/>
     </row>
     <row r="1241" spans="2:3">
-      <c r="B1241" s="2"/>
-      <c r="C1241" s="2"/>
+      <c r="B1241" s="1"/>
+      <c r="C1241" s="1"/>
     </row>
     <row r="1242" spans="2:3">
-      <c r="B1242" s="2"/>
-      <c r="C1242" s="2"/>
+      <c r="B1242" s="1"/>
+      <c r="C1242" s="1"/>
     </row>
     <row r="1243" spans="2:3">
-      <c r="B1243" s="2"/>
-      <c r="C1243" s="2"/>
-    </row>
-    <row r="1244" spans="2:3">
-      <c r="B1244" s="2"/>
-      <c r="C1244" s="2"/>
+      <c r="B1243" s="1"/>
+      <c r="C1243" s="1"/>
     </row>
     <row r="1245" spans="2:3">
-      <c r="B1245" s="2"/>
-      <c r="C1245" s="2"/>
+      <c r="B1245" s="1"/>
+      <c r="C1245" s="1"/>
     </row>
     <row r="1246" spans="2:3">
-      <c r="B1246" s="2"/>
-      <c r="C1246" s="2"/>
+      <c r="B1246" s="1"/>
+      <c r="C1246" s="1"/>
+    </row>
+    <row r="1247" spans="2:3">
+      <c r="B1247" s="1"/>
+      <c r="C1247" s="1"/>
     </row>
     <row r="1248" spans="2:3">
-      <c r="B1248" s="2"/>
-      <c r="C1248" s="2"/>
+      <c r="B1248" s="1"/>
+      <c r="C1248" s="1"/>
     </row>
     <row r="1249" spans="2:3">
-      <c r="B1249" s="2"/>
-      <c r="C1249" s="2"/>
+      <c r="B1249" s="1"/>
+      <c r="C1249" s="1"/>
     </row>
     <row r="1250" spans="2:3">
-      <c r="B1250" s="2"/>
-      <c r="C1250" s="2"/>
-    </row>
-    <row r="1251" spans="2:3">
-      <c r="B1251" s="2"/>
-      <c r="C1251" s="2"/>
-    </row>
-    <row r="1252" spans="2:3">
-      <c r="B1252" s="2"/>
-      <c r="C1252" s="2"/>
-    </row>
-    <row r="1253" spans="2:3">
-      <c r="B1253" s="2"/>
-      <c r="C1253" s="2"/>
+      <c r="B1250" s="1"/>
+      <c r="C1250" s="1"/>
+    </row>
+    <row r="1302" spans="2:3">
+      <c r="B1302" s="1"/>
+      <c r="C1302" s="1"/>
+    </row>
+    <row r="1303" spans="2:3">
+      <c r="B1303" s="1"/>
+      <c r="C1303" s="1"/>
+    </row>
+    <row r="1304" spans="2:3">
+      <c r="B1304" s="1"/>
+      <c r="C1304" s="1"/>
     </row>
     <row r="1305" spans="2:3">
-      <c r="B1305" s="2"/>
-      <c r="C1305" s="2"/>
-    </row>
-    <row r="1306" spans="2:3">
-      <c r="B1306" s="2"/>
-      <c r="C1306" s="2"/>
+      <c r="B1305" s="1"/>
+      <c r="C1305" s="1"/>
     </row>
     <row r="1307" spans="2:3">
-      <c r="B1307" s="2"/>
-      <c r="C1307" s="2"/>
+      <c r="B1307" s="1"/>
+      <c r="C1307" s="1"/>
     </row>
     <row r="1308" spans="2:3">
-      <c r="B1308" s="2"/>
-      <c r="C1308" s="2"/>
+      <c r="B1308" s="1"/>
+      <c r="C1308" s="1"/>
+    </row>
+    <row r="1309" spans="2:3">
+      <c r="B1309" s="1"/>
+      <c r="C1309" s="1"/>
     </row>
     <row r="1310" spans="2:3">
-      <c r="B1310" s="2"/>
-      <c r="C1310" s="2"/>
-    </row>
-    <row r="1311" spans="2:3">
-      <c r="B1311" s="2"/>
-      <c r="C1311" s="2"/>
-    </row>
-    <row r="1312" spans="2:3">
-      <c r="B1312" s="2"/>
-      <c r="C1312" s="2"/>
-    </row>
-    <row r="1313" spans="2:3">
-      <c r="B1313" s="2"/>
-      <c r="C1313" s="2"/>
+      <c r="B1310" s="1"/>
+      <c r="C1310" s="1"/>
+    </row>
+    <row r="1345" spans="2:3">
+      <c r="B1345" s="1"/>
+      <c r="C1345" s="1"/>
+    </row>
+    <row r="1346" spans="2:3">
+      <c r="B1346" s="1"/>
+      <c r="C1346" s="1"/>
+    </row>
+    <row r="1347" spans="2:3">
+      <c r="B1347" s="1"/>
+      <c r="C1347" s="1"/>
     </row>
     <row r="1348" spans="2:3">
-      <c r="B1348" s="2"/>
-      <c r="C1348" s="2"/>
+      <c r="B1348" s="1"/>
+      <c r="C1348" s="1"/>
     </row>
     <row r="1349" spans="2:3">
-      <c r="B1349" s="2"/>
-      <c r="C1349" s="2"/>
+      <c r="B1349" s="1"/>
+      <c r="C1349" s="1"/>
     </row>
     <row r="1350" spans="2:3">
-      <c r="B1350" s="2"/>
-      <c r="C1350" s="2"/>
-    </row>
-    <row r="1351" spans="2:3">
-      <c r="B1351" s="2"/>
-      <c r="C1351" s="2"/>
-    </row>
-    <row r="1352" spans="2:3">
-      <c r="B1352" s="2"/>
-      <c r="C1352" s="2"/>
-    </row>
-    <row r="1353" spans="2:3">
-      <c r="B1353" s="2"/>
-      <c r="C1353" s="2"/>
+      <c r="B1350" s="1"/>
+      <c r="C1350" s="1"/>
+    </row>
+    <row r="1392" spans="5:6">
+      <c r="E1392" s="1"/>
+      <c r="F1392" s="1"/>
+    </row>
+    <row r="1393" spans="4:6">
+      <c r="D1393" s="6"/>
+      <c r="E1393" s="1"/>
+      <c r="F1393" s="1"/>
+    </row>
+    <row r="1394" spans="4:6">
+      <c r="D1394" s="6"/>
+      <c r="E1394" s="1"/>
+      <c r="F1394" s="1"/>
     </row>
     <row r="1395" spans="4:6">
-      <c r="E1395" s="2"/>
-      <c r="F1395" s="2"/>
+      <c r="D1395" s="6"/>
+      <c r="E1395" s="1"/>
+      <c r="F1395" s="1"/>
     </row>
     <row r="1396" spans="4:6">
-      <c r="D1396" s="9"/>
-      <c r="E1396" s="2"/>
-      <c r="F1396" s="2"/>
-    </row>
-    <row r="1397" spans="4:6">
-      <c r="D1397" s="9"/>
-      <c r="E1397" s="2"/>
-      <c r="F1397" s="2"/>
-    </row>
-    <row r="1398" spans="4:6">
-      <c r="D1398" s="9"/>
-      <c r="E1398" s="2"/>
-      <c r="F1398" s="2"/>
-    </row>
-    <row r="1399" spans="4:6">
-      <c r="E1399" s="2"/>
-      <c r="F1399" s="2"/>
+      <c r="E1396" s="1"/>
+      <c r="F1396" s="1"/>
+    </row>
+    <row r="1459" spans="2:3">
+      <c r="B1459" s="1"/>
+      <c r="C1459" s="1"/>
+    </row>
+    <row r="1460" spans="2:3">
+      <c r="B1460" s="1"/>
+      <c r="C1460" s="1"/>
+    </row>
+    <row r="1461" spans="2:3">
+      <c r="B1461" s="1"/>
+      <c r="C1461" s="1"/>
     </row>
     <row r="1462" spans="2:3">
-      <c r="B1462" s="2"/>
-      <c r="C1462" s="2"/>
-    </row>
-    <row r="1463" spans="2:3">
-      <c r="B1463" s="2"/>
-      <c r="C1463" s="2"/>
-    </row>
-    <row r="1464" spans="2:3">
-      <c r="B1464" s="2"/>
-      <c r="C1464" s="2"/>
-    </row>
-    <row r="1465" spans="2:3">
-      <c r="B1465" s="2"/>
-      <c r="C1465" s="2"/>
+      <c r="B1462" s="1"/>
+      <c r="C1462" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5376,66 +7984,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1">
-        <v>740</v>
-      </c>
-      <c r="D1">
-        <v>2920</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>2661</v>
-      </c>
-      <c r="D2">
-        <v>3302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>3286</v>
-      </c>
-      <c r="D3">
-        <v>5307</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/tabular/flavi-reference_feature_locations.xlsx
+++ b/tabular/flavi-reference_feature_locations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16180" yWindow="2660" windowWidth="27820" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="27680" yWindow="1480" windowWidth="27820" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="63">
   <si>
     <t>featureName</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Genus</t>
   </si>
   <si>
-    <t>NC_001563.2</t>
-  </si>
-  <si>
     <t>West Nile virus</t>
   </si>
   <si>
@@ -90,52 +87,16 @@
     <t>5UTR</t>
   </si>
   <si>
-    <t>NC_001563.3</t>
-  </si>
-  <si>
     <t>protein C</t>
-  </si>
-  <si>
-    <t>NC_001563.4</t>
   </si>
   <si>
     <t>precursor M</t>
   </si>
   <si>
-    <t>NC_001563.5</t>
-  </si>
-  <si>
     <t>envelope protein E</t>
   </si>
   <si>
-    <t>NC_001563.6</t>
-  </si>
-  <si>
-    <t>NC_001563.7</t>
-  </si>
-  <si>
-    <t>NC_001563.8</t>
-  </si>
-  <si>
-    <t>NC_001563.9</t>
-  </si>
-  <si>
-    <t>NC_001563.10</t>
-  </si>
-  <si>
     <t>2K</t>
-  </si>
-  <si>
-    <t>NC_001563.11</t>
-  </si>
-  <si>
-    <t>NC_001563.12</t>
-  </si>
-  <si>
-    <t>NC_001563.13</t>
-  </si>
-  <si>
-    <t>NC_001477.1</t>
   </si>
   <si>
     <t>Dengue virus 1</t>
@@ -144,151 +105,10 @@
     <t>DENV1</t>
   </si>
   <si>
-    <t>NC_001477.2</t>
-  </si>
-  <si>
-    <t>Dengue virus 2</t>
-  </si>
-  <si>
-    <t>DENV2</t>
-  </si>
-  <si>
-    <t>NC_001477.3</t>
-  </si>
-  <si>
-    <t>Dengue virus 3</t>
-  </si>
-  <si>
-    <t>DENV3</t>
-  </si>
-  <si>
-    <t>NC_001477.4</t>
-  </si>
-  <si>
-    <t>Dengue virus 4</t>
-  </si>
-  <si>
-    <t>DENV4</t>
-  </si>
-  <si>
-    <t>NC_001477.5</t>
-  </si>
-  <si>
-    <t>Dengue virus 5</t>
-  </si>
-  <si>
-    <t>DENV5</t>
-  </si>
-  <si>
-    <t>NC_001477.6</t>
-  </si>
-  <si>
-    <t>Dengue virus 6</t>
-  </si>
-  <si>
-    <t>DENV6</t>
-  </si>
-  <si>
-    <t>NC_001477.7</t>
-  </si>
-  <si>
-    <t>Dengue virus 7</t>
-  </si>
-  <si>
-    <t>DENV7</t>
-  </si>
-  <si>
-    <t>NC_001477.8</t>
-  </si>
-  <si>
-    <t>Dengue virus 8</t>
-  </si>
-  <si>
-    <t>DENV8</t>
-  </si>
-  <si>
-    <t>NC_001477.9</t>
-  </si>
-  <si>
-    <t>Dengue virus 9</t>
-  </si>
-  <si>
-    <t>DENV9</t>
-  </si>
-  <si>
-    <t>NC_001477.10</t>
-  </si>
-  <si>
-    <t>Dengue virus 10</t>
-  </si>
-  <si>
-    <t>DENV10</t>
-  </si>
-  <si>
-    <t>NC_001477.11</t>
-  </si>
-  <si>
-    <t>Dengue virus 11</t>
-  </si>
-  <si>
-    <t>DENV11</t>
-  </si>
-  <si>
-    <t>NC_001477.12</t>
-  </si>
-  <si>
-    <t>Dengue virus 12</t>
-  </si>
-  <si>
-    <t>DENV12</t>
-  </si>
-  <si>
-    <t>NC_002031.1</t>
-  </si>
-  <si>
     <t>Yellow fever virus</t>
   </si>
   <si>
     <t>YFV</t>
-  </si>
-  <si>
-    <t>NC_002031.2</t>
-  </si>
-  <si>
-    <t>NC_002031.3</t>
-  </si>
-  <si>
-    <t>NC_002031.4</t>
-  </si>
-  <si>
-    <t>NC_002031.5</t>
-  </si>
-  <si>
-    <t>NC_002031.6</t>
-  </si>
-  <si>
-    <t>NC_002031.7</t>
-  </si>
-  <si>
-    <t>NC_002031.8</t>
-  </si>
-  <si>
-    <t>NC_002031.9</t>
-  </si>
-  <si>
-    <t>NC_002031.10</t>
-  </si>
-  <si>
-    <t>NC_002031.11</t>
-  </si>
-  <si>
-    <t>NC_002031.12</t>
-  </si>
-  <si>
-    <t>NC_002031.13</t>
-  </si>
-  <si>
-    <t>NC_012532.1</t>
   </si>
   <si>
     <t>Zika virus</t>
@@ -297,130 +117,13 @@
     <t>ZIKV</t>
   </si>
   <si>
-    <t>NC_012532.2</t>
-  </si>
-  <si>
-    <t>NC_012532.3</t>
-  </si>
-  <si>
-    <t>NC_012532.4</t>
-  </si>
-  <si>
-    <t>NC_012532.5</t>
-  </si>
-  <si>
-    <t>NC_012532.6</t>
-  </si>
-  <si>
-    <t>NC_012532.7</t>
-  </si>
-  <si>
-    <t>NC_012532.8</t>
-  </si>
-  <si>
-    <t>NC_012532.9</t>
-  </si>
-  <si>
-    <t>NC_012532.10</t>
-  </si>
-  <si>
-    <t>NC_012532.11</t>
-  </si>
-  <si>
-    <t>NC_012532.12</t>
-  </si>
-  <si>
-    <t>NC_012532.13</t>
-  </si>
-  <si>
-    <t>NC_005064.1</t>
-  </si>
-  <si>
     <t>Kamiti River virus</t>
-  </si>
-  <si>
-    <t>NC_005064.2</t>
-  </si>
-  <si>
-    <t>NC_005064.3</t>
-  </si>
-  <si>
-    <t>NC_005064.4</t>
-  </si>
-  <si>
-    <t>NC_005064.5</t>
-  </si>
-  <si>
-    <t>NC_005064.6</t>
-  </si>
-  <si>
-    <t>NC_005064.7</t>
-  </si>
-  <si>
-    <t>NC_005064.8</t>
-  </si>
-  <si>
-    <t>NC_005064.9</t>
-  </si>
-  <si>
-    <t>NC_005064.10</t>
-  </si>
-  <si>
-    <t>NC_005064.11</t>
-  </si>
-  <si>
-    <t>NC_005064.12</t>
-  </si>
-  <si>
-    <t>NC_005064.13</t>
-  </si>
-  <si>
-    <t>NC_003687.1</t>
   </si>
   <si>
     <t>Powassan virus</t>
   </si>
   <si>
     <t>POWV</t>
-  </si>
-  <si>
-    <t>NC_003687.2</t>
-  </si>
-  <si>
-    <t>NC_003687.3</t>
-  </si>
-  <si>
-    <t>NC_003687.4</t>
-  </si>
-  <si>
-    <t>NC_003687.5</t>
-  </si>
-  <si>
-    <t>NC_003687.6</t>
-  </si>
-  <si>
-    <t>NC_003687.7</t>
-  </si>
-  <si>
-    <t>NC_003687.8</t>
-  </si>
-  <si>
-    <t>NC_003687.9</t>
-  </si>
-  <si>
-    <t>NC_003687.10</t>
-  </si>
-  <si>
-    <t>NC_003687.11</t>
-  </si>
-  <si>
-    <t>NC_003687.12</t>
-  </si>
-  <si>
-    <t>NC_003687.13</t>
-  </si>
-  <si>
-    <t>NC_004102.1</t>
   </si>
   <si>
     <t>Hepatitis C virus</t>
@@ -432,61 +135,25 @@
     <t>Hepacivirus</t>
   </si>
   <si>
-    <t>NC_004102.2</t>
-  </si>
-  <si>
     <t>core</t>
-  </si>
-  <si>
-    <t>NC_004102.3</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>NC_004102.4</t>
-  </si>
-  <si>
     <t>E2</t>
-  </si>
-  <si>
-    <t>NC_004102.5</t>
   </si>
   <si>
     <t>p7</t>
   </si>
   <si>
-    <t>NC_004102.6</t>
-  </si>
-  <si>
     <t>NS2</t>
-  </si>
-  <si>
-    <t>NC_004102.7</t>
-  </si>
-  <si>
-    <t>NC_004102.8</t>
-  </si>
-  <si>
-    <t>NC_004102.9</t>
-  </si>
-  <si>
-    <t>NC_004102.10</t>
   </si>
   <si>
     <t>NS5A</t>
   </si>
   <si>
-    <t>NC_004102.11</t>
-  </si>
-  <si>
     <t>NS5B</t>
-  </si>
-  <si>
-    <t>NC_004102.12</t>
-  </si>
-  <si>
-    <t>NC_027998.2</t>
   </si>
   <si>
     <t>Human pegivirus 2</t>
@@ -498,112 +165,10 @@
     <t>Pegivirus</t>
   </si>
   <si>
-    <t>NC_027998.3</t>
-  </si>
-  <si>
-    <t>Human pegivirus 3</t>
-  </si>
-  <si>
-    <t>HPgV-3</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
-    <t>NC_027998.4</t>
-  </si>
-  <si>
-    <t>Human pegivirus 4</t>
-  </si>
-  <si>
-    <t>HPgV-4</t>
-  </si>
-  <si>
-    <t>NC_027998.5</t>
-  </si>
-  <si>
-    <t>Human pegivirus 5</t>
-  </si>
-  <si>
-    <t>HPgV-5</t>
-  </si>
-  <si>
-    <t>NC_027998.6</t>
-  </si>
-  <si>
-    <t>Human pegivirus 6</t>
-  </si>
-  <si>
-    <t>HPgV-6</t>
-  </si>
-  <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>NC_027998.7</t>
-  </si>
-  <si>
-    <t>Human pegivirus 7</t>
-  </si>
-  <si>
-    <t>HPgV-7</t>
-  </si>
-  <si>
-    <t>NC_027998.8</t>
-  </si>
-  <si>
-    <t>Human pegivirus 8</t>
-  </si>
-  <si>
-    <t>HPgV-8</t>
-  </si>
-  <si>
-    <t>NC_027998.9</t>
-  </si>
-  <si>
-    <t>Human pegivirus 9</t>
-  </si>
-  <si>
-    <t>HPgV-9</t>
-  </si>
-  <si>
-    <t>NC_027998.10</t>
-  </si>
-  <si>
-    <t>Human pegivirus 10</t>
-  </si>
-  <si>
-    <t>HPgV-10</t>
-  </si>
-  <si>
-    <t>NC_027998.11</t>
-  </si>
-  <si>
-    <t>Human pegivirus 11</t>
-  </si>
-  <si>
-    <t>HPgV-11</t>
-  </si>
-  <si>
-    <t>NC_027998.12</t>
-  </si>
-  <si>
-    <t>Human pegivirus 12</t>
-  </si>
-  <si>
-    <t>HPgV-12</t>
-  </si>
-  <si>
-    <t>NC_027998.13</t>
-  </si>
-  <si>
-    <t>Human pegivirus 13</t>
-  </si>
-  <si>
-    <t>HPgV-13</t>
-  </si>
-  <si>
-    <t>NC_001461.1</t>
   </si>
   <si>
     <t>Bovine viral diarrhea virus 1</t>
@@ -615,118 +180,37 @@
     <t>Pestivirus</t>
   </si>
   <si>
-    <t>NC_001461.2</t>
-  </si>
-  <si>
-    <t>Bovine viral diarrhea virus 2</t>
-  </si>
-  <si>
-    <t>BVDV2</t>
-  </si>
-  <si>
     <t>N-pro</t>
-  </si>
-  <si>
-    <t>NC_001461.3</t>
-  </si>
-  <si>
-    <t>Bovine viral diarrhea virus 3</t>
-  </si>
-  <si>
-    <t>BVDV3</t>
-  </si>
-  <si>
-    <t>NC_001461.4</t>
-  </si>
-  <si>
-    <t>Bovine viral diarrhea virus 4</t>
-  </si>
-  <si>
-    <t>BVDV4</t>
   </si>
   <si>
     <t>RNAse</t>
   </si>
   <si>
-    <t>NC_001461.5</t>
+    <t>NC_001477</t>
   </si>
   <si>
-    <t>Bovine viral diarrhea virus 5</t>
+    <t>NC_002031</t>
   </si>
   <si>
-    <t>BVDV5</t>
+    <t>NC_012532</t>
   </si>
   <si>
-    <t>NC_001461.6</t>
+    <t>NC_005064</t>
   </si>
   <si>
-    <t>Bovine viral diarrhea virus 6</t>
+    <t>NC_003687</t>
   </si>
   <si>
-    <t>BVDV6</t>
+    <t>NC_004102</t>
   </si>
   <si>
-    <t>NC_001461.7</t>
+    <t>NC_001461</t>
   </si>
   <si>
-    <t>Bovine viral diarrhea virus 7</t>
+    <t>NC_001563</t>
   </si>
   <si>
-    <t>BVDV7</t>
-  </si>
-  <si>
-    <t>NC_001461.8</t>
-  </si>
-  <si>
-    <t>Bovine viral diarrhea virus 8</t>
-  </si>
-  <si>
-    <t>BVDV8</t>
-  </si>
-  <si>
-    <t>NC_001461.9</t>
-  </si>
-  <si>
-    <t>Bovine viral diarrhea virus 9</t>
-  </si>
-  <si>
-    <t>BVDV9</t>
-  </si>
-  <si>
-    <t>NC_001461.10</t>
-  </si>
-  <si>
-    <t>Bovine viral diarrhea virus 10</t>
-  </si>
-  <si>
-    <t>BVDV10</t>
-  </si>
-  <si>
-    <t>NC_001461.11</t>
-  </si>
-  <si>
-    <t>Bovine viral diarrhea virus 11</t>
-  </si>
-  <si>
-    <t>BVDV11</t>
-  </si>
-  <si>
-    <t>NC_001461.12</t>
-  </si>
-  <si>
-    <t>Bovine viral diarrhea virus 12</t>
-  </si>
-  <si>
-    <t>BVDV12</t>
-  </si>
-  <si>
-    <t>NC_001461.13</t>
-  </si>
-  <si>
-    <t>Bovine viral diarrhea virus 13</t>
-  </si>
-  <si>
-    <t>BVDV13</t>
+    <t>NC_027998</t>
   </si>
 </sst>
 </file>
@@ -820,9 +304,57 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1893">
+  <cellStyleXfs count="1941">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2735,7 +2267,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1893">
+  <cellStyles count="1941">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -3683,6 +3215,30 @@
     <cellStyle name="Followed Hyperlink" xfId="1888" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1890" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1892" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1894" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1896" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1898" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1900" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1902" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1904" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1906" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1908" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1910" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1912" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1914" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1916" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1918" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1920" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1922" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1924" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1926" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1928" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1930" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1932" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1934" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1936" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1938" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1940" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -4628,6 +4184,30 @@
     <cellStyle name="Hyperlink" xfId="1887" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1889" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1891" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1893" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1895" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1897" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1899" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1901" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1903" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1905" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1907" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1909" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1911" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1913" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1915" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1917" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1919" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1921" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1923" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1925" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1927" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1929" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1931" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1933" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1935" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1937" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1939" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4964,14 +4544,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1462"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F6" sqref="A1:G114"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89:C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
@@ -5005,19 +4585,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="F2" s="7">
         <v>1</v>
@@ -5028,19 +4608,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="7">
         <v>97</v>
@@ -5051,19 +4631,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F4" s="7">
         <v>466</v>
@@ -5074,19 +4654,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F5" s="7">
         <v>967</v>
@@ -5097,16 +4677,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>5</v>
@@ -5120,16 +4700,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>6</v>
@@ -5143,16 +4723,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>7</v>
@@ -5166,16 +4746,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>8</v>
@@ -5189,19 +4769,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="E10" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F10" s="7">
         <v>6835</v>
@@ -5212,16 +4792,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>10</v>
@@ -5235,16 +4815,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
@@ -5258,16 +4838,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>12</v>
@@ -5281,19 +4861,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
         <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
       </c>
       <c r="F14" s="8">
         <v>1</v>
@@ -5304,19 +4884,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F15">
         <v>95</v>
@@ -5327,19 +4907,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F16">
         <v>437</v>
@@ -5350,19 +4930,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F17">
         <v>935</v>
@@ -5373,16 +4953,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
@@ -5396,16 +4976,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -5419,16 +4999,16 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -5442,16 +5022,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -5465,16 +5045,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -5488,19 +5068,19 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F23">
         <v>6758</v>
@@ -5511,16 +5091,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -5534,16 +5114,16 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -5557,19 +5137,19 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="F26" s="7">
         <v>1</v>
@@ -5580,19 +5160,19 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F27" s="7">
         <v>119</v>
@@ -5603,19 +5183,19 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F28" s="7">
         <v>482</v>
@@ -5626,19 +5206,19 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F29" s="7">
         <v>974</v>
@@ -5649,16 +5229,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>5</v>
@@ -5672,16 +5252,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>6</v>
@@ -5695,16 +5275,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>7</v>
@@ -5718,16 +5298,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>8</v>
@@ -5741,16 +5321,16 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>9</v>
@@ -5764,19 +5344,19 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F35" s="7">
         <v>6818</v>
@@ -5787,16 +5367,16 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>10</v>
@@ -5810,16 +5390,16 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>11</v>
@@ -5833,16 +5413,16 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>12</v>
@@ -5856,19 +5436,19 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
         <v>20</v>
-      </c>
-      <c r="E39" t="s">
-        <v>21</v>
       </c>
       <c r="F39" s="8">
         <v>1</v>
@@ -5879,19 +5459,19 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F40" s="11">
         <v>107</v>
@@ -5902,19 +5482,19 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F41" s="11">
         <v>473</v>
@@ -5925,19 +5505,19 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E42" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F42" s="11">
         <v>977</v>
@@ -5948,16 +5528,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E43" t="s">
         <v>5</v>
@@ -5971,16 +5551,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E44" t="s">
         <v>6</v>
@@ -5994,16 +5574,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E45" t="s">
         <v>7</v>
@@ -6017,16 +5597,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
@@ -6040,16 +5620,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
@@ -6063,19 +5643,19 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F48" s="11">
         <v>6833</v>
@@ -6086,16 +5666,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
@@ -6109,16 +5689,16 @@
     </row>
     <row r="50" spans="1:7" ht="14" customHeight="1">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
@@ -6132,16 +5712,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
@@ -6155,19 +5735,19 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
         <v>3</v>
       </c>
       <c r="D52" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="F52" s="7">
         <v>1</v>
@@ -6178,19 +5758,19 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F53" s="7">
         <v>97</v>
@@ -6201,19 +5781,19 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F54" s="7">
         <v>526</v>
@@ -6224,19 +5804,19 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="C55" t="s">
         <v>3</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F55" s="7">
         <v>955</v>
@@ -6247,16 +5827,16 @@
     </row>
     <row r="56" spans="1:7" ht="16" customHeight="1">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="C56" t="s">
         <v>3</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>5</v>
@@ -6270,16 +5850,16 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="C57" t="s">
         <v>3</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>6</v>
@@ -6293,16 +5873,16 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>7</v>
@@ -6316,16 +5896,16 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="C59" t="s">
         <v>3</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>8</v>
@@ -6339,16 +5919,16 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="C60" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>9</v>
@@ -6362,19 +5942,19 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="C61" t="s">
         <v>3</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F61" s="7">
         <v>6655</v>
@@ -6385,16 +5965,16 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
         <v>3</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>10</v>
@@ -6408,16 +5988,16 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="B63" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
         <v>3</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>11</v>
@@ -6431,16 +6011,16 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
         <v>3</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>12</v>
@@ -6454,19 +6034,19 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="C65" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="F65" s="10">
         <v>1</v>
@@ -6477,19 +6057,19 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="B66" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="C66" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="D66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E66" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F66" s="9">
         <v>112</v>
@@ -6500,19 +6080,19 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="C67" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="D67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E67" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F67" s="9">
         <v>442</v>
@@ -6523,19 +6103,19 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="C68" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="D68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E68" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F68" s="9">
         <v>946</v>
@@ -6546,16 +6126,16 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="B69" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="C69" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="D69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>5</v>
@@ -6569,16 +6149,16 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="B70" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="C70" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>6</v>
@@ -6592,16 +6172,16 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="B71" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="C71" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="D71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>7</v>
@@ -6615,16 +6195,16 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="B72" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="C72" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="D72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>8</v>
@@ -6638,16 +6218,16 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="C73" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="D73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>9</v>
@@ -6661,19 +6241,19 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="B74" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="C74" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="D74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F74" s="9">
         <v>6823</v>
@@ -6684,16 +6264,16 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="B75" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="C75" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="D75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>10</v>
@@ -6707,16 +6287,16 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="B76" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="C76" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="D76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>11</v>
@@ -6730,16 +6310,16 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="B77" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="C77" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="D77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>12</v>
@@ -6753,19 +6333,19 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="B78" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="C78" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="D78" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F78" s="10">
         <v>1</v>
@@ -6776,19 +6356,19 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="B79" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="C79" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="D79" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="F79" s="9">
         <v>342</v>
@@ -6799,19 +6379,19 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="B80" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="C80" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="D80" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="F80" s="9">
         <v>915</v>
@@ -6822,19 +6402,19 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="B81" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="C81" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="D81" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="F81" s="9">
         <v>1491</v>
@@ -6845,19 +6425,19 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="B82" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="C82" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="D82" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="F82" s="9">
         <v>2580</v>
@@ -6868,19 +6448,19 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="B83" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="C83" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="D83" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="F83" s="9">
         <v>2769</v>
@@ -6891,16 +6471,16 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="B84" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="C84" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="D84" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>8</v>
@@ -6914,16 +6494,16 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="B85" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="C85" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="D85" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>9</v>
@@ -6937,16 +6517,16 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="B86" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="C86" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="D86" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>10</v>
@@ -6960,19 +6540,19 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="B87" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="C87" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="D87" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="F87" s="9">
         <v>6258</v>
@@ -6983,19 +6563,19 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="B88" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="C88" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="D88" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="F88" s="9">
         <v>7602</v>
@@ -7006,16 +6586,16 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="B89" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="C89" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="D89" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>12</v>
@@ -7029,19 +6609,19 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="B90" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="C90" t="s">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="D90" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F90" s="10">
         <v>1</v>
@@ -7052,19 +6632,19 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="B91" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="C91" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="D91" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="F91" s="9">
         <v>328</v>
@@ -7075,19 +6655,19 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="B92" t="s">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="C92" t="s">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="D92" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="F92" s="9">
         <v>565</v>
@@ -7098,19 +6678,19 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="B93" t="s">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="C93" t="s">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="D93" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="F93" s="9">
         <v>1138</v>
@@ -7121,19 +6701,19 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="B94" t="s">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="C94" t="s">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="D94" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="F94" s="9">
         <v>2200</v>
@@ -7144,19 +6724,19 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="B95" t="s">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="C95" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="D95" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="F95" s="9">
         <v>2911</v>
@@ -7167,16 +6747,16 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="B96" t="s">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="C96" t="s">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="D96" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>8</v>
@@ -7190,16 +6770,16 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c r="B97" t="s">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="C97" t="s">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="D97" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>9</v>
@@ -7213,16 +6793,16 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>181</v>
+        <v>62</v>
       </c>
       <c r="B98" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="C98" t="s">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="D98" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>10</v>
@@ -7236,19 +6816,19 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>184</v>
+        <v>62</v>
       </c>
       <c r="B99" t="s">
-        <v>185</v>
+        <v>44</v>
       </c>
       <c r="C99" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="D99" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="F99" s="9">
         <v>6424</v>
@@ -7259,19 +6839,19 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c r="B100" t="s">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="C100" t="s">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="D100" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="F100" s="9">
         <v>7798</v>
@@ -7282,16 +6862,16 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="B101" t="s">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="C101" t="s">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="D101" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>12</v>
@@ -7305,19 +6885,19 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>193</v>
+        <v>60</v>
       </c>
       <c r="B102" t="s">
-        <v>194</v>
+        <v>49</v>
       </c>
       <c r="C102" t="s">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="D102" t="s">
-        <v>196</v>
+        <v>51</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F102" s="10">
         <v>1</v>
@@ -7328,19 +6908,19 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>197</v>
+        <v>60</v>
       </c>
       <c r="B103" t="s">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="C103" t="s">
-        <v>199</v>
+        <v>50</v>
       </c>
       <c r="D103" t="s">
-        <v>196</v>
+        <v>51</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="F103" s="9">
         <v>386</v>
@@ -7351,16 +6931,16 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>201</v>
+        <v>60</v>
       </c>
       <c r="B104" t="s">
-        <v>202</v>
+        <v>49</v>
       </c>
       <c r="C104" t="s">
-        <v>203</v>
+        <v>50</v>
       </c>
       <c r="D104" t="s">
-        <v>196</v>
+        <v>51</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>4</v>
@@ -7374,19 +6954,19 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>204</v>
+        <v>60</v>
       </c>
       <c r="B105" t="s">
-        <v>205</v>
+        <v>49</v>
       </c>
       <c r="C105" t="s">
-        <v>206</v>
+        <v>50</v>
       </c>
       <c r="D105" t="s">
-        <v>196</v>
+        <v>51</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>207</v>
+        <v>53</v>
       </c>
       <c r="F105" s="9">
         <v>1196</v>
@@ -7397,19 +6977,19 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>208</v>
+        <v>60</v>
       </c>
       <c r="B106" t="s">
-        <v>209</v>
+        <v>49</v>
       </c>
       <c r="C106" t="s">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="D106" t="s">
-        <v>196</v>
+        <v>51</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="F106" s="9">
         <v>1877</v>
@@ -7420,19 +7000,19 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>211</v>
+        <v>60</v>
       </c>
       <c r="B107" t="s">
-        <v>212</v>
+        <v>49</v>
       </c>
       <c r="C107" t="s">
-        <v>213</v>
+        <v>50</v>
       </c>
       <c r="D107" t="s">
-        <v>196</v>
+        <v>51</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="F107" s="9">
         <v>2462</v>
@@ -7443,19 +7023,19 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>214</v>
+        <v>60</v>
       </c>
       <c r="B108" t="s">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="C108" t="s">
-        <v>216</v>
+        <v>50</v>
       </c>
       <c r="D108" t="s">
-        <v>196</v>
+        <v>51</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="F108" s="9">
         <v>3584</v>
@@ -7466,16 +7046,16 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>217</v>
+        <v>60</v>
       </c>
       <c r="B109" t="s">
-        <v>218</v>
+        <v>49</v>
       </c>
       <c r="C109" t="s">
-        <v>219</v>
+        <v>50</v>
       </c>
       <c r="D109" t="s">
-        <v>196</v>
+        <v>51</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>8</v>
@@ -7489,16 +7069,16 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="B110" t="s">
-        <v>221</v>
+        <v>49</v>
       </c>
       <c r="C110" t="s">
-        <v>222</v>
+        <v>50</v>
       </c>
       <c r="D110" t="s">
-        <v>196</v>
+        <v>51</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>9</v>
@@ -7512,16 +7092,16 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>223</v>
+        <v>60</v>
       </c>
       <c r="B111" t="s">
-        <v>224</v>
+        <v>49</v>
       </c>
       <c r="C111" t="s">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="D111" t="s">
-        <v>196</v>
+        <v>51</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>10</v>
@@ -7535,19 +7115,19 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="B112" t="s">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="C112" t="s">
-        <v>228</v>
+        <v>50</v>
       </c>
       <c r="D112" t="s">
-        <v>196</v>
+        <v>51</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="F112" s="9">
         <v>8705</v>
@@ -7558,19 +7138,19 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>229</v>
+        <v>60</v>
       </c>
       <c r="B113" t="s">
-        <v>230</v>
+        <v>49</v>
       </c>
       <c r="C113" t="s">
-        <v>231</v>
+        <v>50</v>
       </c>
       <c r="D113" t="s">
-        <v>196</v>
+        <v>51</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="F113" s="9">
         <v>10193</v>
@@ -7581,16 +7161,16 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="B114" t="s">
-        <v>233</v>
+        <v>49</v>
       </c>
       <c r="C114" t="s">
-        <v>234</v>
+        <v>50</v>
       </c>
       <c r="D114" t="s">
-        <v>196</v>
+        <v>51</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>12</v>

--- a/tabular/flavi-reference_feature_locations.xlsx
+++ b/tabular/flavi-reference_feature_locations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="27680" yWindow="1480" windowWidth="27820" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="20360" yWindow="100" windowWidth="25680" windowHeight="23960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="69">
   <si>
     <t>featureName</t>
   </si>
@@ -212,6 +212,24 @@
   <si>
     <t>NC_027998</t>
   </si>
+  <si>
+    <t>Clade</t>
+  </si>
+  <si>
+    <t>Mosq1</t>
+  </si>
+  <si>
+    <t>Mosq2</t>
+  </si>
+  <si>
+    <t>cISF</t>
+  </si>
+  <si>
+    <t>Tick</t>
+  </si>
+  <si>
+    <t>polyprotein</t>
+  </si>
 </sst>
 </file>
 
@@ -269,7 +287,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,6 +312,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3399"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -304,7 +346,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1941">
+  <cellStyleXfs count="1977">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2246,8 +2288,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2266,8 +2344,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1941">
+  <cellStyles count="1977">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -3239,6 +3321,24 @@
     <cellStyle name="Followed Hyperlink" xfId="1936" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1938" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1940" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1942" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1944" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1946" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1948" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1950" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1952" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1954" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1956" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1958" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1960" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1962" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1964" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1966" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1968" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1970" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1972" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1974" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1976" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -4208,6 +4308,24 @@
     <cellStyle name="Hyperlink" xfId="1935" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1937" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1939" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1941" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1943" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1945" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1947" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1949" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1951" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1953" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1955" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1957" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1959" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1961" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1963" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1965" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1967" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1969" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1971" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1973" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1975" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4542,10 +4660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1462"/>
+  <dimension ref="A1:H1463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89:C90"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4553,14 +4671,14 @@
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -4573,17 +4691,20 @@
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -4596,17 +4717,20 @@
       <c r="D2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="7">
+      <c r="G2" s="7">
         <v>1</v>
       </c>
-      <c r="G2" s="7">
+      <c r="H2" s="7">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -4619,17 +4743,20 @@
       <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="E3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="7">
         <v>97</v>
       </c>
-      <c r="G3" s="7">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="7">
+        <v>10389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -4642,17 +4769,20 @@
       <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="7">
-        <v>466</v>
+      <c r="E4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="G4" s="7">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>97</v>
+      </c>
+      <c r="H4" s="7">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -4665,17 +4795,20 @@
       <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="7">
-        <v>967</v>
+      <c r="E5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="G5" s="7">
-        <v>2457</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>466</v>
+      </c>
+      <c r="H5" s="7">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -4688,17 +4821,20 @@
       <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="7">
-        <v>2458</v>
+      <c r="E6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G6" s="7">
-        <v>3513</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>967</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -4711,17 +4847,20 @@
       <c r="D7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="7">
-        <v>3514</v>
+      <c r="E7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="G7" s="7">
-        <v>4206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>2458</v>
+      </c>
+      <c r="H7" s="7">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -4734,17 +4873,20 @@
       <c r="D8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="7">
-        <v>4207</v>
+      <c r="E8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="G8" s="7">
-        <v>4599</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>3514</v>
+      </c>
+      <c r="H8" s="7">
+        <v>4206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -4757,17 +4899,20 @@
       <c r="D9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="7">
-        <v>4600</v>
+      <c r="E9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G9" s="7">
-        <v>6456</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>4207</v>
+      </c>
+      <c r="H9" s="7">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -4780,17 +4925,20 @@
       <c r="D10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="7">
-        <v>6835</v>
+      <c r="E10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="G10" s="7">
-        <v>6903</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>4600</v>
+      </c>
+      <c r="H10" s="7">
+        <v>6456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -4803,17 +4951,20 @@
       <c r="D11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="7">
-        <v>6904</v>
+      <c r="E11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="G11" s="7">
-        <v>7671</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>6835</v>
+      </c>
+      <c r="H11" s="7">
+        <v>6903</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -4826,17 +4977,20 @@
       <c r="D12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="7">
-        <v>7572</v>
+      <c r="E12" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="G12" s="7">
-        <v>10386</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>6904</v>
+      </c>
+      <c r="H12" s="7">
+        <v>7671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -4849,40 +5003,46 @@
       <c r="D13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7">
+        <v>7572</v>
+      </c>
+      <c r="H13" s="7">
+        <v>10386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="7">
+      <c r="G14" s="7">
         <v>10390</v>
       </c>
-      <c r="G13" s="7">
+      <c r="H14" s="7">
         <v>10962</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -4895,17 +5055,20 @@
       <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15">
-        <v>95</v>
-      </c>
-      <c r="G15">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="E15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -4918,17 +5081,20 @@
       <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16">
-        <v>437</v>
+      <c r="E16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
       </c>
       <c r="G16">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>95</v>
+      </c>
+      <c r="H16">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -4941,17 +5107,20 @@
       <c r="D17" t="s">
         <v>19</v>
       </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17">
-        <v>935</v>
+      <c r="E17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
       </c>
       <c r="G17">
-        <v>2419</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>437</v>
+      </c>
+      <c r="H17">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -4964,17 +5133,20 @@
       <c r="D18" t="s">
         <v>19</v>
       </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18">
-        <v>2420</v>
+      <c r="E18" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
       </c>
       <c r="G18">
-        <v>3475</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>935</v>
+      </c>
+      <c r="H18">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -4987,17 +5159,20 @@
       <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19">
-        <v>3476</v>
+      <c r="E19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>4129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>2420</v>
+      </c>
+      <c r="H19">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -5010,17 +5185,20 @@
       <c r="D20" t="s">
         <v>19</v>
       </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20">
-        <v>4130</v>
+      <c r="E20" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
       </c>
       <c r="G20">
-        <v>4519</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>3476</v>
+      </c>
+      <c r="H20">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -5033,17 +5211,20 @@
       <c r="D21" t="s">
         <v>19</v>
       </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21">
-        <v>4520</v>
+      <c r="E21" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
       </c>
       <c r="G21">
-        <v>6376</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>4130</v>
+      </c>
+      <c r="H21">
+        <v>4519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -5056,17 +5237,20 @@
       <c r="D22" t="s">
         <v>19</v>
       </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22">
-        <v>6377</v>
+      <c r="E22" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
       </c>
       <c r="G22">
-        <v>6757</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>4520</v>
+      </c>
+      <c r="H22">
+        <v>6376</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -5079,17 +5263,20 @@
       <c r="D23" t="s">
         <v>19</v>
       </c>
-      <c r="E23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23">
-        <v>6758</v>
+      <c r="E23" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
       </c>
       <c r="G23">
-        <v>6826</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>6377</v>
+      </c>
+      <c r="H23">
+        <v>6757</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -5102,17 +5289,20 @@
       <c r="D24" t="s">
         <v>19</v>
       </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24">
-        <v>7574</v>
+      <c r="E24" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
       </c>
       <c r="G24">
-        <v>10270</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>6758</v>
+      </c>
+      <c r="H24">
+        <v>6826</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -5125,40 +5315,46 @@
       <c r="D25" t="s">
         <v>19</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>7574</v>
+      </c>
+      <c r="H25">
+        <v>10270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" t="s">
         <v>12</v>
       </c>
-      <c r="F25">
+      <c r="G26">
         <v>10274</v>
       </c>
-      <c r="G25">
+      <c r="H26">
         <v>10735</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="7">
-        <v>1</v>
-      </c>
-      <c r="G26" s="7">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -5171,17 +5367,20 @@
       <c r="D27" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="7">
-        <v>119</v>
+      <c r="E27" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="G27" s="7">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -5194,17 +5393,20 @@
       <c r="D28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="7">
-        <v>482</v>
+      <c r="E28" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="G28" s="7">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>119</v>
+      </c>
+      <c r="H28" s="7">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -5217,17 +5419,20 @@
       <c r="D29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="7">
-        <v>974</v>
+      <c r="E29" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="G29" s="7">
-        <v>2452</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>482</v>
+      </c>
+      <c r="H29" s="7">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -5240,17 +5445,20 @@
       <c r="D30" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="7">
-        <v>2453</v>
+      <c r="E30" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G30" s="7">
-        <v>3508</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>974</v>
+      </c>
+      <c r="H30" s="7">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -5263,17 +5471,20 @@
       <c r="D31" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="7">
-        <v>3509</v>
+      <c r="E31" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="G31" s="7">
-        <v>4180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>2453</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -5286,17 +5497,20 @@
       <c r="D32" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="7">
-        <v>4181</v>
+      <c r="E32" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="G32" s="7">
-        <v>4570</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>3509</v>
+      </c>
+      <c r="H32" s="7">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -5309,17 +5523,20 @@
       <c r="D33" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="7">
-        <v>4571</v>
+      <c r="E33" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G33" s="7">
-        <v>6439</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>4181</v>
+      </c>
+      <c r="H33" s="7">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -5332,17 +5549,20 @@
       <c r="D34" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="7">
-        <v>6440</v>
+      <c r="E34" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="G34" s="7">
-        <v>6817</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>4571</v>
+      </c>
+      <c r="H34" s="7">
+        <v>6439</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -5355,17 +5575,20 @@
       <c r="D35" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="7">
-        <v>6818</v>
+      <c r="E35" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G35" s="7">
-        <v>6886</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>6440</v>
+      </c>
+      <c r="H35" s="7">
+        <v>6817</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -5378,17 +5601,20 @@
       <c r="D36" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="7">
-        <v>6887</v>
+      <c r="E36" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="G36" s="7">
-        <v>7636</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>6818</v>
+      </c>
+      <c r="H36" s="7">
+        <v>6886</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -5401,17 +5627,20 @@
       <c r="D37" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="7">
-        <v>7637</v>
+      <c r="E37" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="G37" s="7">
-        <v>10351</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>6887</v>
+      </c>
+      <c r="H37" s="7">
+        <v>7636</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -5424,40 +5653,46 @@
       <c r="D38" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="7">
+        <v>7637</v>
+      </c>
+      <c r="H38" s="7">
+        <v>10351</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="7">
+      <c r="G39" s="7">
         <v>10355</v>
       </c>
-      <c r="G38" s="7">
+      <c r="H39" s="7">
         <v>10862</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="8">
-        <v>1</v>
-      </c>
-      <c r="G39" s="8">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -5470,17 +5705,20 @@
       <c r="D40" t="s">
         <v>19</v>
       </c>
-      <c r="E40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="11">
-        <v>107</v>
-      </c>
-      <c r="G40" s="11">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="E40" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="8">
+        <v>1</v>
+      </c>
+      <c r="H40" s="8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -5493,17 +5731,20 @@
       <c r="D41" t="s">
         <v>19</v>
       </c>
-      <c r="E41" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" s="11">
-        <v>473</v>
+      <c r="E41" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" t="s">
+        <v>21</v>
       </c>
       <c r="G41" s="11">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>107</v>
+      </c>
+      <c r="H41" s="11">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -5516,17 +5757,20 @@
       <c r="D42" t="s">
         <v>19</v>
       </c>
-      <c r="E42" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" s="11">
-        <v>977</v>
+      <c r="E42" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" t="s">
+        <v>22</v>
       </c>
       <c r="G42" s="11">
-        <v>2476</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>473</v>
+      </c>
+      <c r="H42" s="11">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -5539,17 +5783,20 @@
       <c r="D43" t="s">
         <v>19</v>
       </c>
-      <c r="E43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="11">
-        <v>2477</v>
+      <c r="E43" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" t="s">
+        <v>23</v>
       </c>
       <c r="G43" s="11">
-        <v>3532</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>977</v>
+      </c>
+      <c r="H43" s="11">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -5562,17 +5809,20 @@
       <c r="D44" t="s">
         <v>19</v>
       </c>
-      <c r="E44" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="11">
-        <v>3533</v>
+      <c r="E44" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" t="s">
+        <v>5</v>
       </c>
       <c r="G44" s="11">
-        <v>4210</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>2477</v>
+      </c>
+      <c r="H44" s="11">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -5585,17 +5835,20 @@
       <c r="D45" t="s">
         <v>19</v>
       </c>
-      <c r="E45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="11">
-        <v>4211</v>
+      <c r="E45" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" t="s">
+        <v>6</v>
       </c>
       <c r="G45" s="11">
-        <v>4600</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>3533</v>
+      </c>
+      <c r="H45" s="11">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -5608,17 +5861,20 @@
       <c r="D46" t="s">
         <v>19</v>
       </c>
-      <c r="E46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="11">
-        <v>4601</v>
+      <c r="E46" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7</v>
       </c>
       <c r="G46" s="11">
-        <v>6451</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>4211</v>
+      </c>
+      <c r="H46" s="11">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -5631,17 +5887,20 @@
       <c r="D47" t="s">
         <v>19</v>
       </c>
-      <c r="E47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="11">
-        <v>6452</v>
+      <c r="E47" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
       </c>
       <c r="G47" s="11">
-        <v>6832</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>4601</v>
+      </c>
+      <c r="H47" s="11">
+        <v>6451</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -5654,17 +5913,20 @@
       <c r="D48" t="s">
         <v>19</v>
       </c>
-      <c r="E48" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" s="11">
-        <v>6833</v>
+      <c r="E48" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
       </c>
       <c r="G48" s="11">
-        <v>6901</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>6452</v>
+      </c>
+      <c r="H48" s="11">
+        <v>6832</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -5677,17 +5939,20 @@
       <c r="D49" t="s">
         <v>19</v>
       </c>
-      <c r="E49" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="11">
-        <v>6902</v>
+      <c r="E49" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" t="s">
+        <v>24</v>
       </c>
       <c r="G49" s="11">
-        <v>7654</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="14" customHeight="1">
+        <v>6833</v>
+      </c>
+      <c r="H49" s="11">
+        <v>6901</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -5700,17 +5965,20 @@
       <c r="D50" t="s">
         <v>19</v>
       </c>
-      <c r="E50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="11">
-        <v>7655</v>
+      <c r="E50" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
       </c>
       <c r="G50" s="11">
-        <v>10363</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>6902</v>
+      </c>
+      <c r="H50" s="11">
+        <v>7654</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="14" customHeight="1">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -5723,40 +5991,46 @@
       <c r="D51" t="s">
         <v>19</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="11">
+        <v>7655</v>
+      </c>
+      <c r="H51" s="11">
+        <v>10363</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="11">
+      <c r="G52" s="11">
         <v>10367</v>
       </c>
-      <c r="G51" s="11">
+      <c r="H52" s="11">
         <v>10794</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52" s="7">
-        <v>1</v>
-      </c>
-      <c r="G52" s="7">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -5769,17 +6043,20 @@
       <c r="D53" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E53" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F53" s="7">
-        <v>97</v>
+      <c r="E53" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="G53" s="7">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H53" s="7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -5792,17 +6069,20 @@
       <c r="D54" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F54" s="7">
-        <v>526</v>
+      <c r="E54" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="G54" s="7">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>97</v>
+      </c>
+      <c r="H54" s="7">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -5815,17 +6095,20 @@
       <c r="D55" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F55" s="7">
-        <v>955</v>
+      <c r="E55" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="G55" s="7">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="16" customHeight="1">
+        <v>526</v>
+      </c>
+      <c r="H55" s="7">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -5838,17 +6121,20 @@
       <c r="D56" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="7">
-        <v>2251</v>
+      <c r="E56" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G56" s="7">
-        <v>3420</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>955</v>
+      </c>
+      <c r="H56" s="7">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="16" customHeight="1">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -5861,17 +6147,20 @@
       <c r="D57" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" s="7">
-        <v>3421</v>
+      <c r="E57" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="G57" s="7">
-        <v>4041</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>2251</v>
+      </c>
+      <c r="H57" s="7">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -5884,17 +6173,20 @@
       <c r="D58" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" s="7">
-        <v>4042</v>
+      <c r="E58" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="G58" s="7">
-        <v>4488</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>3421</v>
+      </c>
+      <c r="H58" s="7">
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -5907,17 +6199,20 @@
       <c r="D59" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E59" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="7">
-        <v>4489</v>
+      <c r="E59" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G59" s="7">
-        <v>6249</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>4042</v>
+      </c>
+      <c r="H59" s="7">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -5930,17 +6225,20 @@
       <c r="D60" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="7">
-        <v>6250</v>
+      <c r="E60" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="G60" s="7">
-        <v>6654</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>4489</v>
+      </c>
+      <c r="H60" s="7">
+        <v>6249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -5953,17 +6251,20 @@
       <c r="D61" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E61" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F61" s="7">
-        <v>6655</v>
+      <c r="E61" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G61" s="7">
-        <v>6723</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>6250</v>
+      </c>
+      <c r="H61" s="7">
+        <v>6654</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>57</v>
       </c>
@@ -5976,17 +6277,20 @@
       <c r="D62" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E62" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="7">
-        <v>6724</v>
+      <c r="E62" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="G62" s="7">
-        <v>7503</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>6655</v>
+      </c>
+      <c r="H62" s="7">
+        <v>6723</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>57</v>
       </c>
@@ -5999,17 +6303,20 @@
       <c r="D63" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="7">
-        <v>7504</v>
+      <c r="E63" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="G63" s="7">
-        <v>10167</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>6724</v>
+      </c>
+      <c r="H63" s="7">
+        <v>7503</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>57</v>
       </c>
@@ -6022,40 +6329,46 @@
       <c r="D64" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="7">
+        <v>7504</v>
+      </c>
+      <c r="H64" s="7">
+        <v>10167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="7">
+      <c r="G65" s="7">
         <v>10168</v>
       </c>
-      <c r="G64" s="7">
+      <c r="H65" s="7">
         <v>11375</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" t="s">
-        <v>58</v>
-      </c>
-      <c r="B65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C65" t="s">
-        <v>33</v>
-      </c>
-      <c r="D65" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" s="10">
-        <v>1</v>
-      </c>
-      <c r="G65" s="10">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>58</v>
       </c>
@@ -6068,17 +6381,20 @@
       <c r="D66" t="s">
         <v>19</v>
       </c>
-      <c r="E66" t="s">
-        <v>21</v>
-      </c>
-      <c r="F66" s="9">
-        <v>112</v>
-      </c>
-      <c r="G66" s="9">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="E66" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="10">
+        <v>1</v>
+      </c>
+      <c r="H66" s="10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>58</v>
       </c>
@@ -6091,17 +6407,20 @@
       <c r="D67" t="s">
         <v>19</v>
       </c>
-      <c r="E67" t="s">
-        <v>22</v>
-      </c>
-      <c r="F67" s="9">
-        <v>442</v>
+      <c r="E67" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F67" t="s">
+        <v>21</v>
       </c>
       <c r="G67" s="9">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>112</v>
+      </c>
+      <c r="H67" s="9">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>58</v>
       </c>
@@ -6114,17 +6433,20 @@
       <c r="D68" t="s">
         <v>19</v>
       </c>
-      <c r="E68" t="s">
-        <v>23</v>
-      </c>
-      <c r="F68" s="9">
-        <v>946</v>
+      <c r="E68" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F68" t="s">
+        <v>22</v>
       </c>
       <c r="G68" s="9">
-        <v>2436</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>442</v>
+      </c>
+      <c r="H68" s="9">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>58</v>
       </c>
@@ -6137,17 +6459,20 @@
       <c r="D69" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" s="9">
-        <v>2437</v>
+      <c r="E69" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F69" t="s">
+        <v>23</v>
       </c>
       <c r="G69" s="9">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>946</v>
+      </c>
+      <c r="H69" s="9">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>58</v>
       </c>
@@ -6160,17 +6485,20 @@
       <c r="D70" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F70" s="9">
-        <v>3496</v>
+      <c r="E70" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="G70" s="9">
-        <v>4185</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>2437</v>
+      </c>
+      <c r="H70" s="9">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>58</v>
       </c>
@@ -6183,17 +6511,20 @@
       <c r="D71" t="s">
         <v>19</v>
       </c>
-      <c r="E71" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" s="9">
-        <v>4186</v>
+      <c r="E71" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="G71" s="9">
-        <v>4578</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>3496</v>
+      </c>
+      <c r="H71" s="9">
+        <v>4185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>58</v>
       </c>
@@ -6206,17 +6537,20 @@
       <c r="D72" t="s">
         <v>19</v>
       </c>
-      <c r="E72" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="9">
-        <v>4579</v>
+      <c r="E72" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="G72" s="9">
-        <v>6444</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>4186</v>
+      </c>
+      <c r="H72" s="9">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>58</v>
       </c>
@@ -6229,17 +6563,20 @@
       <c r="D73" t="s">
         <v>19</v>
       </c>
-      <c r="E73" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" s="9">
-        <v>6445</v>
+      <c r="E73" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="G73" s="9">
-        <v>6822</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>4579</v>
+      </c>
+      <c r="H73" s="9">
+        <v>6444</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>58</v>
       </c>
@@ -6252,17 +6589,20 @@
       <c r="D74" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F74" s="9">
-        <v>6823</v>
+      <c r="E74" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="G74" s="9">
-        <v>6891</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>6445</v>
+      </c>
+      <c r="H74" s="9">
+        <v>6822</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>58</v>
       </c>
@@ -6275,17 +6615,20 @@
       <c r="D75" t="s">
         <v>19</v>
       </c>
-      <c r="E75" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" s="9">
-        <v>6892</v>
+      <c r="E75" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="G75" s="9">
-        <v>7647</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>6823</v>
+      </c>
+      <c r="H75" s="9">
+        <v>6891</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>58</v>
       </c>
@@ -6298,17 +6641,20 @@
       <c r="D76" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="9">
-        <v>7648</v>
+      <c r="E76" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="G76" s="9">
-        <v>10356</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>6892</v>
+      </c>
+      <c r="H76" s="9">
+        <v>7647</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>58</v>
       </c>
@@ -6321,40 +6667,46 @@
       <c r="D77" t="s">
         <v>19</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="9">
+        <v>7648</v>
+      </c>
+      <c r="H77" s="9">
+        <v>10356</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>58</v>
+      </c>
+      <c r="B78" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F78" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F77" s="9">
+      <c r="G78" s="9">
         <v>10357</v>
       </c>
-      <c r="G77" s="9">
+      <c r="H78" s="9">
         <v>10839</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
-      <c r="A78" t="s">
-        <v>59</v>
-      </c>
-      <c r="B78" t="s">
-        <v>34</v>
-      </c>
-      <c r="C78" t="s">
-        <v>35</v>
-      </c>
-      <c r="D78" t="s">
-        <v>36</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F78" s="10">
-        <v>1</v>
-      </c>
-      <c r="G78" s="10">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>59</v>
       </c>
@@ -6367,17 +6719,18 @@
       <c r="D79" t="s">
         <v>36</v>
       </c>
-      <c r="E79" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F79" s="9">
-        <v>342</v>
-      </c>
-      <c r="G79" s="9">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="E79"/>
+      <c r="F79" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" s="10">
+        <v>1</v>
+      </c>
+      <c r="H79" s="10">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>59</v>
       </c>
@@ -6390,17 +6743,18 @@
       <c r="D80" t="s">
         <v>36</v>
       </c>
-      <c r="E80" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F80" s="9">
-        <v>915</v>
+      <c r="E80"/>
+      <c r="F80" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="G80" s="9">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>342</v>
+      </c>
+      <c r="H80" s="9">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>59</v>
       </c>
@@ -6413,17 +6767,18 @@
       <c r="D81" t="s">
         <v>36</v>
       </c>
-      <c r="E81" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F81" s="9">
-        <v>1491</v>
+      <c r="E81"/>
+      <c r="F81" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="G81" s="9">
-        <v>2579</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>915</v>
+      </c>
+      <c r="H81" s="9">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>59</v>
       </c>
@@ -6436,17 +6791,18 @@
       <c r="D82" t="s">
         <v>36</v>
       </c>
-      <c r="E82" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F82" s="9">
-        <v>2580</v>
+      <c r="E82"/>
+      <c r="F82" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="G82" s="9">
-        <v>2768</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>1491</v>
+      </c>
+      <c r="H82" s="9">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>59</v>
       </c>
@@ -6459,17 +6815,18 @@
       <c r="D83" t="s">
         <v>36</v>
       </c>
-      <c r="E83" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F83" s="9">
-        <v>2769</v>
+      <c r="E83"/>
+      <c r="F83" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="G83" s="9">
-        <v>3419</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>2580</v>
+      </c>
+      <c r="H83" s="9">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>59</v>
       </c>
@@ -6482,17 +6839,18 @@
       <c r="D84" t="s">
         <v>36</v>
       </c>
-      <c r="E84" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" s="9">
-        <v>3420</v>
+      <c r="E84"/>
+      <c r="F84" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="G84" s="9">
-        <v>5312</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>2769</v>
+      </c>
+      <c r="H84" s="9">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>59</v>
       </c>
@@ -6505,17 +6863,18 @@
       <c r="D85" t="s">
         <v>36</v>
       </c>
-      <c r="E85" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" s="9">
-        <v>5313</v>
+      <c r="E85"/>
+      <c r="F85" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="G85" s="9">
-        <v>5474</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>3420</v>
+      </c>
+      <c r="H85" s="9">
+        <v>5312</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>59</v>
       </c>
@@ -6528,17 +6887,18 @@
       <c r="D86" t="s">
         <v>36</v>
       </c>
-      <c r="E86" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" s="9">
-        <v>5475</v>
+      <c r="E86"/>
+      <c r="F86" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="G86" s="9">
-        <v>6257</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>5313</v>
+      </c>
+      <c r="H86" s="9">
+        <v>5474</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>59</v>
       </c>
@@ -6551,17 +6911,18 @@
       <c r="D87" t="s">
         <v>36</v>
       </c>
-      <c r="E87" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F87" s="9">
-        <v>6258</v>
+      <c r="E87"/>
+      <c r="F87" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="G87" s="9">
-        <v>7601</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>5475</v>
+      </c>
+      <c r="H87" s="9">
+        <v>6257</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>59</v>
       </c>
@@ -6574,17 +6935,18 @@
       <c r="D88" t="s">
         <v>36</v>
       </c>
-      <c r="E88" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F88" s="9">
-        <v>7602</v>
+      <c r="E88"/>
+      <c r="F88" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="G88" s="9">
-        <v>9374</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>6258</v>
+      </c>
+      <c r="H88" s="9">
+        <v>7601</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>59</v>
       </c>
@@ -6597,40 +6959,42 @@
       <c r="D89" t="s">
         <v>36</v>
       </c>
-      <c r="E89" s="9" t="s">
+      <c r="E89"/>
+      <c r="F89" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G89" s="9">
+        <v>7602</v>
+      </c>
+      <c r="H89" s="9">
+        <v>9374</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>59</v>
+      </c>
+      <c r="B90" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" t="s">
+        <v>35</v>
+      </c>
+      <c r="D90" t="s">
+        <v>36</v>
+      </c>
+      <c r="E90"/>
+      <c r="F90" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="9">
+      <c r="G90" s="9">
         <v>9378</v>
       </c>
-      <c r="G89" s="9">
+      <c r="H90" s="9">
         <v>9646</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
-      <c r="A90" t="s">
-        <v>62</v>
-      </c>
-      <c r="B90" t="s">
-        <v>44</v>
-      </c>
-      <c r="C90" t="s">
-        <v>45</v>
-      </c>
-      <c r="D90" t="s">
-        <v>46</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F90" s="10">
-        <v>1</v>
-      </c>
-      <c r="G90" s="10">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>62</v>
       </c>
@@ -6643,17 +7007,18 @@
       <c r="D91" t="s">
         <v>46</v>
       </c>
-      <c r="E91" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F91" s="9">
-        <v>328</v>
-      </c>
-      <c r="G91" s="9">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="E91"/>
+      <c r="F91" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" s="10">
+        <v>1</v>
+      </c>
+      <c r="H91" s="10">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>62</v>
       </c>
@@ -6666,17 +7031,18 @@
       <c r="D92" t="s">
         <v>46</v>
       </c>
-      <c r="E92" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F92" s="9">
-        <v>565</v>
+      <c r="E92"/>
+      <c r="F92" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="G92" s="9">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>328</v>
+      </c>
+      <c r="H92" s="9">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>62</v>
       </c>
@@ -6689,17 +7055,18 @@
       <c r="D93" t="s">
         <v>46</v>
       </c>
-      <c r="E93" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F93" s="9">
-        <v>1138</v>
+      <c r="E93"/>
+      <c r="F93" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="G93" s="9">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>565</v>
+      </c>
+      <c r="H93" s="9">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>62</v>
       </c>
@@ -6712,17 +7079,18 @@
       <c r="D94" t="s">
         <v>46</v>
       </c>
-      <c r="E94" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F94" s="9">
-        <v>2200</v>
+      <c r="E94"/>
+      <c r="F94" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="G94" s="9">
-        <v>2910</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>1138</v>
+      </c>
+      <c r="H94" s="9">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>62</v>
       </c>
@@ -6735,17 +7103,18 @@
       <c r="D95" t="s">
         <v>46</v>
       </c>
-      <c r="E95" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F95" s="9">
-        <v>2911</v>
+      <c r="E95"/>
+      <c r="F95" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="G95" s="9">
-        <v>3630</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>2200</v>
+      </c>
+      <c r="H95" s="9">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>62</v>
       </c>
@@ -6758,17 +7127,18 @@
       <c r="D96" t="s">
         <v>46</v>
       </c>
-      <c r="E96" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F96" s="9">
-        <v>3631</v>
+      <c r="E96"/>
+      <c r="F96" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="G96" s="9">
-        <v>5514</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>2911</v>
+      </c>
+      <c r="H96" s="9">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>62</v>
       </c>
@@ -6781,17 +7151,18 @@
       <c r="D97" t="s">
         <v>46</v>
       </c>
-      <c r="E97" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" s="9">
-        <v>5515</v>
+      <c r="E97"/>
+      <c r="F97" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="G97" s="9">
-        <v>5637</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>3631</v>
+      </c>
+      <c r="H97" s="9">
+        <v>5514</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>62</v>
       </c>
@@ -6804,17 +7175,18 @@
       <c r="D98" t="s">
         <v>46</v>
       </c>
-      <c r="E98" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" s="9">
-        <v>5638</v>
+      <c r="E98"/>
+      <c r="F98" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="G98" s="9">
-        <v>6423</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>5515</v>
+      </c>
+      <c r="H98" s="9">
+        <v>5637</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>62</v>
       </c>
@@ -6827,17 +7199,18 @@
       <c r="D99" t="s">
         <v>46</v>
       </c>
-      <c r="E99" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F99" s="9">
-        <v>6424</v>
+      <c r="E99"/>
+      <c r="F99" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="G99" s="9">
-        <v>7797</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>5638</v>
+      </c>
+      <c r="H99" s="9">
+        <v>6423</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>62</v>
       </c>
@@ -6850,17 +7223,18 @@
       <c r="D100" t="s">
         <v>46</v>
       </c>
-      <c r="E100" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F100" s="9">
-        <v>7798</v>
+      <c r="E100"/>
+      <c r="F100" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="G100" s="9">
-        <v>9498</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>6424</v>
+      </c>
+      <c r="H100" s="9">
+        <v>7797</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>62</v>
       </c>
@@ -6873,40 +7247,42 @@
       <c r="D101" t="s">
         <v>46</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="E101"/>
+      <c r="F101" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G101" s="9">
+        <v>7798</v>
+      </c>
+      <c r="H101" s="9">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>62</v>
+      </c>
+      <c r="B102" t="s">
+        <v>44</v>
+      </c>
+      <c r="C102" t="s">
+        <v>45</v>
+      </c>
+      <c r="D102" t="s">
+        <v>46</v>
+      </c>
+      <c r="E102"/>
+      <c r="F102" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F101" s="9">
+      <c r="G102" s="9">
         <v>9502</v>
       </c>
-      <c r="G101" s="9">
+      <c r="H102" s="9">
         <v>9867</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
-      <c r="A102" t="s">
-        <v>60</v>
-      </c>
-      <c r="B102" t="s">
-        <v>49</v>
-      </c>
-      <c r="C102" t="s">
-        <v>50</v>
-      </c>
-      <c r="D102" t="s">
-        <v>51</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F102" s="10">
-        <v>1</v>
-      </c>
-      <c r="G102" s="10">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>60</v>
       </c>
@@ -6919,17 +7295,18 @@
       <c r="D103" t="s">
         <v>51</v>
       </c>
-      <c r="E103" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F103" s="9">
-        <v>386</v>
-      </c>
-      <c r="G103" s="9">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="E103"/>
+      <c r="F103" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G103" s="10">
+        <v>1</v>
+      </c>
+      <c r="H103" s="10">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>60</v>
       </c>
@@ -6942,17 +7319,18 @@
       <c r="D104" t="s">
         <v>51</v>
       </c>
-      <c r="E104" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F104" s="9">
-        <v>890</v>
+      <c r="E104"/>
+      <c r="F104" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="G104" s="9">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>386</v>
+      </c>
+      <c r="H104" s="9">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>60</v>
       </c>
@@ -6965,17 +7343,18 @@
       <c r="D105" t="s">
         <v>51</v>
       </c>
-      <c r="E105" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F105" s="9">
-        <v>1196</v>
+      <c r="E105"/>
+      <c r="F105" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="G105" s="9">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>890</v>
+      </c>
+      <c r="H105" s="9">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>60</v>
       </c>
@@ -6988,17 +7367,18 @@
       <c r="D106" t="s">
         <v>51</v>
       </c>
-      <c r="E106" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F106" s="9">
-        <v>1877</v>
+      <c r="E106"/>
+      <c r="F106" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="G106" s="9">
-        <v>2461</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>1196</v>
+      </c>
+      <c r="H106" s="9">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>60</v>
       </c>
@@ -7011,17 +7391,18 @@
       <c r="D107" t="s">
         <v>51</v>
       </c>
-      <c r="E107" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F107" s="9">
-        <v>2462</v>
+      <c r="E107"/>
+      <c r="F107" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="G107" s="9">
-        <v>3583</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>1877</v>
+      </c>
+      <c r="H107" s="9">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>60</v>
       </c>
@@ -7034,17 +7415,18 @@
       <c r="D108" t="s">
         <v>51</v>
       </c>
-      <c r="E108" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F108" s="9">
-        <v>3584</v>
+      <c r="E108"/>
+      <c r="F108" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="G108" s="9">
-        <v>3793</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>2462</v>
+      </c>
+      <c r="H108" s="9">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>60</v>
       </c>
@@ -7057,17 +7439,18 @@
       <c r="D109" t="s">
         <v>51</v>
       </c>
-      <c r="E109" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" s="9">
-        <v>3794</v>
+      <c r="E109"/>
+      <c r="F109" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="G109" s="9">
-        <v>7471</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>3584</v>
+      </c>
+      <c r="H109" s="9">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>60</v>
       </c>
@@ -7080,17 +7463,18 @@
       <c r="D110" t="s">
         <v>51</v>
       </c>
-      <c r="E110" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F110" s="9">
-        <v>7472</v>
+      <c r="E110"/>
+      <c r="F110" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="G110" s="9">
-        <v>7663</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>3794</v>
+      </c>
+      <c r="H110" s="9">
+        <v>7471</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>60</v>
       </c>
@@ -7103,17 +7487,18 @@
       <c r="D111" t="s">
         <v>51</v>
       </c>
-      <c r="E111" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F111" s="9">
-        <v>7664</v>
+      <c r="E111"/>
+      <c r="F111" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="G111" s="9">
-        <v>8704</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>7472</v>
+      </c>
+      <c r="H111" s="9">
+        <v>7663</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>60</v>
       </c>
@@ -7126,17 +7511,18 @@
       <c r="D112" t="s">
         <v>51</v>
       </c>
-      <c r="E112" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F112" s="9">
-        <v>8705</v>
+      <c r="E112"/>
+      <c r="F112" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="G112" s="9">
-        <v>10192</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>7664</v>
+      </c>
+      <c r="H112" s="9">
+        <v>8704</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>60</v>
       </c>
@@ -7149,17 +7535,18 @@
       <c r="D113" t="s">
         <v>51</v>
       </c>
-      <c r="E113" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F113" s="9">
-        <v>10193</v>
+      <c r="E113"/>
+      <c r="F113" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="G113" s="9">
-        <v>12349</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>8705</v>
+      </c>
+      <c r="H113" s="9">
+        <v>10192</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>60</v>
       </c>
@@ -7172,189 +7559,241 @@
       <c r="D114" t="s">
         <v>51</v>
       </c>
-      <c r="E114" s="9" t="s">
+      <c r="E114"/>
+      <c r="F114" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G114" s="9">
+        <v>10193</v>
+      </c>
+      <c r="H114" s="9">
+        <v>12349</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
+        <v>60</v>
+      </c>
+      <c r="B115" t="s">
+        <v>49</v>
+      </c>
+      <c r="C115" t="s">
+        <v>50</v>
+      </c>
+      <c r="D115" t="s">
+        <v>51</v>
+      </c>
+      <c r="E115"/>
+      <c r="F115" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F114" s="9">
+      <c r="G115" s="9">
         <v>12360</v>
       </c>
-      <c r="G114" s="9">
+      <c r="H115" s="9">
         <v>12573</v>
       </c>
     </row>
-    <row r="184" spans="2:4">
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="5"/>
-    </row>
-    <row r="185" spans="2:4">
+    <row r="185" spans="2:5">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="5"/>
-    </row>
-    <row r="186" spans="2:4">
+      <c r="E185" s="5"/>
+    </row>
+    <row r="186" spans="2:5">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="5"/>
-    </row>
-    <row r="187" spans="2:4">
+      <c r="E186" s="5"/>
+    </row>
+    <row r="187" spans="2:5">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="5"/>
-    </row>
-    <row r="188" spans="2:4">
+      <c r="E187" s="5"/>
+    </row>
+    <row r="188" spans="2:5">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="5"/>
-    </row>
-    <row r="189" spans="2:4">
+      <c r="E188" s="5"/>
+    </row>
+    <row r="189" spans="2:5">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="5"/>
-    </row>
-    <row r="190" spans="2:4">
+      <c r="E189" s="5"/>
+    </row>
+    <row r="190" spans="2:5">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="5"/>
-    </row>
-    <row r="191" spans="2:4">
+      <c r="E190" s="5"/>
+    </row>
+    <row r="191" spans="2:5">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="5"/>
-    </row>
-    <row r="192" spans="2:4">
+      <c r="E191" s="5"/>
+    </row>
+    <row r="192" spans="2:5">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="5"/>
-    </row>
-    <row r="193" spans="2:4">
+      <c r="E192" s="5"/>
+    </row>
+    <row r="193" spans="2:5">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="5"/>
-    </row>
-    <row r="194" spans="2:4">
+      <c r="E193" s="5"/>
+    </row>
+    <row r="194" spans="2:5">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="5"/>
-    </row>
-    <row r="195" spans="2:4">
+      <c r="E194" s="5"/>
+    </row>
+    <row r="195" spans="2:5">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="5"/>
-    </row>
-    <row r="196" spans="2:4">
+      <c r="E195" s="5"/>
+    </row>
+    <row r="196" spans="2:5">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="5"/>
-    </row>
-    <row r="197" spans="2:4">
+      <c r="E196" s="5"/>
+    </row>
+    <row r="197" spans="2:5">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="5"/>
-    </row>
-    <row r="198" spans="2:4">
+      <c r="E197" s="5"/>
+    </row>
+    <row r="198" spans="2:5">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="5"/>
-    </row>
-    <row r="199" spans="2:4">
+      <c r="E198" s="5"/>
+    </row>
+    <row r="199" spans="2:5">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="5"/>
-    </row>
-    <row r="200" spans="2:4">
+      <c r="E199" s="5"/>
+    </row>
+    <row r="200" spans="2:5">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="5"/>
-    </row>
-    <row r="201" spans="2:4">
+      <c r="E200" s="5"/>
+    </row>
+    <row r="201" spans="2:5">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="5"/>
-    </row>
-    <row r="202" spans="2:4">
+      <c r="E201" s="5"/>
+    </row>
+    <row r="202" spans="2:5">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="5"/>
-    </row>
-    <row r="203" spans="2:4">
+      <c r="E202" s="5"/>
+    </row>
+    <row r="203" spans="2:5">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="5"/>
-    </row>
-    <row r="204" spans="2:4">
+      <c r="E203" s="5"/>
+    </row>
+    <row r="204" spans="2:5">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="5"/>
-    </row>
-    <row r="205" spans="2:4">
+      <c r="E204" s="5"/>
+    </row>
+    <row r="205" spans="2:5">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="5"/>
-    </row>
-    <row r="206" spans="2:4">
+      <c r="E205" s="5"/>
+    </row>
+    <row r="206" spans="2:5">
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="5"/>
-    </row>
-    <row r="207" spans="2:4">
+      <c r="E206" s="5"/>
+    </row>
+    <row r="207" spans="2:5">
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="5"/>
-    </row>
-    <row r="208" spans="2:4">
+      <c r="E207" s="5"/>
+    </row>
+    <row r="208" spans="2:5">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
-    </row>
-    <row r="209" spans="2:4">
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+    </row>
+    <row r="209" spans="2:5">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
-      <c r="D209" s="5"/>
-    </row>
-    <row r="210" spans="2:4">
+    </row>
+    <row r="210" spans="2:5">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="5"/>
-    </row>
-    <row r="211" spans="2:4">
+      <c r="E210" s="5"/>
+    </row>
+    <row r="211" spans="2:5">
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="5"/>
-    </row>
-    <row r="212" spans="2:4">
+      <c r="E211" s="5"/>
+    </row>
+    <row r="212" spans="2:5">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="5"/>
-    </row>
-    <row r="213" spans="2:4">
+      <c r="E212" s="5"/>
+    </row>
+    <row r="213" spans="2:5">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="5"/>
-    </row>
-    <row r="214" spans="2:4">
+      <c r="E213" s="5"/>
+    </row>
+    <row r="214" spans="2:5">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="5"/>
-    </row>
-    <row r="215" spans="2:4">
+      <c r="E214" s="5"/>
+    </row>
+    <row r="215" spans="2:5">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="5"/>
-    </row>
-    <row r="898" spans="5:5">
-      <c r="E898" s="1"/>
-    </row>
-    <row r="1034" spans="2:3">
-      <c r="B1034" s="1"/>
-      <c r="C1034" s="1"/>
+      <c r="E215" s="5"/>
+    </row>
+    <row r="216" spans="2:5">
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
+    </row>
+    <row r="899" spans="6:6">
+      <c r="F899" s="1"/>
     </row>
     <row r="1035" spans="2:3">
       <c r="B1035" s="1"/>
       <c r="C1035" s="1"/>
     </row>
-    <row r="1160" spans="2:3">
-      <c r="B1160" s="1"/>
-      <c r="C1160" s="1"/>
+    <row r="1036" spans="2:3">
+      <c r="B1036" s="1"/>
+      <c r="C1036" s="1"/>
     </row>
     <row r="1161" spans="2:3">
       <c r="B1161" s="1"/>
@@ -7376,27 +7815,27 @@
       <c r="B1165" s="1"/>
       <c r="C1165" s="1"/>
     </row>
-    <row r="1210" spans="2:6">
-      <c r="E1210" s="1"/>
-      <c r="F1210" s="1"/>
-    </row>
-    <row r="1211" spans="2:6">
-      <c r="E1211" s="1"/>
+    <row r="1166" spans="2:3">
+      <c r="B1166" s="1"/>
+      <c r="C1166" s="1"/>
+    </row>
+    <row r="1211" spans="2:7">
       <c r="F1211" s="1"/>
-    </row>
-    <row r="1212" spans="2:6">
-      <c r="E1212" s="1"/>
+      <c r="G1211" s="1"/>
+    </row>
+    <row r="1212" spans="2:7">
       <c r="F1212" s="1"/>
-    </row>
-    <row r="1214" spans="2:6">
-      <c r="B1214" s="1"/>
-      <c r="C1214" s="1"/>
-    </row>
-    <row r="1215" spans="2:6">
+      <c r="G1212" s="1"/>
+    </row>
+    <row r="1213" spans="2:7">
+      <c r="F1213" s="1"/>
+      <c r="G1213" s="1"/>
+    </row>
+    <row r="1215" spans="2:7">
       <c r="B1215" s="1"/>
       <c r="C1215" s="1"/>
     </row>
-    <row r="1216" spans="2:6">
+    <row r="1216" spans="2:7">
       <c r="B1216" s="1"/>
       <c r="C1216" s="1"/>
     </row>
@@ -7408,9 +7847,9 @@
       <c r="B1218" s="1"/>
       <c r="C1218" s="1"/>
     </row>
-    <row r="1237" spans="2:3">
-      <c r="B1237" s="1"/>
-      <c r="C1237" s="1"/>
+    <row r="1219" spans="2:3">
+      <c r="B1219" s="1"/>
+      <c r="C1219" s="1"/>
     </row>
     <row r="1238" spans="2:3">
       <c r="B1238" s="1"/>
@@ -7436,9 +7875,9 @@
       <c r="B1243" s="1"/>
       <c r="C1243" s="1"/>
     </row>
-    <row r="1245" spans="2:3">
-      <c r="B1245" s="1"/>
-      <c r="C1245" s="1"/>
+    <row r="1244" spans="2:3">
+      <c r="B1244" s="1"/>
+      <c r="C1244" s="1"/>
     </row>
     <row r="1246" spans="2:3">
       <c r="B1246" s="1"/>
@@ -7460,9 +7899,9 @@
       <c r="B1250" s="1"/>
       <c r="C1250" s="1"/>
     </row>
-    <row r="1302" spans="2:3">
-      <c r="B1302" s="1"/>
-      <c r="C1302" s="1"/>
+    <row r="1251" spans="2:3">
+      <c r="B1251" s="1"/>
+      <c r="C1251" s="1"/>
     </row>
     <row r="1303" spans="2:3">
       <c r="B1303" s="1"/>
@@ -7476,9 +7915,9 @@
       <c r="B1305" s="1"/>
       <c r="C1305" s="1"/>
     </row>
-    <row r="1307" spans="2:3">
-      <c r="B1307" s="1"/>
-      <c r="C1307" s="1"/>
+    <row r="1306" spans="2:3">
+      <c r="B1306" s="1"/>
+      <c r="C1306" s="1"/>
     </row>
     <row r="1308" spans="2:3">
       <c r="B1308" s="1"/>
@@ -7492,9 +7931,9 @@
       <c r="B1310" s="1"/>
       <c r="C1310" s="1"/>
     </row>
-    <row r="1345" spans="2:3">
-      <c r="B1345" s="1"/>
-      <c r="C1345" s="1"/>
+    <row r="1311" spans="2:3">
+      <c r="B1311" s="1"/>
+      <c r="C1311" s="1"/>
     </row>
     <row r="1346" spans="2:3">
       <c r="B1346" s="1"/>
@@ -7516,32 +7955,35 @@
       <c r="B1350" s="1"/>
       <c r="C1350" s="1"/>
     </row>
-    <row r="1392" spans="5:6">
-      <c r="E1392" s="1"/>
-      <c r="F1392" s="1"/>
-    </row>
-    <row r="1393" spans="4:6">
-      <c r="D1393" s="6"/>
-      <c r="E1393" s="1"/>
+    <row r="1351" spans="2:3">
+      <c r="B1351" s="1"/>
+      <c r="C1351" s="1"/>
+    </row>
+    <row r="1393" spans="4:7">
       <c r="F1393" s="1"/>
-    </row>
-    <row r="1394" spans="4:6">
+      <c r="G1393" s="1"/>
+    </row>
+    <row r="1394" spans="4:7">
       <c r="D1394" s="6"/>
-      <c r="E1394" s="1"/>
+      <c r="E1394" s="6"/>
       <c r="F1394" s="1"/>
-    </row>
-    <row r="1395" spans="4:6">
+      <c r="G1394" s="1"/>
+    </row>
+    <row r="1395" spans="4:7">
       <c r="D1395" s="6"/>
-      <c r="E1395" s="1"/>
+      <c r="E1395" s="6"/>
       <c r="F1395" s="1"/>
-    </row>
-    <row r="1396" spans="4:6">
-      <c r="E1396" s="1"/>
+      <c r="G1395" s="1"/>
+    </row>
+    <row r="1396" spans="4:7">
+      <c r="D1396" s="6"/>
+      <c r="E1396" s="6"/>
       <c r="F1396" s="1"/>
-    </row>
-    <row r="1459" spans="2:3">
-      <c r="B1459" s="1"/>
-      <c r="C1459" s="1"/>
+      <c r="G1396" s="1"/>
+    </row>
+    <row r="1397" spans="4:7">
+      <c r="F1397" s="1"/>
+      <c r="G1397" s="1"/>
     </row>
     <row r="1460" spans="2:3">
       <c r="B1460" s="1"/>
@@ -7554,6 +7996,10 @@
     <row r="1462" spans="2:3">
       <c r="B1462" s="1"/>
       <c r="C1462" s="1"/>
+    </row>
+    <row r="1463" spans="2:3">
+      <c r="B1463" s="1"/>
+      <c r="C1463" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/flavi-reference_feature_locations.xlsx
+++ b/tabular/flavi-reference_feature_locations.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus-group/Flaviviridae-GLUE/tabular/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDA3E41-1F9B-704F-9970-9BAE463784E9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27680" yWindow="1480" windowWidth="27820" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="980" yWindow="460" windowWidth="27820" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="97">
   <si>
     <t>featureName</t>
   </si>
@@ -211,13 +217,115 @@
   </si>
   <si>
     <t>NC_027998</t>
+  </si>
+  <si>
+    <t>Clade</t>
+  </si>
+  <si>
+    <t>Mosq1</t>
+  </si>
+  <si>
+    <t>polyprotein</t>
+  </si>
+  <si>
+    <t>Mosq2</t>
+  </si>
+  <si>
+    <t>cISF</t>
+  </si>
+  <si>
+    <t>Tick</t>
+  </si>
+  <si>
+    <t>NC_024806</t>
+  </si>
+  <si>
+    <t>Lammi virus</t>
+  </si>
+  <si>
+    <t>LAMV</t>
+  </si>
+  <si>
+    <t>dISF2</t>
+  </si>
+  <si>
+    <t>NC_027999</t>
+  </si>
+  <si>
+    <t>Paraiso Escondido virus</t>
+  </si>
+  <si>
+    <t>EPEV</t>
+  </si>
+  <si>
+    <t>dISF1</t>
+  </si>
+  <si>
+    <t>NC_003676</t>
+  </si>
+  <si>
+    <t>Apoi virus</t>
+  </si>
+  <si>
+    <t>Apoi</t>
+  </si>
+  <si>
+    <t>SOKV</t>
+  </si>
+  <si>
+    <t>TABV</t>
+  </si>
+  <si>
+    <t>JMTV</t>
+  </si>
+  <si>
+    <t>NKV2</t>
+  </si>
+  <si>
+    <t>NC_026624</t>
+  </si>
+  <si>
+    <t>Sokuluk virus</t>
+  </si>
+  <si>
+    <t>NC_003996</t>
+  </si>
+  <si>
+    <t>Tamana bat virus</t>
+  </si>
+  <si>
+    <t>KJ001579</t>
+  </si>
+  <si>
+    <t>Jingmen tick virus</t>
+  </si>
+  <si>
+    <t>SbCNV-5</t>
+  </si>
+  <si>
+    <t>NC_024077</t>
+  </si>
+  <si>
+    <t>Soybean cyst nematode virus</t>
+  </si>
+  <si>
+    <t>Pesti-like</t>
+  </si>
+  <si>
+    <t>Nematode</t>
+  </si>
+  <si>
+    <t>NS5-like protein</t>
+  </si>
+  <si>
+    <t>NKV1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -261,15 +369,22 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,6 +409,72 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3399"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF18FFA5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6666"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2247,7 +2428,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2266,6 +2447,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1941">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -4216,6 +4417,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -4541,26 +4745,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1462"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H1487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89:C90"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -4573,1052 +4777,1190 @@
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="7">
+        <v>97</v>
+      </c>
+      <c r="H3" s="7">
+        <v>10170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="7">
+        <v>97</v>
+      </c>
+      <c r="H4" s="7">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7">
+        <v>526</v>
+      </c>
+      <c r="H5" s="7">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7">
+        <v>955</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2251</v>
+      </c>
+      <c r="H7" s="7">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7">
+        <v>3421</v>
+      </c>
+      <c r="H8" s="7">
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="7">
+        <v>4042</v>
+      </c>
+      <c r="H9" s="7">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="7">
+        <v>4489</v>
+      </c>
+      <c r="H10" s="7">
+        <v>6249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="7">
+        <v>6250</v>
+      </c>
+      <c r="H11" s="7">
+        <v>6654</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="7">
+        <v>6655</v>
+      </c>
+      <c r="H12" s="7">
+        <v>6723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="7">
+        <v>6724</v>
+      </c>
+      <c r="H13" s="7">
+        <v>7503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7">
+        <v>7504</v>
+      </c>
+      <c r="H14" s="7">
+        <v>10167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="7">
+        <v>10168</v>
+      </c>
+      <c r="H15" s="7">
+        <v>11375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="9">
+        <v>120</v>
+      </c>
+      <c r="H17" s="9">
+        <v>10445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="9">
+        <v>10446</v>
+      </c>
+      <c r="H18" s="9">
+        <v>10761</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="9">
+        <v>16</v>
+      </c>
+      <c r="H20" s="9">
+        <v>10320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>61</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C21" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="7">
+      <c r="G21" s="7">
         <v>1</v>
       </c>
-      <c r="G2" s="7">
+      <c r="H21" s="7">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>61</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B22" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C22" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="7">
+        <v>97</v>
+      </c>
+      <c r="H22" s="7">
+        <v>10389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G23" s="7">
         <v>97</v>
       </c>
-      <c r="G3" s="7">
+      <c r="H23" s="7">
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>61</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B24" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C24" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="D24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="7">
+      <c r="G24" s="7">
         <v>466</v>
       </c>
-      <c r="G4" s="7">
+      <c r="H24" s="7">
         <v>966</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>61</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C25" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="D25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="7">
+      <c r="G25" s="7">
         <v>967</v>
       </c>
-      <c r="G5" s="7">
+      <c r="H25" s="7">
         <v>2457</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>61</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B26" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C26" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="D26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="7">
+      <c r="G26" s="7">
         <v>2458</v>
       </c>
-      <c r="G6" s="7">
+      <c r="H26" s="7">
         <v>3513</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B27" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C27" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="D27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G27" s="7">
         <v>3514</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H27" s="7">
         <v>4206</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>61</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B28" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C28" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="D28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="7">
+      <c r="G28" s="7">
         <v>4207</v>
       </c>
-      <c r="G8" s="7">
+      <c r="H28" s="7">
         <v>4599</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>61</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B29" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C29" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="D29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="7">
+      <c r="G29" s="7">
         <v>4600</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H29" s="7">
         <v>6456</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>61</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B30" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C30" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="D30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="7">
+      <c r="G30" s="7">
         <v>6835</v>
       </c>
-      <c r="G10" s="7">
+      <c r="H30" s="7">
         <v>6903</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>61</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B31" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C31" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="D31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="7">
+      <c r="G31" s="7">
         <v>6904</v>
       </c>
-      <c r="G11" s="7">
+      <c r="H31" s="7">
         <v>7671</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>61</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B32" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C32" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="D32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="7">
+      <c r="G32" s="7">
         <v>7572</v>
       </c>
-      <c r="G12" s="7">
+      <c r="H32" s="7">
         <v>10386</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>61</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B33" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C33" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="D33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="7">
+      <c r="G33" s="7">
         <v>10390</v>
       </c>
-      <c r="G13" s="7">
+      <c r="H33" s="7">
         <v>10962</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>54</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B34" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C34" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="8">
+      <c r="G34" s="8">
         <v>1</v>
       </c>
-      <c r="G14" s="8">
+      <c r="H34" s="8">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>54</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B35" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C35" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35">
+        <v>95</v>
+      </c>
+      <c r="H35">
+        <v>10273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" t="s">
         <v>21</v>
       </c>
-      <c r="F15">
+      <c r="G36">
         <v>95</v>
       </c>
-      <c r="G15">
+      <c r="H36">
         <v>436</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>54</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B37" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C37" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" t="s">
         <v>22</v>
       </c>
-      <c r="F16">
+      <c r="G37">
         <v>437</v>
       </c>
-      <c r="G16">
+      <c r="H37">
         <v>934</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>54</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B38" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C38" t="s">
         <v>26</v>
       </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" t="s">
         <v>23</v>
       </c>
-      <c r="F17">
+      <c r="G38">
         <v>935</v>
       </c>
-      <c r="G17">
+      <c r="H38">
         <v>2419</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>54</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B39" t="s">
         <v>25</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C39" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" t="s">
         <v>5</v>
       </c>
-      <c r="F18">
+      <c r="G39">
         <v>2420</v>
       </c>
-      <c r="G18">
+      <c r="H39">
         <v>3475</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B40" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C40" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" t="s">
         <v>6</v>
       </c>
-      <c r="F19">
+      <c r="G40">
         <v>3476</v>
       </c>
-      <c r="G19">
+      <c r="H40">
         <v>4129</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>54</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B41" t="s">
         <v>25</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C41" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" t="s">
         <v>7</v>
       </c>
-      <c r="F20">
+      <c r="G41">
         <v>4130</v>
       </c>
-      <c r="G20">
+      <c r="H41">
         <v>4519</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>54</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B42" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C42" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" t="s">
         <v>8</v>
       </c>
-      <c r="F21">
+      <c r="G42">
         <v>4520</v>
       </c>
-      <c r="G21">
+      <c r="H42">
         <v>6376</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>54</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B43" t="s">
         <v>25</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C43" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" t="s">
         <v>9</v>
       </c>
-      <c r="F22">
+      <c r="G43">
         <v>6377</v>
       </c>
-      <c r="G22">
+      <c r="H43">
         <v>6757</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>54</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B44" t="s">
         <v>25</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C44" t="s">
         <v>26</v>
       </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" t="s">
         <v>24</v>
       </c>
-      <c r="F23">
+      <c r="G44">
         <v>6758</v>
       </c>
-      <c r="G23">
+      <c r="H44">
         <v>6826</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>54</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B45" t="s">
         <v>25</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C45" t="s">
         <v>26</v>
       </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="F24">
+      <c r="G45">
         <v>7574</v>
       </c>
-      <c r="G24">
+      <c r="H45">
         <v>10270</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>54</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B46" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C46" t="s">
         <v>26</v>
       </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" t="s">
         <v>12</v>
       </c>
-      <c r="F25">
+      <c r="G46">
         <v>10274</v>
       </c>
-      <c r="G25">
+      <c r="H46">
         <v>10735</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="7">
-        <v>1</v>
-      </c>
-      <c r="G26" s="7">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="7">
-        <v>119</v>
-      </c>
-      <c r="G27" s="7">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="7">
-        <v>482</v>
-      </c>
-      <c r="G28" s="7">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="7">
-        <v>974</v>
-      </c>
-      <c r="G29" s="7">
-        <v>2452</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="7">
-        <v>2453</v>
-      </c>
-      <c r="G30" s="7">
-        <v>3508</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="7">
-        <v>3509</v>
-      </c>
-      <c r="G31" s="7">
-        <v>4180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="7">
-        <v>4181</v>
-      </c>
-      <c r="G32" s="7">
-        <v>4570</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="7">
-        <v>4571</v>
-      </c>
-      <c r="G33" s="7">
-        <v>6439</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="7">
-        <v>6440</v>
-      </c>
-      <c r="G34" s="7">
-        <v>6817</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="7">
-        <v>6818</v>
-      </c>
-      <c r="G35" s="7">
-        <v>6886</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="7">
-        <v>6887</v>
-      </c>
-      <c r="G36" s="7">
-        <v>7636</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="7">
-        <v>7637</v>
-      </c>
-      <c r="G37" s="7">
-        <v>10351</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="7">
-        <v>10355</v>
-      </c>
-      <c r="G38" s="7">
-        <v>10862</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="8">
-        <v>1</v>
-      </c>
-      <c r="G39" s="8">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="11">
-        <v>107</v>
-      </c>
-      <c r="G40" s="11">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" s="11">
-        <v>473</v>
-      </c>
-      <c r="G41" s="11">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" s="11">
-        <v>977</v>
-      </c>
-      <c r="G42" s="11">
-        <v>2476</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="11">
-        <v>2477</v>
-      </c>
-      <c r="G43" s="11">
-        <v>3532</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="11">
-        <v>3533</v>
-      </c>
-      <c r="G44" s="11">
-        <v>4210</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="11">
-        <v>4211</v>
-      </c>
-      <c r="G45" s="11">
-        <v>4600</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="11">
-        <v>4601</v>
-      </c>
-      <c r="G46" s="11">
-        <v>6451</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -5631,17 +5973,20 @@
       <c r="D47" t="s">
         <v>19</v>
       </c>
-      <c r="E47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="11">
-        <v>6452</v>
-      </c>
-      <c r="G47" s="11">
-        <v>6832</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="E47" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="8">
+        <v>1</v>
+      </c>
+      <c r="H47" s="8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -5654,17 +5999,20 @@
       <c r="D48" t="s">
         <v>19</v>
       </c>
-      <c r="E48" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" s="11">
-        <v>6833</v>
-      </c>
-      <c r="G48" s="11">
-        <v>6901</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="E48" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" t="s">
+        <v>65</v>
+      </c>
+      <c r="G48">
+        <v>107</v>
+      </c>
+      <c r="H48">
+        <v>10366</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -5677,17 +6025,20 @@
       <c r="D49" t="s">
         <v>19</v>
       </c>
-      <c r="E49" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="11">
-        <v>6902</v>
+      <c r="E49" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" t="s">
+        <v>21</v>
       </c>
       <c r="G49" s="11">
-        <v>7654</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="14" customHeight="1">
+        <v>107</v>
+      </c>
+      <c r="H49" s="11">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -5700,17 +6051,20 @@
       <c r="D50" t="s">
         <v>19</v>
       </c>
-      <c r="E50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="11">
-        <v>7655</v>
+      <c r="E50" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" t="s">
+        <v>22</v>
       </c>
       <c r="G50" s="11">
-        <v>10363</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>473</v>
+      </c>
+      <c r="H50" s="11">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -5723,592 +6077,670 @@
       <c r="D51" t="s">
         <v>19</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="11">
+        <v>977</v>
+      </c>
+      <c r="H51" s="11">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="11">
+        <v>2477</v>
+      </c>
+      <c r="H52" s="11">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="11">
+        <v>3533</v>
+      </c>
+      <c r="H53" s="11">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="11">
+        <v>4211</v>
+      </c>
+      <c r="H54" s="11">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="11">
+        <v>4601</v>
+      </c>
+      <c r="H55" s="11">
+        <v>6451</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="11">
+        <v>6452</v>
+      </c>
+      <c r="H56" s="11">
+        <v>6832</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="11">
+        <v>6833</v>
+      </c>
+      <c r="H57" s="11">
+        <v>6901</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="11">
+        <v>6902</v>
+      </c>
+      <c r="H58" s="11">
+        <v>7654</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="11">
+        <v>7655</v>
+      </c>
+      <c r="H59" s="11">
+        <v>10363</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="11">
+      <c r="G60" s="11">
         <v>10367</v>
       </c>
-      <c r="G51" s="11">
+      <c r="H60" s="11">
         <v>10794</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="7" t="s">
+    <row r="61" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F52" s="7">
+      <c r="G61" s="7">
         <v>1</v>
       </c>
-      <c r="G52" s="7">
+      <c r="H61" s="7">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G62" s="7">
+        <v>119</v>
+      </c>
+      <c r="H62" s="7">
+        <v>10354</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" s="7">
+        <v>119</v>
+      </c>
+      <c r="H63" s="7">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="7">
+        <v>482</v>
+      </c>
+      <c r="H64" s="7">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="7">
+        <v>974</v>
+      </c>
+      <c r="H65" s="7">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="7">
+        <v>2453</v>
+      </c>
+      <c r="H66" s="7">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="7">
+        <v>3509</v>
+      </c>
+      <c r="H67" s="7">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="7">
+        <v>4181</v>
+      </c>
+      <c r="H68" s="7">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="7">
+        <v>4571</v>
+      </c>
+      <c r="H69" s="7">
+        <v>6439</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="7">
+        <v>6440</v>
+      </c>
+      <c r="H70" s="7">
+        <v>6817</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>55</v>
+      </c>
+      <c r="B71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71" s="7">
+        <v>6818</v>
+      </c>
+      <c r="H71" s="7">
+        <v>6886</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="7">
+        <v>6887</v>
+      </c>
+      <c r="H72" s="7">
+        <v>7636</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="7">
+        <v>7637</v>
+      </c>
+      <c r="H73" s="7">
+        <v>10351</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="7">
+        <v>10355</v>
+      </c>
+      <c r="H74" s="7">
+        <v>10862</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="19" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F53" s="7">
-        <v>97</v>
-      </c>
-      <c r="G53" s="7">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F54" s="7">
-        <v>526</v>
-      </c>
-      <c r="G54" s="7">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F55" s="7">
-        <v>955</v>
-      </c>
-      <c r="G55" s="7">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="16" customHeight="1">
-      <c r="A56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" t="s">
-        <v>31</v>
-      </c>
-      <c r="C56" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="7">
-        <v>2251</v>
-      </c>
-      <c r="G56" s="7">
-        <v>3420</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>31</v>
-      </c>
-      <c r="C57" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" s="7">
-        <v>3421</v>
-      </c>
-      <c r="G57" s="7">
-        <v>4041</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>31</v>
-      </c>
-      <c r="C58" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" s="7">
-        <v>4042</v>
-      </c>
-      <c r="G58" s="7">
-        <v>4488</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="7">
-        <v>4489</v>
-      </c>
-      <c r="G59" s="7">
-        <v>6249</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" t="s">
-        <v>31</v>
-      </c>
-      <c r="C60" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="7">
-        <v>6250</v>
-      </c>
-      <c r="G60" s="7">
-        <v>6654</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" t="s">
-        <v>57</v>
-      </c>
-      <c r="B61" t="s">
-        <v>31</v>
-      </c>
-      <c r="C61" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F61" s="7">
-        <v>6655</v>
-      </c>
-      <c r="G61" s="7">
-        <v>6723</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" t="s">
-        <v>57</v>
-      </c>
-      <c r="B62" t="s">
-        <v>31</v>
-      </c>
-      <c r="C62" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="7">
-        <v>6724</v>
-      </c>
-      <c r="G62" s="7">
-        <v>7503</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" t="s">
-        <v>57</v>
-      </c>
-      <c r="B63" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="7">
-        <v>7504</v>
-      </c>
-      <c r="G63" s="7">
-        <v>10167</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" t="s">
-        <v>57</v>
-      </c>
-      <c r="B64" t="s">
-        <v>31</v>
-      </c>
-      <c r="C64" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="7">
-        <v>10168</v>
-      </c>
-      <c r="G64" s="7">
-        <v>11375</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" t="s">
-        <v>58</v>
-      </c>
-      <c r="B65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C65" t="s">
-        <v>33</v>
-      </c>
-      <c r="D65" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" s="10">
+      <c r="F75" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G75" s="9">
         <v>1</v>
       </c>
-      <c r="G65" s="10">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" t="s">
-        <v>58</v>
-      </c>
-      <c r="B66" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" t="s">
-        <v>33</v>
-      </c>
-      <c r="D66" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" t="s">
-        <v>21</v>
-      </c>
-      <c r="F66" s="9">
-        <v>112</v>
-      </c>
-      <c r="G66" s="9">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" t="s">
-        <v>58</v>
-      </c>
-      <c r="B67" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" t="s">
-        <v>33</v>
-      </c>
-      <c r="D67" t="s">
-        <v>19</v>
-      </c>
-      <c r="E67" t="s">
-        <v>22</v>
-      </c>
-      <c r="F67" s="9">
-        <v>442</v>
-      </c>
-      <c r="G67" s="9">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" t="s">
-        <v>58</v>
-      </c>
-      <c r="B68" t="s">
-        <v>32</v>
-      </c>
-      <c r="C68" t="s">
-        <v>33</v>
-      </c>
-      <c r="D68" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" t="s">
-        <v>23</v>
-      </c>
-      <c r="F68" s="9">
-        <v>946</v>
-      </c>
-      <c r="G68" s="9">
-        <v>2436</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" t="s">
-        <v>58</v>
-      </c>
-      <c r="B69" t="s">
-        <v>32</v>
-      </c>
-      <c r="C69" t="s">
-        <v>33</v>
-      </c>
-      <c r="D69" t="s">
-        <v>19</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" s="9">
-        <v>2437</v>
-      </c>
-      <c r="G69" s="9">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" t="s">
-        <v>58</v>
-      </c>
-      <c r="B70" t="s">
-        <v>32</v>
-      </c>
-      <c r="C70" t="s">
-        <v>33</v>
-      </c>
-      <c r="D70" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F70" s="9">
-        <v>3496</v>
-      </c>
-      <c r="G70" s="9">
-        <v>4185</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" t="s">
-        <v>58</v>
-      </c>
-      <c r="B71" t="s">
-        <v>32</v>
-      </c>
-      <c r="C71" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" s="9">
-        <v>4186</v>
-      </c>
-      <c r="G71" s="9">
-        <v>4578</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" t="s">
-        <v>58</v>
-      </c>
-      <c r="B72" t="s">
-        <v>32</v>
-      </c>
-      <c r="C72" t="s">
-        <v>33</v>
-      </c>
-      <c r="D72" t="s">
-        <v>19</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="9">
-        <v>4579</v>
-      </c>
-      <c r="G72" s="9">
-        <v>6444</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" t="s">
-        <v>58</v>
-      </c>
-      <c r="B73" t="s">
-        <v>32</v>
-      </c>
-      <c r="C73" t="s">
-        <v>33</v>
-      </c>
-      <c r="D73" t="s">
-        <v>19</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" s="9">
-        <v>6445</v>
-      </c>
-      <c r="G73" s="9">
-        <v>6822</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" t="s">
-        <v>58</v>
-      </c>
-      <c r="B74" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D74" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F74" s="9">
-        <v>6823</v>
-      </c>
-      <c r="G74" s="9">
-        <v>6891</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" t="s">
-        <v>58</v>
-      </c>
-      <c r="B75" t="s">
-        <v>32</v>
-      </c>
-      <c r="C75" t="s">
-        <v>33</v>
-      </c>
-      <c r="D75" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" s="9">
-        <v>6892</v>
-      </c>
-      <c r="G75" s="9">
-        <v>7647</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75" s="9">
+        <v>10116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
-      </c>
-      <c r="D76" t="s">
-        <v>19</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="9">
-        <v>7648</v>
-      </c>
-      <c r="G76" s="9">
-        <v>10356</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>80</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>10242</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>58</v>
       </c>
@@ -6321,1241 +6753,2015 @@
       <c r="D77" t="s">
         <v>19</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" s="10">
+        <v>1</v>
+      </c>
+      <c r="H77" s="10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>58</v>
+      </c>
+      <c r="B78" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G78" s="10">
+        <v>112</v>
+      </c>
+      <c r="H78" s="10">
+        <v>10359</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>58</v>
+      </c>
+      <c r="B79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F79" t="s">
+        <v>21</v>
+      </c>
+      <c r="G79" s="9">
+        <v>112</v>
+      </c>
+      <c r="H79" s="9">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F80" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" s="9">
+        <v>442</v>
+      </c>
+      <c r="H80" s="9">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>58</v>
+      </c>
+      <c r="B81" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81" s="9">
+        <v>946</v>
+      </c>
+      <c r="H81" s="9">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>58</v>
+      </c>
+      <c r="B82" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G82" s="9">
+        <v>2437</v>
+      </c>
+      <c r="H82" s="9">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>58</v>
+      </c>
+      <c r="B83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" s="9">
+        <v>3496</v>
+      </c>
+      <c r="H83" s="9">
+        <v>4185</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" s="9">
+        <v>4186</v>
+      </c>
+      <c r="H84" s="9">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>58</v>
+      </c>
+      <c r="B85" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="9">
+        <v>4579</v>
+      </c>
+      <c r="H85" s="9">
+        <v>6444</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>58</v>
+      </c>
+      <c r="B86" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="9">
+        <v>6445</v>
+      </c>
+      <c r="H86" s="9">
+        <v>6822</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>58</v>
+      </c>
+      <c r="B87" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G87" s="9">
+        <v>6823</v>
+      </c>
+      <c r="H87" s="9">
+        <v>6891</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>58</v>
+      </c>
+      <c r="B88" t="s">
+        <v>32</v>
+      </c>
+      <c r="C88" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="9">
+        <v>6892</v>
+      </c>
+      <c r="H88" s="9">
+        <v>7647</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>58</v>
+      </c>
+      <c r="B89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" s="9">
+        <v>7648</v>
+      </c>
+      <c r="H89" s="9">
+        <v>10356</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>58</v>
+      </c>
+      <c r="B90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F90" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F77" s="9">
+      <c r="G90" s="9">
         <v>10357</v>
       </c>
-      <c r="G77" s="9">
+      <c r="H90" s="9">
         <v>10839</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
-      <c r="A78" t="s">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>59</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B91" t="s">
         <v>34</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C91" t="s">
         <v>35</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D91" t="s">
         <v>36</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E91"/>
+      <c r="F91" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F78" s="10">
+      <c r="G91" s="10">
         <v>1</v>
       </c>
-      <c r="G78" s="10">
+      <c r="H91" s="10">
         <v>341</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79" t="s">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>59</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B92" t="s">
         <v>34</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C92" t="s">
         <v>35</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D92" t="s">
         <v>36</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E92"/>
+      <c r="F92" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G92" s="10">
+        <v>342</v>
+      </c>
+      <c r="H92" s="10">
+        <v>9377</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>59</v>
+      </c>
+      <c r="B93" t="s">
+        <v>34</v>
+      </c>
+      <c r="C93" t="s">
+        <v>35</v>
+      </c>
+      <c r="D93" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93"/>
+      <c r="F93" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F79" s="9">
+      <c r="G93" s="9">
         <v>342</v>
       </c>
-      <c r="G79" s="9">
+      <c r="H93" s="9">
         <v>914</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
-      <c r="A80" t="s">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>59</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B94" t="s">
         <v>34</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C94" t="s">
         <v>35</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D94" t="s">
         <v>36</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E94"/>
+      <c r="F94" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F80" s="9">
+      <c r="G94" s="9">
         <v>915</v>
       </c>
-      <c r="G80" s="9">
+      <c r="H94" s="9">
         <v>1490</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
-      <c r="A81" t="s">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>59</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B95" t="s">
         <v>34</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C95" t="s">
         <v>35</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D95" t="s">
         <v>36</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E95"/>
+      <c r="F95" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F81" s="9">
+      <c r="G95" s="9">
         <v>1491</v>
       </c>
-      <c r="G81" s="9">
+      <c r="H95" s="9">
         <v>2579</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
-      <c r="A82" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>59</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B96" t="s">
         <v>34</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C96" t="s">
         <v>35</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D96" t="s">
         <v>36</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E96"/>
+      <c r="F96" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F82" s="9">
+      <c r="G96" s="9">
         <v>2580</v>
       </c>
-      <c r="G82" s="9">
+      <c r="H96" s="9">
         <v>2768</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
-      <c r="A83" t="s">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>59</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B97" t="s">
         <v>34</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C97" t="s">
         <v>35</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D97" t="s">
         <v>36</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E97"/>
+      <c r="F97" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F83" s="9">
+      <c r="G97" s="9">
         <v>2769</v>
       </c>
-      <c r="G83" s="9">
+      <c r="H97" s="9">
         <v>3419</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
-      <c r="A84" t="s">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>59</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B98" t="s">
         <v>34</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C98" t="s">
         <v>35</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D98" t="s">
         <v>36</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="E98"/>
+      <c r="F98" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F84" s="9">
+      <c r="G98" s="9">
         <v>3420</v>
       </c>
-      <c r="G84" s="9">
+      <c r="H98" s="9">
         <v>5312</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
-      <c r="A85" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>59</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B99" t="s">
         <v>34</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C99" t="s">
         <v>35</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D99" t="s">
         <v>36</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="E99"/>
+      <c r="F99" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F85" s="9">
+      <c r="G99" s="9">
         <v>5313</v>
       </c>
-      <c r="G85" s="9">
+      <c r="H99" s="9">
         <v>5474</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
-      <c r="A86" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>59</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B100" t="s">
         <v>34</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C100" t="s">
         <v>35</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D100" t="s">
         <v>36</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E100"/>
+      <c r="F100" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F86" s="9">
+      <c r="G100" s="9">
         <v>5475</v>
       </c>
-      <c r="G86" s="9">
+      <c r="H100" s="9">
         <v>6257</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
-      <c r="A87" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>59</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B101" t="s">
         <v>34</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C101" t="s">
         <v>35</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D101" t="s">
         <v>36</v>
       </c>
-      <c r="E87" s="9" t="s">
+      <c r="E101"/>
+      <c r="F101" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F87" s="9">
+      <c r="G101" s="9">
         <v>6258</v>
       </c>
-      <c r="G87" s="9">
+      <c r="H101" s="9">
         <v>7601</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
-      <c r="A88" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>59</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B102" t="s">
         <v>34</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C102" t="s">
         <v>35</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D102" t="s">
         <v>36</v>
       </c>
-      <c r="E88" s="9" t="s">
+      <c r="E102"/>
+      <c r="F102" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F88" s="9">
+      <c r="G102" s="9">
         <v>7602</v>
       </c>
-      <c r="G88" s="9">
+      <c r="H102" s="9">
         <v>9374</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
-      <c r="A89" t="s">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>59</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B103" t="s">
         <v>34</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C103" t="s">
         <v>35</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D103" t="s">
         <v>36</v>
       </c>
-      <c r="E89" s="9" t="s">
+      <c r="E103"/>
+      <c r="F103" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="9">
+      <c r="G103" s="9">
         <v>9378</v>
       </c>
-      <c r="G89" s="9">
+      <c r="H103" s="9">
         <v>9646</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
-      <c r="A90" t="s">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>88</v>
+      </c>
+      <c r="B104" t="s">
+        <v>89</v>
+      </c>
+      <c r="C104" t="s">
+        <v>82</v>
+      </c>
+      <c r="D104" t="s">
+        <v>82</v>
+      </c>
+      <c r="E104" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>88</v>
+      </c>
+      <c r="B105" t="s">
+        <v>89</v>
+      </c>
+      <c r="C105" t="s">
+        <v>82</v>
+      </c>
+      <c r="D105" t="s">
+        <v>82</v>
+      </c>
+      <c r="E105" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G105">
+        <v>105</v>
+      </c>
+      <c r="H105">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>88</v>
+      </c>
+      <c r="B106" t="s">
+        <v>89</v>
+      </c>
+      <c r="C106" t="s">
+        <v>82</v>
+      </c>
+      <c r="D106" t="s">
+        <v>82</v>
+      </c>
+      <c r="E106" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106">
+        <v>2850</v>
+      </c>
+      <c r="H106">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>62</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B107" t="s">
         <v>44</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C107" t="s">
         <v>45</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D107" t="s">
         <v>46</v>
       </c>
-      <c r="E90" s="9" t="s">
+      <c r="E107"/>
+      <c r="F107" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F90" s="10">
+      <c r="G107" s="10">
         <v>1</v>
       </c>
-      <c r="G90" s="10">
+      <c r="H107" s="10">
         <v>327</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
-      <c r="A91" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>62</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B108" t="s">
         <v>44</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C108" t="s">
         <v>45</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D108" t="s">
         <v>46</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E108"/>
+      <c r="F108" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G108" s="10">
+        <v>328</v>
+      </c>
+      <c r="H108" s="10">
+        <v>9501</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>62</v>
+      </c>
+      <c r="B109" t="s">
+        <v>44</v>
+      </c>
+      <c r="C109" t="s">
+        <v>45</v>
+      </c>
+      <c r="D109" t="s">
+        <v>46</v>
+      </c>
+      <c r="E109"/>
+      <c r="F109" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F91" s="9">
+      <c r="G109" s="9">
         <v>328</v>
       </c>
-      <c r="G91" s="9">
+      <c r="H109" s="9">
         <v>564</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
-      <c r="A92" t="s">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>62</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B110" t="s">
         <v>44</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C110" t="s">
         <v>45</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D110" t="s">
         <v>46</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="E110"/>
+      <c r="F110" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F92" s="9">
+      <c r="G110" s="9">
         <v>565</v>
       </c>
-      <c r="G92" s="9">
+      <c r="H110" s="9">
         <v>1137</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
-      <c r="A93" t="s">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>62</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B111" t="s">
         <v>44</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C111" t="s">
         <v>45</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D111" t="s">
         <v>46</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="E111"/>
+      <c r="F111" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F93" s="9">
+      <c r="G111" s="9">
         <v>1138</v>
       </c>
-      <c r="G93" s="9">
+      <c r="H111" s="9">
         <v>2199</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
-      <c r="A94" t="s">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>62</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B112" t="s">
         <v>44</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C112" t="s">
         <v>45</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D112" t="s">
         <v>46</v>
       </c>
-      <c r="E94" s="9" t="s">
+      <c r="E112"/>
+      <c r="F112" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F94" s="9">
+      <c r="G112" s="9">
         <v>2200</v>
       </c>
-      <c r="G94" s="9">
+      <c r="H112" s="9">
         <v>2910</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
-      <c r="A95" t="s">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>62</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B113" t="s">
         <v>44</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C113" t="s">
         <v>45</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D113" t="s">
         <v>46</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="E113"/>
+      <c r="F113" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F95" s="9">
+      <c r="G113" s="9">
         <v>2911</v>
       </c>
-      <c r="G95" s="9">
+      <c r="H113" s="9">
         <v>3630</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
-      <c r="A96" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>62</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B114" t="s">
         <v>44</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C114" t="s">
         <v>45</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D114" t="s">
         <v>46</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E114"/>
+      <c r="F114" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F96" s="9">
+      <c r="G114" s="9">
         <v>3631</v>
       </c>
-      <c r="G96" s="9">
+      <c r="H114" s="9">
         <v>5514</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
-      <c r="A97" t="s">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>62</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B115" t="s">
         <v>44</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C115" t="s">
         <v>45</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D115" t="s">
         <v>46</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="E115"/>
+      <c r="F115" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F97" s="9">
+      <c r="G115" s="9">
         <v>5515</v>
       </c>
-      <c r="G97" s="9">
+      <c r="H115" s="9">
         <v>5637</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
-      <c r="A98" t="s">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>62</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B116" t="s">
         <v>44</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C116" t="s">
         <v>45</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D116" t="s">
         <v>46</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="E116"/>
+      <c r="F116" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F98" s="9">
+      <c r="G116" s="9">
         <v>5638</v>
       </c>
-      <c r="G98" s="9">
+      <c r="H116" s="9">
         <v>6423</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
-      <c r="A99" t="s">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>62</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B117" t="s">
         <v>44</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C117" t="s">
         <v>45</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D117" t="s">
         <v>46</v>
       </c>
-      <c r="E99" s="9" t="s">
+      <c r="E117"/>
+      <c r="F117" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F99" s="9">
+      <c r="G117" s="9">
         <v>6424</v>
       </c>
-      <c r="G99" s="9">
+      <c r="H117" s="9">
         <v>7797</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
-      <c r="A100" t="s">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>62</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B118" t="s">
         <v>44</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C118" t="s">
         <v>45</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D118" t="s">
         <v>46</v>
       </c>
-      <c r="E100" s="9" t="s">
+      <c r="E118"/>
+      <c r="F118" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F100" s="9">
+      <c r="G118" s="9">
         <v>7798</v>
       </c>
-      <c r="G100" s="9">
+      <c r="H118" s="9">
         <v>9498</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
-      <c r="A101" t="s">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>62</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B119" t="s">
         <v>44</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C119" t="s">
         <v>45</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D119" t="s">
         <v>46</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="E119"/>
+      <c r="F119" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F101" s="9">
+      <c r="G119" s="9">
         <v>9502</v>
       </c>
-      <c r="G101" s="9">
+      <c r="H119" s="9">
         <v>9867</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
-      <c r="A102" t="s">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>91</v>
+      </c>
+      <c r="B120" t="s">
+        <v>92</v>
+      </c>
+      <c r="C120" t="s">
+        <v>90</v>
+      </c>
+      <c r="D120" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E120" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>91</v>
+      </c>
+      <c r="B121" t="s">
+        <v>92</v>
+      </c>
+      <c r="C121" t="s">
+        <v>90</v>
+      </c>
+      <c r="D121" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E121" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G121">
+        <v>351</v>
+      </c>
+      <c r="H121">
+        <v>18068</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>91</v>
+      </c>
+      <c r="B122" t="s">
+        <v>92</v>
+      </c>
+      <c r="C122" t="s">
+        <v>90</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E122" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122">
+        <v>18069</v>
+      </c>
+      <c r="H122">
+        <v>19199</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>60</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B123" t="s">
         <v>49</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C123" t="s">
         <v>50</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D123" t="s">
         <v>51</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="E123"/>
+      <c r="F123" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F102" s="10">
+      <c r="G123" s="10">
         <v>1</v>
       </c>
-      <c r="G102" s="10">
+      <c r="H123" s="10">
         <v>385</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
-      <c r="A103" t="s">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>60</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B124" t="s">
         <v>49</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C124" t="s">
         <v>50</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D124" t="s">
         <v>51</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="E124"/>
+      <c r="F124" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G124" s="10">
+        <v>386</v>
+      </c>
+      <c r="H124" s="10">
+        <v>12352</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>60</v>
+      </c>
+      <c r="B125" t="s">
+        <v>49</v>
+      </c>
+      <c r="C125" t="s">
+        <v>50</v>
+      </c>
+      <c r="D125" t="s">
+        <v>51</v>
+      </c>
+      <c r="E125"/>
+      <c r="F125" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F103" s="9">
+      <c r="G125" s="9">
         <v>386</v>
       </c>
-      <c r="G103" s="9">
+      <c r="H125" s="9">
         <v>889</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
-      <c r="A104" t="s">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>60</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B126" t="s">
         <v>49</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C126" t="s">
         <v>50</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D126" t="s">
         <v>51</v>
       </c>
-      <c r="E104" s="9" t="s">
+      <c r="E126"/>
+      <c r="F126" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F104" s="9">
+      <c r="G126" s="9">
         <v>890</v>
       </c>
-      <c r="G104" s="9">
+      <c r="H126" s="9">
         <v>1195</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
-      <c r="A105" t="s">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>60</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B127" t="s">
         <v>49</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C127" t="s">
         <v>50</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D127" t="s">
         <v>51</v>
       </c>
-      <c r="E105" s="9" t="s">
+      <c r="E127"/>
+      <c r="F127" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F105" s="9">
+      <c r="G127" s="9">
         <v>1196</v>
       </c>
-      <c r="G105" s="9">
+      <c r="H127" s="9">
         <v>1876</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
-      <c r="A106" t="s">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>60</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B128" t="s">
         <v>49</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C128" t="s">
         <v>50</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D128" t="s">
         <v>51</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E128"/>
+      <c r="F128" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F106" s="9">
+      <c r="G128" s="9">
         <v>1877</v>
       </c>
-      <c r="G106" s="9">
+      <c r="H128" s="9">
         <v>2461</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
-      <c r="A107" t="s">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>60</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B129" t="s">
         <v>49</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C129" t="s">
         <v>50</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D129" t="s">
         <v>51</v>
       </c>
-      <c r="E107" s="9" t="s">
+      <c r="E129"/>
+      <c r="F129" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F107" s="9">
+      <c r="G129" s="9">
         <v>2462</v>
       </c>
-      <c r="G107" s="9">
+      <c r="H129" s="9">
         <v>3583</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
-      <c r="A108" t="s">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>60</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B130" t="s">
         <v>49</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C130" t="s">
         <v>50</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D130" t="s">
         <v>51</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="E130"/>
+      <c r="F130" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F108" s="9">
+      <c r="G130" s="9">
         <v>3584</v>
       </c>
-      <c r="G108" s="9">
+      <c r="H130" s="9">
         <v>3793</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
-      <c r="A109" t="s">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>60</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B131" t="s">
         <v>49</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C131" t="s">
         <v>50</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D131" t="s">
         <v>51</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="E131"/>
+      <c r="F131" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F109" s="9">
+      <c r="G131" s="9">
         <v>3794</v>
       </c>
-      <c r="G109" s="9">
+      <c r="H131" s="9">
         <v>7471</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
-      <c r="A110" t="s">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>60</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B132" t="s">
         <v>49</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C132" t="s">
         <v>50</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D132" t="s">
         <v>51</v>
       </c>
-      <c r="E110" s="9" t="s">
+      <c r="E132"/>
+      <c r="F132" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F110" s="9">
+      <c r="G132" s="9">
         <v>7472</v>
       </c>
-      <c r="G110" s="9">
+      <c r="H132" s="9">
         <v>7663</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
-      <c r="A111" t="s">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>60</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B133" t="s">
         <v>49</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C133" t="s">
         <v>50</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D133" t="s">
         <v>51</v>
       </c>
-      <c r="E111" s="9" t="s">
+      <c r="E133"/>
+      <c r="F133" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F111" s="9">
+      <c r="G133" s="9">
         <v>7664</v>
       </c>
-      <c r="G111" s="9">
+      <c r="H133" s="9">
         <v>8704</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
-      <c r="A112" t="s">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>60</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B134" t="s">
         <v>49</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C134" t="s">
         <v>50</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D134" t="s">
         <v>51</v>
       </c>
-      <c r="E112" s="9" t="s">
+      <c r="E134"/>
+      <c r="F134" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F112" s="9">
+      <c r="G134" s="9">
         <v>8705</v>
       </c>
-      <c r="G112" s="9">
+      <c r="H134" s="9">
         <v>10192</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
-      <c r="A113" t="s">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>60</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B135" t="s">
         <v>49</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C135" t="s">
         <v>50</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D135" t="s">
         <v>51</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="E135"/>
+      <c r="F135" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F113" s="9">
+      <c r="G135" s="9">
         <v>10193</v>
       </c>
-      <c r="G113" s="9">
+      <c r="H135" s="9">
         <v>12349</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
-      <c r="A114" t="s">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>60</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B136" t="s">
         <v>49</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C136" t="s">
         <v>50</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D136" t="s">
         <v>51</v>
       </c>
-      <c r="E114" s="9" t="s">
+      <c r="E136"/>
+      <c r="F136" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F114" s="9">
+      <c r="G136" s="9">
         <v>12360</v>
       </c>
-      <c r="G114" s="9">
+      <c r="H136" s="9">
         <v>12573</v>
       </c>
     </row>
-    <row r="184" spans="2:4">
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="5"/>
-    </row>
-    <row r="185" spans="2:4">
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="5"/>
-    </row>
-    <row r="186" spans="2:4">
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="5"/>
-    </row>
-    <row r="187" spans="2:4">
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="5"/>
-    </row>
-    <row r="188" spans="2:4">
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="5"/>
-    </row>
-    <row r="189" spans="2:4">
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="5"/>
-    </row>
-    <row r="190" spans="2:4">
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="5"/>
-    </row>
-    <row r="191" spans="2:4">
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="5"/>
-    </row>
-    <row r="192" spans="2:4">
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="5"/>
-    </row>
-    <row r="193" spans="2:4">
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="5"/>
-    </row>
-    <row r="194" spans="2:4">
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="5"/>
-    </row>
-    <row r="195" spans="2:4">
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="5"/>
-    </row>
-    <row r="196" spans="2:4">
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="5"/>
-    </row>
-    <row r="197" spans="2:4">
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
-      <c r="D197" s="5"/>
-    </row>
-    <row r="198" spans="2:4">
-      <c r="B198" s="1"/>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>86</v>
+      </c>
+      <c r="B137" t="s">
+        <v>87</v>
+      </c>
+      <c r="C137" t="s">
+        <v>81</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E137" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>10053</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C198" s="1"/>
-      <c r="D198" s="5"/>
-    </row>
-    <row r="199" spans="2:4">
-      <c r="B199" s="1"/>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C199" s="1"/>
-      <c r="D199" s="5"/>
-    </row>
-    <row r="200" spans="2:4">
-      <c r="B200" s="1"/>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C200" s="1"/>
-      <c r="D200" s="5"/>
-    </row>
-    <row r="201" spans="2:4">
-      <c r="B201" s="1"/>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C201" s="1"/>
-      <c r="D201" s="5"/>
-    </row>
-    <row r="202" spans="2:4">
-      <c r="B202" s="1"/>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C202" s="1"/>
-      <c r="D202" s="5"/>
-    </row>
-    <row r="203" spans="2:4">
-      <c r="B203" s="1"/>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C203" s="1"/>
-      <c r="D203" s="5"/>
-    </row>
-    <row r="204" spans="2:4">
-      <c r="B204" s="1"/>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C204" s="1"/>
-      <c r="D204" s="5"/>
-    </row>
-    <row r="205" spans="2:4">
-      <c r="B205" s="1"/>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C205" s="1"/>
-      <c r="D205" s="5"/>
-    </row>
-    <row r="206" spans="2:4">
-      <c r="B206" s="1"/>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C206" s="1"/>
-      <c r="D206" s="5"/>
-    </row>
-    <row r="207" spans="2:4">
-      <c r="B207" s="1"/>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C207" s="1"/>
-      <c r="D207" s="5"/>
-    </row>
-    <row r="208" spans="2:4">
-      <c r="B208" s="1"/>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C208" s="1"/>
     </row>
-    <row r="209" spans="2:4">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="5"/>
-    </row>
-    <row r="210" spans="2:4">
+      <c r="E209" s="5"/>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="5"/>
-    </row>
-    <row r="211" spans="2:4">
+      <c r="E210" s="5"/>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="5"/>
-    </row>
-    <row r="212" spans="2:4">
+      <c r="E211" s="5"/>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="5"/>
-    </row>
-    <row r="213" spans="2:4">
+      <c r="E212" s="5"/>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="5"/>
-    </row>
-    <row r="214" spans="2:4">
+      <c r="E213" s="5"/>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="5"/>
-    </row>
-    <row r="215" spans="2:4">
+      <c r="E214" s="5"/>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="5"/>
-    </row>
-    <row r="898" spans="5:5">
-      <c r="E898" s="1"/>
-    </row>
-    <row r="1034" spans="2:3">
-      <c r="B1034" s="1"/>
-      <c r="C1034" s="1"/>
-    </row>
-    <row r="1035" spans="2:3">
-      <c r="B1035" s="1"/>
-      <c r="C1035" s="1"/>
-    </row>
-    <row r="1160" spans="2:3">
-      <c r="B1160" s="1"/>
-      <c r="C1160" s="1"/>
-    </row>
-    <row r="1161" spans="2:3">
-      <c r="B1161" s="1"/>
-      <c r="C1161" s="1"/>
-    </row>
-    <row r="1162" spans="2:3">
-      <c r="B1162" s="1"/>
-      <c r="C1162" s="1"/>
-    </row>
-    <row r="1163" spans="2:3">
-      <c r="B1163" s="1"/>
-      <c r="C1163" s="1"/>
-    </row>
-    <row r="1164" spans="2:3">
-      <c r="B1164" s="1"/>
-      <c r="C1164" s="1"/>
-    </row>
-    <row r="1165" spans="2:3">
-      <c r="B1165" s="1"/>
-      <c r="C1165" s="1"/>
-    </row>
-    <row r="1210" spans="2:6">
-      <c r="E1210" s="1"/>
-      <c r="F1210" s="1"/>
-    </row>
-    <row r="1211" spans="2:6">
-      <c r="E1211" s="1"/>
-      <c r="F1211" s="1"/>
-    </row>
-    <row r="1212" spans="2:6">
-      <c r="E1212" s="1"/>
-      <c r="F1212" s="1"/>
-    </row>
-    <row r="1214" spans="2:6">
-      <c r="B1214" s="1"/>
-      <c r="C1214" s="1"/>
-    </row>
-    <row r="1215" spans="2:6">
-      <c r="B1215" s="1"/>
-      <c r="C1215" s="1"/>
-    </row>
-    <row r="1216" spans="2:6">
-      <c r="B1216" s="1"/>
-      <c r="C1216" s="1"/>
-    </row>
-    <row r="1217" spans="2:3">
-      <c r="B1217" s="1"/>
-      <c r="C1217" s="1"/>
-    </row>
-    <row r="1218" spans="2:3">
-      <c r="B1218" s="1"/>
-      <c r="C1218" s="1"/>
-    </row>
-    <row r="1237" spans="2:3">
-      <c r="B1237" s="1"/>
-      <c r="C1237" s="1"/>
-    </row>
-    <row r="1238" spans="2:3">
-      <c r="B1238" s="1"/>
-      <c r="C1238" s="1"/>
-    </row>
-    <row r="1239" spans="2:3">
+      <c r="E215" s="5"/>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="5"/>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5"/>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="5"/>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="5"/>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="5"/>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="5"/>
+      <c r="E227" s="5"/>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="5"/>
+      <c r="E228" s="5"/>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="5"/>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B230" s="1"/>
+      <c r="D230" s="5"/>
+      <c r="E230" s="5"/>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B231" s="1"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="5"/>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B232" s="1"/>
+      <c r="D232" s="5"/>
+      <c r="E232" s="5"/>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B233" s="1"/>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B234" s="1"/>
+      <c r="D234" s="5"/>
+      <c r="E234" s="5"/>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B235" s="1"/>
+      <c r="D235" s="5"/>
+      <c r="E235" s="5"/>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B236" s="1"/>
+      <c r="D236" s="5"/>
+      <c r="E236" s="5"/>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B237" s="1"/>
+      <c r="D237" s="5"/>
+      <c r="E237" s="5"/>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B238" s="1"/>
+      <c r="D238" s="5"/>
+      <c r="E238" s="5"/>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B239" s="1"/>
+      <c r="D239" s="5"/>
+      <c r="E239" s="5"/>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B240" s="1"/>
+      <c r="D240" s="5"/>
+      <c r="E240" s="5"/>
+    </row>
+    <row r="923" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F923" s="1"/>
+    </row>
+    <row r="1048" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1048" s="1"/>
+    </row>
+    <row r="1049" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1049" s="1"/>
+    </row>
+    <row r="1059" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1059" s="1"/>
+    </row>
+    <row r="1060" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1060" s="1"/>
+    </row>
+    <row r="1174" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1174" s="1"/>
+    </row>
+    <row r="1175" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1175" s="1"/>
+    </row>
+    <row r="1176" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1176" s="1"/>
+    </row>
+    <row r="1177" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1177" s="1"/>
+    </row>
+    <row r="1178" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1178" s="1"/>
+    </row>
+    <row r="1179" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1179" s="1"/>
+    </row>
+    <row r="1185" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1185" s="1"/>
+    </row>
+    <row r="1186" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1186" s="1"/>
+    </row>
+    <row r="1187" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1187" s="1"/>
+    </row>
+    <row r="1188" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1188" s="1"/>
+    </row>
+    <row r="1189" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1189" s="1"/>
+    </row>
+    <row r="1190" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1190" s="1"/>
+    </row>
+    <row r="1228" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1228" s="1"/>
+    </row>
+    <row r="1229" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1229" s="1"/>
+    </row>
+    <row r="1230" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1230" s="1"/>
+    </row>
+    <row r="1231" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1231" s="1"/>
+    </row>
+    <row r="1232" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1232" s="1"/>
+    </row>
+    <row r="1235" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F1235" s="1"/>
+      <c r="G1235" s="1"/>
+    </row>
+    <row r="1236" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F1236" s="1"/>
+      <c r="G1236" s="1"/>
+    </row>
+    <row r="1237" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F1237" s="1"/>
+      <c r="G1237" s="1"/>
+    </row>
+    <row r="1239" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1239" s="1"/>
-      <c r="C1239" s="1"/>
-    </row>
-    <row r="1240" spans="2:3">
+    </row>
+    <row r="1240" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1240" s="1"/>
-      <c r="C1240" s="1"/>
-    </row>
-    <row r="1241" spans="2:3">
+    </row>
+    <row r="1241" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1241" s="1"/>
-      <c r="C1241" s="1"/>
-    </row>
-    <row r="1242" spans="2:3">
+    </row>
+    <row r="1242" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1242" s="1"/>
-      <c r="C1242" s="1"/>
-    </row>
-    <row r="1243" spans="2:3">
+    </row>
+    <row r="1243" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1243" s="1"/>
-      <c r="C1243" s="1"/>
-    </row>
-    <row r="1245" spans="2:3">
-      <c r="B1245" s="1"/>
-      <c r="C1245" s="1"/>
-    </row>
-    <row r="1246" spans="2:3">
-      <c r="B1246" s="1"/>
-      <c r="C1246" s="1"/>
-    </row>
-    <row r="1247" spans="2:3">
-      <c r="B1247" s="1"/>
-      <c r="C1247" s="1"/>
-    </row>
-    <row r="1248" spans="2:3">
-      <c r="B1248" s="1"/>
-      <c r="C1248" s="1"/>
-    </row>
-    <row r="1249" spans="2:3">
-      <c r="B1249" s="1"/>
-      <c r="C1249" s="1"/>
-    </row>
-    <row r="1250" spans="2:3">
-      <c r="B1250" s="1"/>
-      <c r="C1250" s="1"/>
-    </row>
-    <row r="1302" spans="2:3">
-      <c r="B1302" s="1"/>
-      <c r="C1302" s="1"/>
-    </row>
-    <row r="1303" spans="2:3">
-      <c r="B1303" s="1"/>
-      <c r="C1303" s="1"/>
-    </row>
-    <row r="1304" spans="2:3">
-      <c r="B1304" s="1"/>
-      <c r="C1304" s="1"/>
-    </row>
-    <row r="1305" spans="2:3">
-      <c r="B1305" s="1"/>
-      <c r="C1305" s="1"/>
-    </row>
-    <row r="1307" spans="2:3">
-      <c r="B1307" s="1"/>
-      <c r="C1307" s="1"/>
-    </row>
-    <row r="1308" spans="2:3">
-      <c r="B1308" s="1"/>
-      <c r="C1308" s="1"/>
-    </row>
-    <row r="1309" spans="2:3">
-      <c r="B1309" s="1"/>
-      <c r="C1309" s="1"/>
-    </row>
-    <row r="1310" spans="2:3">
-      <c r="B1310" s="1"/>
-      <c r="C1310" s="1"/>
-    </row>
-    <row r="1345" spans="2:3">
-      <c r="B1345" s="1"/>
-      <c r="C1345" s="1"/>
-    </row>
-    <row r="1346" spans="2:3">
-      <c r="B1346" s="1"/>
-      <c r="C1346" s="1"/>
-    </row>
-    <row r="1347" spans="2:3">
-      <c r="B1347" s="1"/>
-      <c r="C1347" s="1"/>
-    </row>
-    <row r="1348" spans="2:3">
-      <c r="B1348" s="1"/>
-      <c r="C1348" s="1"/>
-    </row>
-    <row r="1349" spans="2:3">
-      <c r="B1349" s="1"/>
-      <c r="C1349" s="1"/>
-    </row>
-    <row r="1350" spans="2:3">
-      <c r="B1350" s="1"/>
-      <c r="C1350" s="1"/>
-    </row>
-    <row r="1392" spans="5:6">
-      <c r="E1392" s="1"/>
-      <c r="F1392" s="1"/>
-    </row>
-    <row r="1393" spans="4:6">
-      <c r="D1393" s="6"/>
-      <c r="E1393" s="1"/>
-      <c r="F1393" s="1"/>
-    </row>
-    <row r="1394" spans="4:6">
-      <c r="D1394" s="6"/>
-      <c r="E1394" s="1"/>
-      <c r="F1394" s="1"/>
-    </row>
-    <row r="1395" spans="4:6">
-      <c r="D1395" s="6"/>
-      <c r="E1395" s="1"/>
-      <c r="F1395" s="1"/>
-    </row>
-    <row r="1396" spans="4:6">
-      <c r="E1396" s="1"/>
-      <c r="F1396" s="1"/>
-    </row>
-    <row r="1459" spans="2:3">
-      <c r="B1459" s="1"/>
-      <c r="C1459" s="1"/>
-    </row>
-    <row r="1460" spans="2:3">
-      <c r="B1460" s="1"/>
-      <c r="C1460" s="1"/>
-    </row>
-    <row r="1461" spans="2:3">
-      <c r="B1461" s="1"/>
-      <c r="C1461" s="1"/>
-    </row>
-    <row r="1462" spans="2:3">
-      <c r="B1462" s="1"/>
-      <c r="C1462" s="1"/>
+    </row>
+    <row r="1251" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1251" s="1"/>
+    </row>
+    <row r="1252" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1252" s="1"/>
+    </row>
+    <row r="1253" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1253" s="1"/>
+    </row>
+    <row r="1254" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1254" s="1"/>
+    </row>
+    <row r="1255" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1255" s="1"/>
+    </row>
+    <row r="1256" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1256" s="1"/>
+    </row>
+    <row r="1257" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1257" s="1"/>
+    </row>
+    <row r="1259" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1259" s="1"/>
+    </row>
+    <row r="1260" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1260" s="1"/>
+    </row>
+    <row r="1261" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1261" s="1"/>
+    </row>
+    <row r="1262" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1262" s="1"/>
+      <c r="C1262" s="1"/>
+    </row>
+    <row r="1263" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1263" s="1"/>
+      <c r="C1263" s="1"/>
+    </row>
+    <row r="1264" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1264" s="1"/>
+      <c r="C1264" s="1"/>
+    </row>
+    <row r="1265" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1265" s="1"/>
+    </row>
+    <row r="1266" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1266" s="1"/>
+    </row>
+    <row r="1267" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1267" s="1"/>
+    </row>
+    <row r="1268" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1268" s="1"/>
+    </row>
+    <row r="1270" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1270" s="1"/>
+    </row>
+    <row r="1271" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1271" s="1"/>
+    </row>
+    <row r="1272" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1272" s="1"/>
+    </row>
+    <row r="1273" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1273" s="1"/>
+    </row>
+    <row r="1274" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1274" s="1"/>
+    </row>
+    <row r="1275" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1275" s="1"/>
+    </row>
+    <row r="1316" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1316" s="1"/>
+    </row>
+    <row r="1317" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1317" s="1"/>
+    </row>
+    <row r="1318" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1318" s="1"/>
+    </row>
+    <row r="1319" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1319" s="1"/>
+    </row>
+    <row r="1321" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1321" s="1"/>
+    </row>
+    <row r="1322" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1322" s="1"/>
+    </row>
+    <row r="1323" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1323" s="1"/>
+    </row>
+    <row r="1324" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1324" s="1"/>
+    </row>
+    <row r="1327" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1327" s="1"/>
+    </row>
+    <row r="1328" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1328" s="1"/>
+    </row>
+    <row r="1329" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1329" s="1"/>
+    </row>
+    <row r="1330" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1330" s="1"/>
+    </row>
+    <row r="1332" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1332" s="1"/>
+    </row>
+    <row r="1333" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1333" s="1"/>
+    </row>
+    <row r="1334" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1334" s="1"/>
+    </row>
+    <row r="1335" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1335" s="1"/>
+    </row>
+    <row r="1359" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1359" s="1"/>
+    </row>
+    <row r="1360" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1360" s="1"/>
+    </row>
+    <row r="1361" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1361" s="1"/>
+    </row>
+    <row r="1362" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1362" s="1"/>
+    </row>
+    <row r="1363" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1363" s="1"/>
+    </row>
+    <row r="1364" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1364" s="1"/>
+    </row>
+    <row r="1370" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1370" s="1"/>
+    </row>
+    <row r="1371" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1371" s="1"/>
+    </row>
+    <row r="1372" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1372" s="1"/>
+    </row>
+    <row r="1373" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1373" s="1"/>
+    </row>
+    <row r="1374" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1374" s="1"/>
+    </row>
+    <row r="1375" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1375" s="1"/>
+    </row>
+    <row r="1417" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F1417" s="1"/>
+      <c r="G1417" s="1"/>
+    </row>
+    <row r="1418" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D1418" s="6"/>
+      <c r="E1418" s="6"/>
+      <c r="F1418" s="1"/>
+      <c r="G1418" s="1"/>
+    </row>
+    <row r="1419" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D1419" s="6"/>
+      <c r="E1419" s="6"/>
+      <c r="F1419" s="1"/>
+      <c r="G1419" s="1"/>
+    </row>
+    <row r="1420" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D1420" s="6"/>
+      <c r="E1420" s="6"/>
+      <c r="F1420" s="1"/>
+      <c r="G1420" s="1"/>
+    </row>
+    <row r="1421" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F1421" s="1"/>
+      <c r="G1421" s="1"/>
+    </row>
+    <row r="1473" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1473" s="1"/>
+    </row>
+    <row r="1474" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1474" s="1"/>
+    </row>
+    <row r="1475" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1475" s="1"/>
+    </row>
+    <row r="1476" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1476" s="1"/>
+    </row>
+    <row r="1484" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1484" s="1"/>
+    </row>
+    <row r="1485" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1485" s="1"/>
+    </row>
+    <row r="1486" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1486" s="1"/>
+    </row>
+    <row r="1487" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1487" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A2:H1495">
+    <sortCondition ref="D2:D1495"/>
+    <sortCondition ref="E2:E1495"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/tabular/flavi-reference_feature_locations.xlsx
+++ b/tabular/flavi-reference_feature_locations.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus-group/Flaviviridae-GLUE/tabular/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDA3E41-1F9B-704F-9970-9BAE463784E9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="460" windowWidth="27820" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="460" windowWidth="27820" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -324,7 +318,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4745,14 +4739,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1487"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:XFD1048576"/>
+      <selection activeCell="H15" sqref="F3:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
@@ -4764,7 +4758,7 @@
     <col min="9" max="9" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -4790,7 +4784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -4816,7 +4810,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -4842,7 +4836,7 @@
         <v>10170</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -4868,7 +4862,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -4894,7 +4888,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -4920,7 +4914,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -4946,7 +4940,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -4972,7 +4966,7 @@
         <v>4041</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -4998,7 +4992,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -5024,7 +5018,7 @@
         <v>6249</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -5050,7 +5044,7 @@
         <v>6654</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -5076,7 +5070,7 @@
         <v>6723</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -5102,7 +5096,7 @@
         <v>7503</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -5128,7 +5122,7 @@
         <v>10167</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -5154,7 +5148,7 @@
         <v>11375</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -5180,7 +5174,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -5206,7 +5200,7 @@
         <v>10445</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -5232,7 +5226,7 @@
         <v>10761</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -5258,7 +5252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -5284,7 +5278,7 @@
         <v>10320</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -5310,7 +5304,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -5336,7 +5330,7 @@
         <v>10389</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -5362,7 +5356,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -5388,7 +5382,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -5414,7 +5408,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -5440,7 +5434,7 @@
         <v>3513</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -5466,7 +5460,7 @@
         <v>4206</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -5492,7 +5486,7 @@
         <v>4599</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -5518,7 +5512,7 @@
         <v>6456</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -5544,7 +5538,7 @@
         <v>6903</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -5570,7 +5564,7 @@
         <v>7671</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -5596,7 +5590,7 @@
         <v>10386</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -5622,7 +5616,7 @@
         <v>10962</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -5648,7 +5642,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -5674,7 +5668,7 @@
         <v>10273</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -5700,7 +5694,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -5726,7 +5720,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -5752,7 +5746,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -5778,7 +5772,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -5804,7 +5798,7 @@
         <v>4129</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -5830,7 +5824,7 @@
         <v>4519</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -5856,7 +5850,7 @@
         <v>6376</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -5882,7 +5876,7 @@
         <v>6757</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -5908,7 +5902,7 @@
         <v>6826</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -5934,7 +5928,7 @@
         <v>10270</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -5960,7 +5954,7 @@
         <v>10735</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -5986,7 +5980,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -6012,7 +6006,7 @@
         <v>10366</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -6038,7 +6032,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -6064,7 +6058,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -6090,7 +6084,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -6116,7 +6110,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -6142,7 +6136,7 @@
         <v>4210</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="14" customHeight="1">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -6168,7 +6162,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -6194,7 +6188,7 @@
         <v>6451</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -6220,7 +6214,7 @@
         <v>6832</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -6246,7 +6240,7 @@
         <v>6901</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -6272,7 +6266,7 @@
         <v>7654</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -6298,7 +6292,7 @@
         <v>10363</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -6324,7 +6318,7 @@
         <v>10794</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="16" customHeight="1">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -6350,7 +6344,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>55</v>
       </c>
@@ -6376,7 +6370,7 @@
         <v>10354</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>55</v>
       </c>
@@ -6402,7 +6396,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>55</v>
       </c>
@@ -6428,7 +6422,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -6454,7 +6448,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>55</v>
       </c>
@@ -6480,7 +6474,7 @@
         <v>3508</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>55</v>
       </c>
@@ -6506,7 +6500,7 @@
         <v>4180</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>55</v>
       </c>
@@ -6532,7 +6526,7 @@
         <v>4570</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>55</v>
       </c>
@@ -6558,7 +6552,7 @@
         <v>6439</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>55</v>
       </c>
@@ -6584,7 +6578,7 @@
         <v>6817</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>55</v>
       </c>
@@ -6610,7 +6604,7 @@
         <v>6886</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>55</v>
       </c>
@@ -6636,7 +6630,7 @@
         <v>7636</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>55</v>
       </c>
@@ -6662,7 +6656,7 @@
         <v>10351</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>55</v>
       </c>
@@ -6688,7 +6682,7 @@
         <v>10862</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -6714,7 +6708,7 @@
         <v>10116</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -6740,7 +6734,7 @@
         <v>10242</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>58</v>
       </c>
@@ -6766,7 +6760,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>58</v>
       </c>
@@ -6792,7 +6786,7 @@
         <v>10359</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>58</v>
       </c>
@@ -6818,7 +6812,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>58</v>
       </c>
@@ -6844,7 +6838,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>58</v>
       </c>
@@ -6870,7 +6864,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>58</v>
       </c>
@@ -6896,7 +6890,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>58</v>
       </c>
@@ -6922,7 +6916,7 @@
         <v>4185</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>58</v>
       </c>
@@ -6948,7 +6942,7 @@
         <v>4578</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>58</v>
       </c>
@@ -6974,7 +6968,7 @@
         <v>6444</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>58</v>
       </c>
@@ -7000,7 +6994,7 @@
         <v>6822</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>58</v>
       </c>
@@ -7026,7 +7020,7 @@
         <v>6891</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>58</v>
       </c>
@@ -7052,7 +7046,7 @@
         <v>7647</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>58</v>
       </c>
@@ -7078,7 +7072,7 @@
         <v>10356</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>58</v>
       </c>
@@ -7104,7 +7098,7 @@
         <v>10839</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>59</v>
       </c>
@@ -7128,7 +7122,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>59</v>
       </c>
@@ -7152,7 +7146,7 @@
         <v>9377</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>59</v>
       </c>
@@ -7176,7 +7170,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>59</v>
       </c>
@@ -7200,7 +7194,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>59</v>
       </c>
@@ -7224,7 +7218,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>59</v>
       </c>
@@ -7248,7 +7242,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>59</v>
       </c>
@@ -7272,7 +7266,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>59</v>
       </c>
@@ -7296,7 +7290,7 @@
         <v>5312</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>59</v>
       </c>
@@ -7320,7 +7314,7 @@
         <v>5474</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>59</v>
       </c>
@@ -7344,7 +7338,7 @@
         <v>6257</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>59</v>
       </c>
@@ -7368,7 +7362,7 @@
         <v>7601</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>59</v>
       </c>
@@ -7392,7 +7386,7 @@
         <v>9374</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>59</v>
       </c>
@@ -7416,7 +7410,7 @@
         <v>9646</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>88</v>
       </c>
@@ -7442,7 +7436,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>88</v>
       </c>
@@ -7468,7 +7462,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>88</v>
       </c>
@@ -7494,7 +7488,7 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>62</v>
       </c>
@@ -7518,7 +7512,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>62</v>
       </c>
@@ -7542,7 +7536,7 @@
         <v>9501</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>62</v>
       </c>
@@ -7566,7 +7560,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>62</v>
       </c>
@@ -7590,7 +7584,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>62</v>
       </c>
@@ -7614,7 +7608,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>62</v>
       </c>
@@ -7638,7 +7632,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>62</v>
       </c>
@@ -7662,7 +7656,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>62</v>
       </c>
@@ -7686,7 +7680,7 @@
         <v>5514</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>62</v>
       </c>
@@ -7710,7 +7704,7 @@
         <v>5637</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>62</v>
       </c>
@@ -7734,7 +7728,7 @@
         <v>6423</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>62</v>
       </c>
@@ -7758,7 +7752,7 @@
         <v>7797</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>62</v>
       </c>
@@ -7782,7 +7776,7 @@
         <v>9498</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>62</v>
       </c>
@@ -7806,7 +7800,7 @@
         <v>9867</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>91</v>
       </c>
@@ -7832,7 +7826,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>91</v>
       </c>
@@ -7858,7 +7852,7 @@
         <v>18068</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>91</v>
       </c>
@@ -7884,7 +7878,7 @@
         <v>19199</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>60</v>
       </c>
@@ -7908,7 +7902,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>60</v>
       </c>
@@ -7932,7 +7926,7 @@
         <v>12352</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>60</v>
       </c>
@@ -7956,7 +7950,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>60</v>
       </c>
@@ -7980,7 +7974,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>60</v>
       </c>
@@ -8004,7 +7998,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>60</v>
       </c>
@@ -8028,7 +8022,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>60</v>
       </c>
@@ -8052,7 +8046,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>60</v>
       </c>
@@ -8076,7 +8070,7 @@
         <v>3793</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>60</v>
       </c>
@@ -8100,7 +8094,7 @@
         <v>7471</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>60</v>
       </c>
@@ -8124,7 +8118,7 @@
         <v>7663</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>60</v>
       </c>
@@ -8148,7 +8142,7 @@
         <v>8704</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>60</v>
       </c>
@@ -8172,7 +8166,7 @@
         <v>10192</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>60</v>
       </c>
@@ -8196,7 +8190,7 @@
         <v>12349</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>60</v>
       </c>
@@ -8220,7 +8214,7 @@
         <v>12573</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>86</v>
       </c>
@@ -8246,515 +8240,515 @@
         <v>10053</v>
       </c>
     </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:3">
       <c r="C198" s="1"/>
     </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:3">
       <c r="C199" s="1"/>
     </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:3">
       <c r="C200" s="1"/>
     </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:3">
       <c r="C201" s="1"/>
     </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:3">
       <c r="C202" s="1"/>
     </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:3">
       <c r="C203" s="1"/>
     </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:3">
       <c r="C204" s="1"/>
     </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:3">
       <c r="C205" s="1"/>
     </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:3">
       <c r="C206" s="1"/>
     </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:3">
       <c r="C207" s="1"/>
     </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:3">
       <c r="C208" s="1"/>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:5">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:5">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:5">
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:5">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:5">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:5">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:5">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:5">
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:5">
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:5">
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:5">
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:5">
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:5">
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:5">
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:5">
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:5">
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:5">
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:5">
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:5">
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:5">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:5">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:5">
       <c r="B230" s="1"/>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:5">
       <c r="B231" s="1"/>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:5">
       <c r="B232" s="1"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:5">
       <c r="B233" s="1"/>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:5">
       <c r="B234" s="1"/>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:5">
       <c r="B235" s="1"/>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:5">
       <c r="B236" s="1"/>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:5">
       <c r="B237" s="1"/>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:5">
       <c r="B238" s="1"/>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:5">
       <c r="B239" s="1"/>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:5">
       <c r="B240" s="1"/>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
     </row>
-    <row r="923" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="923" spans="6:6">
       <c r="F923" s="1"/>
     </row>
-    <row r="1048" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1048" spans="3:3">
       <c r="C1048" s="1"/>
     </row>
-    <row r="1049" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1049" spans="3:3">
       <c r="C1049" s="1"/>
     </row>
-    <row r="1059" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1059" spans="2:2">
       <c r="B1059" s="1"/>
     </row>
-    <row r="1060" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1060" spans="2:2">
       <c r="B1060" s="1"/>
     </row>
-    <row r="1174" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1174" spans="3:3">
       <c r="C1174" s="1"/>
     </row>
-    <row r="1175" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1175" spans="3:3">
       <c r="C1175" s="1"/>
     </row>
-    <row r="1176" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1176" spans="3:3">
       <c r="C1176" s="1"/>
     </row>
-    <row r="1177" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1177" spans="3:3">
       <c r="C1177" s="1"/>
     </row>
-    <row r="1178" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1178" spans="3:3">
       <c r="C1178" s="1"/>
     </row>
-    <row r="1179" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1179" spans="3:3">
       <c r="C1179" s="1"/>
     </row>
-    <row r="1185" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1185" spans="2:2">
       <c r="B1185" s="1"/>
     </row>
-    <row r="1186" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1186" spans="2:2">
       <c r="B1186" s="1"/>
     </row>
-    <row r="1187" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1187" spans="2:2">
       <c r="B1187" s="1"/>
     </row>
-    <row r="1188" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1188" spans="2:2">
       <c r="B1188" s="1"/>
     </row>
-    <row r="1189" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1189" spans="2:2">
       <c r="B1189" s="1"/>
     </row>
-    <row r="1190" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1190" spans="2:2">
       <c r="B1190" s="1"/>
     </row>
-    <row r="1228" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1228" spans="3:3">
       <c r="C1228" s="1"/>
     </row>
-    <row r="1229" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1229" spans="3:3">
       <c r="C1229" s="1"/>
     </row>
-    <row r="1230" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1230" spans="3:3">
       <c r="C1230" s="1"/>
     </row>
-    <row r="1231" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1231" spans="3:3">
       <c r="C1231" s="1"/>
     </row>
-    <row r="1232" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1232" spans="3:3">
       <c r="C1232" s="1"/>
     </row>
-    <row r="1235" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1235" spans="2:7">
       <c r="F1235" s="1"/>
       <c r="G1235" s="1"/>
     </row>
-    <row r="1236" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1236" spans="2:7">
       <c r="F1236" s="1"/>
       <c r="G1236" s="1"/>
     </row>
-    <row r="1237" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1237" spans="2:7">
       <c r="F1237" s="1"/>
       <c r="G1237" s="1"/>
     </row>
-    <row r="1239" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1239" spans="2:7">
       <c r="B1239" s="1"/>
     </row>
-    <row r="1240" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1240" spans="2:7">
       <c r="B1240" s="1"/>
     </row>
-    <row r="1241" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1241" spans="2:7">
       <c r="B1241" s="1"/>
     </row>
-    <row r="1242" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1242" spans="2:7">
       <c r="B1242" s="1"/>
     </row>
-    <row r="1243" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1243" spans="2:7">
       <c r="B1243" s="1"/>
     </row>
-    <row r="1251" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1251" spans="2:3">
       <c r="C1251" s="1"/>
     </row>
-    <row r="1252" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1252" spans="2:3">
       <c r="C1252" s="1"/>
     </row>
-    <row r="1253" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1253" spans="2:3">
       <c r="C1253" s="1"/>
     </row>
-    <row r="1254" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1254" spans="2:3">
       <c r="C1254" s="1"/>
     </row>
-    <row r="1255" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1255" spans="2:3">
       <c r="C1255" s="1"/>
     </row>
-    <row r="1256" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1256" spans="2:3">
       <c r="C1256" s="1"/>
     </row>
-    <row r="1257" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1257" spans="2:3">
       <c r="C1257" s="1"/>
     </row>
-    <row r="1259" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1259" spans="2:3">
       <c r="C1259" s="1"/>
     </row>
-    <row r="1260" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1260" spans="2:3">
       <c r="C1260" s="1"/>
     </row>
-    <row r="1261" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1261" spans="2:3">
       <c r="C1261" s="1"/>
     </row>
-    <row r="1262" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1262" spans="2:3">
       <c r="B1262" s="1"/>
       <c r="C1262" s="1"/>
     </row>
-    <row r="1263" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1263" spans="2:3">
       <c r="B1263" s="1"/>
       <c r="C1263" s="1"/>
     </row>
-    <row r="1264" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1264" spans="2:3">
       <c r="B1264" s="1"/>
       <c r="C1264" s="1"/>
     </row>
-    <row r="1265" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1265" spans="2:2">
       <c r="B1265" s="1"/>
     </row>
-    <row r="1266" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1266" spans="2:2">
       <c r="B1266" s="1"/>
     </row>
-    <row r="1267" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1267" spans="2:2">
       <c r="B1267" s="1"/>
     </row>
-    <row r="1268" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1268" spans="2:2">
       <c r="B1268" s="1"/>
     </row>
-    <row r="1270" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1270" spans="2:2">
       <c r="B1270" s="1"/>
     </row>
-    <row r="1271" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1271" spans="2:2">
       <c r="B1271" s="1"/>
     </row>
-    <row r="1272" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1272" spans="2:2">
       <c r="B1272" s="1"/>
     </row>
-    <row r="1273" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1273" spans="2:2">
       <c r="B1273" s="1"/>
     </row>
-    <row r="1274" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1274" spans="2:2">
       <c r="B1274" s="1"/>
     </row>
-    <row r="1275" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1275" spans="2:2">
       <c r="B1275" s="1"/>
     </row>
-    <row r="1316" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1316" spans="2:3">
       <c r="C1316" s="1"/>
     </row>
-    <row r="1317" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1317" spans="2:3">
       <c r="C1317" s="1"/>
     </row>
-    <row r="1318" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1318" spans="2:3">
       <c r="C1318" s="1"/>
     </row>
-    <row r="1319" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1319" spans="2:3">
       <c r="C1319" s="1"/>
     </row>
-    <row r="1321" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1321" spans="2:3">
       <c r="C1321" s="1"/>
     </row>
-    <row r="1322" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1322" spans="2:3">
       <c r="C1322" s="1"/>
     </row>
-    <row r="1323" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1323" spans="2:3">
       <c r="C1323" s="1"/>
     </row>
-    <row r="1324" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1324" spans="2:3">
       <c r="C1324" s="1"/>
     </row>
-    <row r="1327" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1327" spans="2:3">
       <c r="B1327" s="1"/>
     </row>
-    <row r="1328" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1328" spans="2:3">
       <c r="B1328" s="1"/>
     </row>
-    <row r="1329" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1329" spans="2:2">
       <c r="B1329" s="1"/>
     </row>
-    <row r="1330" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1330" spans="2:2">
       <c r="B1330" s="1"/>
     </row>
-    <row r="1332" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1332" spans="2:2">
       <c r="B1332" s="1"/>
     </row>
-    <row r="1333" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1333" spans="2:2">
       <c r="B1333" s="1"/>
     </row>
-    <row r="1334" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1334" spans="2:2">
       <c r="B1334" s="1"/>
     </row>
-    <row r="1335" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1335" spans="2:2">
       <c r="B1335" s="1"/>
     </row>
-    <row r="1359" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1359" spans="3:3">
       <c r="C1359" s="1"/>
     </row>
-    <row r="1360" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1360" spans="3:3">
       <c r="C1360" s="1"/>
     </row>
-    <row r="1361" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1361" spans="2:3">
       <c r="C1361" s="1"/>
     </row>
-    <row r="1362" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1362" spans="2:3">
       <c r="C1362" s="1"/>
     </row>
-    <row r="1363" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1363" spans="2:3">
       <c r="C1363" s="1"/>
     </row>
-    <row r="1364" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1364" spans="2:3">
       <c r="C1364" s="1"/>
     </row>
-    <row r="1370" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1370" spans="2:3">
       <c r="B1370" s="1"/>
     </row>
-    <row r="1371" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1371" spans="2:3">
       <c r="B1371" s="1"/>
     </row>
-    <row r="1372" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1372" spans="2:3">
       <c r="B1372" s="1"/>
     </row>
-    <row r="1373" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1373" spans="2:3">
       <c r="B1373" s="1"/>
     </row>
-    <row r="1374" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1374" spans="2:3">
       <c r="B1374" s="1"/>
     </row>
-    <row r="1375" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1375" spans="2:3">
       <c r="B1375" s="1"/>
     </row>
-    <row r="1417" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="1417" spans="4:7">
       <c r="F1417" s="1"/>
       <c r="G1417" s="1"/>
     </row>
-    <row r="1418" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="1418" spans="4:7">
       <c r="D1418" s="6"/>
       <c r="E1418" s="6"/>
       <c r="F1418" s="1"/>
       <c r="G1418" s="1"/>
     </row>
-    <row r="1419" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="1419" spans="4:7">
       <c r="D1419" s="6"/>
       <c r="E1419" s="6"/>
       <c r="F1419" s="1"/>
       <c r="G1419" s="1"/>
     </row>
-    <row r="1420" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="1420" spans="4:7">
       <c r="D1420" s="6"/>
       <c r="E1420" s="6"/>
       <c r="F1420" s="1"/>
       <c r="G1420" s="1"/>
     </row>
-    <row r="1421" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="1421" spans="4:7">
       <c r="F1421" s="1"/>
       <c r="G1421" s="1"/>
     </row>
-    <row r="1473" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1473" spans="2:3">
       <c r="C1473" s="1"/>
     </row>
-    <row r="1474" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1474" spans="2:3">
       <c r="C1474" s="1"/>
     </row>
-    <row r="1475" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1475" spans="2:3">
       <c r="C1475" s="1"/>
     </row>
-    <row r="1476" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1476" spans="2:3">
       <c r="C1476" s="1"/>
     </row>
-    <row r="1484" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1484" spans="2:3">
       <c r="B1484" s="1"/>
     </row>
-    <row r="1485" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1485" spans="2:3">
       <c r="B1485" s="1"/>
     </row>
-    <row r="1486" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1486" spans="2:3">
       <c r="B1486" s="1"/>
     </row>
-    <row r="1487" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1487" spans="2:3">
       <c r="B1487" s="1"/>
     </row>
   </sheetData>

--- a/tabular/flavi-reference_feature_locations.xlsx
+++ b/tabular/flavi-reference_feature_locations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="460" windowWidth="27820" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="2360" yWindow="0" windowWidth="26080" windowHeight="26840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="99">
   <si>
     <t>featureName</t>
   </si>
@@ -313,6 +313,12 @@
   </si>
   <si>
     <t>NKV1</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Tamanavirus</t>
   </si>
 </sst>
 </file>
@@ -378,7 +384,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,12 +459,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -479,7 +479,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1941">
+  <cellStyleXfs count="1969">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2421,8 +2421,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2457,12 +2485,11 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1941">
+  <cellStyles count="1969">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -3434,6 +3461,20 @@
     <cellStyle name="Followed Hyperlink" xfId="1936" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1938" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1940" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1942" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1944" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1946" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1948" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1950" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1952" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1954" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1956" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1958" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1960" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1962" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1964" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1966" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1968" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -4403,6 +4444,20 @@
     <cellStyle name="Hyperlink" xfId="1935" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1937" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1939" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1941" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1943" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1945" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1947" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1949" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1951" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1953" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1955" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1957" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1959" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1961" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1963" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1965" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1967" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4742,8 +4797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1487"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H15" sqref="F3:H15"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H157" sqref="H157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7423,7 +7478,7 @@
       <c r="D104" t="s">
         <v>82</v>
       </c>
-      <c r="E104" s="22" t="s">
+      <c r="E104" s="21" t="s">
         <v>82</v>
       </c>
       <c r="F104" s="9" t="s">
@@ -7449,7 +7504,7 @@
       <c r="D105" t="s">
         <v>82</v>
       </c>
-      <c r="E105" s="22" t="s">
+      <c r="E105" s="21" t="s">
         <v>82</v>
       </c>
       <c r="F105" s="9" t="s">
@@ -7475,7 +7530,7 @@
       <c r="D106" t="s">
         <v>82</v>
       </c>
-      <c r="E106" s="22" t="s">
+      <c r="E106" s="21" t="s">
         <v>82</v>
       </c>
       <c r="F106" s="9" t="s">
@@ -7813,7 +7868,7 @@
       <c r="D120" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E120" s="23" t="s">
+      <c r="E120" s="22" t="s">
         <v>94</v>
       </c>
       <c r="F120" s="9" t="s">
@@ -7839,7 +7894,7 @@
       <c r="D121" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E121" s="23" t="s">
+      <c r="E121" s="22" t="s">
         <v>94</v>
       </c>
       <c r="F121" s="9" t="s">
@@ -7865,7 +7920,7 @@
       <c r="D122" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E122" s="23" t="s">
+      <c r="E122" s="22" t="s">
         <v>94</v>
       </c>
       <c r="F122" s="9" t="s">
@@ -8225,12 +8280,10 @@
         <v>81</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E137" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F137" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E137"/>
+      <c r="F137" t="s">
         <v>65</v>
       </c>
       <c r="G137">
@@ -8239,6 +8292,315 @@
       <c r="H137">
         <v>10053</v>
       </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" t="s">
+        <v>86</v>
+      </c>
+      <c r="B138" t="s">
+        <v>87</v>
+      </c>
+      <c r="C138" t="s">
+        <v>81</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E138"/>
+      <c r="F138" t="s">
+        <v>21</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" t="s">
+        <v>86</v>
+      </c>
+      <c r="B139" t="s">
+        <v>87</v>
+      </c>
+      <c r="C139" t="s">
+        <v>81</v>
+      </c>
+      <c r="D139" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E139"/>
+      <c r="F139" t="s">
+        <v>22</v>
+      </c>
+      <c r="G139" s="9">
+        <v>346</v>
+      </c>
+      <c r="H139" s="9">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" t="s">
+        <v>86</v>
+      </c>
+      <c r="B140" t="s">
+        <v>87</v>
+      </c>
+      <c r="C140" t="s">
+        <v>81</v>
+      </c>
+      <c r="D140" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E140"/>
+      <c r="F140" t="s">
+        <v>97</v>
+      </c>
+      <c r="G140" s="9">
+        <v>655</v>
+      </c>
+      <c r="H140" s="9">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" t="s">
+        <v>86</v>
+      </c>
+      <c r="B141" t="s">
+        <v>87</v>
+      </c>
+      <c r="C141" t="s">
+        <v>81</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E141"/>
+      <c r="F141" t="s">
+        <v>23</v>
+      </c>
+      <c r="G141" s="9">
+        <v>853</v>
+      </c>
+      <c r="H141" s="9">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" t="s">
+        <v>86</v>
+      </c>
+      <c r="B142" t="s">
+        <v>87</v>
+      </c>
+      <c r="C142" t="s">
+        <v>81</v>
+      </c>
+      <c r="D142" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E142"/>
+      <c r="F142" t="s">
+        <v>5</v>
+      </c>
+      <c r="G142" s="9">
+        <v>2359</v>
+      </c>
+      <c r="H142" s="9">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" t="s">
+        <v>86</v>
+      </c>
+      <c r="B143" t="s">
+        <v>87</v>
+      </c>
+      <c r="C143" t="s">
+        <v>81</v>
+      </c>
+      <c r="D143" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E143"/>
+      <c r="F143" t="s">
+        <v>6</v>
+      </c>
+      <c r="G143" s="9">
+        <v>3391</v>
+      </c>
+      <c r="H143" s="9">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" t="s">
+        <v>86</v>
+      </c>
+      <c r="B144" t="s">
+        <v>87</v>
+      </c>
+      <c r="C144" t="s">
+        <v>81</v>
+      </c>
+      <c r="D144" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E144"/>
+      <c r="F144" t="s">
+        <v>7</v>
+      </c>
+      <c r="G144" s="9">
+        <v>3979</v>
+      </c>
+      <c r="H144" s="9">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" t="s">
+        <v>86</v>
+      </c>
+      <c r="B145" t="s">
+        <v>87</v>
+      </c>
+      <c r="C145" t="s">
+        <v>81</v>
+      </c>
+      <c r="D145" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E145"/>
+      <c r="F145" t="s">
+        <v>8</v>
+      </c>
+      <c r="G145" s="9">
+        <v>4432</v>
+      </c>
+      <c r="H145" s="9">
+        <v>6303</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" t="s">
+        <v>86</v>
+      </c>
+      <c r="B146" t="s">
+        <v>87</v>
+      </c>
+      <c r="C146" t="s">
+        <v>81</v>
+      </c>
+      <c r="D146" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E146"/>
+      <c r="F146" t="s">
+        <v>9</v>
+      </c>
+      <c r="G146" s="9">
+        <v>6304</v>
+      </c>
+      <c r="H146" s="9">
+        <v>6687</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" t="s">
+        <v>86</v>
+      </c>
+      <c r="B147" t="s">
+        <v>87</v>
+      </c>
+      <c r="C147" t="s">
+        <v>81</v>
+      </c>
+      <c r="D147" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E147"/>
+      <c r="F147" t="s">
+        <v>24</v>
+      </c>
+      <c r="G147" s="9">
+        <v>6763</v>
+      </c>
+      <c r="H147" s="9">
+        <v>6762</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" t="s">
+        <v>86</v>
+      </c>
+      <c r="B148" t="s">
+        <v>87</v>
+      </c>
+      <c r="C148" t="s">
+        <v>81</v>
+      </c>
+      <c r="D148" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E148"/>
+      <c r="F148" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="9">
+        <v>6763</v>
+      </c>
+      <c r="H148" s="9">
+        <v>7557</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" t="s">
+        <v>86</v>
+      </c>
+      <c r="B149" t="s">
+        <v>87</v>
+      </c>
+      <c r="C149" t="s">
+        <v>81</v>
+      </c>
+      <c r="D149" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E149"/>
+      <c r="F149" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149" s="9">
+        <v>7558</v>
+      </c>
+      <c r="H149" s="9">
+        <v>10050</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="E150"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="E151"/>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="E152"/>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="E153"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="E154"/>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="E155"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="E156"/>
     </row>
     <row r="198" spans="3:3">
       <c r="C198" s="1"/>

--- a/tabular/flavi-reference_feature_locations.xlsx
+++ b/tabular/flavi-reference_feature_locations.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="0" windowWidth="26080" windowHeight="26840" tabRatio="500"/>
+    <workbookView xWindow="15660" yWindow="3980" windowWidth="26080" windowHeight="26840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="84">
   <si>
     <t>featureName</t>
   </si>
@@ -31,9 +32,6 @@
   </si>
   <si>
     <t>endNT</t>
-  </si>
-  <si>
-    <t>KRV</t>
   </si>
   <si>
     <t>capsid</t>
@@ -66,19 +64,10 @@
     <t>SequenceID</t>
   </si>
   <si>
-    <t>Virus name</t>
-  </si>
-  <si>
-    <t>Abbrev</t>
-  </si>
-  <si>
     <t>Genus</t>
   </si>
   <si>
     <t>West Nile virus</t>
-  </si>
-  <si>
-    <t>WNV</t>
   </si>
   <si>
     <t>Flavivirus</t>
@@ -99,37 +88,7 @@
     <t>2K</t>
   </si>
   <si>
-    <t>Dengue virus 1</t>
-  </si>
-  <si>
-    <t>DENV1</t>
-  </si>
-  <si>
-    <t>Yellow fever virus</t>
-  </si>
-  <si>
-    <t>YFV</t>
-  </si>
-  <si>
     <t>Zika virus</t>
-  </si>
-  <si>
-    <t>ZIKV</t>
-  </si>
-  <si>
-    <t>Kamiti River virus</t>
-  </si>
-  <si>
-    <t>Powassan virus</t>
-  </si>
-  <si>
-    <t>POWV</t>
-  </si>
-  <si>
-    <t>Hepatitis C virus</t>
-  </si>
-  <si>
-    <t>HCV</t>
   </si>
   <si>
     <t>Hepacivirus</t>
@@ -156,12 +115,6 @@
     <t>NS5B</t>
   </si>
   <si>
-    <t>Human pegivirus 2</t>
-  </si>
-  <si>
-    <t>HPgV-2</t>
-  </si>
-  <si>
     <t>Pegivirus</t>
   </si>
   <si>
@@ -169,12 +122,6 @@
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>Bovine viral diarrhea virus 1</t>
-  </si>
-  <si>
-    <t>BVDV1</t>
   </si>
   <si>
     <t>Pestivirus</t>
@@ -237,9 +184,6 @@
     <t>Lammi virus</t>
   </si>
   <si>
-    <t>LAMV</t>
-  </si>
-  <si>
     <t>dISF2</t>
   </si>
   <si>
@@ -249,25 +193,10 @@
     <t>Paraiso Escondido virus</t>
   </si>
   <si>
-    <t>EPEV</t>
-  </si>
-  <si>
     <t>dISF1</t>
   </si>
   <si>
     <t>NC_003676</t>
-  </si>
-  <si>
-    <t>Apoi virus</t>
-  </si>
-  <si>
-    <t>Apoi</t>
-  </si>
-  <si>
-    <t>SOKV</t>
-  </si>
-  <si>
-    <t>TABV</t>
   </si>
   <si>
     <t>JMTV</t>
@@ -279,28 +208,13 @@
     <t>NC_026624</t>
   </si>
   <si>
-    <t>Sokuluk virus</t>
-  </si>
-  <si>
     <t>NC_003996</t>
-  </si>
-  <si>
-    <t>Tamana bat virus</t>
   </si>
   <si>
     <t>KJ001579</t>
   </si>
   <si>
-    <t>Jingmen tick virus</t>
-  </si>
-  <si>
-    <t>SbCNV-5</t>
-  </si>
-  <si>
     <t>NC_024077</t>
-  </si>
-  <si>
-    <t>Soybean cyst nematode virus</t>
   </si>
   <si>
     <t>Pesti-like</t>
@@ -319,6 +233,48 @@
   </si>
   <si>
     <t>Tamanavirus</t>
+  </si>
+  <si>
+    <t>referenceName</t>
+  </si>
+  <si>
+    <t>REF_KRV</t>
+  </si>
+  <si>
+    <t>REF_DEN1</t>
+  </si>
+  <si>
+    <t>REF_TABV</t>
+  </si>
+  <si>
+    <t>REF_BVDV1</t>
+  </si>
+  <si>
+    <t>REF_SCNV5</t>
+  </si>
+  <si>
+    <t>REF_HPgV2</t>
+  </si>
+  <si>
+    <t>REF_JMTV_SEG1</t>
+  </si>
+  <si>
+    <t>REF_HCV</t>
+  </si>
+  <si>
+    <t>REF_POWV</t>
+  </si>
+  <si>
+    <t>REF_SOKV</t>
+  </si>
+  <si>
+    <t>REF_APOIV</t>
+  </si>
+  <si>
+    <t>REF_YFV</t>
+  </si>
+  <si>
+    <t>precursor_polyprotein</t>
   </si>
 </sst>
 </file>
@@ -479,9 +435,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1969">
+  <cellStyleXfs count="1987">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2489,7 +2463,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1969">
+  <cellStyles count="1987">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -3475,6 +3449,15 @@
     <cellStyle name="Followed Hyperlink" xfId="1964" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1966" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1968" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1970" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1972" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1974" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1976" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1978" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1980" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1982" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1984" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1986" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -4458,6 +4441,15 @@
     <cellStyle name="Hyperlink" xfId="1963" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1965" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1967" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1969" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1971" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1973" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1975" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1977" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1979" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1981" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1983" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1985" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4795,4328 +4787,3079 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1487"/>
+  <dimension ref="A1:G1460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H157" sqref="H157"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="5" width="12.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="F2" s="7">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="G2" s="7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="7">
+        <v>97</v>
+      </c>
+      <c r="G3" s="7">
+        <v>10170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7">
+        <v>97</v>
+      </c>
+      <c r="G4" s="7">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7">
+        <v>526</v>
+      </c>
+      <c r="G5" s="7">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7">
+        <v>955</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2251</v>
+      </c>
+      <c r="G7" s="7">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7">
+        <v>3421</v>
+      </c>
+      <c r="G8" s="7">
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="7">
+        <v>4042</v>
+      </c>
+      <c r="G9" s="7">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="7">
+        <v>4489</v>
+      </c>
+      <c r="G10" s="7">
+        <v>6249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7">
+        <v>6250</v>
+      </c>
+      <c r="G11" s="7">
+        <v>6654</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7">
+        <v>6655</v>
+      </c>
+      <c r="G12" s="7">
+        <v>6723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="7">
+        <v>6724</v>
+      </c>
+      <c r="G13" s="7">
+        <v>7503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="7">
+        <v>7504</v>
+      </c>
+      <c r="G14" s="7">
+        <v>10167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="7">
+        <v>10168</v>
+      </c>
+      <c r="G15" s="7">
+        <v>11375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="9">
+        <v>120</v>
+      </c>
+      <c r="G17" s="9">
+        <v>10445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="9">
+        <v>10446</v>
+      </c>
+      <c r="G18" s="9">
+        <v>10761</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="9">
+        <v>16</v>
+      </c>
+      <c r="G20" s="9">
+        <v>10320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22">
+        <v>95</v>
+      </c>
+      <c r="G22">
+        <v>10273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23">
+        <v>95</v>
+      </c>
+      <c r="G23">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>437</v>
+      </c>
+      <c r="G24">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25">
+        <v>935</v>
+      </c>
+      <c r="G25">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>2420</v>
+      </c>
+      <c r="G26">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>3476</v>
+      </c>
+      <c r="G27">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>4130</v>
+      </c>
+      <c r="G28">
+        <v>4519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>4520</v>
+      </c>
+      <c r="G29">
+        <v>6376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>6377</v>
+      </c>
+      <c r="G30">
+        <v>6757</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>6758</v>
+      </c>
+      <c r="G31">
+        <v>6826</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>7574</v>
+      </c>
+      <c r="G32">
+        <v>10270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33">
+        <v>10274</v>
+      </c>
+      <c r="G33">
+        <v>10735</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16" customHeight="1">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="7">
+        <v>119</v>
+      </c>
+      <c r="G35" s="7">
+        <v>10354</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="7">
+        <v>119</v>
+      </c>
+      <c r="G36" s="7">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="7">
+        <v>482</v>
+      </c>
+      <c r="G37" s="7">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="7">
+        <v>974</v>
+      </c>
+      <c r="G38" s="7">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="7">
+        <v>2453</v>
+      </c>
+      <c r="G39" s="7">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="7">
+        <v>3509</v>
+      </c>
+      <c r="G40" s="7">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="7">
+        <v>4181</v>
+      </c>
+      <c r="G41" s="7">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="7">
+        <v>4571</v>
+      </c>
+      <c r="G42" s="7">
+        <v>6439</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="7">
+        <v>6440</v>
+      </c>
+      <c r="G43" s="7">
+        <v>6817</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="7">
+        <v>6818</v>
+      </c>
+      <c r="G44" s="7">
+        <v>6886</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="7">
+        <v>6887</v>
+      </c>
+      <c r="G45" s="7">
+        <v>7636</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="7">
+        <v>7637</v>
+      </c>
+      <c r="G46" s="7">
+        <v>10351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="7">
+        <v>10355</v>
+      </c>
+      <c r="G47" s="7">
+        <v>10862</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" s="9">
+        <v>1</v>
+      </c>
+      <c r="G48" s="9">
+        <v>10116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>10242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="10">
+        <v>1</v>
+      </c>
+      <c r="G50" s="10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51" s="10">
+        <v>112</v>
+      </c>
+      <c r="G51" s="10">
+        <v>10359</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="9">
+        <v>112</v>
+      </c>
+      <c r="G52" s="9">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="9">
+        <v>442</v>
+      </c>
+      <c r="G53" s="9">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="F54" s="9">
+        <v>946</v>
+      </c>
+      <c r="G54" s="9">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="9">
+        <v>2437</v>
+      </c>
+      <c r="G55" s="9">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="9">
+        <v>3496</v>
+      </c>
+      <c r="G56" s="9">
+        <v>4185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="9">
+        <v>4186</v>
+      </c>
+      <c r="G57" s="9">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="9">
+        <v>4579</v>
+      </c>
+      <c r="G58" s="9">
+        <v>6444</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="9">
+        <v>6445</v>
+      </c>
+      <c r="G59" s="9">
+        <v>6822</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="7">
+      <c r="F60" s="9">
+        <v>6823</v>
+      </c>
+      <c r="G60" s="9">
+        <v>6891</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="9">
+        <v>6892</v>
+      </c>
+      <c r="G61" s="9">
+        <v>7647</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="9">
+        <v>7648</v>
+      </c>
+      <c r="G62" s="9">
+        <v>10356</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="9">
+        <v>10357</v>
+      </c>
+      <c r="G63" s="9">
+        <v>10839</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="10">
         <v>1</v>
       </c>
-      <c r="H2" s="7">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="7">
-        <v>97</v>
-      </c>
-      <c r="H3" s="7">
-        <v>10170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="7">
-        <v>97</v>
-      </c>
-      <c r="H4" s="7">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="G64" s="10">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7">
-        <v>526</v>
-      </c>
-      <c r="H5" s="7">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="D65"/>
+      <c r="E65" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F65" s="10">
+        <v>342</v>
+      </c>
+      <c r="G65" s="10">
+        <v>9377</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="7">
-        <v>955</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="7">
-        <v>2251</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="F66" s="9">
+        <v>342</v>
+      </c>
+      <c r="G66" s="9">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="9">
+        <v>915</v>
+      </c>
+      <c r="G67" s="9">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" s="9">
+        <v>1491</v>
+      </c>
+      <c r="G68" s="9">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" s="9">
+        <v>2580</v>
+      </c>
+      <c r="G69" s="9">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>41</v>
+      </c>
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F70" s="9">
+        <v>2769</v>
+      </c>
+      <c r="G70" s="9">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="9">
         <v>3420</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="7">
-        <v>3421</v>
-      </c>
-      <c r="H8" s="7">
-        <v>4041</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="7">
-        <v>4042</v>
-      </c>
-      <c r="H9" s="7">
-        <v>4488</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="G71" s="9">
+        <v>5312</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="7">
-        <v>4489</v>
-      </c>
-      <c r="H10" s="7">
-        <v>6249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="F72" s="9">
+        <v>5313</v>
+      </c>
+      <c r="G72" s="9">
+        <v>5474</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="7">
-        <v>6250</v>
-      </c>
-      <c r="H11" s="7">
-        <v>6654</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="7">
-        <v>6655</v>
-      </c>
-      <c r="H12" s="7">
-        <v>6723</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="7">
-        <v>6724</v>
-      </c>
-      <c r="H13" s="7">
-        <v>7503</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="7">
-        <v>7504</v>
-      </c>
-      <c r="H14" s="7">
-        <v>10167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="7">
-        <v>10168</v>
-      </c>
-      <c r="H15" s="7">
-        <v>11375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="9">
-        <v>120</v>
-      </c>
-      <c r="H17" s="9">
-        <v>10445</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="9">
-        <v>10446</v>
-      </c>
-      <c r="H18" s="9">
-        <v>10761</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="9">
-        <v>1</v>
-      </c>
-      <c r="H19" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="9">
-        <v>16</v>
-      </c>
-      <c r="H20" s="9">
-        <v>10320</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="7">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="7">
-        <v>97</v>
-      </c>
-      <c r="H22" s="7">
-        <v>10389</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="7">
-        <v>97</v>
-      </c>
-      <c r="H23" s="7">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="F73" s="9">
+        <v>5475</v>
+      </c>
+      <c r="G73" s="9">
+        <v>6257</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="7">
-        <v>466</v>
-      </c>
-      <c r="H24" s="7">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="7">
-        <v>967</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2457</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="7">
-        <v>2458</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3513</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="7">
-        <v>3514</v>
-      </c>
-      <c r="H27" s="7">
-        <v>4206</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="7">
-        <v>4207</v>
-      </c>
-      <c r="H28" s="7">
-        <v>4599</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="7">
-        <v>4600</v>
-      </c>
-      <c r="H29" s="7">
-        <v>6456</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="7">
-        <v>6835</v>
-      </c>
-      <c r="H30" s="7">
-        <v>6903</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="7">
-        <v>6904</v>
-      </c>
-      <c r="H31" s="7">
-        <v>7671</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="7">
-        <v>7572</v>
-      </c>
-      <c r="H32" s="7">
-        <v>10386</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="7">
-        <v>10390</v>
-      </c>
-      <c r="H33" s="7">
-        <v>10962</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="8">
-        <v>1</v>
-      </c>
-      <c r="H34" s="8">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" t="s">
-        <v>65</v>
-      </c>
-      <c r="G35">
-        <v>95</v>
-      </c>
-      <c r="H35">
-        <v>10273</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36">
-        <v>95</v>
-      </c>
-      <c r="H36">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37">
-        <v>437</v>
-      </c>
-      <c r="H37">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38">
-        <v>935</v>
-      </c>
-      <c r="H38">
-        <v>2419</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39">
-        <v>2420</v>
-      </c>
-      <c r="H39">
-        <v>3475</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40">
-        <v>3476</v>
-      </c>
-      <c r="H40">
-        <v>4129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F41" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41">
-        <v>4130</v>
-      </c>
-      <c r="H41">
-        <v>4519</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F42" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42">
-        <v>4520</v>
-      </c>
-      <c r="H42">
-        <v>6376</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43">
-        <v>6377</v>
-      </c>
-      <c r="H43">
-        <v>6757</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44">
-        <v>6758</v>
-      </c>
-      <c r="H44">
-        <v>6826</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45">
-        <v>7574</v>
-      </c>
-      <c r="H45">
-        <v>10270</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46">
-        <v>10274</v>
-      </c>
-      <c r="H46">
-        <v>10735</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" s="8">
-        <v>1</v>
-      </c>
-      <c r="H47" s="8">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F48" t="s">
-        <v>65</v>
-      </c>
-      <c r="G48">
-        <v>107</v>
-      </c>
-      <c r="H48">
-        <v>10366</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" s="11">
-        <v>107</v>
-      </c>
-      <c r="H49" s="11">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="11">
-        <v>473</v>
-      </c>
-      <c r="H50" s="11">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F51" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" s="11">
-        <v>977</v>
-      </c>
-      <c r="H51" s="11">
-        <v>2476</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F52" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="11">
-        <v>2477</v>
-      </c>
-      <c r="H52" s="11">
-        <v>3532</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" t="s">
-        <v>19</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F53" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53" s="11">
-        <v>3533</v>
-      </c>
-      <c r="H53" s="11">
-        <v>4210</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="14" customHeight="1">
-      <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F54" t="s">
-        <v>7</v>
-      </c>
-      <c r="G54" s="11">
-        <v>4211</v>
-      </c>
-      <c r="H54" s="11">
-        <v>4600</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G55" s="11">
-        <v>4601</v>
-      </c>
-      <c r="H55" s="11">
-        <v>6451</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F56" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" s="11">
-        <v>6452</v>
-      </c>
-      <c r="H56" s="11">
-        <v>6832</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F57" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" s="11">
-        <v>6833</v>
-      </c>
-      <c r="H57" s="11">
-        <v>6901</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F58" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="11">
-        <v>6902</v>
-      </c>
-      <c r="H58" s="11">
-        <v>7654</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="11">
-        <v>7655</v>
-      </c>
-      <c r="H59" s="11">
-        <v>10363</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="11">
-        <v>10367</v>
-      </c>
-      <c r="H60" s="11">
-        <v>10794</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="16" customHeight="1">
-      <c r="A61" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61" t="s">
-        <v>27</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D74"/>
+      <c r="E74" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" s="7">
-        <v>1</v>
-      </c>
-      <c r="H61" s="7">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" t="s">
-        <v>55</v>
-      </c>
-      <c r="B62" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62" t="s">
-        <v>28</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G62" s="7">
-        <v>119</v>
-      </c>
-      <c r="H62" s="7">
-        <v>10354</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" s="7">
-        <v>119</v>
-      </c>
-      <c r="H63" s="7">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="s">
-        <v>55</v>
-      </c>
-      <c r="B64" t="s">
-        <v>27</v>
-      </c>
-      <c r="C64" t="s">
-        <v>28</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="7">
-        <v>482</v>
-      </c>
-      <c r="H64" s="7">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="s">
-        <v>55</v>
-      </c>
-      <c r="B65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C65" t="s">
-        <v>28</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" s="7">
-        <v>974</v>
-      </c>
-      <c r="H65" s="7">
-        <v>2452</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" t="s">
-        <v>55</v>
-      </c>
-      <c r="B66" t="s">
-        <v>27</v>
-      </c>
-      <c r="C66" t="s">
-        <v>28</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="7">
-        <v>2453</v>
-      </c>
-      <c r="H66" s="7">
-        <v>3508</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" t="s">
-        <v>55</v>
-      </c>
-      <c r="B67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C67" t="s">
-        <v>28</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" s="7">
-        <v>3509</v>
-      </c>
-      <c r="H67" s="7">
-        <v>4180</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" t="s">
-        <v>55</v>
-      </c>
-      <c r="B68" t="s">
-        <v>27</v>
-      </c>
-      <c r="C68" t="s">
-        <v>28</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G68" s="7">
-        <v>4181</v>
-      </c>
-      <c r="H68" s="7">
-        <v>4570</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" t="s">
-        <v>55</v>
-      </c>
-      <c r="B69" t="s">
-        <v>27</v>
-      </c>
-      <c r="C69" t="s">
-        <v>28</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G69" s="7">
-        <v>4571</v>
-      </c>
-      <c r="H69" s="7">
-        <v>6439</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" t="s">
-        <v>55</v>
-      </c>
-      <c r="B70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C70" t="s">
-        <v>28</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" s="7">
-        <v>6440</v>
-      </c>
-      <c r="H70" s="7">
-        <v>6817</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" t="s">
-        <v>55</v>
-      </c>
-      <c r="B71" t="s">
-        <v>27</v>
-      </c>
-      <c r="C71" t="s">
-        <v>28</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" s="7">
-        <v>6818</v>
-      </c>
-      <c r="H71" s="7">
-        <v>6886</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" t="s">
-        <v>55</v>
-      </c>
-      <c r="B72" t="s">
-        <v>27</v>
-      </c>
-      <c r="C72" t="s">
-        <v>28</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="7">
-        <v>6887</v>
-      </c>
-      <c r="H72" s="7">
-        <v>7636</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" t="s">
-        <v>55</v>
-      </c>
-      <c r="B73" t="s">
-        <v>27</v>
-      </c>
-      <c r="C73" t="s">
-        <v>28</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="7">
-        <v>7637</v>
-      </c>
-      <c r="H73" s="7">
-        <v>10351</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" t="s">
-        <v>55</v>
-      </c>
-      <c r="B74" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74" t="s">
-        <v>28</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="7">
-        <v>10355</v>
-      </c>
-      <c r="H74" s="7">
-        <v>10862</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="F74" s="9">
+        <v>6258</v>
+      </c>
+      <c r="G74" s="9">
+        <v>7601</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="B75" t="s">
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>79</v>
-      </c>
-      <c r="D75" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="9">
+        <v>7602</v>
+      </c>
+      <c r="G75" s="9">
+        <v>9374</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>41</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="9">
+        <v>9378</v>
+      </c>
+      <c r="G76" s="9">
+        <v>9646</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" t="s">
+        <v>58</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>62</v>
+      </c>
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F78">
+        <v>105</v>
+      </c>
+      <c r="G78">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79">
+        <v>2850</v>
+      </c>
+      <c r="G79">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="10">
+        <v>1</v>
+      </c>
+      <c r="G80" s="10">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>44</v>
+      </c>
+      <c r="B81" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81"/>
+      <c r="E81" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F81" s="10">
+        <v>328</v>
+      </c>
+      <c r="G81" s="10">
+        <v>9501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82"/>
+      <c r="E82" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F82" s="9">
+        <v>328</v>
+      </c>
+      <c r="G82" s="9">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>44</v>
+      </c>
+      <c r="B83" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83"/>
+      <c r="E83" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83" s="9">
+        <v>565</v>
+      </c>
+      <c r="G83" s="9">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84"/>
+      <c r="E84" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" s="9">
+        <v>1138</v>
+      </c>
+      <c r="G84" s="9">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>44</v>
+      </c>
+      <c r="B85" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85"/>
+      <c r="E85" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F85" s="9">
+        <v>2200</v>
+      </c>
+      <c r="G85" s="9">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>44</v>
+      </c>
+      <c r="B86" t="s">
+        <v>76</v>
+      </c>
+      <c r="C86" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86"/>
+      <c r="E86" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F86" s="9">
+        <v>2911</v>
+      </c>
+      <c r="G86" s="9">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>44</v>
+      </c>
+      <c r="B87" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87"/>
+      <c r="E87" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" s="9">
+        <v>3631</v>
+      </c>
+      <c r="G87" s="9">
+        <v>5514</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>44</v>
+      </c>
+      <c r="B88" t="s">
+        <v>76</v>
+      </c>
+      <c r="C88" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88"/>
+      <c r="E88" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="9">
+        <v>5515</v>
+      </c>
+      <c r="G88" s="9">
+        <v>5637</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>44</v>
+      </c>
+      <c r="B89" t="s">
+        <v>76</v>
+      </c>
+      <c r="C89" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89"/>
+      <c r="E89" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="9">
+        <v>5638</v>
+      </c>
+      <c r="G89" s="9">
+        <v>6423</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>44</v>
+      </c>
+      <c r="B90" t="s">
+        <v>76</v>
+      </c>
+      <c r="C90" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90"/>
+      <c r="E90" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F90" s="9">
+        <v>6424</v>
+      </c>
+      <c r="G90" s="9">
+        <v>7797</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>44</v>
+      </c>
+      <c r="B91" t="s">
+        <v>76</v>
+      </c>
+      <c r="C91" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91"/>
+      <c r="E91" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="9">
+        <v>7798</v>
+      </c>
+      <c r="G91" s="9">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>44</v>
+      </c>
+      <c r="B92" t="s">
+        <v>76</v>
+      </c>
+      <c r="C92" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92"/>
+      <c r="E92" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="9">
+        <v>9502</v>
+      </c>
+      <c r="G92" s="9">
+        <v>9867</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>63</v>
+      </c>
+      <c r="B93" t="s">
+        <v>75</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>63</v>
+      </c>
+      <c r="B94" t="s">
+        <v>75</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F94">
+        <v>351</v>
+      </c>
+      <c r="G94">
+        <v>18068</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>63</v>
+      </c>
+      <c r="B95" t="s">
+        <v>75</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95">
+        <v>18069</v>
+      </c>
+      <c r="G95">
+        <v>19199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>42</v>
+      </c>
+      <c r="B96" t="s">
+        <v>74</v>
+      </c>
+      <c r="C96" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96"/>
+      <c r="E96" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" s="10">
+        <v>1</v>
+      </c>
+      <c r="G96" s="10">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>42</v>
+      </c>
+      <c r="B97" t="s">
+        <v>74</v>
+      </c>
+      <c r="C97" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97"/>
+      <c r="E97" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F97" s="10">
+        <v>386</v>
+      </c>
+      <c r="G97" s="10">
+        <v>12352</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>42</v>
+      </c>
+      <c r="B98" t="s">
+        <v>74</v>
+      </c>
+      <c r="C98" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98"/>
+      <c r="E98" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F98" s="9">
+        <v>386</v>
+      </c>
+      <c r="G98" s="9">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>42</v>
+      </c>
+      <c r="B99" t="s">
+        <v>74</v>
+      </c>
+      <c r="C99" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99"/>
+      <c r="E99" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F99" s="9">
+        <v>890</v>
+      </c>
+      <c r="G99" s="9">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>42</v>
+      </c>
+      <c r="B100" t="s">
+        <v>74</v>
+      </c>
+      <c r="C100" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100"/>
+      <c r="E100" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F100" s="9">
+        <v>1196</v>
+      </c>
+      <c r="G100" s="9">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>42</v>
+      </c>
+      <c r="B101" t="s">
+        <v>74</v>
+      </c>
+      <c r="C101" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101"/>
+      <c r="E101" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" s="9">
+        <v>1877</v>
+      </c>
+      <c r="G101" s="9">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>42</v>
+      </c>
+      <c r="B102" t="s">
+        <v>74</v>
+      </c>
+      <c r="C102" t="s">
+        <v>33</v>
+      </c>
+      <c r="D102"/>
+      <c r="E102" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102" s="9">
+        <v>2462</v>
+      </c>
+      <c r="G102" s="9">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>42</v>
+      </c>
+      <c r="B103" t="s">
+        <v>74</v>
+      </c>
+      <c r="C103" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103"/>
+      <c r="E103" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F103" s="9">
+        <v>3584</v>
+      </c>
+      <c r="G103" s="9">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>42</v>
+      </c>
+      <c r="B104" t="s">
+        <v>74</v>
+      </c>
+      <c r="C104" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104"/>
+      <c r="E104" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="9">
+        <v>3794</v>
+      </c>
+      <c r="G104" s="9">
+        <v>7471</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>42</v>
+      </c>
+      <c r="B105" t="s">
+        <v>74</v>
+      </c>
+      <c r="C105" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105"/>
+      <c r="E105" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="9">
+        <v>7472</v>
+      </c>
+      <c r="G105" s="9">
+        <v>7663</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>42</v>
+      </c>
+      <c r="B106" t="s">
+        <v>74</v>
+      </c>
+      <c r="C106" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106"/>
+      <c r="E106" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="9">
+        <v>7664</v>
+      </c>
+      <c r="G106" s="9">
+        <v>8704</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>42</v>
+      </c>
+      <c r="B107" t="s">
+        <v>74</v>
+      </c>
+      <c r="C107" t="s">
+        <v>33</v>
+      </c>
+      <c r="D107"/>
+      <c r="E107" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F107" s="9">
+        <v>8705</v>
+      </c>
+      <c r="G107" s="9">
+        <v>10192</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>42</v>
+      </c>
+      <c r="B108" t="s">
+        <v>74</v>
+      </c>
+      <c r="C108" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108"/>
+      <c r="E108" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" s="9">
+        <v>10193</v>
+      </c>
+      <c r="G108" s="9">
+        <v>12349</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>42</v>
+      </c>
+      <c r="B109" t="s">
+        <v>74</v>
+      </c>
+      <c r="C109" t="s">
+        <v>33</v>
+      </c>
+      <c r="D109"/>
+      <c r="E109" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="9">
+        <v>12360</v>
+      </c>
+      <c r="G109" s="9">
+        <v>12573</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>61</v>
+      </c>
+      <c r="B110" t="s">
+        <v>73</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D110"/>
+      <c r="E110" t="s">
+        <v>83</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>10053</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>61</v>
+      </c>
+      <c r="B111" t="s">
+        <v>73</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D111"/>
+      <c r="E111" t="s">
+        <v>17</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>61</v>
+      </c>
+      <c r="B112" t="s">
+        <v>73</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D112"/>
+      <c r="E112" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112" s="9">
+        <v>346</v>
+      </c>
+      <c r="G112" s="9">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>61</v>
+      </c>
+      <c r="B113" t="s">
+        <v>73</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D113"/>
+      <c r="E113" t="s">
+        <v>68</v>
+      </c>
+      <c r="F113" s="9">
+        <v>655</v>
+      </c>
+      <c r="G113" s="9">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>61</v>
+      </c>
+      <c r="B114" t="s">
+        <v>73</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D114"/>
+      <c r="E114" t="s">
         <v>19</v>
       </c>
-      <c r="E75" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G75" s="9">
-        <v>1</v>
-      </c>
-      <c r="H75" s="9">
-        <v>10116</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" t="s">
-        <v>84</v>
-      </c>
-      <c r="B76" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76" t="s">
-        <v>80</v>
-      </c>
-      <c r="D76" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E76" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>10242</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" t="s">
-        <v>58</v>
-      </c>
-      <c r="B77" t="s">
-        <v>32</v>
-      </c>
-      <c r="C77" t="s">
-        <v>33</v>
-      </c>
-      <c r="D77" t="s">
-        <v>19</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F77" s="9" t="s">
+      <c r="F114" s="9">
+        <v>853</v>
+      </c>
+      <c r="G114" s="9">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>61</v>
+      </c>
+      <c r="B115" t="s">
+        <v>73</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D115"/>
+      <c r="E115" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115" s="9">
+        <v>2359</v>
+      </c>
+      <c r="G115" s="9">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>61</v>
+      </c>
+      <c r="B116" t="s">
+        <v>73</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D116"/>
+      <c r="E116" t="s">
+        <v>5</v>
+      </c>
+      <c r="F116" s="9">
+        <v>3391</v>
+      </c>
+      <c r="G116" s="9">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>61</v>
+      </c>
+      <c r="B117" t="s">
+        <v>73</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D117"/>
+      <c r="E117" t="s">
+        <v>6</v>
+      </c>
+      <c r="F117" s="9">
+        <v>3979</v>
+      </c>
+      <c r="G117" s="9">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>61</v>
+      </c>
+      <c r="B118" t="s">
+        <v>73</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D118"/>
+      <c r="E118" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" s="9">
+        <v>4432</v>
+      </c>
+      <c r="G118" s="9">
+        <v>6303</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>61</v>
+      </c>
+      <c r="B119" t="s">
+        <v>73</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D119"/>
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" s="9">
+        <v>6304</v>
+      </c>
+      <c r="G119" s="9">
+        <v>6687</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>61</v>
+      </c>
+      <c r="B120" t="s">
+        <v>73</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D120"/>
+      <c r="E120" t="s">
         <v>20</v>
       </c>
-      <c r="G77" s="10">
-        <v>1</v>
-      </c>
-      <c r="H77" s="10">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="s">
-        <v>58</v>
-      </c>
-      <c r="B78" t="s">
-        <v>32</v>
-      </c>
-      <c r="C78" t="s">
-        <v>33</v>
-      </c>
-      <c r="D78" t="s">
-        <v>19</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G78" s="10">
-        <v>112</v>
-      </c>
-      <c r="H78" s="10">
-        <v>10359</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" t="s">
-        <v>58</v>
-      </c>
-      <c r="B79" t="s">
-        <v>32</v>
-      </c>
-      <c r="C79" t="s">
-        <v>33</v>
-      </c>
-      <c r="D79" t="s">
-        <v>19</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" s="9">
-        <v>112</v>
-      </c>
-      <c r="H79" s="9">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" t="s">
-        <v>58</v>
-      </c>
-      <c r="B80" t="s">
-        <v>32</v>
-      </c>
-      <c r="C80" t="s">
-        <v>33</v>
-      </c>
-      <c r="D80" t="s">
-        <v>19</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" s="9">
-        <v>442</v>
-      </c>
-      <c r="H80" s="9">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="s">
-        <v>58</v>
-      </c>
-      <c r="B81" t="s">
-        <v>32</v>
-      </c>
-      <c r="C81" t="s">
-        <v>33</v>
-      </c>
-      <c r="D81" t="s">
-        <v>19</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F81" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" s="9">
-        <v>946</v>
-      </c>
-      <c r="H81" s="9">
-        <v>2436</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" t="s">
-        <v>58</v>
-      </c>
-      <c r="B82" t="s">
-        <v>32</v>
-      </c>
-      <c r="C82" t="s">
-        <v>33</v>
-      </c>
-      <c r="D82" t="s">
-        <v>19</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G82" s="9">
-        <v>2437</v>
-      </c>
-      <c r="H82" s="9">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" t="s">
-        <v>58</v>
-      </c>
-      <c r="B83" t="s">
-        <v>32</v>
-      </c>
-      <c r="C83" t="s">
-        <v>33</v>
-      </c>
-      <c r="D83" t="s">
-        <v>19</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G83" s="9">
-        <v>3496</v>
-      </c>
-      <c r="H83" s="9">
-        <v>4185</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" t="s">
-        <v>58</v>
-      </c>
-      <c r="B84" t="s">
-        <v>32</v>
-      </c>
-      <c r="C84" t="s">
-        <v>33</v>
-      </c>
-      <c r="D84" t="s">
-        <v>19</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G84" s="9">
-        <v>4186</v>
-      </c>
-      <c r="H84" s="9">
-        <v>4578</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" t="s">
-        <v>58</v>
-      </c>
-      <c r="B85" t="s">
-        <v>32</v>
-      </c>
-      <c r="C85" t="s">
-        <v>33</v>
-      </c>
-      <c r="D85" t="s">
-        <v>19</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G85" s="9">
-        <v>4579</v>
-      </c>
-      <c r="H85" s="9">
-        <v>6444</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" t="s">
-        <v>58</v>
-      </c>
-      <c r="B86" t="s">
-        <v>32</v>
-      </c>
-      <c r="C86" t="s">
-        <v>33</v>
-      </c>
-      <c r="D86" t="s">
-        <v>19</v>
-      </c>
-      <c r="E86" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F86" s="9" t="s">
+      <c r="F120" s="9">
+        <v>6763</v>
+      </c>
+      <c r="G120" s="9">
+        <v>6762</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>61</v>
+      </c>
+      <c r="B121" t="s">
+        <v>73</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D121"/>
+      <c r="E121" t="s">
         <v>9</v>
       </c>
-      <c r="G86" s="9">
-        <v>6445</v>
-      </c>
-      <c r="H86" s="9">
-        <v>6822</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" t="s">
-        <v>58</v>
-      </c>
-      <c r="B87" t="s">
-        <v>32</v>
-      </c>
-      <c r="C87" t="s">
-        <v>33</v>
-      </c>
-      <c r="D87" t="s">
-        <v>19</v>
-      </c>
-      <c r="E87" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G87" s="9">
-        <v>6823</v>
-      </c>
-      <c r="H87" s="9">
-        <v>6891</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" t="s">
-        <v>58</v>
-      </c>
-      <c r="B88" t="s">
-        <v>32</v>
-      </c>
-      <c r="C88" t="s">
-        <v>33</v>
-      </c>
-      <c r="D88" t="s">
-        <v>19</v>
-      </c>
-      <c r="E88" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F88" s="9" t="s">
+      <c r="F121" s="9">
+        <v>6763</v>
+      </c>
+      <c r="G121" s="9">
+        <v>7557</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>61</v>
+      </c>
+      <c r="B122" t="s">
+        <v>73</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D122"/>
+      <c r="E122" t="s">
         <v>10</v>
       </c>
-      <c r="G88" s="9">
-        <v>6892</v>
-      </c>
-      <c r="H88" s="9">
-        <v>7647</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" t="s">
-        <v>58</v>
-      </c>
-      <c r="B89" t="s">
-        <v>32</v>
-      </c>
-      <c r="C89" t="s">
-        <v>33</v>
-      </c>
-      <c r="D89" t="s">
-        <v>19</v>
-      </c>
-      <c r="E89" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" s="9">
-        <v>7648</v>
-      </c>
-      <c r="H89" s="9">
-        <v>10356</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" t="s">
-        <v>58</v>
-      </c>
-      <c r="B90" t="s">
-        <v>32</v>
-      </c>
-      <c r="C90" t="s">
-        <v>33</v>
-      </c>
-      <c r="D90" t="s">
-        <v>19</v>
-      </c>
-      <c r="E90" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="9">
-        <v>10357</v>
-      </c>
-      <c r="H90" s="9">
-        <v>10839</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" t="s">
-        <v>59</v>
-      </c>
-      <c r="B91" t="s">
-        <v>34</v>
-      </c>
-      <c r="C91" t="s">
-        <v>35</v>
-      </c>
-      <c r="D91" t="s">
-        <v>36</v>
-      </c>
-      <c r="E91"/>
-      <c r="F91" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" s="10">
-        <v>1</v>
-      </c>
-      <c r="H91" s="10">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" t="s">
-        <v>59</v>
-      </c>
-      <c r="B92" t="s">
-        <v>34</v>
-      </c>
-      <c r="C92" t="s">
-        <v>35</v>
-      </c>
-      <c r="D92" t="s">
-        <v>36</v>
-      </c>
-      <c r="E92"/>
-      <c r="F92" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G92" s="10">
-        <v>342</v>
-      </c>
-      <c r="H92" s="10">
-        <v>9377</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" t="s">
-        <v>59</v>
-      </c>
-      <c r="B93" t="s">
-        <v>34</v>
-      </c>
-      <c r="C93" t="s">
-        <v>35</v>
-      </c>
-      <c r="D93" t="s">
-        <v>36</v>
-      </c>
-      <c r="E93"/>
-      <c r="F93" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G93" s="9">
-        <v>342</v>
-      </c>
-      <c r="H93" s="9">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="s">
-        <v>59</v>
-      </c>
-      <c r="B94" t="s">
-        <v>34</v>
-      </c>
-      <c r="C94" t="s">
-        <v>35</v>
-      </c>
-      <c r="D94" t="s">
-        <v>36</v>
-      </c>
-      <c r="E94"/>
-      <c r="F94" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G94" s="9">
-        <v>915</v>
-      </c>
-      <c r="H94" s="9">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" t="s">
-        <v>59</v>
-      </c>
-      <c r="B95" t="s">
-        <v>34</v>
-      </c>
-      <c r="C95" t="s">
-        <v>35</v>
-      </c>
-      <c r="D95" t="s">
-        <v>36</v>
-      </c>
-      <c r="E95"/>
-      <c r="F95" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G95" s="9">
-        <v>1491</v>
-      </c>
-      <c r="H95" s="9">
-        <v>2579</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" t="s">
-        <v>59</v>
-      </c>
-      <c r="B96" t="s">
-        <v>34</v>
-      </c>
-      <c r="C96" t="s">
-        <v>35</v>
-      </c>
-      <c r="D96" t="s">
-        <v>36</v>
-      </c>
-      <c r="E96"/>
-      <c r="F96" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G96" s="9">
-        <v>2580</v>
-      </c>
-      <c r="H96" s="9">
-        <v>2768</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" t="s">
-        <v>59</v>
-      </c>
-      <c r="B97" t="s">
-        <v>34</v>
-      </c>
-      <c r="C97" t="s">
-        <v>35</v>
-      </c>
-      <c r="D97" t="s">
-        <v>36</v>
-      </c>
-      <c r="E97"/>
-      <c r="F97" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G97" s="9">
-        <v>2769</v>
-      </c>
-      <c r="H97" s="9">
-        <v>3419</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" t="s">
-        <v>59</v>
-      </c>
-      <c r="B98" t="s">
-        <v>34</v>
-      </c>
-      <c r="C98" t="s">
-        <v>35</v>
-      </c>
-      <c r="D98" t="s">
-        <v>36</v>
-      </c>
-      <c r="E98"/>
-      <c r="F98" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G98" s="9">
-        <v>3420</v>
-      </c>
-      <c r="H98" s="9">
-        <v>5312</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" t="s">
-        <v>59</v>
-      </c>
-      <c r="B99" t="s">
-        <v>34</v>
-      </c>
-      <c r="C99" t="s">
-        <v>35</v>
-      </c>
-      <c r="D99" t="s">
-        <v>36</v>
-      </c>
-      <c r="E99"/>
-      <c r="F99" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G99" s="9">
-        <v>5313</v>
-      </c>
-      <c r="H99" s="9">
-        <v>5474</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" t="s">
-        <v>59</v>
-      </c>
-      <c r="B100" t="s">
-        <v>34</v>
-      </c>
-      <c r="C100" t="s">
-        <v>35</v>
-      </c>
-      <c r="D100" t="s">
-        <v>36</v>
-      </c>
-      <c r="E100"/>
-      <c r="F100" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="9">
-        <v>5475</v>
-      </c>
-      <c r="H100" s="9">
-        <v>6257</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" t="s">
-        <v>59</v>
-      </c>
-      <c r="B101" t="s">
-        <v>34</v>
-      </c>
-      <c r="C101" t="s">
-        <v>35</v>
-      </c>
-      <c r="D101" t="s">
-        <v>36</v>
-      </c>
-      <c r="E101"/>
-      <c r="F101" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G101" s="9">
-        <v>6258</v>
-      </c>
-      <c r="H101" s="9">
-        <v>7601</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>59</v>
-      </c>
-      <c r="B102" t="s">
-        <v>34</v>
-      </c>
-      <c r="C102" t="s">
-        <v>35</v>
-      </c>
-      <c r="D102" t="s">
-        <v>36</v>
-      </c>
-      <c r="E102"/>
-      <c r="F102" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G102" s="9">
-        <v>7602</v>
-      </c>
-      <c r="H102" s="9">
-        <v>9374</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" t="s">
-        <v>59</v>
-      </c>
-      <c r="B103" t="s">
-        <v>34</v>
-      </c>
-      <c r="C103" t="s">
-        <v>35</v>
-      </c>
-      <c r="D103" t="s">
-        <v>36</v>
-      </c>
-      <c r="E103"/>
-      <c r="F103" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="9">
-        <v>9378</v>
-      </c>
-      <c r="H103" s="9">
-        <v>9646</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" t="s">
-        <v>88</v>
-      </c>
-      <c r="B104" t="s">
-        <v>89</v>
-      </c>
-      <c r="C104" t="s">
-        <v>82</v>
-      </c>
-      <c r="D104" t="s">
-        <v>82</v>
-      </c>
-      <c r="E104" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="H104">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" t="s">
-        <v>88</v>
-      </c>
-      <c r="B105" t="s">
-        <v>89</v>
-      </c>
-      <c r="C105" t="s">
-        <v>82</v>
-      </c>
-      <c r="D105" t="s">
-        <v>82</v>
-      </c>
-      <c r="E105" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G105">
-        <v>105</v>
-      </c>
-      <c r="H105">
-        <v>2849</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" t="s">
-        <v>88</v>
-      </c>
-      <c r="B106" t="s">
-        <v>89</v>
-      </c>
-      <c r="C106" t="s">
-        <v>82</v>
-      </c>
-      <c r="D106" t="s">
-        <v>82</v>
-      </c>
-      <c r="E106" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106">
-        <v>2850</v>
-      </c>
-      <c r="H106">
-        <v>3114</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" t="s">
-        <v>62</v>
-      </c>
-      <c r="B107" t="s">
-        <v>44</v>
-      </c>
-      <c r="C107" t="s">
-        <v>45</v>
-      </c>
-      <c r="D107" t="s">
-        <v>46</v>
-      </c>
-      <c r="E107"/>
-      <c r="F107" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" s="10">
-        <v>1</v>
-      </c>
-      <c r="H107" s="10">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" t="s">
-        <v>62</v>
-      </c>
-      <c r="B108" t="s">
-        <v>44</v>
-      </c>
-      <c r="C108" t="s">
-        <v>45</v>
-      </c>
-      <c r="D108" t="s">
-        <v>46</v>
-      </c>
-      <c r="E108"/>
-      <c r="F108" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G108" s="10">
-        <v>328</v>
-      </c>
-      <c r="H108" s="10">
-        <v>9501</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" t="s">
-        <v>62</v>
-      </c>
-      <c r="B109" t="s">
-        <v>44</v>
-      </c>
-      <c r="C109" t="s">
-        <v>45</v>
-      </c>
-      <c r="D109" t="s">
-        <v>46</v>
-      </c>
-      <c r="E109"/>
-      <c r="F109" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G109" s="9">
-        <v>328</v>
-      </c>
-      <c r="H109" s="9">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" t="s">
-        <v>62</v>
-      </c>
-      <c r="B110" t="s">
-        <v>44</v>
-      </c>
-      <c r="C110" t="s">
-        <v>45</v>
-      </c>
-      <c r="D110" t="s">
-        <v>46</v>
-      </c>
-      <c r="E110"/>
-      <c r="F110" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G110" s="9">
-        <v>565</v>
-      </c>
-      <c r="H110" s="9">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" t="s">
-        <v>62</v>
-      </c>
-      <c r="B111" t="s">
-        <v>44</v>
-      </c>
-      <c r="C111" t="s">
-        <v>45</v>
-      </c>
-      <c r="D111" t="s">
-        <v>46</v>
-      </c>
-      <c r="E111"/>
-      <c r="F111" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G111" s="9">
-        <v>1138</v>
-      </c>
-      <c r="H111" s="9">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" t="s">
-        <v>62</v>
-      </c>
-      <c r="B112" t="s">
-        <v>44</v>
-      </c>
-      <c r="C112" t="s">
-        <v>45</v>
-      </c>
-      <c r="D112" t="s">
-        <v>46</v>
-      </c>
-      <c r="E112"/>
-      <c r="F112" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G112" s="9">
-        <v>2200</v>
-      </c>
-      <c r="H112" s="9">
-        <v>2910</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" t="s">
-        <v>62</v>
-      </c>
-      <c r="B113" t="s">
-        <v>44</v>
-      </c>
-      <c r="C113" t="s">
-        <v>45</v>
-      </c>
-      <c r="D113" t="s">
-        <v>46</v>
-      </c>
-      <c r="E113"/>
-      <c r="F113" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G113" s="9">
-        <v>2911</v>
-      </c>
-      <c r="H113" s="9">
-        <v>3630</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" t="s">
-        <v>62</v>
-      </c>
-      <c r="B114" t="s">
-        <v>44</v>
-      </c>
-      <c r="C114" t="s">
-        <v>45</v>
-      </c>
-      <c r="D114" t="s">
-        <v>46</v>
-      </c>
-      <c r="E114"/>
-      <c r="F114" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G114" s="9">
-        <v>3631</v>
-      </c>
-      <c r="H114" s="9">
-        <v>5514</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" t="s">
-        <v>62</v>
-      </c>
-      <c r="B115" t="s">
-        <v>44</v>
-      </c>
-      <c r="C115" t="s">
-        <v>45</v>
-      </c>
-      <c r="D115" t="s">
-        <v>46</v>
-      </c>
-      <c r="E115"/>
-      <c r="F115" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G115" s="9">
-        <v>5515</v>
-      </c>
-      <c r="H115" s="9">
-        <v>5637</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" t="s">
-        <v>62</v>
-      </c>
-      <c r="B116" t="s">
-        <v>44</v>
-      </c>
-      <c r="C116" t="s">
-        <v>45</v>
-      </c>
-      <c r="D116" t="s">
-        <v>46</v>
-      </c>
-      <c r="E116"/>
-      <c r="F116" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="9">
-        <v>5638</v>
-      </c>
-      <c r="H116" s="9">
-        <v>6423</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" t="s">
-        <v>62</v>
-      </c>
-      <c r="B117" t="s">
-        <v>44</v>
-      </c>
-      <c r="C117" t="s">
-        <v>45</v>
-      </c>
-      <c r="D117" t="s">
-        <v>46</v>
-      </c>
-      <c r="E117"/>
-      <c r="F117" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G117" s="9">
-        <v>6424</v>
-      </c>
-      <c r="H117" s="9">
-        <v>7797</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" t="s">
-        <v>62</v>
-      </c>
-      <c r="B118" t="s">
-        <v>44</v>
-      </c>
-      <c r="C118" t="s">
-        <v>45</v>
-      </c>
-      <c r="D118" t="s">
-        <v>46</v>
-      </c>
-      <c r="E118"/>
-      <c r="F118" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G118" s="9">
-        <v>7798</v>
-      </c>
-      <c r="H118" s="9">
-        <v>9498</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" t="s">
-        <v>62</v>
-      </c>
-      <c r="B119" t="s">
-        <v>44</v>
-      </c>
-      <c r="C119" t="s">
-        <v>45</v>
-      </c>
-      <c r="D119" t="s">
-        <v>46</v>
-      </c>
-      <c r="E119"/>
-      <c r="F119" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" s="9">
-        <v>9502</v>
-      </c>
-      <c r="H119" s="9">
-        <v>9867</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" t="s">
-        <v>91</v>
-      </c>
-      <c r="B120" t="s">
-        <v>92</v>
-      </c>
-      <c r="C120" t="s">
-        <v>90</v>
-      </c>
-      <c r="D120" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E120" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F120" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G120">
-        <v>1</v>
-      </c>
-      <c r="H120">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" t="s">
-        <v>91</v>
-      </c>
-      <c r="B121" t="s">
-        <v>92</v>
-      </c>
-      <c r="C121" t="s">
-        <v>90</v>
-      </c>
-      <c r="D121" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E121" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F121" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G121">
-        <v>351</v>
-      </c>
-      <c r="H121">
-        <v>18068</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" t="s">
-        <v>91</v>
-      </c>
-      <c r="B122" t="s">
-        <v>92</v>
-      </c>
-      <c r="C122" t="s">
-        <v>90</v>
-      </c>
-      <c r="D122" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E122" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F122" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122">
-        <v>18069</v>
-      </c>
-      <c r="H122">
-        <v>19199</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" t="s">
-        <v>60</v>
-      </c>
-      <c r="B123" t="s">
-        <v>49</v>
-      </c>
-      <c r="C123" t="s">
-        <v>50</v>
-      </c>
-      <c r="D123" t="s">
-        <v>51</v>
-      </c>
-      <c r="E123"/>
-      <c r="F123" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" s="10">
-        <v>1</v>
-      </c>
-      <c r="H123" s="10">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" t="s">
-        <v>60</v>
-      </c>
-      <c r="B124" t="s">
-        <v>49</v>
-      </c>
-      <c r="C124" t="s">
-        <v>50</v>
-      </c>
-      <c r="D124" t="s">
-        <v>51</v>
-      </c>
-      <c r="E124"/>
-      <c r="F124" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G124" s="10">
-        <v>386</v>
-      </c>
-      <c r="H124" s="10">
-        <v>12352</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" t="s">
-        <v>60</v>
-      </c>
-      <c r="B125" t="s">
-        <v>49</v>
-      </c>
-      <c r="C125" t="s">
-        <v>50</v>
-      </c>
-      <c r="D125" t="s">
-        <v>51</v>
-      </c>
-      <c r="E125"/>
-      <c r="F125" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G125" s="9">
-        <v>386</v>
-      </c>
-      <c r="H125" s="9">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" t="s">
-        <v>60</v>
-      </c>
-      <c r="B126" t="s">
-        <v>49</v>
-      </c>
-      <c r="C126" t="s">
-        <v>50</v>
-      </c>
-      <c r="D126" t="s">
-        <v>51</v>
-      </c>
-      <c r="E126"/>
-      <c r="F126" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G126" s="9">
-        <v>890</v>
-      </c>
-      <c r="H126" s="9">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" t="s">
-        <v>60</v>
-      </c>
-      <c r="B127" t="s">
-        <v>49</v>
-      </c>
-      <c r="C127" t="s">
-        <v>50</v>
-      </c>
-      <c r="D127" t="s">
-        <v>51</v>
-      </c>
-      <c r="E127"/>
-      <c r="F127" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G127" s="9">
-        <v>1196</v>
-      </c>
-      <c r="H127" s="9">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" t="s">
-        <v>60</v>
-      </c>
-      <c r="B128" t="s">
-        <v>49</v>
-      </c>
-      <c r="C128" t="s">
-        <v>50</v>
-      </c>
-      <c r="D128" t="s">
-        <v>51</v>
-      </c>
-      <c r="E128"/>
-      <c r="F128" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G128" s="9">
-        <v>1877</v>
-      </c>
-      <c r="H128" s="9">
-        <v>2461</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" t="s">
-        <v>60</v>
-      </c>
-      <c r="B129" t="s">
-        <v>49</v>
-      </c>
-      <c r="C129" t="s">
-        <v>50</v>
-      </c>
-      <c r="D129" t="s">
-        <v>51</v>
-      </c>
-      <c r="E129"/>
-      <c r="F129" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G129" s="9">
-        <v>2462</v>
-      </c>
-      <c r="H129" s="9">
-        <v>3583</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" t="s">
-        <v>60</v>
-      </c>
-      <c r="B130" t="s">
-        <v>49</v>
-      </c>
-      <c r="C130" t="s">
-        <v>50</v>
-      </c>
-      <c r="D130" t="s">
-        <v>51</v>
-      </c>
-      <c r="E130"/>
-      <c r="F130" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G130" s="9">
-        <v>3584</v>
-      </c>
-      <c r="H130" s="9">
-        <v>3793</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" t="s">
-        <v>60</v>
-      </c>
-      <c r="B131" t="s">
-        <v>49</v>
-      </c>
-      <c r="C131" t="s">
-        <v>50</v>
-      </c>
-      <c r="D131" t="s">
-        <v>51</v>
-      </c>
-      <c r="E131"/>
-      <c r="F131" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G131" s="9">
-        <v>3794</v>
-      </c>
-      <c r="H131" s="9">
-        <v>7471</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" t="s">
-        <v>60</v>
-      </c>
-      <c r="B132" t="s">
-        <v>49</v>
-      </c>
-      <c r="C132" t="s">
-        <v>50</v>
-      </c>
-      <c r="D132" t="s">
-        <v>51</v>
-      </c>
-      <c r="E132"/>
-      <c r="F132" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G132" s="9">
-        <v>7472</v>
-      </c>
-      <c r="H132" s="9">
-        <v>7663</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" t="s">
-        <v>60</v>
-      </c>
-      <c r="B133" t="s">
-        <v>49</v>
-      </c>
-      <c r="C133" t="s">
-        <v>50</v>
-      </c>
-      <c r="D133" t="s">
-        <v>51</v>
-      </c>
-      <c r="E133"/>
-      <c r="F133" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="9">
-        <v>7664</v>
-      </c>
-      <c r="H133" s="9">
-        <v>8704</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" t="s">
-        <v>60</v>
-      </c>
-      <c r="B134" t="s">
-        <v>49</v>
-      </c>
-      <c r="C134" t="s">
-        <v>50</v>
-      </c>
-      <c r="D134" t="s">
-        <v>51</v>
-      </c>
-      <c r="E134"/>
-      <c r="F134" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G134" s="9">
-        <v>8705</v>
-      </c>
-      <c r="H134" s="9">
-        <v>10192</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" t="s">
-        <v>60</v>
-      </c>
-      <c r="B135" t="s">
-        <v>49</v>
-      </c>
-      <c r="C135" t="s">
-        <v>50</v>
-      </c>
-      <c r="D135" t="s">
-        <v>51</v>
-      </c>
-      <c r="E135"/>
-      <c r="F135" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G135" s="9">
-        <v>10193</v>
-      </c>
-      <c r="H135" s="9">
-        <v>12349</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" t="s">
-        <v>60</v>
-      </c>
-      <c r="B136" t="s">
-        <v>49</v>
-      </c>
-      <c r="C136" t="s">
-        <v>50</v>
-      </c>
-      <c r="D136" t="s">
-        <v>51</v>
-      </c>
-      <c r="E136"/>
-      <c r="F136" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" s="9">
-        <v>12360</v>
-      </c>
-      <c r="H136" s="9">
-        <v>12573</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" t="s">
-        <v>86</v>
-      </c>
-      <c r="B137" t="s">
-        <v>87</v>
-      </c>
-      <c r="C137" t="s">
-        <v>81</v>
-      </c>
-      <c r="D137" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E137"/>
-      <c r="F137" t="s">
-        <v>65</v>
-      </c>
-      <c r="G137">
-        <v>1</v>
-      </c>
-      <c r="H137">
-        <v>10053</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" t="s">
-        <v>86</v>
-      </c>
-      <c r="B138" t="s">
-        <v>87</v>
-      </c>
-      <c r="C138" t="s">
-        <v>81</v>
-      </c>
-      <c r="D138" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E138"/>
-      <c r="F138" t="s">
-        <v>21</v>
-      </c>
-      <c r="G138">
-        <v>1</v>
-      </c>
-      <c r="H138">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" t="s">
-        <v>86</v>
-      </c>
-      <c r="B139" t="s">
-        <v>87</v>
-      </c>
-      <c r="C139" t="s">
-        <v>81</v>
-      </c>
-      <c r="D139" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E139"/>
-      <c r="F139" t="s">
-        <v>22</v>
-      </c>
-      <c r="G139" s="9">
-        <v>346</v>
-      </c>
-      <c r="H139" s="9">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" t="s">
-        <v>86</v>
-      </c>
-      <c r="B140" t="s">
-        <v>87</v>
-      </c>
-      <c r="C140" t="s">
-        <v>81</v>
-      </c>
-      <c r="D140" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E140"/>
-      <c r="F140" t="s">
-        <v>97</v>
-      </c>
-      <c r="G140" s="9">
-        <v>655</v>
-      </c>
-      <c r="H140" s="9">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" t="s">
-        <v>86</v>
-      </c>
-      <c r="B141" t="s">
-        <v>87</v>
-      </c>
-      <c r="C141" t="s">
-        <v>81</v>
-      </c>
-      <c r="D141" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E141"/>
-      <c r="F141" t="s">
-        <v>23</v>
-      </c>
-      <c r="G141" s="9">
-        <v>853</v>
-      </c>
-      <c r="H141" s="9">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" t="s">
-        <v>86</v>
-      </c>
-      <c r="B142" t="s">
-        <v>87</v>
-      </c>
-      <c r="C142" t="s">
-        <v>81</v>
-      </c>
-      <c r="D142" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E142"/>
-      <c r="F142" t="s">
-        <v>5</v>
-      </c>
-      <c r="G142" s="9">
-        <v>2359</v>
-      </c>
-      <c r="H142" s="9">
-        <v>3390</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" t="s">
-        <v>86</v>
-      </c>
-      <c r="B143" t="s">
-        <v>87</v>
-      </c>
-      <c r="C143" t="s">
-        <v>81</v>
-      </c>
-      <c r="D143" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E143"/>
-      <c r="F143" t="s">
-        <v>6</v>
-      </c>
-      <c r="G143" s="9">
-        <v>3391</v>
-      </c>
-      <c r="H143" s="9">
-        <v>3978</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" t="s">
-        <v>86</v>
-      </c>
-      <c r="B144" t="s">
-        <v>87</v>
-      </c>
-      <c r="C144" t="s">
-        <v>81</v>
-      </c>
-      <c r="D144" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E144"/>
-      <c r="F144" t="s">
-        <v>7</v>
-      </c>
-      <c r="G144" s="9">
-        <v>3979</v>
-      </c>
-      <c r="H144" s="9">
-        <v>4431</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" t="s">
-        <v>86</v>
-      </c>
-      <c r="B145" t="s">
-        <v>87</v>
-      </c>
-      <c r="C145" t="s">
-        <v>81</v>
-      </c>
-      <c r="D145" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E145"/>
-      <c r="F145" t="s">
-        <v>8</v>
-      </c>
-      <c r="G145" s="9">
-        <v>4432</v>
-      </c>
-      <c r="H145" s="9">
-        <v>6303</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" t="s">
-        <v>86</v>
-      </c>
-      <c r="B146" t="s">
-        <v>87</v>
-      </c>
-      <c r="C146" t="s">
-        <v>81</v>
-      </c>
-      <c r="D146" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E146"/>
-      <c r="F146" t="s">
-        <v>9</v>
-      </c>
-      <c r="G146" s="9">
-        <v>6304</v>
-      </c>
-      <c r="H146" s="9">
-        <v>6687</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" t="s">
-        <v>86</v>
-      </c>
-      <c r="B147" t="s">
-        <v>87</v>
-      </c>
-      <c r="C147" t="s">
-        <v>81</v>
-      </c>
-      <c r="D147" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E147"/>
-      <c r="F147" t="s">
-        <v>24</v>
-      </c>
-      <c r="G147" s="9">
-        <v>6763</v>
-      </c>
-      <c r="H147" s="9">
-        <v>6762</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" t="s">
-        <v>86</v>
-      </c>
-      <c r="B148" t="s">
-        <v>87</v>
-      </c>
-      <c r="C148" t="s">
-        <v>81</v>
-      </c>
-      <c r="D148" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E148"/>
-      <c r="F148" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="9">
-        <v>6763</v>
-      </c>
-      <c r="H148" s="9">
-        <v>7557</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" t="s">
-        <v>86</v>
-      </c>
-      <c r="B149" t="s">
-        <v>87</v>
-      </c>
-      <c r="C149" t="s">
-        <v>81</v>
-      </c>
-      <c r="D149" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E149"/>
-      <c r="F149" t="s">
-        <v>11</v>
-      </c>
-      <c r="G149" s="9">
+      <c r="F122" s="9">
         <v>7558</v>
       </c>
-      <c r="H149" s="9">
+      <c r="G122" s="9">
         <v>10050</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
-      <c r="E150"/>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="E151"/>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="E152"/>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="E153"/>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="E154"/>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="E155"/>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="E156"/>
-    </row>
-    <row r="198" spans="3:3">
-      <c r="C198" s="1"/>
-    </row>
-    <row r="199" spans="3:3">
-      <c r="C199" s="1"/>
-    </row>
-    <row r="200" spans="3:3">
-      <c r="C200" s="1"/>
-    </row>
-    <row r="201" spans="3:3">
-      <c r="C201" s="1"/>
-    </row>
-    <row r="202" spans="3:3">
-      <c r="C202" s="1"/>
-    </row>
-    <row r="203" spans="3:3">
-      <c r="C203" s="1"/>
-    </row>
-    <row r="204" spans="3:3">
-      <c r="C204" s="1"/>
-    </row>
-    <row r="205" spans="3:3">
-      <c r="C205" s="1"/>
-    </row>
-    <row r="206" spans="3:3">
-      <c r="C206" s="1"/>
-    </row>
-    <row r="207" spans="3:3">
-      <c r="C207" s="1"/>
-    </row>
-    <row r="208" spans="3:3">
-      <c r="C208" s="1"/>
-    </row>
-    <row r="209" spans="2:5">
+    <row r="123" spans="1:7">
+      <c r="D123"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="D124"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="D125"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="D126"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="D127"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="D128"/>
+    </row>
+    <row r="129" spans="4:4">
+      <c r="D129"/>
+    </row>
+    <row r="182" spans="2:4">
+      <c r="B182" s="1"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+    </row>
+    <row r="183" spans="2:4">
+      <c r="B183" s="1"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+    </row>
+    <row r="184" spans="2:4">
+      <c r="B184" s="1"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+    </row>
+    <row r="185" spans="2:4">
+      <c r="B185" s="1"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+    </row>
+    <row r="186" spans="2:4">
+      <c r="B186" s="1"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+    </row>
+    <row r="187" spans="2:4">
+      <c r="B187" s="1"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+    </row>
+    <row r="188" spans="2:4">
+      <c r="B188" s="1"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+    </row>
+    <row r="189" spans="2:4">
+      <c r="B189" s="1"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+    </row>
+    <row r="190" spans="2:4">
+      <c r="B190" s="1"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+    </row>
+    <row r="191" spans="2:4">
+      <c r="B191" s="1"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+    </row>
+    <row r="192" spans="2:4">
+      <c r="B192" s="1"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+    </row>
+    <row r="193" spans="2:4">
+      <c r="B193" s="1"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+    </row>
+    <row r="194" spans="2:4">
+      <c r="B194" s="1"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+    </row>
+    <row r="195" spans="2:4">
+      <c r="B195" s="1"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+    </row>
+    <row r="196" spans="2:4">
+      <c r="B196" s="1"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+    </row>
+    <row r="197" spans="2:4">
+      <c r="B197" s="1"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+    </row>
+    <row r="198" spans="2:4">
+      <c r="B198" s="1"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+    </row>
+    <row r="199" spans="2:4">
+      <c r="B199" s="1"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+    </row>
+    <row r="200" spans="2:4">
+      <c r="B200" s="1"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+    </row>
+    <row r="201" spans="2:4">
+      <c r="B201" s="1"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+    </row>
+    <row r="202" spans="2:4">
+      <c r="B202" s="1"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+    </row>
+    <row r="203" spans="2:4">
+      <c r="B203" s="1"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+    </row>
+    <row r="204" spans="2:4">
+      <c r="B204" s="1"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+    </row>
+    <row r="205" spans="2:4">
+      <c r="B205" s="1"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+    </row>
+    <row r="206" spans="2:4">
+      <c r="B206" s="1"/>
+    </row>
+    <row r="207" spans="2:4">
+      <c r="B207" s="1"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+    </row>
+    <row r="208" spans="2:4">
+      <c r="B208" s="1"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+    </row>
+    <row r="209" spans="2:4">
       <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
+      <c r="C209" s="5"/>
       <c r="D209" s="5"/>
-      <c r="E209" s="5"/>
-    </row>
-    <row r="210" spans="2:5">
+    </row>
+    <row r="210" spans="2:4">
       <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
+      <c r="C210" s="5"/>
       <c r="D210" s="5"/>
-      <c r="E210" s="5"/>
-    </row>
-    <row r="211" spans="2:5">
+    </row>
+    <row r="211" spans="2:4">
       <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
+      <c r="C211" s="5"/>
       <c r="D211" s="5"/>
-      <c r="E211" s="5"/>
-    </row>
-    <row r="212" spans="2:5">
+    </row>
+    <row r="212" spans="2:4">
       <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
+      <c r="C212" s="5"/>
       <c r="D212" s="5"/>
-      <c r="E212" s="5"/>
-    </row>
-    <row r="213" spans="2:5">
+    </row>
+    <row r="213" spans="2:4">
       <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
+      <c r="C213" s="5"/>
       <c r="D213" s="5"/>
-      <c r="E213" s="5"/>
-    </row>
-    <row r="214" spans="2:5">
-      <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
-      <c r="D214" s="5"/>
-      <c r="E214" s="5"/>
-    </row>
-    <row r="215" spans="2:5">
-      <c r="B215" s="1"/>
-      <c r="C215" s="1"/>
-      <c r="D215" s="5"/>
-      <c r="E215" s="5"/>
-    </row>
-    <row r="216" spans="2:5">
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
-      <c r="D216" s="5"/>
-      <c r="E216" s="5"/>
-    </row>
-    <row r="217" spans="2:5">
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
-      <c r="D217" s="5"/>
-      <c r="E217" s="5"/>
-    </row>
-    <row r="218" spans="2:5">
-      <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
-      <c r="D218" s="5"/>
-      <c r="E218" s="5"/>
-    </row>
-    <row r="219" spans="2:5">
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
-      <c r="D219" s="5"/>
-      <c r="E219" s="5"/>
-    </row>
-    <row r="220" spans="2:5">
-      <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
-      <c r="D220" s="5"/>
-      <c r="E220" s="5"/>
-    </row>
-    <row r="221" spans="2:5">
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
-      <c r="D221" s="5"/>
-      <c r="E221" s="5"/>
-    </row>
-    <row r="222" spans="2:5">
-      <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
-      <c r="D222" s="5"/>
-      <c r="E222" s="5"/>
-    </row>
-    <row r="223" spans="2:5">
-      <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
-      <c r="D223" s="5"/>
-      <c r="E223" s="5"/>
-    </row>
-    <row r="224" spans="2:5">
-      <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
-      <c r="D224" s="5"/>
-      <c r="E224" s="5"/>
-    </row>
-    <row r="225" spans="2:5">
-      <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
-      <c r="D225" s="5"/>
-      <c r="E225" s="5"/>
-    </row>
-    <row r="226" spans="2:5">
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
-      <c r="D226" s="5"/>
-      <c r="E226" s="5"/>
-    </row>
-    <row r="227" spans="2:5">
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
-      <c r="D227" s="5"/>
-      <c r="E227" s="5"/>
-    </row>
-    <row r="228" spans="2:5">
-      <c r="B228" s="1"/>
-      <c r="C228" s="1"/>
-      <c r="D228" s="5"/>
-      <c r="E228" s="5"/>
-    </row>
-    <row r="229" spans="2:5">
-      <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
-      <c r="D229" s="5"/>
-      <c r="E229" s="5"/>
-    </row>
-    <row r="230" spans="2:5">
-      <c r="B230" s="1"/>
-      <c r="D230" s="5"/>
-      <c r="E230" s="5"/>
-    </row>
-    <row r="231" spans="2:5">
-      <c r="B231" s="1"/>
-      <c r="D231" s="5"/>
-      <c r="E231" s="5"/>
-    </row>
-    <row r="232" spans="2:5">
-      <c r="B232" s="1"/>
-      <c r="D232" s="5"/>
-      <c r="E232" s="5"/>
-    </row>
-    <row r="233" spans="2:5">
-      <c r="B233" s="1"/>
-    </row>
-    <row r="234" spans="2:5">
-      <c r="B234" s="1"/>
-      <c r="D234" s="5"/>
-      <c r="E234" s="5"/>
-    </row>
-    <row r="235" spans="2:5">
-      <c r="B235" s="1"/>
-      <c r="D235" s="5"/>
-      <c r="E235" s="5"/>
-    </row>
-    <row r="236" spans="2:5">
-      <c r="B236" s="1"/>
-      <c r="D236" s="5"/>
-      <c r="E236" s="5"/>
-    </row>
-    <row r="237" spans="2:5">
-      <c r="B237" s="1"/>
-      <c r="D237" s="5"/>
-      <c r="E237" s="5"/>
-    </row>
-    <row r="238" spans="2:5">
-      <c r="B238" s="1"/>
-      <c r="D238" s="5"/>
-      <c r="E238" s="5"/>
-    </row>
-    <row r="239" spans="2:5">
-      <c r="B239" s="1"/>
-      <c r="D239" s="5"/>
-      <c r="E239" s="5"/>
-    </row>
-    <row r="240" spans="2:5">
-      <c r="B240" s="1"/>
-      <c r="D240" s="5"/>
-      <c r="E240" s="5"/>
-    </row>
-    <row r="923" spans="6:6">
-      <c r="F923" s="1"/>
-    </row>
-    <row r="1048" spans="3:3">
-      <c r="C1048" s="1"/>
-    </row>
-    <row r="1049" spans="3:3">
-      <c r="C1049" s="1"/>
-    </row>
-    <row r="1059" spans="2:2">
-      <c r="B1059" s="1"/>
-    </row>
-    <row r="1060" spans="2:2">
-      <c r="B1060" s="1"/>
-    </row>
-    <row r="1174" spans="3:3">
-      <c r="C1174" s="1"/>
-    </row>
-    <row r="1175" spans="3:3">
-      <c r="C1175" s="1"/>
-    </row>
-    <row r="1176" spans="3:3">
-      <c r="C1176" s="1"/>
-    </row>
-    <row r="1177" spans="3:3">
-      <c r="C1177" s="1"/>
-    </row>
-    <row r="1178" spans="3:3">
-      <c r="C1178" s="1"/>
-    </row>
-    <row r="1179" spans="3:3">
-      <c r="C1179" s="1"/>
-    </row>
-    <row r="1185" spans="2:2">
-      <c r="B1185" s="1"/>
-    </row>
-    <row r="1186" spans="2:2">
-      <c r="B1186" s="1"/>
-    </row>
-    <row r="1187" spans="2:2">
-      <c r="B1187" s="1"/>
-    </row>
-    <row r="1188" spans="2:2">
-      <c r="B1188" s="1"/>
-    </row>
-    <row r="1189" spans="2:2">
-      <c r="B1189" s="1"/>
-    </row>
-    <row r="1190" spans="2:2">
-      <c r="B1190" s="1"/>
-    </row>
-    <row r="1228" spans="3:3">
-      <c r="C1228" s="1"/>
-    </row>
-    <row r="1229" spans="3:3">
-      <c r="C1229" s="1"/>
-    </row>
-    <row r="1230" spans="3:3">
-      <c r="C1230" s="1"/>
-    </row>
-    <row r="1231" spans="3:3">
-      <c r="C1231" s="1"/>
-    </row>
-    <row r="1232" spans="3:3">
-      <c r="C1232" s="1"/>
-    </row>
-    <row r="1235" spans="2:7">
-      <c r="F1235" s="1"/>
-      <c r="G1235" s="1"/>
-    </row>
-    <row r="1236" spans="2:7">
-      <c r="F1236" s="1"/>
-      <c r="G1236" s="1"/>
-    </row>
-    <row r="1237" spans="2:7">
-      <c r="F1237" s="1"/>
-      <c r="G1237" s="1"/>
-    </row>
-    <row r="1239" spans="2:7">
+    </row>
+    <row r="896" spans="5:5">
+      <c r="E896" s="1"/>
+    </row>
+    <row r="1032" spans="2:2">
+      <c r="B1032" s="1"/>
+    </row>
+    <row r="1033" spans="2:2">
+      <c r="B1033" s="1"/>
+    </row>
+    <row r="1158" spans="2:2">
+      <c r="B1158" s="1"/>
+    </row>
+    <row r="1159" spans="2:2">
+      <c r="B1159" s="1"/>
+    </row>
+    <row r="1160" spans="2:2">
+      <c r="B1160" s="1"/>
+    </row>
+    <row r="1161" spans="2:2">
+      <c r="B1161" s="1"/>
+    </row>
+    <row r="1162" spans="2:2">
+      <c r="B1162" s="1"/>
+    </row>
+    <row r="1163" spans="2:2">
+      <c r="B1163" s="1"/>
+    </row>
+    <row r="1208" spans="2:6">
+      <c r="E1208" s="1"/>
+      <c r="F1208" s="1"/>
+    </row>
+    <row r="1209" spans="2:6">
+      <c r="E1209" s="1"/>
+      <c r="F1209" s="1"/>
+    </row>
+    <row r="1210" spans="2:6">
+      <c r="E1210" s="1"/>
+      <c r="F1210" s="1"/>
+    </row>
+    <row r="1212" spans="2:6">
+      <c r="B1212" s="1"/>
+    </row>
+    <row r="1213" spans="2:6">
+      <c r="B1213" s="1"/>
+    </row>
+    <row r="1214" spans="2:6">
+      <c r="B1214" s="1"/>
+    </row>
+    <row r="1215" spans="2:6">
+      <c r="B1215" s="1"/>
+    </row>
+    <row r="1216" spans="2:6">
+      <c r="B1216" s="1"/>
+    </row>
+    <row r="1235" spans="2:2">
+      <c r="B1235" s="1"/>
+    </row>
+    <row r="1236" spans="2:2">
+      <c r="B1236" s="1"/>
+    </row>
+    <row r="1237" spans="2:2">
+      <c r="B1237" s="1"/>
+    </row>
+    <row r="1238" spans="2:2">
+      <c r="B1238" s="1"/>
+    </row>
+    <row r="1239" spans="2:2">
       <c r="B1239" s="1"/>
     </row>
-    <row r="1240" spans="2:7">
+    <row r="1240" spans="2:2">
       <c r="B1240" s="1"/>
     </row>
-    <row r="1241" spans="2:7">
+    <row r="1241" spans="2:2">
       <c r="B1241" s="1"/>
     </row>
-    <row r="1242" spans="2:7">
-      <c r="B1242" s="1"/>
-    </row>
-    <row r="1243" spans="2:7">
+    <row r="1243" spans="2:2">
       <c r="B1243" s="1"/>
     </row>
-    <row r="1251" spans="2:3">
-      <c r="C1251" s="1"/>
-    </row>
-    <row r="1252" spans="2:3">
-      <c r="C1252" s="1"/>
-    </row>
-    <row r="1253" spans="2:3">
-      <c r="C1253" s="1"/>
-    </row>
-    <row r="1254" spans="2:3">
-      <c r="C1254" s="1"/>
-    </row>
-    <row r="1255" spans="2:3">
-      <c r="C1255" s="1"/>
-    </row>
-    <row r="1256" spans="2:3">
-      <c r="C1256" s="1"/>
-    </row>
-    <row r="1257" spans="2:3">
-      <c r="C1257" s="1"/>
-    </row>
-    <row r="1259" spans="2:3">
-      <c r="C1259" s="1"/>
-    </row>
-    <row r="1260" spans="2:3">
-      <c r="C1260" s="1"/>
-    </row>
-    <row r="1261" spans="2:3">
-      <c r="C1261" s="1"/>
-    </row>
-    <row r="1262" spans="2:3">
-      <c r="B1262" s="1"/>
-      <c r="C1262" s="1"/>
-    </row>
-    <row r="1263" spans="2:3">
-      <c r="B1263" s="1"/>
-      <c r="C1263" s="1"/>
-    </row>
-    <row r="1264" spans="2:3">
-      <c r="B1264" s="1"/>
-      <c r="C1264" s="1"/>
-    </row>
-    <row r="1265" spans="2:2">
-      <c r="B1265" s="1"/>
-    </row>
-    <row r="1266" spans="2:2">
-      <c r="B1266" s="1"/>
-    </row>
-    <row r="1267" spans="2:2">
-      <c r="B1267" s="1"/>
-    </row>
-    <row r="1268" spans="2:2">
-      <c r="B1268" s="1"/>
-    </row>
-    <row r="1270" spans="2:2">
-      <c r="B1270" s="1"/>
-    </row>
-    <row r="1271" spans="2:2">
-      <c r="B1271" s="1"/>
-    </row>
-    <row r="1272" spans="2:2">
-      <c r="B1272" s="1"/>
-    </row>
-    <row r="1273" spans="2:2">
-      <c r="B1273" s="1"/>
-    </row>
-    <row r="1274" spans="2:2">
-      <c r="B1274" s="1"/>
-    </row>
-    <row r="1275" spans="2:2">
-      <c r="B1275" s="1"/>
-    </row>
-    <row r="1316" spans="2:3">
-      <c r="C1316" s="1"/>
-    </row>
-    <row r="1317" spans="2:3">
-      <c r="C1317" s="1"/>
-    </row>
-    <row r="1318" spans="2:3">
-      <c r="C1318" s="1"/>
-    </row>
-    <row r="1319" spans="2:3">
-      <c r="C1319" s="1"/>
-    </row>
-    <row r="1321" spans="2:3">
-      <c r="C1321" s="1"/>
-    </row>
-    <row r="1322" spans="2:3">
-      <c r="C1322" s="1"/>
-    </row>
-    <row r="1323" spans="2:3">
-      <c r="C1323" s="1"/>
-    </row>
-    <row r="1324" spans="2:3">
-      <c r="C1324" s="1"/>
-    </row>
-    <row r="1327" spans="2:3">
-      <c r="B1327" s="1"/>
-    </row>
-    <row r="1328" spans="2:3">
-      <c r="B1328" s="1"/>
-    </row>
-    <row r="1329" spans="2:2">
-      <c r="B1329" s="1"/>
-    </row>
-    <row r="1330" spans="2:2">
-      <c r="B1330" s="1"/>
-    </row>
-    <row r="1332" spans="2:2">
-      <c r="B1332" s="1"/>
-    </row>
-    <row r="1333" spans="2:2">
-      <c r="B1333" s="1"/>
-    </row>
-    <row r="1334" spans="2:2">
-      <c r="B1334" s="1"/>
-    </row>
-    <row r="1335" spans="2:2">
-      <c r="B1335" s="1"/>
-    </row>
-    <row r="1359" spans="3:3">
-      <c r="C1359" s="1"/>
-    </row>
-    <row r="1360" spans="3:3">
-      <c r="C1360" s="1"/>
-    </row>
-    <row r="1361" spans="2:3">
-      <c r="C1361" s="1"/>
-    </row>
-    <row r="1362" spans="2:3">
-      <c r="C1362" s="1"/>
-    </row>
-    <row r="1363" spans="2:3">
-      <c r="C1363" s="1"/>
-    </row>
-    <row r="1364" spans="2:3">
-      <c r="C1364" s="1"/>
-    </row>
-    <row r="1370" spans="2:3">
-      <c r="B1370" s="1"/>
-    </row>
-    <row r="1371" spans="2:3">
-      <c r="B1371" s="1"/>
-    </row>
-    <row r="1372" spans="2:3">
-      <c r="B1372" s="1"/>
-    </row>
-    <row r="1373" spans="2:3">
-      <c r="B1373" s="1"/>
-    </row>
-    <row r="1374" spans="2:3">
-      <c r="B1374" s="1"/>
-    </row>
-    <row r="1375" spans="2:3">
-      <c r="B1375" s="1"/>
-    </row>
-    <row r="1417" spans="4:7">
-      <c r="F1417" s="1"/>
-      <c r="G1417" s="1"/>
-    </row>
-    <row r="1418" spans="4:7">
-      <c r="D1418" s="6"/>
-      <c r="E1418" s="6"/>
-      <c r="F1418" s="1"/>
-      <c r="G1418" s="1"/>
-    </row>
-    <row r="1419" spans="4:7">
-      <c r="D1419" s="6"/>
-      <c r="E1419" s="6"/>
-      <c r="F1419" s="1"/>
-      <c r="G1419" s="1"/>
-    </row>
-    <row r="1420" spans="4:7">
-      <c r="D1420" s="6"/>
-      <c r="E1420" s="6"/>
-      <c r="F1420" s="1"/>
-      <c r="G1420" s="1"/>
-    </row>
-    <row r="1421" spans="4:7">
-      <c r="F1421" s="1"/>
-      <c r="G1421" s="1"/>
-    </row>
-    <row r="1473" spans="2:3">
-      <c r="C1473" s="1"/>
-    </row>
-    <row r="1474" spans="2:3">
-      <c r="C1474" s="1"/>
-    </row>
-    <row r="1475" spans="2:3">
-      <c r="C1475" s="1"/>
-    </row>
-    <row r="1476" spans="2:3">
-      <c r="C1476" s="1"/>
-    </row>
-    <row r="1484" spans="2:3">
-      <c r="B1484" s="1"/>
-    </row>
-    <row r="1485" spans="2:3">
-      <c r="B1485" s="1"/>
-    </row>
-    <row r="1486" spans="2:3">
-      <c r="B1486" s="1"/>
-    </row>
-    <row r="1487" spans="2:3">
-      <c r="B1487" s="1"/>
+    <row r="1244" spans="2:2">
+      <c r="B1244" s="1"/>
+    </row>
+    <row r="1245" spans="2:2">
+      <c r="B1245" s="1"/>
+    </row>
+    <row r="1246" spans="2:2">
+      <c r="B1246" s="1"/>
+    </row>
+    <row r="1247" spans="2:2">
+      <c r="B1247" s="1"/>
+    </row>
+    <row r="1248" spans="2:2">
+      <c r="B1248" s="1"/>
+    </row>
+    <row r="1300" spans="2:2">
+      <c r="B1300" s="1"/>
+    </row>
+    <row r="1301" spans="2:2">
+      <c r="B1301" s="1"/>
+    </row>
+    <row r="1302" spans="2:2">
+      <c r="B1302" s="1"/>
+    </row>
+    <row r="1303" spans="2:2">
+      <c r="B1303" s="1"/>
+    </row>
+    <row r="1305" spans="2:2">
+      <c r="B1305" s="1"/>
+    </row>
+    <row r="1306" spans="2:2">
+      <c r="B1306" s="1"/>
+    </row>
+    <row r="1307" spans="2:2">
+      <c r="B1307" s="1"/>
+    </row>
+    <row r="1308" spans="2:2">
+      <c r="B1308" s="1"/>
+    </row>
+    <row r="1343" spans="2:2">
+      <c r="B1343" s="1"/>
+    </row>
+    <row r="1344" spans="2:2">
+      <c r="B1344" s="1"/>
+    </row>
+    <row r="1345" spans="2:2">
+      <c r="B1345" s="1"/>
+    </row>
+    <row r="1346" spans="2:2">
+      <c r="B1346" s="1"/>
+    </row>
+    <row r="1347" spans="2:2">
+      <c r="B1347" s="1"/>
+    </row>
+    <row r="1348" spans="2:2">
+      <c r="B1348" s="1"/>
+    </row>
+    <row r="1390" spans="3:6">
+      <c r="E1390" s="1"/>
+      <c r="F1390" s="1"/>
+    </row>
+    <row r="1391" spans="3:6">
+      <c r="C1391" s="6"/>
+      <c r="D1391" s="6"/>
+      <c r="E1391" s="1"/>
+      <c r="F1391" s="1"/>
+    </row>
+    <row r="1392" spans="3:6">
+      <c r="C1392" s="6"/>
+      <c r="D1392" s="6"/>
+      <c r="E1392" s="1"/>
+      <c r="F1392" s="1"/>
+    </row>
+    <row r="1393" spans="3:6">
+      <c r="C1393" s="6"/>
+      <c r="D1393" s="6"/>
+      <c r="E1393" s="1"/>
+      <c r="F1393" s="1"/>
+    </row>
+    <row r="1394" spans="3:6">
+      <c r="E1394" s="1"/>
+      <c r="F1394" s="1"/>
+    </row>
+    <row r="1457" spans="2:2">
+      <c r="B1457" s="1"/>
+    </row>
+    <row r="1458" spans="2:2">
+      <c r="B1458" s="1"/>
+    </row>
+    <row r="1459" spans="2:2">
+      <c r="B1459" s="1"/>
+    </row>
+    <row r="1460" spans="2:2">
+      <c r="B1460" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:H1495">
+    <sortCondition ref="C2:C1495"/>
     <sortCondition ref="D2:D1495"/>
-    <sortCondition ref="E2:E1495"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -9126,4 +7869,645 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="7">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="7">
+        <v>97</v>
+      </c>
+      <c r="G2" s="7">
+        <v>10389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="7">
+        <v>97</v>
+      </c>
+      <c r="G3" s="7">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7">
+        <v>466</v>
+      </c>
+      <c r="G4" s="7">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7">
+        <v>967</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2458</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7">
+        <v>3514</v>
+      </c>
+      <c r="G7" s="7">
+        <v>4206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="7">
+        <v>4207</v>
+      </c>
+      <c r="G8" s="7">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7">
+        <v>4600</v>
+      </c>
+      <c r="G9" s="7">
+        <v>6456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="7">
+        <v>6835</v>
+      </c>
+      <c r="G10" s="7">
+        <v>6903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="7">
+        <v>6904</v>
+      </c>
+      <c r="G11" s="7">
+        <v>7671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7">
+        <v>7572</v>
+      </c>
+      <c r="G12" s="7">
+        <v>10386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7">
+        <v>10390</v>
+      </c>
+      <c r="G13" s="7">
+        <v>10962</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15">
+        <v>107</v>
+      </c>
+      <c r="G15">
+        <v>10366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="11">
+        <v>107</v>
+      </c>
+      <c r="G16" s="11">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="11">
+        <v>473</v>
+      </c>
+      <c r="G17" s="11">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="11">
+        <v>977</v>
+      </c>
+      <c r="G18" s="11">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="11">
+        <v>2477</v>
+      </c>
+      <c r="G19" s="11">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="11">
+        <v>3533</v>
+      </c>
+      <c r="G20" s="11">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14" customHeight="1">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="11">
+        <v>4211</v>
+      </c>
+      <c r="G21" s="11">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="11">
+        <v>4601</v>
+      </c>
+      <c r="G22" s="11">
+        <v>6451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="11">
+        <v>6452</v>
+      </c>
+      <c r="G23" s="11">
+        <v>6832</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="11">
+        <v>6833</v>
+      </c>
+      <c r="G24" s="11">
+        <v>6901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="11">
+        <v>6902</v>
+      </c>
+      <c r="G25" s="11">
+        <v>7654</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="11">
+        <v>7655</v>
+      </c>
+      <c r="G26" s="11">
+        <v>10363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="11">
+        <v>10367</v>
+      </c>
+      <c r="G27" s="11">
+        <v>10794</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/tabular/flavi-reference_feature_locations.xlsx
+++ b/tabular/flavi-reference_feature_locations.xlsx
@@ -1,29 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus-group/Flaviviridae-GLUE/tabular/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0C6656-9EF3-B44C-A732-E184CC646ADF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15660" yWindow="3980" windowWidth="26080" windowHeight="26840" tabRatio="500"/>
+    <workbookView xWindow="12460" yWindow="460" windowWidth="16340" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="86">
   <si>
     <t>featureName</t>
   </si>
@@ -97,12 +103,6 @@
     <t>core</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
     <t>p7</t>
   </si>
   <si>
@@ -118,16 +118,7 @@
     <t>Pegivirus</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Pestivirus</t>
-  </si>
-  <si>
-    <t>N-pro</t>
   </si>
   <si>
     <t>RNAse</t>
@@ -223,13 +214,7 @@
     <t>Nematode</t>
   </si>
   <si>
-    <t>NS5-like protein</t>
-  </si>
-  <si>
     <t>NKV1</t>
-  </si>
-  <si>
-    <t>M</t>
   </si>
   <si>
     <t>Tamanavirus</t>
@@ -276,11 +261,38 @@
   <si>
     <t>precursor_polyprotein</t>
   </si>
+  <si>
+    <t>premembrane</t>
+  </si>
+  <si>
+    <t>membrane</t>
+  </si>
+  <si>
+    <t>envelope</t>
+  </si>
+  <si>
+    <t>envelope1</t>
+  </si>
+  <si>
+    <t>envelope2</t>
+  </si>
+  <si>
+    <t>NS5-like</t>
+  </si>
+  <si>
+    <t>s_peptide</t>
+  </si>
+  <si>
+    <t>x_peptide</t>
+  </si>
+  <si>
+    <t>N-proteinase</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4786,14 +4798,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1460"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="C30" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
@@ -4804,18 +4816,18 @@
     <col min="8" max="8" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -4827,18 +4839,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>16</v>
@@ -4850,21 +4862,21 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F3" s="7">
         <v>97</v>
@@ -4873,21 +4885,21 @@
         <v>10170</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F4" s="7">
         <v>97</v>
@@ -4896,21 +4908,21 @@
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="F5" s="7">
         <v>526</v>
@@ -4919,21 +4931,21 @@
         <v>954</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="F6" s="7">
         <v>955</v>
@@ -4942,18 +4954,18 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>4</v>
@@ -4965,18 +4977,18 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>5</v>
@@ -4988,18 +5000,18 @@
         <v>4041</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>6</v>
@@ -5011,18 +5023,18 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>7</v>
@@ -5034,18 +5046,18 @@
         <v>6249</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>8</v>
@@ -5057,18 +5069,18 @@
         <v>6654</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>20</v>
@@ -5080,18 +5092,18 @@
         <v>6723</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>9</v>
@@ -5103,18 +5115,18 @@
         <v>7503</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>10</v>
@@ -5126,18 +5138,18 @@
         <v>10167</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>11</v>
@@ -5149,18 +5161,18 @@
         <v>11375</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>16</v>
@@ -5172,21 +5184,21 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F17" s="9">
         <v>120</v>
@@ -5195,18 +5207,18 @@
         <v>10445</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>11</v>
@@ -5218,18 +5230,18 @@
         <v>10761</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>16</v>
@@ -5241,21 +5253,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F20" s="9">
         <v>16</v>
@@ -5264,18 +5276,18 @@
         <v>10320</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
         <v>16</v>
@@ -5287,21 +5299,21 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F22">
         <v>95</v>
@@ -5310,21 +5322,21 @@
         <v>10273</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>95</v>
@@ -5333,21 +5345,21 @@
         <v>436</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="F24">
         <v>437</v>
@@ -5356,21 +5368,21 @@
         <v>934</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="F25">
         <v>935</v>
@@ -5379,18 +5391,18 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -5402,18 +5414,18 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E27" t="s">
         <v>5</v>
@@ -5425,18 +5437,18 @@
         <v>4129</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
         <v>6</v>
@@ -5448,18 +5460,18 @@
         <v>4519</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
@@ -5471,18 +5483,18 @@
         <v>6376</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
@@ -5494,18 +5506,18 @@
         <v>6757</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
         <v>20</v>
@@ -5517,18 +5529,18 @@
         <v>6826</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
@@ -5540,18 +5552,18 @@
         <v>10270</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -5563,18 +5575,18 @@
         <v>10735</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16" customHeight="1">
+    <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>16</v>
@@ -5586,21 +5598,21 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F35" s="7">
         <v>119</v>
@@ -5609,21 +5621,21 @@
         <v>10354</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F36" s="7">
         <v>119</v>
@@ -5632,21 +5644,21 @@
         <v>481</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="F37" s="7">
         <v>482</v>
@@ -5655,21 +5667,21 @@
         <v>973</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="F38" s="7">
         <v>974</v>
@@ -5678,18 +5690,18 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>4</v>
@@ -5701,18 +5713,18 @@
         <v>3508</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>5</v>
@@ -5724,18 +5736,18 @@
         <v>4180</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>6</v>
@@ -5747,18 +5759,18 @@
         <v>4570</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>7</v>
@@ -5770,18 +5782,18 @@
         <v>6439</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>8</v>
@@ -5793,18 +5805,18 @@
         <v>6817</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>20</v>
@@ -5816,18 +5828,18 @@
         <v>6886</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>9</v>
@@ -5839,18 +5851,18 @@
         <v>7636</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>10</v>
@@ -5862,18 +5874,18 @@
         <v>10351</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>11</v>
@@ -5885,21 +5897,21 @@
         <v>10862</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C48" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F48" s="9">
         <v>1</v>
@@ -5908,21 +5920,21 @@
         <v>10116</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -5931,18 +5943,18 @@
         <v>10242</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>16</v>
@@ -5954,21 +5966,21 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F51" s="10">
         <v>112</v>
@@ -5977,21 +5989,21 @@
         <v>10359</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C52" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E52" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F52" s="9">
         <v>112</v>
@@ -6000,21 +6012,21 @@
         <v>441</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C53" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="F53" s="9">
         <v>442</v>
@@ -6023,21 +6035,21 @@
         <v>945</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" t="s">
         <v>79</v>
-      </c>
-      <c r="C54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E54" t="s">
-        <v>19</v>
       </c>
       <c r="F54" s="9">
         <v>946</v>
@@ -6046,18 +6058,18 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C55" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>4</v>
@@ -6069,18 +6081,18 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C56" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>5</v>
@@ -6092,18 +6104,18 @@
         <v>4185</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C57" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>6</v>
@@ -6115,18 +6127,18 @@
         <v>4578</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C58" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>7</v>
@@ -6138,18 +6150,18 @@
         <v>6444</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>8</v>
@@ -6161,18 +6173,18 @@
         <v>6822</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>20</v>
@@ -6184,18 +6196,18 @@
         <v>6891</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>9</v>
@@ -6207,18 +6219,18 @@
         <v>7647</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>10</v>
@@ -6230,20 +6242,20 @@
         <v>10356</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C63" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E63" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F63" s="9">
@@ -6253,18 +6265,18 @@
         <v>10839</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
         <v>22</v>
       </c>
       <c r="D64"/>
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F64" s="10">
@@ -6274,19 +6286,19 @@
         <v>341</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C65" t="s">
         <v>22</v>
       </c>
       <c r="D65"/>
-      <c r="E65" s="9" t="s">
-        <v>83</v>
+      <c r="E65" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="F65" s="10">
         <v>342</v>
@@ -6295,18 +6307,18 @@
         <v>9377</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C66" t="s">
         <v>22</v>
       </c>
       <c r="D66"/>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F66" s="9">
@@ -6316,19 +6328,19 @@
         <v>914</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
         <v>22</v>
       </c>
       <c r="D67"/>
-      <c r="E67" s="9" t="s">
-        <v>24</v>
+      <c r="E67" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="F67" s="9">
         <v>915</v>
@@ -6337,19 +6349,19 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B68" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
         <v>22</v>
       </c>
       <c r="D68"/>
-      <c r="E68" s="9" t="s">
-        <v>25</v>
+      <c r="E68" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="F68" s="9">
         <v>1491</v>
@@ -6358,19 +6370,19 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
         <v>22</v>
       </c>
       <c r="D69"/>
-      <c r="E69" s="9" t="s">
-        <v>26</v>
+      <c r="E69" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="F69" s="9">
         <v>2580</v>
@@ -6379,19 +6391,19 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
         <v>22</v>
       </c>
       <c r="D70"/>
-      <c r="E70" s="9" t="s">
-        <v>27</v>
+      <c r="E70" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="F70" s="9">
         <v>2769</v>
@@ -6400,18 +6412,18 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C71" t="s">
         <v>22</v>
       </c>
       <c r="D71"/>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="10" t="s">
         <v>7</v>
       </c>
       <c r="F71" s="9">
@@ -6421,18 +6433,18 @@
         <v>5312</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
         <v>22</v>
       </c>
       <c r="D72"/>
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F72" s="9">
@@ -6442,18 +6454,18 @@
         <v>5474</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C73" t="s">
         <v>22</v>
       </c>
       <c r="D73"/>
-      <c r="E73" s="9" t="s">
+      <c r="E73" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F73" s="9">
@@ -6463,19 +6475,19 @@
         <v>6257</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
         <v>22</v>
       </c>
       <c r="D74"/>
-      <c r="E74" s="9" t="s">
-        <v>28</v>
+      <c r="E74" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="F74" s="9">
         <v>6258</v>
@@ -6484,19 +6496,19 @@
         <v>7601</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C75" t="s">
         <v>22</v>
       </c>
       <c r="D75"/>
-      <c r="E75" s="9" t="s">
-        <v>29</v>
+      <c r="E75" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="F75" s="9">
         <v>7602</v>
@@ -6505,18 +6517,18 @@
         <v>9374</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C76" t="s">
         <v>22</v>
       </c>
       <c r="D76"/>
-      <c r="E76" s="9" t="s">
+      <c r="E76" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F76" s="9">
@@ -6526,20 +6538,20 @@
         <v>9646</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C77" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E77" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E77" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F77">
@@ -6549,21 +6561,21 @@
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C78" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="F78">
         <v>105</v>
@@ -6572,20 +6584,20 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C79" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E79" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E79" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F79">
@@ -6595,18 +6607,18 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D80"/>
-      <c r="E80" s="9" t="s">
+      <c r="E80" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F80" s="10">
@@ -6616,19 +6628,19 @@
         <v>327</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B81" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81"/>
+      <c r="E81" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="C81" t="s">
-        <v>30</v>
-      </c>
-      <c r="D81"/>
-      <c r="E81" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="F81" s="10">
         <v>328</v>
@@ -6637,19 +6649,19 @@
         <v>9501</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B82" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D82"/>
-      <c r="E82" s="9" t="s">
-        <v>31</v>
+      <c r="E82" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="F82" s="9">
         <v>328</v>
@@ -6658,19 +6670,19 @@
         <v>564</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B83" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D83"/>
-      <c r="E83" s="9" t="s">
-        <v>24</v>
+      <c r="E83" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="F83" s="9">
         <v>565</v>
@@ -6679,19 +6691,19 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B84" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D84"/>
-      <c r="E84" s="9" t="s">
-        <v>25</v>
+      <c r="E84" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="F84" s="9">
         <v>1138</v>
@@ -6700,19 +6712,19 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B85" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D85"/>
-      <c r="E85" s="9" t="s">
-        <v>32</v>
+      <c r="E85" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="F85" s="9">
         <v>2200</v>
@@ -6721,19 +6733,19 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B86" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D86"/>
-      <c r="E86" s="9" t="s">
-        <v>27</v>
+      <c r="E86" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="F86" s="9">
         <v>2911</v>
@@ -6742,18 +6754,18 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B87" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D87"/>
-      <c r="E87" s="9" t="s">
+      <c r="E87" s="10" t="s">
         <v>7</v>
       </c>
       <c r="F87" s="9">
@@ -6763,18 +6775,18 @@
         <v>5514</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B88" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D88"/>
-      <c r="E88" s="9" t="s">
+      <c r="E88" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F88" s="9">
@@ -6784,18 +6796,18 @@
         <v>5637</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B89" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D89"/>
-      <c r="E89" s="9" t="s">
+      <c r="E89" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F89" s="9">
@@ -6805,19 +6817,19 @@
         <v>6423</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B90" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D90"/>
-      <c r="E90" s="9" t="s">
-        <v>28</v>
+      <c r="E90" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="F90" s="9">
         <v>6424</v>
@@ -6826,19 +6838,19 @@
         <v>7797</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B91" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D91"/>
-      <c r="E91" s="9" t="s">
-        <v>29</v>
+      <c r="E91" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="F91" s="9">
         <v>7798</v>
@@ -6847,18 +6859,18 @@
         <v>9498</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B92" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D92"/>
-      <c r="E92" s="9" t="s">
+      <c r="E92" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F92" s="9">
@@ -6868,20 +6880,20 @@
         <v>9867</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B93" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E93" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E93" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F93">
@@ -6891,21 +6903,21 @@
         <v>350</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B94" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>83</v>
+        <v>60</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="F94">
         <v>351</v>
@@ -6914,20 +6926,20 @@
         <v>18068</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B95" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E95" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E95" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F95">
@@ -6937,18 +6949,18 @@
         <v>19199</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B96" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D96"/>
-      <c r="E96" s="9" t="s">
+      <c r="E96" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F96" s="10">
@@ -6958,19 +6970,19 @@
         <v>385</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B97" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D97"/>
-      <c r="E97" s="9" t="s">
-        <v>83</v>
+      <c r="E97" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="F97" s="10">
         <v>386</v>
@@ -6979,19 +6991,19 @@
         <v>12352</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B98" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D98"/>
-      <c r="E98" s="9" t="s">
-        <v>34</v>
+      <c r="E98" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="F98" s="9">
         <v>386</v>
@@ -7000,18 +7012,18 @@
         <v>889</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B99" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D99"/>
-      <c r="E99" s="9" t="s">
+      <c r="E99" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F99" s="9">
@@ -7021,19 +7033,19 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B100" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C100" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D100"/>
-      <c r="E100" s="9" t="s">
-        <v>35</v>
+      <c r="E100" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="F100" s="9">
         <v>1196</v>
@@ -7042,19 +7054,19 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B101" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D101"/>
-      <c r="E101" s="9" t="s">
-        <v>24</v>
+      <c r="E101" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="F101" s="9">
         <v>1877</v>
@@ -7063,19 +7075,19 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B102" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D102"/>
-      <c r="E102" s="9" t="s">
-        <v>25</v>
+      <c r="E102" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="F102" s="9">
         <v>2462</v>
@@ -7084,19 +7096,19 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D103"/>
-      <c r="E103" s="9" t="s">
-        <v>26</v>
+      <c r="E103" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="F103" s="9">
         <v>3584</v>
@@ -7105,18 +7117,18 @@
         <v>3793</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B104" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C104" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D104"/>
-      <c r="E104" s="9" t="s">
+      <c r="E104" s="10" t="s">
         <v>7</v>
       </c>
       <c r="F104" s="9">
@@ -7126,18 +7138,18 @@
         <v>7471</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B105" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D105"/>
-      <c r="E105" s="9" t="s">
+      <c r="E105" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F105" s="9">
@@ -7147,18 +7159,18 @@
         <v>7663</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B106" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D106"/>
-      <c r="E106" s="9" t="s">
+      <c r="E106" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F106" s="9">
@@ -7168,19 +7180,19 @@
         <v>8704</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B107" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D107"/>
       <c r="E107" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F107" s="9">
         <v>8705</v>
@@ -7189,19 +7201,19 @@
         <v>10192</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B108" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D108"/>
       <c r="E108" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F108" s="9">
         <v>10193</v>
@@ -7210,15 +7222,15 @@
         <v>12349</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B109" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C109" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D109"/>
       <c r="E109" s="9" t="s">
@@ -7231,19 +7243,19 @@
         <v>12573</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B110" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D110"/>
       <c r="E110" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -7252,19 +7264,19 @@
         <v>10053</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B111" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D111"/>
       <c r="E111" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -7273,19 +7285,19 @@
         <v>345</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B112" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D112"/>
       <c r="E112" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="F112" s="9">
         <v>346</v>
@@ -7294,19 +7306,19 @@
         <v>852</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B113" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D113"/>
       <c r="E113" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F113" s="9">
         <v>655</v>
@@ -7315,19 +7327,19 @@
         <v>852</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B114" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D114"/>
       <c r="E114" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="F114" s="9">
         <v>853</v>
@@ -7336,15 +7348,15 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B115" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D115"/>
       <c r="E115" t="s">
@@ -7357,15 +7369,15 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B116" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D116"/>
       <c r="E116" t="s">
@@ -7378,15 +7390,15 @@
         <v>3978</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B117" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D117"/>
       <c r="E117" t="s">
@@ -7399,15 +7411,15 @@
         <v>4431</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B118" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D118"/>
       <c r="E118" t="s">
@@ -7420,15 +7432,15 @@
         <v>6303</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B119" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D119"/>
       <c r="E119" t="s">
@@ -7441,15 +7453,15 @@
         <v>6687</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B120" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D120"/>
       <c r="E120" t="s">
@@ -7462,15 +7474,15 @@
         <v>6762</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B121" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D121"/>
       <c r="E121" t="s">
@@ -7483,15 +7495,15 @@
         <v>7557</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D122"/>
       <c r="E122" t="s">
@@ -7504,356 +7516,356 @@
         <v>10050</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D123"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D124"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D125"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D126"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D127"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D128"/>
     </row>
-    <row r="129" spans="4:4">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D129"/>
     </row>
-    <row r="182" spans="2:4">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B182" s="1"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
     </row>
-    <row r="183" spans="2:4">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B183" s="1"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
     </row>
-    <row r="184" spans="2:4">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B184" s="1"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
     </row>
-    <row r="185" spans="2:4">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B185" s="1"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
     </row>
-    <row r="186" spans="2:4">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B186" s="1"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
     </row>
-    <row r="187" spans="2:4">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B187" s="1"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
     </row>
-    <row r="188" spans="2:4">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B188" s="1"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
     </row>
-    <row r="189" spans="2:4">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B189" s="1"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
     </row>
-    <row r="190" spans="2:4">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B190" s="1"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
     </row>
-    <row r="191" spans="2:4">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B191" s="1"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
     </row>
-    <row r="192" spans="2:4">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B192" s="1"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
     </row>
-    <row r="193" spans="2:4">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B193" s="1"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
     </row>
-    <row r="194" spans="2:4">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B194" s="1"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="2:4">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B195" s="1"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="2:4">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B196" s="1"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="2:4">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B197" s="1"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="2:4">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B198" s="1"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="2:4">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B199" s="1"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="2:4">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B200" s="1"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="2:4">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B201" s="1"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="2:4">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B202" s="1"/>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="2:4">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B203" s="1"/>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="2:4">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B204" s="1"/>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="2:4">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B205" s="1"/>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
     </row>
-    <row r="206" spans="2:4">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B206" s="1"/>
     </row>
-    <row r="207" spans="2:4">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B207" s="1"/>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
     </row>
-    <row r="208" spans="2:4">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B208" s="1"/>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
     </row>
-    <row r="209" spans="2:4">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B209" s="1"/>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
     </row>
-    <row r="210" spans="2:4">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B210" s="1"/>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
     </row>
-    <row r="211" spans="2:4">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B211" s="1"/>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
     </row>
-    <row r="212" spans="2:4">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B212" s="1"/>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
     </row>
-    <row r="213" spans="2:4">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B213" s="1"/>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
     </row>
-    <row r="896" spans="5:5">
+    <row r="896" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E896" s="1"/>
     </row>
-    <row r="1032" spans="2:2">
+    <row r="1032" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1032" s="1"/>
     </row>
-    <row r="1033" spans="2:2">
+    <row r="1033" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1033" s="1"/>
     </row>
-    <row r="1158" spans="2:2">
+    <row r="1158" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1158" s="1"/>
     </row>
-    <row r="1159" spans="2:2">
+    <row r="1159" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1159" s="1"/>
     </row>
-    <row r="1160" spans="2:2">
+    <row r="1160" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1160" s="1"/>
     </row>
-    <row r="1161" spans="2:2">
+    <row r="1161" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1161" s="1"/>
     </row>
-    <row r="1162" spans="2:2">
+    <row r="1162" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1162" s="1"/>
     </row>
-    <row r="1163" spans="2:2">
+    <row r="1163" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1163" s="1"/>
     </row>
-    <row r="1208" spans="2:6">
+    <row r="1208" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E1208" s="1"/>
       <c r="F1208" s="1"/>
     </row>
-    <row r="1209" spans="2:6">
+    <row r="1209" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E1209" s="1"/>
       <c r="F1209" s="1"/>
     </row>
-    <row r="1210" spans="2:6">
+    <row r="1210" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E1210" s="1"/>
       <c r="F1210" s="1"/>
     </row>
-    <row r="1212" spans="2:6">
+    <row r="1212" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1212" s="1"/>
     </row>
-    <row r="1213" spans="2:6">
+    <row r="1213" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1213" s="1"/>
     </row>
-    <row r="1214" spans="2:6">
+    <row r="1214" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1214" s="1"/>
     </row>
-    <row r="1215" spans="2:6">
+    <row r="1215" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1215" s="1"/>
     </row>
-    <row r="1216" spans="2:6">
+    <row r="1216" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1216" s="1"/>
     </row>
-    <row r="1235" spans="2:2">
+    <row r="1235" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1235" s="1"/>
     </row>
-    <row r="1236" spans="2:2">
+    <row r="1236" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1236" s="1"/>
     </row>
-    <row r="1237" spans="2:2">
+    <row r="1237" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1237" s="1"/>
     </row>
-    <row r="1238" spans="2:2">
+    <row r="1238" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1238" s="1"/>
     </row>
-    <row r="1239" spans="2:2">
+    <row r="1239" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1239" s="1"/>
     </row>
-    <row r="1240" spans="2:2">
+    <row r="1240" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1240" s="1"/>
     </row>
-    <row r="1241" spans="2:2">
+    <row r="1241" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1241" s="1"/>
     </row>
-    <row r="1243" spans="2:2">
+    <row r="1243" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1243" s="1"/>
     </row>
-    <row r="1244" spans="2:2">
+    <row r="1244" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1244" s="1"/>
     </row>
-    <row r="1245" spans="2:2">
+    <row r="1245" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1245" s="1"/>
     </row>
-    <row r="1246" spans="2:2">
+    <row r="1246" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1246" s="1"/>
     </row>
-    <row r="1247" spans="2:2">
+    <row r="1247" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1247" s="1"/>
     </row>
-    <row r="1248" spans="2:2">
+    <row r="1248" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1248" s="1"/>
     </row>
-    <row r="1300" spans="2:2">
+    <row r="1300" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1300" s="1"/>
     </row>
-    <row r="1301" spans="2:2">
+    <row r="1301" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1301" s="1"/>
     </row>
-    <row r="1302" spans="2:2">
+    <row r="1302" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1302" s="1"/>
     </row>
-    <row r="1303" spans="2:2">
+    <row r="1303" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1303" s="1"/>
     </row>
-    <row r="1305" spans="2:2">
+    <row r="1305" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1305" s="1"/>
     </row>
-    <row r="1306" spans="2:2">
+    <row r="1306" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1306" s="1"/>
     </row>
-    <row r="1307" spans="2:2">
+    <row r="1307" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1307" s="1"/>
     </row>
-    <row r="1308" spans="2:2">
+    <row r="1308" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1308" s="1"/>
     </row>
-    <row r="1343" spans="2:2">
+    <row r="1343" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1343" s="1"/>
     </row>
-    <row r="1344" spans="2:2">
+    <row r="1344" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1344" s="1"/>
     </row>
-    <row r="1345" spans="2:2">
+    <row r="1345" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1345" s="1"/>
     </row>
-    <row r="1346" spans="2:2">
+    <row r="1346" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1346" s="1"/>
     </row>
-    <row r="1347" spans="2:2">
+    <row r="1347" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1347" s="1"/>
     </row>
-    <row r="1348" spans="2:2">
+    <row r="1348" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1348" s="1"/>
     </row>
-    <row r="1390" spans="3:6">
+    <row r="1390" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E1390" s="1"/>
       <c r="F1390" s="1"/>
     </row>
-    <row r="1391" spans="3:6">
+    <row r="1391" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C1391" s="6"/>
       <c r="D1391" s="6"/>
       <c r="E1391" s="1"/>
       <c r="F1391" s="1"/>
     </row>
-    <row r="1392" spans="3:6">
+    <row r="1392" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C1392" s="6"/>
       <c r="D1392" s="6"/>
       <c r="E1392" s="1"/>
       <c r="F1392" s="1"/>
     </row>
-    <row r="1393" spans="3:6">
+    <row r="1393" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C1393" s="6"/>
       <c r="D1393" s="6"/>
       <c r="E1393" s="1"/>
       <c r="F1393" s="1"/>
     </row>
-    <row r="1394" spans="3:6">
+    <row r="1394" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E1394" s="1"/>
       <c r="F1394" s="1"/>
     </row>
-    <row r="1457" spans="2:2">
+    <row r="1457" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1457" s="1"/>
     </row>
-    <row r="1458" spans="2:2">
+    <row r="1458" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1458" s="1"/>
     </row>
-    <row r="1459" spans="2:2">
+    <row r="1459" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1459" s="1"/>
     </row>
-    <row r="1460" spans="2:2">
+    <row r="1460" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1460" s="1"/>
     </row>
   </sheetData>
@@ -7872,18 +7884,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -7892,7 +7904,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>16</v>
@@ -7904,9 +7916,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -7915,10 +7927,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F2" s="7">
         <v>97</v>
@@ -7927,9 +7939,9 @@
         <v>10389</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -7938,7 +7950,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>17</v>
@@ -7950,9 +7962,9 @@
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -7961,7 +7973,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>18</v>
@@ -7973,9 +7985,9 @@
         <v>966</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -7984,7 +7996,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -7996,9 +8008,9 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -8007,7 +8019,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>4</v>
@@ -8019,9 +8031,9 @@
         <v>3513</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -8030,7 +8042,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>5</v>
@@ -8042,9 +8054,9 @@
         <v>4206</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -8053,7 +8065,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>6</v>
@@ -8065,9 +8077,9 @@
         <v>4599</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -8076,7 +8088,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>7</v>
@@ -8088,9 +8100,9 @@
         <v>6456</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -8099,7 +8111,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>20</v>
@@ -8111,9 +8123,9 @@
         <v>6903</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -8122,7 +8134,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>9</v>
@@ -8134,9 +8146,9 @@
         <v>7671</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -8145,7 +8157,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>10</v>
@@ -8157,9 +8169,9 @@
         <v>10386</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -8168,7 +8180,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
@@ -8180,9 +8192,9 @@
         <v>10962</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
@@ -8191,7 +8203,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -8203,9 +8215,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -8214,10 +8226,10 @@
         <v>15</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F15">
         <v>107</v>
@@ -8226,9 +8238,9 @@
         <v>10366</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -8237,7 +8249,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
@@ -8249,9 +8261,9 @@
         <v>472</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -8260,7 +8272,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -8272,9 +8284,9 @@
         <v>976</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -8283,7 +8295,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
         <v>19</v>
@@ -8295,9 +8307,9 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
@@ -8306,7 +8318,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -8318,9 +8330,9 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -8329,7 +8341,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
@@ -8341,9 +8353,9 @@
         <v>4210</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14" customHeight="1">
+    <row r="21" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -8352,7 +8364,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
@@ -8364,9 +8376,9 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -8375,7 +8387,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
@@ -8387,9 +8399,9 @@
         <v>6451</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -8398,7 +8410,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -8410,9 +8422,9 @@
         <v>6832</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
@@ -8421,7 +8433,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
@@ -8433,9 +8445,9 @@
         <v>6901</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
@@ -8444,7 +8456,7 @@
         <v>15</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -8456,9 +8468,9 @@
         <v>7654</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
@@ -8467,7 +8479,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -8479,9 +8491,9 @@
         <v>10363</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -8490,7 +8502,7 @@
         <v>15</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>

--- a/tabular/flavi-reference_feature_locations.xlsx
+++ b/tabular/flavi-reference_feature_locations.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus-group/Flaviviridae-GLUE/tabular/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0C6656-9EF3-B44C-A732-E184CC646ADF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12460" yWindow="460" windowWidth="16340" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10000" yWindow="0" windowWidth="25360" windowHeight="18100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -172,16 +166,10 @@
     <t>NC_024806</t>
   </si>
   <si>
-    <t>Lammi virus</t>
-  </si>
-  <si>
     <t>dISF2</t>
   </si>
   <si>
     <t>NC_027999</t>
-  </si>
-  <si>
-    <t>Paraiso Escondido virus</t>
   </si>
   <si>
     <t>dISF1</t>
@@ -256,9 +244,6 @@
     <t>REF_APOIV</t>
   </si>
   <si>
-    <t>REF_YFV</t>
-  </si>
-  <si>
     <t>precursor_polyprotein</t>
   </si>
   <si>
@@ -288,11 +273,20 @@
   <si>
     <t>N-proteinase</t>
   </si>
+  <si>
+    <t>REF_EPEV</t>
+  </si>
+  <si>
+    <t>REF_LAMV</t>
+  </si>
+  <si>
+    <t>REF_MASTER_YFV</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -447,9 +441,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1987">
+  <cellStyleXfs count="1997">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2475,7 +2479,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1987">
+  <cellStyles count="1997">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -3470,6 +3474,11 @@
     <cellStyle name="Followed Hyperlink" xfId="1982" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1984" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1986" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1988" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1990" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1992" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1994" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1996" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -4462,6 +4471,11 @@
     <cellStyle name="Hyperlink" xfId="1981" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1983" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1985" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1987" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1989" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1991" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1993" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1995" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4798,14 +4812,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C30" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F47" sqref="A34:F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
@@ -4816,12 +4830,12 @@
     <col min="8" max="8" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>13</v>
@@ -4839,12 +4853,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>15</v>
@@ -4862,12 +4876,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>15</v>
@@ -4876,7 +4890,7 @@
         <v>44</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F3" s="7">
         <v>97</v>
@@ -4885,12 +4899,12 @@
         <v>10170</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>15</v>
@@ -4908,12 +4922,12 @@
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>15</v>
@@ -4922,7 +4936,7 @@
         <v>44</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F5" s="7">
         <v>526</v>
@@ -4931,12 +4945,12 @@
         <v>954</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>15</v>
@@ -4945,7 +4959,7 @@
         <v>44</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F6" s="7">
         <v>955</v>
@@ -4954,12 +4968,12 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>15</v>
@@ -4977,12 +4991,12 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>15</v>
@@ -5000,12 +5014,12 @@
         <v>4041</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>15</v>
@@ -5023,12 +5037,12 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>15</v>
@@ -5046,12 +5060,12 @@
         <v>6249</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>15</v>
@@ -5069,12 +5083,12 @@
         <v>6654</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>15</v>
@@ -5092,12 +5106,12 @@
         <v>6723</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>15</v>
@@ -5115,12 +5129,12 @@
         <v>7503</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>15</v>
@@ -5138,12 +5152,12 @@
         <v>10167</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>15</v>
@@ -5161,18 +5175,18 @@
         <v>11375</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>51</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>16</v>
@@ -5184,21 +5198,21 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>51</v>
-      </c>
       <c r="E17" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F17" s="9">
         <v>120</v>
@@ -5207,18 +5221,18 @@
         <v>10445</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>51</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>11</v>
@@ -5230,18 +5244,18 @@
         <v>10761</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>46</v>
       </c>
       <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>47</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>48</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>16</v>
@@ -5253,21 +5267,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>46</v>
       </c>
       <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>48</v>
-      </c>
       <c r="E20" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F20" s="9">
         <v>16</v>
@@ -5276,12 +5290,12 @@
         <v>10320</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
@@ -5299,12 +5313,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
@@ -5313,7 +5327,7 @@
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F22">
         <v>95</v>
@@ -5322,12 +5336,12 @@
         <v>10273</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
@@ -5345,12 +5359,12 @@
         <v>436</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
@@ -5359,7 +5373,7 @@
         <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F24">
         <v>437</v>
@@ -5368,12 +5382,12 @@
         <v>934</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
@@ -5382,7 +5396,7 @@
         <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F25">
         <v>935</v>
@@ -5391,12 +5405,12 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
@@ -5414,12 +5428,12 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
@@ -5437,12 +5451,12 @@
         <v>4129</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
         <v>15</v>
@@ -5460,12 +5474,12 @@
         <v>4519</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
@@ -5483,12 +5497,12 @@
         <v>6376</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
@@ -5506,12 +5520,12 @@
         <v>6757</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
@@ -5529,12 +5543,12 @@
         <v>6826</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
@@ -5552,12 +5566,12 @@
         <v>10270</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
@@ -5575,12 +5589,12 @@
         <v>10735</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="16" customHeight="1">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>15</v>
@@ -5598,12 +5612,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>15</v>
@@ -5612,7 +5626,7 @@
         <v>43</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F35" s="7">
         <v>119</v>
@@ -5621,12 +5635,12 @@
         <v>10354</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>15</v>
@@ -5644,12 +5658,12 @@
         <v>481</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>15</v>
@@ -5658,7 +5672,7 @@
         <v>43</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F37" s="7">
         <v>482</v>
@@ -5667,12 +5681,12 @@
         <v>973</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>15</v>
@@ -5681,7 +5695,7 @@
         <v>43</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F38" s="7">
         <v>974</v>
@@ -5690,12 +5704,12 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>15</v>
@@ -5713,12 +5727,12 @@
         <v>3508</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>15</v>
@@ -5736,12 +5750,12 @@
         <v>4180</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>15</v>
@@ -5759,12 +5773,12 @@
         <v>4570</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>15</v>
@@ -5782,12 +5796,12 @@
         <v>6439</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>15</v>
@@ -5805,12 +5819,12 @@
         <v>6817</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>15</v>
@@ -5828,12 +5842,12 @@
         <v>6886</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>15</v>
@@ -5851,12 +5865,12 @@
         <v>7636</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>15</v>
@@ -5874,12 +5888,12 @@
         <v>10351</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>15</v>
@@ -5897,21 +5911,21 @@
         <v>10862</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C48" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F48" s="9">
         <v>1</v>
@@ -5920,21 +5934,21 @@
         <v>10116</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -5943,12 +5957,12 @@
         <v>10242</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C50" t="s">
         <v>15</v>
@@ -5966,12 +5980,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
         <v>15</v>
@@ -5980,7 +5994,7 @@
         <v>45</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F51" s="10">
         <v>112</v>
@@ -5989,12 +6003,12 @@
         <v>10359</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
         <v>15</v>
@@ -6012,12 +6026,12 @@
         <v>441</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
         <v>15</v>
@@ -6026,7 +6040,7 @@
         <v>45</v>
       </c>
       <c r="E53" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F53" s="9">
         <v>442</v>
@@ -6035,12 +6049,12 @@
         <v>945</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
         <v>15</v>
@@ -6049,7 +6063,7 @@
         <v>45</v>
       </c>
       <c r="E54" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F54" s="9">
         <v>946</v>
@@ -6058,12 +6072,12 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C55" t="s">
         <v>15</v>
@@ -6081,12 +6095,12 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
         <v>15</v>
@@ -6104,12 +6118,12 @@
         <v>4185</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C57" t="s">
         <v>15</v>
@@ -6127,12 +6141,12 @@
         <v>4578</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
         <v>15</v>
@@ -6150,12 +6164,12 @@
         <v>6444</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
@@ -6173,12 +6187,12 @@
         <v>6822</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
         <v>15</v>
@@ -6196,12 +6210,12 @@
         <v>6891</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" t="s">
         <v>15</v>
@@ -6219,12 +6233,12 @@
         <v>7647</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>35</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
         <v>15</v>
@@ -6242,12 +6256,12 @@
         <v>10356</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>35</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C63" t="s">
         <v>15</v>
@@ -6265,12 +6279,12 @@
         <v>10839</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C64" t="s">
         <v>22</v>
@@ -6286,19 +6300,19 @@
         <v>341</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>36</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
         <v>22</v>
       </c>
       <c r="D65"/>
       <c r="E65" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F65" s="10">
         <v>342</v>
@@ -6307,12 +6321,12 @@
         <v>9377</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
         <v>22</v>
@@ -6328,19 +6342,19 @@
         <v>914</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
         <v>22</v>
       </c>
       <c r="D67"/>
       <c r="E67" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F67" s="9">
         <v>915</v>
@@ -6349,19 +6363,19 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>36</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C68" t="s">
         <v>22</v>
       </c>
       <c r="D68"/>
       <c r="E68" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F68" s="9">
         <v>1491</v>
@@ -6370,12 +6384,12 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>36</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C69" t="s">
         <v>22</v>
@@ -6391,12 +6405,12 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>36</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C70" t="s">
         <v>22</v>
@@ -6412,12 +6426,12 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>36</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C71" t="s">
         <v>22</v>
@@ -6433,12 +6447,12 @@
         <v>5312</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>36</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C72" t="s">
         <v>22</v>
@@ -6454,12 +6468,12 @@
         <v>5474</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>36</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C73" t="s">
         <v>22</v>
@@ -6475,12 +6489,12 @@
         <v>6257</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>36</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C74" t="s">
         <v>22</v>
@@ -6496,12 +6510,12 @@
         <v>7601</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>36</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C75" t="s">
         <v>22</v>
@@ -6517,12 +6531,12 @@
         <v>9374</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>36</v>
       </c>
       <c r="B76" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C76" t="s">
         <v>22</v>
@@ -6538,18 +6552,18 @@
         <v>9646</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B77" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C77" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>16</v>
@@ -6561,21 +6575,21 @@
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B78" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C78" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F78">
         <v>105</v>
@@ -6584,18 +6598,18 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B79" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C79" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>11</v>
@@ -6607,12 +6621,12 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>39</v>
       </c>
       <c r="B80" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -6628,19 +6642,19 @@
         <v>327</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>39</v>
       </c>
       <c r="B81" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
       </c>
       <c r="D81"/>
       <c r="E81" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F81" s="10">
         <v>328</v>
@@ -6649,19 +6663,19 @@
         <v>9501</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>39</v>
       </c>
       <c r="B82" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
       </c>
       <c r="D82"/>
       <c r="E82" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F82" s="9">
         <v>328</v>
@@ -6670,19 +6684,19 @@
         <v>564</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>39</v>
       </c>
       <c r="B83" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
       </c>
       <c r="D83"/>
       <c r="E83" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F83" s="9">
         <v>565</v>
@@ -6691,19 +6705,19 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>39</v>
       </c>
       <c r="B84" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
       </c>
       <c r="D84"/>
       <c r="E84" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F84" s="9">
         <v>1138</v>
@@ -6712,19 +6726,19 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>39</v>
       </c>
       <c r="B85" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
       </c>
       <c r="D85"/>
       <c r="E85" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F85" s="9">
         <v>2200</v>
@@ -6733,12 +6747,12 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>39</v>
       </c>
       <c r="B86" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -6754,12 +6768,12 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>39</v>
       </c>
       <c r="B87" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -6775,12 +6789,12 @@
         <v>5514</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>39</v>
       </c>
       <c r="B88" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -6796,12 +6810,12 @@
         <v>5637</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>39</v>
       </c>
       <c r="B89" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -6817,12 +6831,12 @@
         <v>6423</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>39</v>
       </c>
       <c r="B90" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -6838,12 +6852,12 @@
         <v>7797</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>39</v>
       </c>
       <c r="B91" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -6859,12 +6873,12 @@
         <v>9498</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>39</v>
       </c>
       <c r="B92" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -6880,18 +6894,18 @@
         <v>9867</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
+        <v>56</v>
+      </c>
+      <c r="B93" t="s">
+        <v>66</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D93" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="B93" t="s">
-        <v>68</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D93" s="22" t="s">
-        <v>60</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>16</v>
@@ -6903,21 +6917,21 @@
         <v>350</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
+        <v>56</v>
+      </c>
+      <c r="B94" t="s">
+        <v>66</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D94" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B94" t="s">
-        <v>68</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D94" s="22" t="s">
-        <v>60</v>
-      </c>
       <c r="E94" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F94">
         <v>351</v>
@@ -6926,18 +6940,18 @@
         <v>18068</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
+        <v>56</v>
+      </c>
+      <c r="B95" t="s">
+        <v>66</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D95" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="B95" t="s">
-        <v>68</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D95" s="22" t="s">
-        <v>60</v>
       </c>
       <c r="E95" s="10" t="s">
         <v>11</v>
@@ -6949,12 +6963,12 @@
         <v>19199</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>37</v>
       </c>
       <c r="B96" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C96" t="s">
         <v>29</v>
@@ -6970,19 +6984,19 @@
         <v>385</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>37</v>
       </c>
       <c r="B97" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C97" t="s">
         <v>29</v>
       </c>
       <c r="D97"/>
       <c r="E97" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F97" s="10">
         <v>386</v>
@@ -6991,19 +7005,19 @@
         <v>12352</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>37</v>
       </c>
       <c r="B98" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C98" t="s">
         <v>29</v>
       </c>
       <c r="D98"/>
       <c r="E98" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F98" s="9">
         <v>386</v>
@@ -7012,12 +7026,12 @@
         <v>889</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>37</v>
       </c>
       <c r="B99" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C99" t="s">
         <v>29</v>
@@ -7033,12 +7047,12 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>37</v>
       </c>
       <c r="B100" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C100" t="s">
         <v>29</v>
@@ -7054,19 +7068,19 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>37</v>
       </c>
       <c r="B101" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C101" t="s">
         <v>29</v>
       </c>
       <c r="D101"/>
       <c r="E101" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F101" s="9">
         <v>1877</v>
@@ -7075,19 +7089,19 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>37</v>
       </c>
       <c r="B102" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C102" t="s">
         <v>29</v>
       </c>
       <c r="D102"/>
       <c r="E102" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F102" s="9">
         <v>2462</v>
@@ -7096,12 +7110,12 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
@@ -7117,12 +7131,12 @@
         <v>3793</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>37</v>
       </c>
       <c r="B104" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C104" t="s">
         <v>29</v>
@@ -7138,12 +7152,12 @@
         <v>7471</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>37</v>
       </c>
       <c r="B105" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C105" t="s">
         <v>29</v>
@@ -7159,12 +7173,12 @@
         <v>7663</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>37</v>
       </c>
       <c r="B106" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C106" t="s">
         <v>29</v>
@@ -7180,12 +7194,12 @@
         <v>8704</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>37</v>
       </c>
       <c r="B107" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C107" t="s">
         <v>29</v>
@@ -7201,12 +7215,12 @@
         <v>10192</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>37</v>
       </c>
       <c r="B108" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C108" t="s">
         <v>29</v>
@@ -7222,12 +7236,12 @@
         <v>12349</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>37</v>
       </c>
       <c r="B109" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C109" t="s">
         <v>29</v>
@@ -7243,19 +7257,19 @@
         <v>12573</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B110" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D110"/>
       <c r="E110" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -7264,15 +7278,15 @@
         <v>10053</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B111" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D111"/>
       <c r="E111" t="s">
@@ -7285,19 +7299,19 @@
         <v>345</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B112" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D112"/>
       <c r="E112" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F112" s="9">
         <v>346</v>
@@ -7306,19 +7320,19 @@
         <v>852</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B113" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D113"/>
       <c r="E113" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F113" s="9">
         <v>655</v>
@@ -7327,19 +7341,19 @@
         <v>852</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B114" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D114"/>
       <c r="E114" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F114" s="9">
         <v>853</v>
@@ -7348,15 +7362,15 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B115" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D115"/>
       <c r="E115" t="s">
@@ -7369,15 +7383,15 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B116" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D116"/>
       <c r="E116" t="s">
@@ -7390,15 +7404,15 @@
         <v>3978</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B117" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D117"/>
       <c r="E117" t="s">
@@ -7411,15 +7425,15 @@
         <v>4431</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B118" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D118"/>
       <c r="E118" t="s">
@@ -7432,15 +7446,15 @@
         <v>6303</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B119" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D119"/>
       <c r="E119" t="s">
@@ -7453,36 +7467,36 @@
         <v>6687</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D120"/>
       <c r="E120" t="s">
         <v>20</v>
       </c>
       <c r="F120" s="9">
-        <v>6763</v>
+        <v>6688</v>
       </c>
       <c r="G120" s="9">
         <v>6762</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B121" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D121"/>
       <c r="E121" t="s">
@@ -7495,15 +7509,15 @@
         <v>7557</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B122" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D122"/>
       <c r="E122" t="s">
@@ -7516,356 +7530,356 @@
         <v>10050</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="D123"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="D124"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="D125"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="D126"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="D127"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="D128"/>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:4">
       <c r="D129"/>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:4">
       <c r="B182" s="1"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:4">
       <c r="B183" s="1"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:4">
       <c r="B184" s="1"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:4">
       <c r="B185" s="1"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:4">
       <c r="B186" s="1"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:4">
       <c r="B187" s="1"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:4">
       <c r="B188" s="1"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:4">
       <c r="B189" s="1"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:4">
       <c r="B190" s="1"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:4">
       <c r="B191" s="1"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:4">
       <c r="B192" s="1"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:4">
       <c r="B193" s="1"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:4">
       <c r="B194" s="1"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:4">
       <c r="B195" s="1"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:4">
       <c r="B196" s="1"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:4">
       <c r="B197" s="1"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:4">
       <c r="B198" s="1"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:4">
       <c r="B199" s="1"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:4">
       <c r="B200" s="1"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:4">
       <c r="B201" s="1"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:4">
       <c r="B202" s="1"/>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:4">
       <c r="B203" s="1"/>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:4">
       <c r="B204" s="1"/>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:4">
       <c r="B205" s="1"/>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:4">
       <c r="B206" s="1"/>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:4">
       <c r="B207" s="1"/>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:4">
       <c r="B208" s="1"/>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:4">
       <c r="B209" s="1"/>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:4">
       <c r="B210" s="1"/>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:4">
       <c r="B211" s="1"/>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:4">
       <c r="B212" s="1"/>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:4">
       <c r="B213" s="1"/>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
     </row>
-    <row r="896" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="896" spans="5:5">
       <c r="E896" s="1"/>
     </row>
-    <row r="1032" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1032" spans="2:2">
       <c r="B1032" s="1"/>
     </row>
-    <row r="1033" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1033" spans="2:2">
       <c r="B1033" s="1"/>
     </row>
-    <row r="1158" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1158" spans="2:2">
       <c r="B1158" s="1"/>
     </row>
-    <row r="1159" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1159" spans="2:2">
       <c r="B1159" s="1"/>
     </row>
-    <row r="1160" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1160" spans="2:2">
       <c r="B1160" s="1"/>
     </row>
-    <row r="1161" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1161" spans="2:2">
       <c r="B1161" s="1"/>
     </row>
-    <row r="1162" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1162" spans="2:2">
       <c r="B1162" s="1"/>
     </row>
-    <row r="1163" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1163" spans="2:2">
       <c r="B1163" s="1"/>
     </row>
-    <row r="1208" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1208" spans="2:6">
       <c r="E1208" s="1"/>
       <c r="F1208" s="1"/>
     </row>
-    <row r="1209" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1209" spans="2:6">
       <c r="E1209" s="1"/>
       <c r="F1209" s="1"/>
     </row>
-    <row r="1210" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1210" spans="2:6">
       <c r="E1210" s="1"/>
       <c r="F1210" s="1"/>
     </row>
-    <row r="1212" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1212" spans="2:6">
       <c r="B1212" s="1"/>
     </row>
-    <row r="1213" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1213" spans="2:6">
       <c r="B1213" s="1"/>
     </row>
-    <row r="1214" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1214" spans="2:6">
       <c r="B1214" s="1"/>
     </row>
-    <row r="1215" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1215" spans="2:6">
       <c r="B1215" s="1"/>
     </row>
-    <row r="1216" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1216" spans="2:6">
       <c r="B1216" s="1"/>
     </row>
-    <row r="1235" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1235" spans="2:2">
       <c r="B1235" s="1"/>
     </row>
-    <row r="1236" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1236" spans="2:2">
       <c r="B1236" s="1"/>
     </row>
-    <row r="1237" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1237" spans="2:2">
       <c r="B1237" s="1"/>
     </row>
-    <row r="1238" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1238" spans="2:2">
       <c r="B1238" s="1"/>
     </row>
-    <row r="1239" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1239" spans="2:2">
       <c r="B1239" s="1"/>
     </row>
-    <row r="1240" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1240" spans="2:2">
       <c r="B1240" s="1"/>
     </row>
-    <row r="1241" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1241" spans="2:2">
       <c r="B1241" s="1"/>
     </row>
-    <row r="1243" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1243" spans="2:2">
       <c r="B1243" s="1"/>
     </row>
-    <row r="1244" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1244" spans="2:2">
       <c r="B1244" s="1"/>
     </row>
-    <row r="1245" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1245" spans="2:2">
       <c r="B1245" s="1"/>
     </row>
-    <row r="1246" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1246" spans="2:2">
       <c r="B1246" s="1"/>
     </row>
-    <row r="1247" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1247" spans="2:2">
       <c r="B1247" s="1"/>
     </row>
-    <row r="1248" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1248" spans="2:2">
       <c r="B1248" s="1"/>
     </row>
-    <row r="1300" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1300" spans="2:2">
       <c r="B1300" s="1"/>
     </row>
-    <row r="1301" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1301" spans="2:2">
       <c r="B1301" s="1"/>
     </row>
-    <row r="1302" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1302" spans="2:2">
       <c r="B1302" s="1"/>
     </row>
-    <row r="1303" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1303" spans="2:2">
       <c r="B1303" s="1"/>
     </row>
-    <row r="1305" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1305" spans="2:2">
       <c r="B1305" s="1"/>
     </row>
-    <row r="1306" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1306" spans="2:2">
       <c r="B1306" s="1"/>
     </row>
-    <row r="1307" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1307" spans="2:2">
       <c r="B1307" s="1"/>
     </row>
-    <row r="1308" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1308" spans="2:2">
       <c r="B1308" s="1"/>
     </row>
-    <row r="1343" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1343" spans="2:2">
       <c r="B1343" s="1"/>
     </row>
-    <row r="1344" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1344" spans="2:2">
       <c r="B1344" s="1"/>
     </row>
-    <row r="1345" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1345" spans="2:2">
       <c r="B1345" s="1"/>
     </row>
-    <row r="1346" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1346" spans="2:2">
       <c r="B1346" s="1"/>
     </row>
-    <row r="1347" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1347" spans="2:2">
       <c r="B1347" s="1"/>
     </row>
-    <row r="1348" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1348" spans="2:2">
       <c r="B1348" s="1"/>
     </row>
-    <row r="1390" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="1390" spans="3:6">
       <c r="E1390" s="1"/>
       <c r="F1390" s="1"/>
     </row>
-    <row r="1391" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="1391" spans="3:6">
       <c r="C1391" s="6"/>
       <c r="D1391" s="6"/>
       <c r="E1391" s="1"/>
       <c r="F1391" s="1"/>
     </row>
-    <row r="1392" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="1392" spans="3:6">
       <c r="C1392" s="6"/>
       <c r="D1392" s="6"/>
       <c r="E1392" s="1"/>
       <c r="F1392" s="1"/>
     </row>
-    <row r="1393" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="1393" spans="3:6">
       <c r="C1393" s="6"/>
       <c r="D1393" s="6"/>
       <c r="E1393" s="1"/>
       <c r="F1393" s="1"/>
     </row>
-    <row r="1394" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="1394" spans="3:6">
       <c r="E1394" s="1"/>
       <c r="F1394" s="1"/>
     </row>
-    <row r="1457" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1457" spans="2:2">
       <c r="B1457" s="1"/>
     </row>
-    <row r="1458" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1458" spans="2:2">
       <c r="B1458" s="1"/>
     </row>
-    <row r="1459" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1459" spans="2:2">
       <c r="B1459" s="1"/>
     </row>
-    <row r="1460" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1460" spans="2:2">
       <c r="B1460" s="1"/>
     </row>
   </sheetData>
@@ -7884,16 +7898,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -7916,7 +7930,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -7939,7 +7953,7 @@
         <v>10389</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -7962,7 +7976,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -7985,7 +7999,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -8008,7 +8022,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -8031,7 +8045,7 @@
         <v>3513</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -8054,7 +8068,7 @@
         <v>4206</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -8077,7 +8091,7 @@
         <v>4599</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -8100,7 +8114,7 @@
         <v>6456</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -8123,7 +8137,7 @@
         <v>6903</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -8146,7 +8160,7 @@
         <v>7671</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -8169,7 +8183,7 @@
         <v>10386</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -8192,7 +8206,7 @@
         <v>10962</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -8215,7 +8229,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -8238,7 +8252,7 @@
         <v>10366</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -8261,7 +8275,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -8284,7 +8298,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -8307,7 +8321,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -8330,7 +8344,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -8353,7 +8367,7 @@
         <v>4210</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="14" customHeight="1">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -8376,7 +8390,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -8399,7 +8413,7 @@
         <v>6451</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -8422,7 +8436,7 @@
         <v>6832</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -8445,7 +8459,7 @@
         <v>6901</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -8468,7 +8482,7 @@
         <v>7654</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -8491,7 +8505,7 @@
         <v>10363</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>33</v>
       </c>

--- a/tabular/flavi-reference_feature_locations.xlsx
+++ b/tabular/flavi-reference_feature_locations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10000" yWindow="0" windowWidth="25360" windowHeight="18100" tabRatio="500"/>
+    <workbookView xWindow="4940" yWindow="2820" windowWidth="25480" windowHeight="18100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="87">
   <si>
     <t>featureName</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>3UTR</t>
-  </si>
-  <si>
-    <t>SequenceID</t>
   </si>
   <si>
     <t>Genus</t>
@@ -282,6 +279,12 @@
   <si>
     <t>REF_MASTER_YFV</t>
   </si>
+  <si>
+    <t>sequenceID</t>
+  </si>
+  <si>
+    <t>whole_genome</t>
+  </si>
 </sst>
 </file>
 
@@ -346,7 +349,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,6 +434,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92CDDC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -441,7 +450,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1997">
+  <cellStyleXfs count="2109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2439,8 +2448,120 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2478,8 +2599,13 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1997">
+  <cellStyles count="2109">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -3479,6 +3605,62 @@
     <cellStyle name="Followed Hyperlink" xfId="1992" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1994" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1996" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1998" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2000" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2002" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2004" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2006" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2008" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2010" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2012" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2014" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2016" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2018" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2020" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2022" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2024" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2026" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2028" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2030" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2032" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2034" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2036" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2038" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2040" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2042" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2044" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2046" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2048" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2050" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2052" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2054" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2056" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2058" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2060" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2062" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2064" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2066" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2068" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2070" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2072" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2074" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2076" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2078" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2080" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2082" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2084" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2086" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2088" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2090" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2092" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2094" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2096" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2098" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2108" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -4476,6 +4658,62 @@
     <cellStyle name="Hyperlink" xfId="1991" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1993" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1995" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1997" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1999" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2001" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2003" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2005" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2007" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2009" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2011" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2013" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2015" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2017" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2019" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2021" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2023" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2025" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2027" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2029" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2031" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2033" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2035" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2037" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2039" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2041" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2043" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2045" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2047" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2049" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2051" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2053" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2055" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2057" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2059" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2061" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2063" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2065" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2067" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2069" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2071" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2073" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2075" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2077" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2079" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2081" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2083" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2085" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2087" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2089" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2091" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2093" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2095" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2097" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2099" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2107" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4813,10 +5051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1460"/>
+  <dimension ref="A1:G1454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F47" sqref="A34:F47"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4832,16 +5070,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -4855,2701 +5093,2932 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="F2" s="7">
         <v>1</v>
       </c>
       <c r="G2" s="7">
-        <v>96</v>
+        <v>11375</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="F3" s="7">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="G3" s="7">
-        <v>10170</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="F4" s="7">
         <v>97</v>
       </c>
       <c r="G4" s="7">
-        <v>525</v>
+        <v>10170</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="F5" s="7">
-        <v>526</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7">
-        <v>954</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F6" s="7">
-        <v>955</v>
+        <v>526</v>
       </c>
       <c r="G6" s="7">
-        <v>2250</v>
+        <v>954</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="F7" s="7">
-        <v>2251</v>
+        <v>955</v>
       </c>
       <c r="G7" s="7">
-        <v>3420</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" s="7">
-        <v>3421</v>
+        <v>2251</v>
       </c>
       <c r="G8" s="7">
-        <v>4041</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="7">
-        <v>4042</v>
+        <v>3421</v>
       </c>
       <c r="G9" s="7">
-        <v>4488</v>
+        <v>4041</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="7">
-        <v>4489</v>
+        <v>4042</v>
       </c>
       <c r="G10" s="7">
-        <v>6249</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="7">
-        <v>6250</v>
+        <v>4489</v>
       </c>
       <c r="G11" s="7">
-        <v>6654</v>
+        <v>6249</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F12" s="7">
-        <v>6655</v>
+        <v>6250</v>
       </c>
       <c r="G12" s="7">
-        <v>6723</v>
+        <v>6654</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F13" s="7">
-        <v>6724</v>
+        <v>6655</v>
       </c>
       <c r="G13" s="7">
-        <v>7503</v>
+        <v>6723</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" s="7">
-        <v>7504</v>
+        <v>6724</v>
       </c>
       <c r="G14" s="7">
-        <v>10167</v>
+        <v>7503</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="7">
-        <v>10168</v>
+        <v>7504</v>
       </c>
       <c r="G15" s="7">
-        <v>11375</v>
+        <v>10167</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="9">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9">
-        <v>119</v>
+        <v>61</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7">
+        <v>10168</v>
+      </c>
+      <c r="G16" s="7">
+        <v>11375</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>49</v>
-      </c>
       <c r="E17" s="9" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F17" s="9">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="G17" s="9">
-        <v>10445</v>
+        <v>10761</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="16" t="s">
+      <c r="E18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="F18" s="9">
-        <v>10446</v>
+        <v>1</v>
       </c>
       <c r="G18" s="9">
-        <v>10761</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="F19" s="9">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="G19" s="9">
-        <v>15</v>
+        <v>10445</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="F20" s="9">
-        <v>16</v>
+        <v>10446</v>
       </c>
       <c r="G20" s="9">
-        <v>10320</v>
+        <v>10761</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="8">
+        <v>83</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="9">
         <v>1</v>
       </c>
-      <c r="G21" s="8">
-        <v>94</v>
+      <c r="G21" s="9">
+        <v>10320</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22">
-        <v>95</v>
-      </c>
-      <c r="G22">
-        <v>10273</v>
+      <c r="F22" s="9">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9">
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>95</v>
-      </c>
-      <c r="G23">
-        <v>436</v>
+        <v>83</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="9">
+        <v>16</v>
+      </c>
+      <c r="G23" s="9">
+        <v>10320</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24">
-        <v>437</v>
-      </c>
-      <c r="G24">
-        <v>934</v>
+        <v>86</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8">
+        <v>10735</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25">
-        <v>935</v>
-      </c>
-      <c r="G25">
-        <v>2419</v>
+      <c r="F25" s="8">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8">
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="F26">
-        <v>2420</v>
+        <v>95</v>
       </c>
       <c r="G26">
-        <v>3475</v>
+        <v>10273</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>3476</v>
+        <v>95</v>
       </c>
       <c r="G27">
-        <v>4129</v>
+        <v>436</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="F28">
-        <v>4130</v>
+        <v>437</v>
       </c>
       <c r="G28">
-        <v>4519</v>
+        <v>934</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="F29">
-        <v>4520</v>
+        <v>935</v>
       </c>
       <c r="G29">
-        <v>6376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F30">
-        <v>6377</v>
+        <v>2420</v>
       </c>
       <c r="G30">
-        <v>6757</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F31">
-        <v>6758</v>
+        <v>3476</v>
       </c>
       <c r="G31">
-        <v>6826</v>
+        <v>4129</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F32">
-        <v>7574</v>
+        <v>4130</v>
       </c>
       <c r="G32">
-        <v>10270</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F33">
-        <v>10274</v>
+        <v>4520</v>
       </c>
       <c r="G33">
-        <v>10735</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="16" customHeight="1">
+        <v>6376</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="7">
-        <v>1</v>
-      </c>
-      <c r="G34" s="7">
-        <v>118</v>
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>6377</v>
+      </c>
+      <c r="G34">
+        <v>6757</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="7">
-        <v>119</v>
-      </c>
-      <c r="G35" s="7">
-        <v>10354</v>
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35">
+        <v>6758</v>
+      </c>
+      <c r="G35">
+        <v>6826</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="7">
-        <v>119</v>
-      </c>
-      <c r="G36" s="7">
-        <v>481</v>
+        <v>62</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>7574</v>
+      </c>
+      <c r="G36">
+        <v>10270</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="7">
-        <v>482</v>
-      </c>
-      <c r="G37" s="7">
-        <v>973</v>
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37">
+        <v>10274</v>
+      </c>
+      <c r="G37">
+        <v>10735</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F38" s="7">
+        <v>1</v>
+      </c>
+      <c r="G38" s="7">
+        <v>10862</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="16" customHeight="1">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" s="7">
-        <v>974</v>
-      </c>
-      <c r="G38" s="7">
-        <v>2452</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="F39" s="7">
-        <v>2453</v>
+        <v>1</v>
       </c>
       <c r="G39" s="7">
-        <v>3508</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="F40" s="7">
-        <v>3509</v>
+        <v>119</v>
       </c>
       <c r="G40" s="7">
-        <v>4180</v>
+        <v>10354</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F41" s="7">
-        <v>4181</v>
+        <v>119</v>
       </c>
       <c r="G41" s="7">
-        <v>4570</v>
+        <v>481</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="F42" s="7">
-        <v>4571</v>
+        <v>482</v>
       </c>
       <c r="G42" s="7">
-        <v>6439</v>
+        <v>973</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="F43" s="7">
-        <v>6440</v>
+        <v>974</v>
       </c>
       <c r="G43" s="7">
-        <v>6817</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F44" s="7">
-        <v>6818</v>
+        <v>2453</v>
       </c>
       <c r="G44" s="7">
-        <v>6886</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F45" s="7">
-        <v>6887</v>
+        <v>3509</v>
       </c>
       <c r="G45" s="7">
-        <v>7636</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F46" s="7">
-        <v>7637</v>
+        <v>4181</v>
       </c>
       <c r="G46" s="7">
-        <v>10351</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F47" s="7">
-        <v>10355</v>
+        <v>4571</v>
       </c>
       <c r="G47" s="7">
-        <v>10862</v>
+        <v>6439</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F48" s="9">
-        <v>1</v>
-      </c>
-      <c r="G48" s="9">
-        <v>10116</v>
+        <v>84</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="7">
+        <v>6440</v>
+      </c>
+      <c r="G48" s="7">
+        <v>6817</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>10242</v>
+        <v>84</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="7">
+        <v>6818</v>
+      </c>
+      <c r="G49" s="7">
+        <v>6886</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="10">
-        <v>1</v>
-      </c>
-      <c r="G50" s="10">
-        <v>111</v>
+        <v>84</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="7">
+        <v>6887</v>
+      </c>
+      <c r="G50" s="7">
+        <v>7636</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F51" s="10">
-        <v>112</v>
-      </c>
-      <c r="G51" s="10">
-        <v>10359</v>
+        <v>84</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="7">
+        <v>7637</v>
+      </c>
+      <c r="G51" s="7">
+        <v>10351</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E52" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="9">
-        <v>112</v>
-      </c>
-      <c r="G52" s="9">
-        <v>441</v>
+        <v>84</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="7">
+        <v>10355</v>
+      </c>
+      <c r="G52" s="7">
+        <v>10862</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53" t="s">
-        <v>74</v>
-      </c>
-      <c r="F53" s="9">
-        <v>442</v>
-      </c>
-      <c r="G53" s="9">
-        <v>945</v>
+        <v>44</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F53" s="10">
+        <v>1</v>
+      </c>
+      <c r="G53" s="10">
+        <v>10839</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E54" t="s">
-        <v>76</v>
-      </c>
-      <c r="F54" s="9">
-        <v>946</v>
-      </c>
-      <c r="G54" s="9">
-        <v>2436</v>
+      <c r="F54" s="10">
+        <v>1</v>
+      </c>
+      <c r="G54" s="10">
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="9">
-        <v>2437</v>
-      </c>
-      <c r="G55" s="9">
-        <v>3495</v>
+        <v>72</v>
+      </c>
+      <c r="F55" s="10">
+        <v>112</v>
+      </c>
+      <c r="G55" s="10">
+        <v>10359</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>5</v>
+        <v>44</v>
+      </c>
+      <c r="E56" t="s">
+        <v>3</v>
       </c>
       <c r="F56" s="9">
-        <v>3496</v>
+        <v>112</v>
       </c>
       <c r="G56" s="9">
-        <v>4185</v>
+        <v>441</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>6</v>
+        <v>44</v>
+      </c>
+      <c r="E57" t="s">
+        <v>73</v>
       </c>
       <c r="F57" s="9">
-        <v>4186</v>
+        <v>442</v>
       </c>
       <c r="G57" s="9">
-        <v>4578</v>
+        <v>945</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>7</v>
+        <v>44</v>
+      </c>
+      <c r="E58" t="s">
+        <v>75</v>
       </c>
       <c r="F58" s="9">
-        <v>4579</v>
+        <v>946</v>
       </c>
       <c r="G58" s="9">
-        <v>6444</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F59" s="9">
-        <v>6445</v>
+        <v>2437</v>
       </c>
       <c r="G59" s="9">
-        <v>6822</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F60" s="9">
-        <v>6823</v>
+        <v>3496</v>
       </c>
       <c r="G60" s="9">
-        <v>6891</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F61" s="9">
-        <v>6892</v>
+        <v>4186</v>
       </c>
       <c r="G61" s="9">
-        <v>7647</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F62" s="9">
-        <v>7648</v>
+        <v>4579</v>
       </c>
       <c r="G62" s="9">
-        <v>10356</v>
+        <v>6444</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>11</v>
+        <v>44</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="F63" s="9">
-        <v>10357</v>
+        <v>6445</v>
       </c>
       <c r="G63" s="9">
-        <v>10839</v>
+        <v>6822</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B64" t="s">
         <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64"/>
-      <c r="E64" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F64" s="10">
-        <v>1</v>
-      </c>
-      <c r="G64" s="10">
-        <v>341</v>
+        <v>14</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" s="9">
+        <v>6823</v>
+      </c>
+      <c r="G64" s="9">
+        <v>6891</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B65" t="s">
         <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65"/>
-      <c r="E65" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F65" s="10">
-        <v>342</v>
-      </c>
-      <c r="G65" s="10">
-        <v>9377</v>
+        <v>14</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="9">
+        <v>6892</v>
+      </c>
+      <c r="G65" s="9">
+        <v>7647</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B66" t="s">
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D66"/>
-      <c r="E66" s="10" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="F66" s="9">
-        <v>342</v>
+        <v>7648</v>
       </c>
       <c r="G66" s="9">
-        <v>914</v>
+        <v>10356</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B67" t="s">
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67"/>
+        <v>14</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="E67" s="10" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="F67" s="9">
-        <v>915</v>
+        <v>10357</v>
       </c>
       <c r="G67" s="9">
-        <v>1490</v>
+        <v>10839</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D68"/>
-      <c r="E68" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F68" s="9">
-        <v>1491</v>
-      </c>
-      <c r="G68" s="9">
-        <v>2579</v>
+      <c r="E68" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F68" s="10">
+        <v>1</v>
+      </c>
+      <c r="G68" s="10">
+        <v>9646</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D69"/>
       <c r="E69" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F69" s="9">
-        <v>2580</v>
-      </c>
-      <c r="G69" s="9">
-        <v>2768</v>
+        <v>15</v>
+      </c>
+      <c r="F69" s="10">
+        <v>1</v>
+      </c>
+      <c r="G69" s="10">
+        <v>341</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D70"/>
       <c r="E70" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F70" s="9">
-        <v>2769</v>
-      </c>
-      <c r="G70" s="9">
-        <v>3419</v>
+        <v>72</v>
+      </c>
+      <c r="F70" s="10">
+        <v>342</v>
+      </c>
+      <c r="G70" s="10">
+        <v>9377</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D71"/>
       <c r="E71" s="10" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F71" s="9">
-        <v>3420</v>
+        <v>342</v>
       </c>
       <c r="G71" s="9">
-        <v>5312</v>
+        <v>914</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D72"/>
       <c r="E72" s="10" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="F72" s="9">
-        <v>5313</v>
+        <v>915</v>
       </c>
       <c r="G72" s="9">
-        <v>5474</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D73"/>
       <c r="E73" s="10" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="F73" s="9">
-        <v>5475</v>
+        <v>1491</v>
       </c>
       <c r="G73" s="9">
-        <v>6257</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D74"/>
       <c r="E74" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F74" s="9">
-        <v>6258</v>
+        <v>2580</v>
       </c>
       <c r="G74" s="9">
-        <v>7601</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D75"/>
       <c r="E75" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F75" s="9">
-        <v>7602</v>
+        <v>2769</v>
       </c>
       <c r="G75" s="9">
-        <v>9374</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D76"/>
       <c r="E76" s="10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F76" s="9">
-        <v>9378</v>
+        <v>3420</v>
       </c>
       <c r="G76" s="9">
-        <v>9646</v>
+        <v>5312</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B77" t="s">
         <v>68</v>
       </c>
       <c r="C77" t="s">
-        <v>51</v>
-      </c>
-      <c r="D77" s="21" t="s">
-        <v>51</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D77"/>
       <c r="E77" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77">
-        <v>104</v>
+        <v>8</v>
+      </c>
+      <c r="F77" s="9">
+        <v>5313</v>
+      </c>
+      <c r="G77" s="9">
+        <v>5474</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B78" t="s">
         <v>68</v>
       </c>
       <c r="C78" t="s">
-        <v>51</v>
-      </c>
-      <c r="D78" s="21" t="s">
-        <v>51</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D78"/>
       <c r="E78" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F78">
-        <v>105</v>
-      </c>
-      <c r="G78">
-        <v>2849</v>
+        <v>9</v>
+      </c>
+      <c r="F78" s="9">
+        <v>5475</v>
+      </c>
+      <c r="G78" s="9">
+        <v>6257</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B79" t="s">
         <v>68</v>
       </c>
       <c r="C79" t="s">
-        <v>51</v>
-      </c>
-      <c r="D79" s="21" t="s">
-        <v>51</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D79"/>
       <c r="E79" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79">
-        <v>2850</v>
-      </c>
-      <c r="G79">
-        <v>3114</v>
+        <v>25</v>
+      </c>
+      <c r="F79" s="9">
+        <v>6258</v>
+      </c>
+      <c r="G79" s="9">
+        <v>7601</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D80"/>
       <c r="E80" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" s="10">
-        <v>1</v>
-      </c>
-      <c r="G80" s="10">
-        <v>327</v>
+        <v>26</v>
+      </c>
+      <c r="F80" s="9">
+        <v>7602</v>
+      </c>
+      <c r="G80" s="9">
+        <v>9374</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B81" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D81"/>
       <c r="E81" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F81" s="10">
-        <v>328</v>
-      </c>
-      <c r="G81" s="10">
-        <v>9501</v>
+        <v>11</v>
+      </c>
+      <c r="F81" s="9">
+        <v>9378</v>
+      </c>
+      <c r="G81" s="9">
+        <v>9646</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B82" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D82"/>
-      <c r="E82" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F82" s="9">
-        <v>328</v>
+      <c r="E82" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F82" s="10">
+        <v>1</v>
       </c>
       <c r="G82" s="9">
-        <v>564</v>
+        <v>9867</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D83"/>
       <c r="E83" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F83" s="9">
-        <v>565</v>
-      </c>
-      <c r="G83" s="9">
-        <v>1137</v>
+        <v>15</v>
+      </c>
+      <c r="F83" s="10">
+        <v>1</v>
+      </c>
+      <c r="G83" s="10">
+        <v>327</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D84"/>
       <c r="E84" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F84" s="9">
-        <v>1138</v>
-      </c>
-      <c r="G84" s="9">
-        <v>2199</v>
+        <v>72</v>
+      </c>
+      <c r="F84" s="10">
+        <v>328</v>
+      </c>
+      <c r="G84" s="10">
+        <v>9501</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D85"/>
       <c r="E85" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F85" s="9">
-        <v>2200</v>
+        <v>328</v>
       </c>
       <c r="G85" s="9">
-        <v>2910</v>
+        <v>564</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D86"/>
       <c r="E86" s="10" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="F86" s="9">
-        <v>2911</v>
+        <v>565</v>
       </c>
       <c r="G86" s="9">
-        <v>3630</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B87" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D87"/>
       <c r="E87" s="10" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="F87" s="9">
-        <v>3631</v>
+        <v>1138</v>
       </c>
       <c r="G87" s="9">
-        <v>5514</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B88" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D88"/>
       <c r="E88" s="10" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="F88" s="9">
-        <v>5515</v>
+        <v>2200</v>
       </c>
       <c r="G88" s="9">
-        <v>5637</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B89" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D89"/>
       <c r="E89" s="10" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F89" s="9">
-        <v>5638</v>
+        <v>2911</v>
       </c>
       <c r="G89" s="9">
-        <v>6423</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D90"/>
       <c r="E90" s="10" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F90" s="9">
-        <v>6424</v>
+        <v>3631</v>
       </c>
       <c r="G90" s="9">
-        <v>7797</v>
+        <v>5514</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B91" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D91"/>
       <c r="E91" s="10" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F91" s="9">
-        <v>7798</v>
+        <v>5515</v>
       </c>
       <c r="G91" s="9">
-        <v>9498</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B92" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D92"/>
       <c r="E92" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F92" s="9">
-        <v>9502</v>
+        <v>5638</v>
       </c>
       <c r="G92" s="9">
-        <v>9867</v>
+        <v>6423</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B93" t="s">
         <v>66</v>
       </c>
-      <c r="C93" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D93" s="22" t="s">
-        <v>58</v>
-      </c>
+      <c r="C93" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93"/>
       <c r="E93" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
-      <c r="G93">
-        <v>350</v>
+        <v>25</v>
+      </c>
+      <c r="F93" s="9">
+        <v>6424</v>
+      </c>
+      <c r="G93" s="9">
+        <v>7797</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B94" t="s">
         <v>66</v>
       </c>
-      <c r="C94" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D94" s="22" t="s">
-        <v>58</v>
-      </c>
+      <c r="C94" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94"/>
       <c r="E94" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F94">
-        <v>351</v>
-      </c>
-      <c r="G94">
-        <v>18068</v>
+        <v>26</v>
+      </c>
+      <c r="F94" s="9">
+        <v>7798</v>
+      </c>
+      <c r="G94" s="9">
+        <v>9498</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B95" t="s">
         <v>66</v>
       </c>
-      <c r="C95" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D95" s="22" t="s">
-        <v>58</v>
-      </c>
+      <c r="C95" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95"/>
       <c r="E95" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F95">
-        <v>18069</v>
-      </c>
-      <c r="G95">
-        <v>19199</v>
+      <c r="F95" s="9">
+        <v>9502</v>
+      </c>
+      <c r="G95" s="9">
+        <v>9867</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B96" t="s">
         <v>65</v>
       </c>
-      <c r="C96" t="s">
-        <v>29</v>
-      </c>
-      <c r="D96"/>
-      <c r="E96" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F96" s="10">
+      <c r="C96" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F96">
         <v>1</v>
       </c>
-      <c r="G96" s="10">
-        <v>385</v>
+      <c r="G96">
+        <v>19199</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B97" t="s">
         <v>65</v>
       </c>
-      <c r="C97" t="s">
-        <v>29</v>
-      </c>
-      <c r="D97"/>
+      <c r="C97" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="E97" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F97" s="10">
-        <v>386</v>
-      </c>
-      <c r="G97" s="10">
-        <v>12352</v>
+        <v>15</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>350</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B98" t="s">
         <v>65</v>
       </c>
-      <c r="C98" t="s">
-        <v>29</v>
-      </c>
-      <c r="D98"/>
+      <c r="C98" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="E98" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F98" s="9">
-        <v>386</v>
-      </c>
-      <c r="G98" s="9">
-        <v>889</v>
+        <v>72</v>
+      </c>
+      <c r="F98">
+        <v>351</v>
+      </c>
+      <c r="G98">
+        <v>18068</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B99" t="s">
         <v>65</v>
       </c>
-      <c r="C99" t="s">
-        <v>29</v>
-      </c>
-      <c r="D99"/>
+      <c r="C99" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="E99" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F99" s="9">
-        <v>890</v>
-      </c>
-      <c r="G99" s="9">
-        <v>1195</v>
+        <v>11</v>
+      </c>
+      <c r="F99">
+        <v>18069</v>
+      </c>
+      <c r="G99">
+        <v>19199</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B100" t="s">
-        <v>65</v>
-      </c>
-      <c r="C100" t="s">
-        <v>29</v>
+        <v>63</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="D100"/>
-      <c r="E100" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F100" s="9">
-        <v>1196</v>
-      </c>
-      <c r="G100" s="9">
-        <v>1876</v>
+      <c r="E100" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>10053</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B101" t="s">
-        <v>65</v>
-      </c>
-      <c r="C101" t="s">
-        <v>29</v>
+        <v>63</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="D101"/>
-      <c r="E101" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F101" s="9">
-        <v>1877</v>
-      </c>
-      <c r="G101" s="9">
-        <v>2461</v>
+      <c r="E101" t="s">
+        <v>72</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>10053</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B102" t="s">
-        <v>65</v>
-      </c>
-      <c r="C102" t="s">
-        <v>29</v>
+        <v>63</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="D102"/>
-      <c r="E102" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F102" s="9">
-        <v>2462</v>
-      </c>
-      <c r="G102" s="9">
-        <v>3583</v>
+      <c r="E102" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>345</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B103" t="s">
-        <v>65</v>
-      </c>
-      <c r="C103" t="s">
-        <v>29</v>
+        <v>63</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="D103"/>
-      <c r="E103" s="10" t="s">
-        <v>24</v>
+      <c r="E103" t="s">
+        <v>73</v>
       </c>
       <c r="F103" s="9">
-        <v>3584</v>
+        <v>346</v>
       </c>
       <c r="G103" s="9">
-        <v>3793</v>
+        <v>852</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B104" t="s">
-        <v>65</v>
-      </c>
-      <c r="C104" t="s">
-        <v>29</v>
+        <v>63</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="D104"/>
-      <c r="E104" s="10" t="s">
-        <v>7</v>
+      <c r="E104" t="s">
+        <v>74</v>
       </c>
       <c r="F104" s="9">
-        <v>3794</v>
+        <v>655</v>
       </c>
       <c r="G104" s="9">
-        <v>7471</v>
+        <v>852</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B105" t="s">
-        <v>65</v>
-      </c>
-      <c r="C105" t="s">
-        <v>29</v>
+        <v>63</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="D105"/>
-      <c r="E105" s="10" t="s">
-        <v>8</v>
+      <c r="E105" t="s">
+        <v>75</v>
       </c>
       <c r="F105" s="9">
-        <v>7472</v>
+        <v>853</v>
       </c>
       <c r="G105" s="9">
-        <v>7663</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B106" t="s">
-        <v>65</v>
-      </c>
-      <c r="C106" t="s">
-        <v>29</v>
+        <v>63</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="D106"/>
-      <c r="E106" s="10" t="s">
-        <v>9</v>
+      <c r="E106" t="s">
+        <v>4</v>
       </c>
       <c r="F106" s="9">
-        <v>7664</v>
+        <v>2359</v>
       </c>
       <c r="G106" s="9">
-        <v>8704</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B107" t="s">
-        <v>65</v>
-      </c>
-      <c r="C107" t="s">
-        <v>29</v>
+        <v>63</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="D107"/>
-      <c r="E107" s="9" t="s">
-        <v>26</v>
+      <c r="E107" t="s">
+        <v>5</v>
       </c>
       <c r="F107" s="9">
-        <v>8705</v>
+        <v>3391</v>
       </c>
       <c r="G107" s="9">
-        <v>10192</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B108" t="s">
-        <v>65</v>
-      </c>
-      <c r="C108" t="s">
-        <v>29</v>
+        <v>63</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="D108"/>
-      <c r="E108" s="9" t="s">
-        <v>27</v>
+      <c r="E108" t="s">
+        <v>6</v>
       </c>
       <c r="F108" s="9">
-        <v>10193</v>
+        <v>3979</v>
       </c>
       <c r="G108" s="9">
-        <v>12349</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B109" t="s">
-        <v>65</v>
-      </c>
-      <c r="C109" t="s">
-        <v>29</v>
+        <v>63</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="D109"/>
-      <c r="E109" s="9" t="s">
-        <v>11</v>
+      <c r="E109" t="s">
+        <v>7</v>
       </c>
       <c r="F109" s="9">
-        <v>12360</v>
+        <v>4432</v>
       </c>
       <c r="G109" s="9">
-        <v>12573</v>
+        <v>6303</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B110" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D110"/>
       <c r="E110" t="s">
-        <v>73</v>
-      </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
-      <c r="G110">
-        <v>10053</v>
+        <v>8</v>
+      </c>
+      <c r="F110" s="9">
+        <v>6304</v>
+      </c>
+      <c r="G110" s="9">
+        <v>6687</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B111" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D111"/>
       <c r="E111" t="s">
-        <v>3</v>
-      </c>
-      <c r="F111">
-        <v>1</v>
-      </c>
-      <c r="G111">
-        <v>345</v>
+        <v>19</v>
+      </c>
+      <c r="F111" s="9">
+        <v>6688</v>
+      </c>
+      <c r="G111" s="9">
+        <v>6762</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B112" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D112"/>
       <c r="E112" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="F112" s="9">
-        <v>346</v>
+        <v>6763</v>
       </c>
       <c r="G112" s="9">
-        <v>852</v>
+        <v>7557</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B113" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D113"/>
       <c r="E113" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="F113" s="9">
-        <v>655</v>
+        <v>7558</v>
       </c>
       <c r="G113" s="9">
-        <v>852</v>
+        <v>10050</v>
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" t="s">
-        <v>54</v>
-      </c>
-      <c r="B114" t="s">
+      <c r="A114" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F114" s="9">
+        <v>1</v>
+      </c>
+      <c r="G114" s="9">
+        <v>10116</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F115" s="9">
+        <v>1</v>
+      </c>
+      <c r="G115" s="9">
+        <v>10116</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F116" s="1">
+        <v>1</v>
+      </c>
+      <c r="G116" s="1">
+        <v>10242</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C117" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F117" s="1">
+        <v>1</v>
+      </c>
+      <c r="G117" s="1">
+        <v>10242</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C114" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D114"/>
-      <c r="E114" t="s">
+      <c r="C118" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" s="1"/>
+      <c r="E118" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F118" s="9">
+        <v>1</v>
+      </c>
+      <c r="G118" s="9">
+        <v>12573</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" s="1"/>
+      <c r="E119" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F119" s="9">
+        <v>1</v>
+      </c>
+      <c r="G119" s="9">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" s="1"/>
+      <c r="E120" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F120" s="9">
+        <v>386</v>
+      </c>
+      <c r="G120" s="9">
+        <v>12352</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" s="1"/>
+      <c r="E121" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F121" s="9">
+        <v>386</v>
+      </c>
+      <c r="G121" s="9">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" s="1"/>
+      <c r="E122" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F122" s="9">
+        <v>890</v>
+      </c>
+      <c r="G122" s="9">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="1"/>
+      <c r="E123" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F123" s="9">
+        <v>1196</v>
+      </c>
+      <c r="G123" s="9">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" s="1"/>
+      <c r="E124" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F114" s="9">
-        <v>853</v>
-      </c>
-      <c r="G114" s="9">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" t="s">
-        <v>54</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="F124" s="9">
+        <v>1877</v>
+      </c>
+      <c r="G124" s="9">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C115" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D115"/>
-      <c r="E115" t="s">
-        <v>4</v>
-      </c>
-      <c r="F115" s="9">
-        <v>2359</v>
-      </c>
-      <c r="G115" s="9">
-        <v>3390</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" t="s">
-        <v>54</v>
-      </c>
-      <c r="B116" t="s">
+      <c r="C125" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" s="1"/>
+      <c r="E125" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F125" s="9">
+        <v>2462</v>
+      </c>
+      <c r="G125" s="9">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C116" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D116"/>
-      <c r="E116" t="s">
-        <v>5</v>
-      </c>
-      <c r="F116" s="9">
-        <v>3391</v>
-      </c>
-      <c r="G116" s="9">
-        <v>3978</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" t="s">
-        <v>54</v>
-      </c>
-      <c r="B117" t="s">
+      <c r="C126" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" s="1"/>
+      <c r="E126" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F126" s="9">
+        <v>3584</v>
+      </c>
+      <c r="G126" s="9">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C117" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D117"/>
-      <c r="E117" t="s">
-        <v>6</v>
-      </c>
-      <c r="F117" s="9">
-        <v>3979</v>
-      </c>
-      <c r="G117" s="9">
-        <v>4431</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" t="s">
-        <v>54</v>
-      </c>
-      <c r="B118" t="s">
+      <c r="C127" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" s="1"/>
+      <c r="E127" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F127" s="9">
+        <v>3794</v>
+      </c>
+      <c r="G127" s="9">
+        <v>7471</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C118" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D118"/>
-      <c r="E118" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" s="9">
-        <v>4432</v>
-      </c>
-      <c r="G118" s="9">
-        <v>6303</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" t="s">
-        <v>54</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="C128" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" s="1"/>
+      <c r="E128" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" s="9">
+        <v>7472</v>
+      </c>
+      <c r="G128" s="9">
+        <v>7663</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C119" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D119"/>
-      <c r="E119" t="s">
-        <v>8</v>
-      </c>
-      <c r="F119" s="9">
-        <v>6304</v>
-      </c>
-      <c r="G119" s="9">
-        <v>6687</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" t="s">
-        <v>54</v>
-      </c>
-      <c r="B120" t="s">
+      <c r="C129" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" s="1"/>
+      <c r="E129" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" s="9">
+        <v>7664</v>
+      </c>
+      <c r="G129" s="9">
+        <v>8704</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C120" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D120"/>
-      <c r="E120" t="s">
-        <v>20</v>
-      </c>
-      <c r="F120" s="9">
-        <v>6688</v>
-      </c>
-      <c r="G120" s="9">
-        <v>6762</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" t="s">
-        <v>54</v>
-      </c>
-      <c r="B121" t="s">
+      <c r="C130" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" s="1"/>
+      <c r="E130" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F130" s="9">
+        <v>8705</v>
+      </c>
+      <c r="G130" s="9">
+        <v>10192</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C121" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D121"/>
-      <c r="E121" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" s="9">
-        <v>6763</v>
-      </c>
-      <c r="G121" s="9">
-        <v>7557</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" t="s">
-        <v>54</v>
-      </c>
-      <c r="B122" t="s">
+      <c r="C131" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" s="1"/>
+      <c r="E131" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F131" s="9">
+        <v>10193</v>
+      </c>
+      <c r="G131" s="9">
+        <v>12349</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C122" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D122"/>
-      <c r="E122" t="s">
-        <v>10</v>
-      </c>
-      <c r="F122" s="9">
-        <v>7558</v>
-      </c>
-      <c r="G122" s="9">
-        <v>10050</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="D123"/>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="D124"/>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="D125"/>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="D126"/>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="D127"/>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="D128"/>
-    </row>
-    <row r="129" spans="4:4">
-      <c r="D129"/>
+      <c r="C132" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" s="1"/>
+      <c r="E132" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="9">
+        <v>12360</v>
+      </c>
+      <c r="G132" s="9">
+        <v>12573</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4">
+      <c r="B176" s="1"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+    </row>
+    <row r="177" spans="2:4">
+      <c r="B177" s="1"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+    </row>
+    <row r="178" spans="2:4">
+      <c r="B178" s="1"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+    </row>
+    <row r="179" spans="2:4">
+      <c r="B179" s="1"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+    </row>
+    <row r="180" spans="2:4">
+      <c r="B180" s="1"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+    </row>
+    <row r="181" spans="2:4">
+      <c r="B181" s="1"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
     </row>
     <row r="182" spans="2:4">
       <c r="B182" s="1"/>
@@ -7643,8 +8112,6 @@
     </row>
     <row r="200" spans="2:4">
       <c r="B200" s="1"/>
-      <c r="C200" s="5"/>
-      <c r="D200" s="5"/>
     </row>
     <row r="201" spans="2:4">
       <c r="B201" s="1"/>
@@ -7673,102 +8140,89 @@
     </row>
     <row r="206" spans="2:4">
       <c r="B206" s="1"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
     </row>
     <row r="207" spans="2:4">
       <c r="B207" s="1"/>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
     </row>
-    <row r="208" spans="2:4">
-      <c r="B208" s="1"/>
-      <c r="C208" s="5"/>
-      <c r="D208" s="5"/>
-    </row>
-    <row r="209" spans="2:4">
-      <c r="B209" s="1"/>
-      <c r="C209" s="5"/>
-      <c r="D209" s="5"/>
-    </row>
-    <row r="210" spans="2:4">
-      <c r="B210" s="1"/>
-      <c r="C210" s="5"/>
-      <c r="D210" s="5"/>
-    </row>
-    <row r="211" spans="2:4">
-      <c r="B211" s="1"/>
-      <c r="C211" s="5"/>
-      <c r="D211" s="5"/>
-    </row>
-    <row r="212" spans="2:4">
-      <c r="B212" s="1"/>
-      <c r="C212" s="5"/>
-      <c r="D212" s="5"/>
-    </row>
-    <row r="213" spans="2:4">
-      <c r="B213" s="1"/>
-      <c r="C213" s="5"/>
-      <c r="D213" s="5"/>
-    </row>
-    <row r="896" spans="5:5">
-      <c r="E896" s="1"/>
-    </row>
-    <row r="1032" spans="2:2">
-      <c r="B1032" s="1"/>
-    </row>
-    <row r="1033" spans="2:2">
-      <c r="B1033" s="1"/>
-    </row>
-    <row r="1158" spans="2:2">
-      <c r="B1158" s="1"/>
-    </row>
-    <row r="1159" spans="2:2">
-      <c r="B1159" s="1"/>
-    </row>
-    <row r="1160" spans="2:2">
-      <c r="B1160" s="1"/>
-    </row>
-    <row r="1161" spans="2:2">
-      <c r="B1161" s="1"/>
-    </row>
-    <row r="1162" spans="2:2">
-      <c r="B1162" s="1"/>
-    </row>
-    <row r="1163" spans="2:2">
-      <c r="B1163" s="1"/>
+    <row r="890" spans="5:5">
+      <c r="E890" s="1"/>
+    </row>
+    <row r="1026" spans="2:2">
+      <c r="B1026" s="1"/>
+    </row>
+    <row r="1027" spans="2:2">
+      <c r="B1027" s="1"/>
+    </row>
+    <row r="1152" spans="2:2">
+      <c r="B1152" s="1"/>
+    </row>
+    <row r="1153" spans="2:2">
+      <c r="B1153" s="1"/>
+    </row>
+    <row r="1154" spans="2:2">
+      <c r="B1154" s="1"/>
+    </row>
+    <row r="1155" spans="2:2">
+      <c r="B1155" s="1"/>
+    </row>
+    <row r="1156" spans="2:2">
+      <c r="B1156" s="1"/>
+    </row>
+    <row r="1157" spans="2:2">
+      <c r="B1157" s="1"/>
+    </row>
+    <row r="1202" spans="2:6">
+      <c r="E1202" s="1"/>
+      <c r="F1202" s="1"/>
+    </row>
+    <row r="1203" spans="2:6">
+      <c r="E1203" s="1"/>
+      <c r="F1203" s="1"/>
+    </row>
+    <row r="1204" spans="2:6">
+      <c r="E1204" s="1"/>
+      <c r="F1204" s="1"/>
+    </row>
+    <row r="1206" spans="2:6">
+      <c r="B1206" s="1"/>
+    </row>
+    <row r="1207" spans="2:6">
+      <c r="B1207" s="1"/>
     </row>
     <row r="1208" spans="2:6">
-      <c r="E1208" s="1"/>
-      <c r="F1208" s="1"/>
+      <c r="B1208" s="1"/>
     </row>
     <row r="1209" spans="2:6">
-      <c r="E1209" s="1"/>
-      <c r="F1209" s="1"/>
+      <c r="B1209" s="1"/>
     </row>
     <row r="1210" spans="2:6">
-      <c r="E1210" s="1"/>
-      <c r="F1210" s="1"/>
-    </row>
-    <row r="1212" spans="2:6">
-      <c r="B1212" s="1"/>
-    </row>
-    <row r="1213" spans="2:6">
-      <c r="B1213" s="1"/>
-    </row>
-    <row r="1214" spans="2:6">
-      <c r="B1214" s="1"/>
-    </row>
-    <row r="1215" spans="2:6">
-      <c r="B1215" s="1"/>
-    </row>
-    <row r="1216" spans="2:6">
-      <c r="B1216" s="1"/>
+      <c r="B1210" s="1"/>
+    </row>
+    <row r="1229" spans="2:2">
+      <c r="B1229" s="1"/>
+    </row>
+    <row r="1230" spans="2:2">
+      <c r="B1230" s="1"/>
+    </row>
+    <row r="1231" spans="2:2">
+      <c r="B1231" s="1"/>
+    </row>
+    <row r="1232" spans="2:2">
+      <c r="B1232" s="1"/>
+    </row>
+    <row r="1233" spans="2:2">
+      <c r="B1233" s="1"/>
+    </row>
+    <row r="1234" spans="2:2">
+      <c r="B1234" s="1"/>
     </row>
     <row r="1235" spans="2:2">
       <c r="B1235" s="1"/>
     </row>
-    <row r="1236" spans="2:2">
-      <c r="B1236" s="1"/>
-    </row>
     <row r="1237" spans="2:2">
       <c r="B1237" s="1"/>
     </row>
@@ -7784,23 +8238,23 @@
     <row r="1241" spans="2:2">
       <c r="B1241" s="1"/>
     </row>
-    <row r="1243" spans="2:2">
-      <c r="B1243" s="1"/>
-    </row>
-    <row r="1244" spans="2:2">
-      <c r="B1244" s="1"/>
-    </row>
-    <row r="1245" spans="2:2">
-      <c r="B1245" s="1"/>
-    </row>
-    <row r="1246" spans="2:2">
-      <c r="B1246" s="1"/>
-    </row>
-    <row r="1247" spans="2:2">
-      <c r="B1247" s="1"/>
-    </row>
-    <row r="1248" spans="2:2">
-      <c r="B1248" s="1"/>
+    <row r="1242" spans="2:2">
+      <c r="B1242" s="1"/>
+    </row>
+    <row r="1294" spans="2:2">
+      <c r="B1294" s="1"/>
+    </row>
+    <row r="1295" spans="2:2">
+      <c r="B1295" s="1"/>
+    </row>
+    <row r="1296" spans="2:2">
+      <c r="B1296" s="1"/>
+    </row>
+    <row r="1297" spans="2:2">
+      <c r="B1297" s="1"/>
+    </row>
+    <row r="1299" spans="2:2">
+      <c r="B1299" s="1"/>
     </row>
     <row r="1300" spans="2:2">
       <c r="B1300" s="1"/>
@@ -7811,76 +8265,61 @@
     <row r="1302" spans="2:2">
       <c r="B1302" s="1"/>
     </row>
-    <row r="1303" spans="2:2">
-      <c r="B1303" s="1"/>
-    </row>
-    <row r="1305" spans="2:2">
-      <c r="B1305" s="1"/>
-    </row>
-    <row r="1306" spans="2:2">
-      <c r="B1306" s="1"/>
-    </row>
-    <row r="1307" spans="2:2">
-      <c r="B1307" s="1"/>
-    </row>
-    <row r="1308" spans="2:2">
-      <c r="B1308" s="1"/>
-    </row>
-    <row r="1343" spans="2:2">
-      <c r="B1343" s="1"/>
-    </row>
-    <row r="1344" spans="2:2">
-      <c r="B1344" s="1"/>
-    </row>
-    <row r="1345" spans="2:2">
-      <c r="B1345" s="1"/>
-    </row>
-    <row r="1346" spans="2:2">
-      <c r="B1346" s="1"/>
-    </row>
-    <row r="1347" spans="2:2">
-      <c r="B1347" s="1"/>
-    </row>
-    <row r="1348" spans="2:2">
-      <c r="B1348" s="1"/>
-    </row>
-    <row r="1390" spans="3:6">
-      <c r="E1390" s="1"/>
-      <c r="F1390" s="1"/>
-    </row>
-    <row r="1391" spans="3:6">
-      <c r="C1391" s="6"/>
-      <c r="D1391" s="6"/>
-      <c r="E1391" s="1"/>
-      <c r="F1391" s="1"/>
-    </row>
-    <row r="1392" spans="3:6">
-      <c r="C1392" s="6"/>
-      <c r="D1392" s="6"/>
-      <c r="E1392" s="1"/>
-      <c r="F1392" s="1"/>
-    </row>
-    <row r="1393" spans="3:6">
-      <c r="C1393" s="6"/>
-      <c r="D1393" s="6"/>
-      <c r="E1393" s="1"/>
-      <c r="F1393" s="1"/>
-    </row>
-    <row r="1394" spans="3:6">
-      <c r="E1394" s="1"/>
-      <c r="F1394" s="1"/>
-    </row>
-    <row r="1457" spans="2:2">
-      <c r="B1457" s="1"/>
-    </row>
-    <row r="1458" spans="2:2">
-      <c r="B1458" s="1"/>
-    </row>
-    <row r="1459" spans="2:2">
-      <c r="B1459" s="1"/>
-    </row>
-    <row r="1460" spans="2:2">
-      <c r="B1460" s="1"/>
+    <row r="1337" spans="2:2">
+      <c r="B1337" s="1"/>
+    </row>
+    <row r="1338" spans="2:2">
+      <c r="B1338" s="1"/>
+    </row>
+    <row r="1339" spans="2:2">
+      <c r="B1339" s="1"/>
+    </row>
+    <row r="1340" spans="2:2">
+      <c r="B1340" s="1"/>
+    </row>
+    <row r="1341" spans="2:2">
+      <c r="B1341" s="1"/>
+    </row>
+    <row r="1342" spans="2:2">
+      <c r="B1342" s="1"/>
+    </row>
+    <row r="1384" spans="3:6">
+      <c r="E1384" s="1"/>
+      <c r="F1384" s="1"/>
+    </row>
+    <row r="1385" spans="3:6">
+      <c r="C1385" s="6"/>
+      <c r="D1385" s="6"/>
+      <c r="E1385" s="1"/>
+      <c r="F1385" s="1"/>
+    </row>
+    <row r="1386" spans="3:6">
+      <c r="C1386" s="6"/>
+      <c r="D1386" s="6"/>
+      <c r="E1386" s="1"/>
+      <c r="F1386" s="1"/>
+    </row>
+    <row r="1387" spans="3:6">
+      <c r="C1387" s="6"/>
+      <c r="D1387" s="6"/>
+      <c r="E1387" s="1"/>
+      <c r="F1387" s="1"/>
+    </row>
+    <row r="1388" spans="3:6">
+      <c r="E1388" s="1"/>
+      <c r="F1388" s="1"/>
+    </row>
+    <row r="1451" spans="2:2">
+      <c r="B1451" s="1"/>
+    </row>
+    <row r="1452" spans="2:2">
+      <c r="B1452" s="1"/>
+    </row>
+    <row r="1453" spans="2:2">
+      <c r="B1453" s="1"/>
+    </row>
+    <row r="1454" spans="2:2">
+      <c r="B1454" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:H1495">
@@ -7899,29 +8338,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD27"/>
+      <selection activeCell="G43" sqref="A28:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="F1" s="7">
         <v>1</v>
@@ -7932,19 +8371,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="F2" s="7">
         <v>97</v>
@@ -7955,19 +8394,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="7">
         <v>97</v>
@@ -7978,19 +8417,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="7">
         <v>466</v>
@@ -8001,19 +8440,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="7">
         <v>967</v>
@@ -8024,16 +8463,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>4</v>
@@ -8047,16 +8486,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>5</v>
@@ -8070,16 +8509,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>6</v>
@@ -8093,16 +8532,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>7</v>
@@ -8116,19 +8555,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="7">
         <v>6835</v>
@@ -8139,16 +8578,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>9</v>
@@ -8162,16 +8601,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>10</v>
@@ -8185,16 +8624,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
@@ -8208,19 +8647,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
         <v>15</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
       </c>
       <c r="F14" s="8">
         <v>1</v>
@@ -8231,19 +8670,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
         <v>41</v>
-      </c>
-      <c r="E15" t="s">
-        <v>42</v>
       </c>
       <c r="F15">
         <v>107</v>
@@ -8254,19 +8693,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="11">
         <v>107</v>
@@ -8277,19 +8716,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" s="11">
         <v>473</v>
@@ -8300,19 +8739,19 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="11">
         <v>977</v>
@@ -8323,16 +8762,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -8346,16 +8785,16 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
@@ -8369,16 +8808,16 @@
     </row>
     <row r="21" spans="1:7" ht="14" customHeight="1">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
@@ -8392,16 +8831,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
@@ -8415,16 +8854,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -8438,19 +8877,19 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="11">
         <v>6833</v>
@@ -8461,16 +8900,16 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -8484,16 +8923,16 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -8507,16 +8946,16 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -8528,8 +8967,427 @@
         <v>10794</v>
       </c>
     </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="9">
+        <v>1</v>
+      </c>
+      <c r="G28" s="9">
+        <v>10116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>10242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="10">
+        <v>1</v>
+      </c>
+      <c r="G30" s="10">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="10">
+        <v>386</v>
+      </c>
+      <c r="G31" s="10">
+        <v>12352</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="9">
+        <v>386</v>
+      </c>
+      <c r="G32" s="9">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="9">
+        <v>890</v>
+      </c>
+      <c r="G33" s="9">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="9">
+        <v>1196</v>
+      </c>
+      <c r="G34" s="9">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1877</v>
+      </c>
+      <c r="G35" s="9">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="9">
+        <v>2462</v>
+      </c>
+      <c r="G36" s="9">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="9">
+        <v>3584</v>
+      </c>
+      <c r="G37" s="9">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="9">
+        <v>3794</v>
+      </c>
+      <c r="G38" s="9">
+        <v>7471</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="9">
+        <v>7472</v>
+      </c>
+      <c r="G39" s="9">
+        <v>7663</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="9">
+        <v>7664</v>
+      </c>
+      <c r="G40" s="9">
+        <v>8704</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="9">
+        <v>8705</v>
+      </c>
+      <c r="G41" s="9">
+        <v>10192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="9">
+        <v>10193</v>
+      </c>
+      <c r="G42" s="9">
+        <v>12349</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="9">
+        <v>12360</v>
+      </c>
+      <c r="G43" s="9">
+        <v>12573</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46">
+        <v>105</v>
+      </c>
+      <c r="G46">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47">
+        <v>2850</v>
+      </c>
+      <c r="G47">
+        <v>3114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/tabular/flavi-reference_feature_locations.xlsx
+++ b/tabular/flavi-reference_feature_locations.xlsx
@@ -5053,8 +5053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/tabular/flavi-reference_feature_locations.xlsx
+++ b/tabular/flavi-reference_feature_locations.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="90">
   <si>
     <t>featureName</t>
   </si>
@@ -285,17 +285,27 @@
   <si>
     <t>whole_genome</t>
   </si>
+  <si>
+    <t>NC_028373</t>
+  </si>
+  <si>
+    <t>REF_SLV2</t>
+  </si>
+  <si>
+    <t>Pestinsect</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -347,6 +357,11 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier"/>
     </font>
   </fonts>
   <fills count="16">
@@ -450,7 +465,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2109">
+  <cellStyleXfs count="2141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2560,8 +2575,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2604,8 +2651,11 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2109">
+  <cellStyles count="2141">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -3661,6 +3711,22 @@
     <cellStyle name="Followed Hyperlink" xfId="2104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2140" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -4714,6 +4780,22 @@
     <cellStyle name="Hyperlink" xfId="2103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2105" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2139" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5051,10 +5133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1454"/>
+  <dimension ref="A1:H1456"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:G10"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G133" sqref="G133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7906,7 +7988,7 @@
         <v>7663</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:8">
       <c r="A129" s="1" t="s">
         <v>36</v>
       </c>
@@ -7927,7 +8009,7 @@
         <v>8704</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:8">
       <c r="A130" s="1" t="s">
         <v>36</v>
       </c>
@@ -7948,7 +8030,7 @@
         <v>10192</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:8">
       <c r="A131" s="1" t="s">
         <v>36</v>
       </c>
@@ -7969,7 +8051,7 @@
         <v>12349</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:8">
       <c r="A132" s="1" t="s">
         <v>36</v>
       </c>
@@ -7990,15 +8072,87 @@
         <v>12573</v>
       </c>
     </row>
-    <row r="176" spans="2:4">
-      <c r="B176" s="1"/>
-      <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
-    </row>
-    <row r="177" spans="2:4">
-      <c r="B177" s="1"/>
-      <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
+    <row r="133" spans="1:8">
+      <c r="A133" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C133" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D133" s="6"/>
+      <c r="E133" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F133" s="9">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>18554</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" t="s">
+        <v>87</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C134" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F134" s="9">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" t="s">
+        <v>87</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C135" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F135" s="9">
+        <v>200</v>
+      </c>
+      <c r="G135">
+        <v>17905</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" t="s">
+        <v>87</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C136" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" s="9">
+        <v>17906</v>
+      </c>
+      <c r="G136">
+        <v>18554</v>
+      </c>
+      <c r="H136" s="26"/>
     </row>
     <row r="178" spans="2:4">
       <c r="B178" s="1"/>
@@ -8112,6 +8266,8 @@
     </row>
     <row r="200" spans="2:4">
       <c r="B200" s="1"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
     </row>
     <row r="201" spans="2:4">
       <c r="B201" s="1"/>
@@ -8120,8 +8276,6 @@
     </row>
     <row r="202" spans="2:4">
       <c r="B202" s="1"/>
-      <c r="C202" s="5"/>
-      <c r="D202" s="5"/>
     </row>
     <row r="203" spans="2:4">
       <c r="B203" s="1"/>
@@ -8148,20 +8302,24 @@
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
     </row>
-    <row r="890" spans="5:5">
-      <c r="E890" s="1"/>
-    </row>
-    <row r="1026" spans="2:2">
-      <c r="B1026" s="1"/>
-    </row>
-    <row r="1027" spans="2:2">
-      <c r="B1027" s="1"/>
-    </row>
-    <row r="1152" spans="2:2">
-      <c r="B1152" s="1"/>
-    </row>
-    <row r="1153" spans="2:2">
-      <c r="B1153" s="1"/>
+    <row r="208" spans="2:4">
+      <c r="B208" s="1"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+    </row>
+    <row r="209" spans="2:4">
+      <c r="B209" s="1"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+    </row>
+    <row r="892" spans="5:5">
+      <c r="E892" s="1"/>
+    </row>
+    <row r="1028" spans="2:2">
+      <c r="B1028" s="1"/>
+    </row>
+    <row r="1029" spans="2:2">
+      <c r="B1029" s="1"/>
     </row>
     <row r="1154" spans="2:2">
       <c r="B1154" s="1"/>
@@ -8175,23 +8333,23 @@
     <row r="1157" spans="2:2">
       <c r="B1157" s="1"/>
     </row>
-    <row r="1202" spans="2:6">
-      <c r="E1202" s="1"/>
-      <c r="F1202" s="1"/>
-    </row>
-    <row r="1203" spans="2:6">
-      <c r="E1203" s="1"/>
-      <c r="F1203" s="1"/>
+    <row r="1158" spans="2:2">
+      <c r="B1158" s="1"/>
+    </row>
+    <row r="1159" spans="2:2">
+      <c r="B1159" s="1"/>
     </row>
     <row r="1204" spans="2:6">
       <c r="E1204" s="1"/>
       <c r="F1204" s="1"/>
     </row>
+    <row r="1205" spans="2:6">
+      <c r="E1205" s="1"/>
+      <c r="F1205" s="1"/>
+    </row>
     <row r="1206" spans="2:6">
-      <c r="B1206" s="1"/>
-    </row>
-    <row r="1207" spans="2:6">
-      <c r="B1207" s="1"/>
+      <c r="E1206" s="1"/>
+      <c r="F1206" s="1"/>
     </row>
     <row r="1208" spans="2:6">
       <c r="B1208" s="1"/>
@@ -8202,11 +8360,11 @@
     <row r="1210" spans="2:6">
       <c r="B1210" s="1"/>
     </row>
-    <row r="1229" spans="2:2">
-      <c r="B1229" s="1"/>
-    </row>
-    <row r="1230" spans="2:2">
-      <c r="B1230" s="1"/>
+    <row r="1211" spans="2:6">
+      <c r="B1211" s="1"/>
+    </row>
+    <row r="1212" spans="2:6">
+      <c r="B1212" s="1"/>
     </row>
     <row r="1231" spans="2:2">
       <c r="B1231" s="1"/>
@@ -8223,12 +8381,12 @@
     <row r="1235" spans="2:2">
       <c r="B1235" s="1"/>
     </row>
+    <row r="1236" spans="2:2">
+      <c r="B1236" s="1"/>
+    </row>
     <row r="1237" spans="2:2">
       <c r="B1237" s="1"/>
     </row>
-    <row r="1238" spans="2:2">
-      <c r="B1238" s="1"/>
-    </row>
     <row r="1239" spans="2:2">
       <c r="B1239" s="1"/>
     </row>
@@ -8241,11 +8399,11 @@
     <row r="1242" spans="2:2">
       <c r="B1242" s="1"/>
     </row>
-    <row r="1294" spans="2:2">
-      <c r="B1294" s="1"/>
-    </row>
-    <row r="1295" spans="2:2">
-      <c r="B1295" s="1"/>
+    <row r="1243" spans="2:2">
+      <c r="B1243" s="1"/>
+    </row>
+    <row r="1244" spans="2:2">
+      <c r="B1244" s="1"/>
     </row>
     <row r="1296" spans="2:2">
       <c r="B1296" s="1"/>
@@ -8253,23 +8411,23 @@
     <row r="1297" spans="2:2">
       <c r="B1297" s="1"/>
     </row>
+    <row r="1298" spans="2:2">
+      <c r="B1298" s="1"/>
+    </row>
     <row r="1299" spans="2:2">
       <c r="B1299" s="1"/>
     </row>
-    <row r="1300" spans="2:2">
-      <c r="B1300" s="1"/>
-    </row>
     <row r="1301" spans="2:2">
       <c r="B1301" s="1"/>
     </row>
     <row r="1302" spans="2:2">
       <c r="B1302" s="1"/>
     </row>
-    <row r="1337" spans="2:2">
-      <c r="B1337" s="1"/>
-    </row>
-    <row r="1338" spans="2:2">
-      <c r="B1338" s="1"/>
+    <row r="1303" spans="2:2">
+      <c r="B1303" s="1"/>
+    </row>
+    <row r="1304" spans="2:2">
+      <c r="B1304" s="1"/>
     </row>
     <row r="1339" spans="2:2">
       <c r="B1339" s="1"/>
@@ -8283,19 +8441,13 @@
     <row r="1342" spans="2:2">
       <c r="B1342" s="1"/>
     </row>
-    <row r="1384" spans="3:6">
-      <c r="E1384" s="1"/>
-      <c r="F1384" s="1"/>
-    </row>
-    <row r="1385" spans="3:6">
-      <c r="C1385" s="6"/>
-      <c r="D1385" s="6"/>
-      <c r="E1385" s="1"/>
-      <c r="F1385" s="1"/>
+    <row r="1343" spans="2:2">
+      <c r="B1343" s="1"/>
+    </row>
+    <row r="1344" spans="2:2">
+      <c r="B1344" s="1"/>
     </row>
     <row r="1386" spans="3:6">
-      <c r="C1386" s="6"/>
-      <c r="D1386" s="6"/>
       <c r="E1386" s="1"/>
       <c r="F1386" s="1"/>
     </row>
@@ -8306,20 +8458,32 @@
       <c r="F1387" s="1"/>
     </row>
     <row r="1388" spans="3:6">
+      <c r="C1388" s="6"/>
+      <c r="D1388" s="6"/>
       <c r="E1388" s="1"/>
       <c r="F1388" s="1"/>
     </row>
-    <row r="1451" spans="2:2">
-      <c r="B1451" s="1"/>
-    </row>
-    <row r="1452" spans="2:2">
-      <c r="B1452" s="1"/>
+    <row r="1389" spans="3:6">
+      <c r="C1389" s="6"/>
+      <c r="D1389" s="6"/>
+      <c r="E1389" s="1"/>
+      <c r="F1389" s="1"/>
+    </row>
+    <row r="1390" spans="3:6">
+      <c r="E1390" s="1"/>
+      <c r="F1390" s="1"/>
     </row>
     <row r="1453" spans="2:2">
       <c r="B1453" s="1"/>
     </row>
     <row r="1454" spans="2:2">
       <c r="B1454" s="1"/>
+    </row>
+    <row r="1455" spans="2:2">
+      <c r="B1455" s="1"/>
+    </row>
+    <row r="1456" spans="2:2">
+      <c r="B1456" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:H1495">

--- a/tabular/flavi-reference_feature_locations.xlsx
+++ b/tabular/flavi-reference_feature_locations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="2820" windowWidth="25480" windowHeight="18100" tabRatio="500"/>
+    <workbookView xWindow="17220" yWindow="0" windowWidth="25300" windowHeight="26740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="109">
   <si>
     <t>featureName</t>
   </si>
@@ -97,9 +97,6 @@
     <t>p7</t>
   </si>
   <si>
-    <t>NS2</t>
-  </si>
-  <si>
     <t>NS5A</t>
   </si>
   <si>
@@ -250,9 +247,6 @@
     <t>membrane</t>
   </si>
   <si>
-    <t>envelope</t>
-  </si>
-  <si>
     <t>envelope1</t>
   </si>
   <si>
@@ -293,6 +287,69 @@
   </si>
   <si>
     <t>Pestinsect</t>
+  </si>
+  <si>
+    <t>e1_pesti</t>
+  </si>
+  <si>
+    <t>e2_pesti</t>
+  </si>
+  <si>
+    <t>pesti-p7</t>
+  </si>
+  <si>
+    <t>flavi-NS4A</t>
+  </si>
+  <si>
+    <t>pesti-NS4A</t>
+  </si>
+  <si>
+    <t>pesti-NS4B</t>
+  </si>
+  <si>
+    <t>pesti-capsid</t>
+  </si>
+  <si>
+    <t>flavi-capsid</t>
+  </si>
+  <si>
+    <t>flavi-envelope</t>
+  </si>
+  <si>
+    <t>flavi-NS4B</t>
+  </si>
+  <si>
+    <t>hepaci-p7</t>
+  </si>
+  <si>
+    <t>e1_hepaci</t>
+  </si>
+  <si>
+    <t>e2_hepaci</t>
+  </si>
+  <si>
+    <t>hepaci-NS4A</t>
+  </si>
+  <si>
+    <t>hepaci-NS4B</t>
+  </si>
+  <si>
+    <t>hepaci-NS2</t>
+  </si>
+  <si>
+    <t>flavi-NS2A</t>
+  </si>
+  <si>
+    <t>flavi-NS2B</t>
+  </si>
+  <si>
+    <t>structural_proteins</t>
+  </si>
+  <si>
+    <t>non_structural_proteins</t>
+  </si>
+  <si>
+    <t>Primate</t>
   </si>
 </sst>
 </file>
@@ -364,7 +421,7 @@
       <name val="Courier"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,6 +512,42 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -465,7 +558,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2141">
+  <cellStyleXfs count="2269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2607,8 +2700,136 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2646,16 +2867,34 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2141">
+  <cellStyles count="2269">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -3727,6 +3966,70 @@
     <cellStyle name="Followed Hyperlink" xfId="2136" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2138" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2268" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -4796,6 +5099,70 @@
     <cellStyle name="Hyperlink" xfId="2135" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2137" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2267" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5133,10 +5500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1456"/>
+  <dimension ref="A1:H1471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G133" sqref="G133"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5144,7 +5511,7 @@
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="4" width="12.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
@@ -5152,16 +5519,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -5174,20 +5541,20 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F2" s="7">
         <v>1</v>
@@ -5197,17 +5564,17 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>15</v>
@@ -5220,20 +5587,20 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="7">
         <v>97</v>
@@ -5243,2991 +5610,3279 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="F5" s="7">
         <v>97</v>
       </c>
       <c r="G5" s="7">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="7">
+        <v>97</v>
+      </c>
+      <c r="G6" s="7">
         <v>525</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="7">
+        <v>526</v>
+      </c>
+      <c r="G7" s="7">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="7">
+        <v>955</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2251</v>
+      </c>
+      <c r="G9" s="7">
+        <v>10167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2251</v>
+      </c>
+      <c r="G10" s="7">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3421</v>
+      </c>
+      <c r="G11" s="7">
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="7">
+        <v>4042</v>
+      </c>
+      <c r="G12" s="7">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="7">
+        <v>4489</v>
+      </c>
+      <c r="G13" s="7">
+        <v>6249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="7">
+        <v>6250</v>
+      </c>
+      <c r="G14" s="7">
+        <v>6654</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7">
+        <v>6655</v>
+      </c>
+      <c r="G15" s="7">
+        <v>6723</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7">
+        <v>6724</v>
+      </c>
+      <c r="G16" s="7">
+        <v>7503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="7">
+        <v>7504</v>
+      </c>
+      <c r="G17" s="7">
+        <v>10167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="7">
+        <v>10168</v>
+      </c>
+      <c r="G18" s="7">
+        <v>11375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="26">
+        <v>1</v>
+      </c>
+      <c r="G19" s="26">
+        <v>10761</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="26">
+        <v>1</v>
+      </c>
+      <c r="G20" s="26">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="26">
+        <v>120</v>
+      </c>
+      <c r="G21" s="26">
+        <v>10445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="26">
+        <v>10446</v>
+      </c>
+      <c r="G22" s="26">
+        <v>10761</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="26">
+        <v>1</v>
+      </c>
+      <c r="G23" s="26">
+        <v>10320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="26">
+        <v>1</v>
+      </c>
+      <c r="G24" s="26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="26">
+        <v>16</v>
+      </c>
+      <c r="G25" s="26">
+        <v>10320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="28">
+        <v>1</v>
+      </c>
+      <c r="G26" s="28">
+        <v>10735</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="28">
+        <v>1</v>
+      </c>
+      <c r="G27" s="28">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="27">
+        <v>95</v>
+      </c>
+      <c r="G28" s="27">
+        <v>10273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="27">
+        <v>95</v>
+      </c>
+      <c r="G29" s="27">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="27">
+        <v>95</v>
+      </c>
+      <c r="G30" s="27">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="27">
+        <v>437</v>
+      </c>
+      <c r="G31" s="27">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="27">
+        <v>935</v>
+      </c>
+      <c r="G32" s="27">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="27">
+        <v>2420</v>
+      </c>
+      <c r="G33" s="27">
+        <v>10270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="27">
+        <v>2420</v>
+      </c>
+      <c r="G34" s="27">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="27">
+        <v>3476</v>
+      </c>
+      <c r="G35" s="27">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="27">
+        <v>4130</v>
+      </c>
+      <c r="G36" s="27">
+        <v>4519</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="27">
+        <v>4520</v>
+      </c>
+      <c r="G37" s="27">
+        <v>6376</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="27">
+        <v>6377</v>
+      </c>
+      <c r="G38" s="27">
+        <v>6757</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="27">
+        <v>6758</v>
+      </c>
+      <c r="G39" s="27">
+        <v>6826</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="27">
+        <v>7574</v>
+      </c>
+      <c r="G40" s="27">
+        <v>10270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="27">
+        <v>10274</v>
+      </c>
+      <c r="G41" s="27">
+        <v>10735</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" s="7">
+        <v>1</v>
+      </c>
+      <c r="G42" s="7">
+        <v>10862</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="16" customHeight="1">
+      <c r="A43" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="7">
+        <v>1</v>
+      </c>
+      <c r="G43" s="7">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" s="7">
+        <v>119</v>
+      </c>
+      <c r="G44" s="7">
+        <v>10354</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="7">
+        <v>119</v>
+      </c>
+      <c r="G45" s="7">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" s="7">
+        <v>119</v>
+      </c>
+      <c r="G46" s="7">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="7">
+        <v>482</v>
+      </c>
+      <c r="G47" s="7">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" s="7">
+        <v>974</v>
+      </c>
+      <c r="G48" s="7">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="7">
+        <v>2453</v>
+      </c>
+      <c r="G49" s="7">
+        <v>10351</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="7">
+        <v>2453</v>
+      </c>
+      <c r="G50" s="7">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F51" s="7">
+        <v>3509</v>
+      </c>
+      <c r="G51" s="7">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="7">
+        <v>4181</v>
+      </c>
+      <c r="G52" s="7">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="7">
+        <v>4571</v>
+      </c>
+      <c r="G53" s="7">
+        <v>6439</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" s="7">
+        <v>6440</v>
+      </c>
+      <c r="G54" s="7">
+        <v>6817</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="7">
+        <v>6818</v>
+      </c>
+      <c r="G55" s="7">
+        <v>6886</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F56" s="7">
+        <v>6887</v>
+      </c>
+      <c r="G56" s="7">
+        <v>7636</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="7">
+        <v>7637</v>
+      </c>
+      <c r="G57" s="7">
+        <v>10351</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="7">
+        <v>10355</v>
+      </c>
+      <c r="G58" s="7">
+        <v>10862</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F59" s="9">
+        <v>1</v>
+      </c>
+      <c r="G59" s="9">
+        <v>10116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F60" s="9">
+        <v>1</v>
+      </c>
+      <c r="G60" s="9">
+        <v>10116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1">
+        <v>10242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1">
+        <v>10242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="B63" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="7">
-        <v>526</v>
-      </c>
-      <c r="G6" s="7">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="E63" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F63" s="27">
+        <v>1</v>
+      </c>
+      <c r="G63" s="27">
+        <v>10839</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="14" t="s">
+      <c r="B64" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="7">
-        <v>955</v>
-      </c>
-      <c r="G7" s="7">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="E64" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="27">
+        <v>1</v>
+      </c>
+      <c r="G64" s="27">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="B65" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E65" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F65" s="27">
+        <v>112</v>
+      </c>
+      <c r="G65" s="27">
+        <v>10359</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F66" s="27">
+        <v>112</v>
+      </c>
+      <c r="G66" s="27">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F67" s="27">
+        <v>112</v>
+      </c>
+      <c r="G67" s="27">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E68" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F68" s="27">
+        <v>442</v>
+      </c>
+      <c r="G68" s="27">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E69" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F69" s="27">
+        <v>946</v>
+      </c>
+      <c r="G69" s="27">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E70" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F70" s="27">
+        <v>2437</v>
+      </c>
+      <c r="G70" s="27">
+        <v>10356</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E71" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="7">
-        <v>2251</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="F71" s="27">
+        <v>2437</v>
+      </c>
+      <c r="G71" s="27">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F72" s="27">
+        <v>3496</v>
+      </c>
+      <c r="G72" s="27">
+        <v>4185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F73" s="27">
+        <v>4186</v>
+      </c>
+      <c r="G73" s="27">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E74" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="27">
+        <v>4579</v>
+      </c>
+      <c r="G74" s="27">
+        <v>6444</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F75" s="27">
+        <v>6445</v>
+      </c>
+      <c r="G75" s="27">
+        <v>6822</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E76" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" s="27">
+        <v>6823</v>
+      </c>
+      <c r="G76" s="27">
+        <v>6891</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E77" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F77" s="27">
+        <v>6892</v>
+      </c>
+      <c r="G77" s="27">
+        <v>7647</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E78" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="27">
+        <v>7648</v>
+      </c>
+      <c r="G78" s="27">
+        <v>10356</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B79" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E79" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="27">
+        <v>10357</v>
+      </c>
+      <c r="G79" s="27">
+        <v>10839</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E80" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F80" s="27">
+        <v>1</v>
+      </c>
+      <c r="G80" s="27">
+        <v>9646</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E81" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="27">
+        <v>1</v>
+      </c>
+      <c r="G81" s="27">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F82" s="27">
+        <v>342</v>
+      </c>
+      <c r="G82" s="27">
+        <v>9377</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C83" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E83" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F83" s="27">
+        <v>342</v>
+      </c>
+      <c r="G83" s="27">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E84" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" s="27">
+        <v>342</v>
+      </c>
+      <c r="G84" s="27">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C85" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E85" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F85" s="27">
+        <v>915</v>
+      </c>
+      <c r="G85" s="27">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E86" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F86" s="27">
+        <v>1491</v>
+      </c>
+      <c r="G86" s="27">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F87" s="27">
+        <v>2580</v>
+      </c>
+      <c r="G87" s="27">
+        <v>9374</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C88" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E88" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F88" s="27">
+        <v>2580</v>
+      </c>
+      <c r="G88" s="27">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B89" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F89" s="27">
+        <v>2769</v>
+      </c>
+      <c r="G89" s="27">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B90" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E90" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="27">
         <v>3420</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="7">
-        <v>3421</v>
-      </c>
-      <c r="G9" s="7">
-        <v>4041</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="7">
-        <v>4042</v>
-      </c>
-      <c r="G10" s="7">
-        <v>4488</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="G90" s="27">
+        <v>5312</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B91" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E91" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F91" s="27">
+        <v>5313</v>
+      </c>
+      <c r="G91" s="27">
+        <v>5474</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B92" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E92" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F92" s="27">
+        <v>5475</v>
+      </c>
+      <c r="G92" s="27">
+        <v>6257</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E93" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" s="27">
+        <v>6258</v>
+      </c>
+      <c r="G93" s="27">
+        <v>7601</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E94" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" s="27">
+        <v>7602</v>
+      </c>
+      <c r="G94" s="27">
+        <v>9374</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B95" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E95" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="27">
+        <v>9378</v>
+      </c>
+      <c r="G95" s="27">
+        <v>9646</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B96" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C96" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96"/>
+      <c r="E96" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F96" s="27">
+        <v>1</v>
+      </c>
+      <c r="G96" s="27">
+        <v>9867</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B97" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C97" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97"/>
+      <c r="E97" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="27">
+        <v>1</v>
+      </c>
+      <c r="G97" s="27">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B98" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C98" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98"/>
+      <c r="E98" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F98" s="27">
+        <v>328</v>
+      </c>
+      <c r="G98" s="27">
+        <v>9501</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B99" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C99" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99"/>
+      <c r="E99" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F99" s="27">
+        <v>328</v>
+      </c>
+      <c r="G99" s="27">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B100" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C100" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100"/>
+      <c r="E100" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F100" s="27">
+        <v>328</v>
+      </c>
+      <c r="G100" s="27">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B101" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C101" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101"/>
+      <c r="E101" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F101" s="27">
+        <v>565</v>
+      </c>
+      <c r="G101" s="27">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B102" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C102" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D102"/>
+      <c r="E102" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F102" s="27">
+        <v>1138</v>
+      </c>
+      <c r="G102" s="27">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B103" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C103" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103"/>
+      <c r="E103" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F103" s="27">
+        <v>2200</v>
+      </c>
+      <c r="G103" s="27">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B104" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C104" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104"/>
+      <c r="E104" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F104" s="27">
+        <v>2911</v>
+      </c>
+      <c r="G104" s="27">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B105" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C105" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105"/>
+      <c r="E105" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F105" s="27">
+        <v>2911</v>
+      </c>
+      <c r="G105" s="27">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B106" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C106" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D106"/>
+      <c r="E106" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="7">
-        <v>4489</v>
-      </c>
-      <c r="G11" s="7">
-        <v>6249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="7">
-        <v>6250</v>
-      </c>
-      <c r="G12" s="7">
-        <v>6654</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="7">
-        <v>6655</v>
-      </c>
-      <c r="G13" s="7">
-        <v>6723</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="7">
-        <v>6724</v>
-      </c>
-      <c r="G14" s="7">
-        <v>7503</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="7">
-        <v>7504</v>
-      </c>
-      <c r="G15" s="7">
-        <v>10167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="F106" s="27">
+        <v>3631</v>
+      </c>
+      <c r="G106" s="27">
+        <v>5514</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B107" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C107" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107"/>
+      <c r="E107" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F107" s="27">
+        <v>5515</v>
+      </c>
+      <c r="G107" s="27">
+        <v>5637</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B108" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C108" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D108"/>
+      <c r="E108" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F108" s="27">
+        <v>5638</v>
+      </c>
+      <c r="G108" s="27">
+        <v>6423</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B109" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C109" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109"/>
+      <c r="E109" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F109" s="27">
+        <v>6424</v>
+      </c>
+      <c r="G109" s="27">
+        <v>7797</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B110" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C110" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110"/>
+      <c r="E110" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F110" s="27">
+        <v>7798</v>
+      </c>
+      <c r="G110" s="27">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B111" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C111" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111"/>
+      <c r="E111" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="7">
-        <v>10168</v>
-      </c>
-      <c r="G16" s="7">
-        <v>11375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1</v>
-      </c>
-      <c r="G17" s="9">
-        <v>10761</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="9">
-        <v>1</v>
-      </c>
-      <c r="G18" s="9">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="9">
-        <v>120</v>
-      </c>
-      <c r="G19" s="9">
-        <v>10445</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="9">
-        <v>10446</v>
-      </c>
-      <c r="G20" s="9">
-        <v>10761</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="9">
-        <v>1</v>
-      </c>
-      <c r="G21" s="9">
-        <v>10320</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="9">
-        <v>1</v>
-      </c>
-      <c r="G22" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="9">
-        <v>16</v>
-      </c>
-      <c r="G23" s="9">
-        <v>10320</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="8">
-        <v>1</v>
-      </c>
-      <c r="G24" s="8">
-        <v>10735</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="8">
-        <v>1</v>
-      </c>
-      <c r="G25" s="8">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26">
-        <v>95</v>
-      </c>
-      <c r="G26">
-        <v>10273</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>95</v>
-      </c>
-      <c r="G27">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28">
-        <v>437</v>
-      </c>
-      <c r="G28">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29">
-        <v>935</v>
-      </c>
-      <c r="G29">
-        <v>2419</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30">
-        <v>2420</v>
-      </c>
-      <c r="G30">
-        <v>3475</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31">
-        <v>3476</v>
-      </c>
-      <c r="G31">
-        <v>4129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32">
-        <v>4130</v>
-      </c>
-      <c r="G32">
-        <v>4519</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33">
-        <v>4520</v>
-      </c>
-      <c r="G33">
-        <v>6376</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34">
-        <v>6377</v>
-      </c>
-      <c r="G34">
-        <v>6757</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35">
-        <v>6758</v>
-      </c>
-      <c r="G35">
-        <v>6826</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36">
-        <v>7574</v>
-      </c>
-      <c r="G36">
-        <v>10270</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37">
-        <v>10274</v>
-      </c>
-      <c r="G37">
-        <v>10735</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F38" s="7">
-        <v>1</v>
-      </c>
-      <c r="G38" s="7">
-        <v>10862</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="16" customHeight="1">
-      <c r="A39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="7">
-        <v>1</v>
-      </c>
-      <c r="G39" s="7">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" s="7">
-        <v>119</v>
-      </c>
-      <c r="G40" s="7">
-        <v>10354</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="7">
-        <v>119</v>
-      </c>
-      <c r="G41" s="7">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F42" s="7">
-        <v>482</v>
-      </c>
-      <c r="G42" s="7">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43" s="7">
-        <v>974</v>
-      </c>
-      <c r="G43" s="7">
-        <v>2452</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="7">
-        <v>2453</v>
-      </c>
-      <c r="G44" s="7">
-        <v>3508</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="7">
-        <v>3509</v>
-      </c>
-      <c r="G45" s="7">
-        <v>4180</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="7">
-        <v>4181</v>
-      </c>
-      <c r="G46" s="7">
-        <v>4570</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="7">
-        <v>4571</v>
-      </c>
-      <c r="G47" s="7">
-        <v>6439</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="7">
-        <v>6440</v>
-      </c>
-      <c r="G48" s="7">
-        <v>6817</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="7">
-        <v>6818</v>
-      </c>
-      <c r="G49" s="7">
-        <v>6886</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="7">
-        <v>6887</v>
-      </c>
-      <c r="G50" s="7">
-        <v>7636</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="7">
-        <v>7637</v>
-      </c>
-      <c r="G51" s="7">
-        <v>10351</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>31</v>
-      </c>
-      <c r="B52" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="7">
-        <v>10355</v>
-      </c>
-      <c r="G52" s="7">
-        <v>10862</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F53" s="10">
-        <v>1</v>
-      </c>
-      <c r="G53" s="10">
-        <v>10839</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" t="s">
-        <v>34</v>
-      </c>
-      <c r="B54" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="10">
-        <v>1</v>
-      </c>
-      <c r="G54" s="10">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F55" s="10">
-        <v>112</v>
-      </c>
-      <c r="G55" s="10">
-        <v>10359</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E56" t="s">
-        <v>3</v>
-      </c>
-      <c r="F56" s="9">
-        <v>112</v>
-      </c>
-      <c r="G56" s="9">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E57" t="s">
-        <v>73</v>
-      </c>
-      <c r="F57" s="9">
-        <v>442</v>
-      </c>
-      <c r="G57" s="9">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E58" t="s">
-        <v>75</v>
-      </c>
-      <c r="F58" s="9">
-        <v>946</v>
-      </c>
-      <c r="G58" s="9">
-        <v>2436</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="9">
-        <v>2437</v>
-      </c>
-      <c r="G59" s="9">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="9">
-        <v>3496</v>
-      </c>
-      <c r="G60" s="9">
-        <v>4185</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" s="9">
-        <v>4186</v>
-      </c>
-      <c r="G61" s="9">
-        <v>4578</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" s="9">
-        <v>4579</v>
-      </c>
-      <c r="G62" s="9">
-        <v>6444</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="9">
-        <v>6445</v>
-      </c>
-      <c r="G63" s="9">
-        <v>6822</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" t="s">
-        <v>34</v>
-      </c>
-      <c r="B64" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F64" s="9">
-        <v>6823</v>
-      </c>
-      <c r="G64" s="9">
-        <v>6891</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" t="s">
-        <v>34</v>
-      </c>
-      <c r="B65" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="9">
-        <v>6892</v>
-      </c>
-      <c r="G65" s="9">
-        <v>7647</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" t="s">
-        <v>34</v>
-      </c>
-      <c r="B66" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="9">
-        <v>7648</v>
-      </c>
-      <c r="G66" s="9">
-        <v>10356</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" t="s">
-        <v>34</v>
-      </c>
-      <c r="B67" t="s">
-        <v>69</v>
-      </c>
-      <c r="C67" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="9">
-        <v>10357</v>
-      </c>
-      <c r="G67" s="9">
-        <v>10839</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" t="s">
-        <v>35</v>
-      </c>
-      <c r="B68" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68"/>
-      <c r="E68" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F68" s="10">
-        <v>1</v>
-      </c>
-      <c r="G68" s="10">
-        <v>9646</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" t="s">
-        <v>35</v>
-      </c>
-      <c r="B69" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69"/>
-      <c r="E69" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" s="10">
-        <v>1</v>
-      </c>
-      <c r="G69" s="10">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" t="s">
-        <v>35</v>
-      </c>
-      <c r="B70" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70"/>
-      <c r="E70" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F70" s="10">
-        <v>342</v>
-      </c>
-      <c r="G70" s="10">
-        <v>9377</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" t="s">
-        <v>35</v>
-      </c>
-      <c r="B71" t="s">
-        <v>68</v>
-      </c>
-      <c r="C71" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71"/>
-      <c r="E71" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F71" s="9">
-        <v>342</v>
-      </c>
-      <c r="G71" s="9">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" t="s">
-        <v>35</v>
-      </c>
-      <c r="B72" t="s">
-        <v>68</v>
-      </c>
-      <c r="C72" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72"/>
-      <c r="E72" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F72" s="9">
-        <v>915</v>
-      </c>
-      <c r="G72" s="9">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B73" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73"/>
-      <c r="E73" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F73" s="9">
-        <v>1491</v>
-      </c>
-      <c r="G73" s="9">
-        <v>2579</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" t="s">
-        <v>35</v>
-      </c>
-      <c r="B74" t="s">
-        <v>68</v>
-      </c>
-      <c r="C74" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74"/>
-      <c r="E74" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F74" s="9">
-        <v>2580</v>
-      </c>
-      <c r="G74" s="9">
-        <v>2768</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" t="s">
-        <v>35</v>
-      </c>
-      <c r="B75" t="s">
-        <v>68</v>
-      </c>
-      <c r="C75" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75"/>
-      <c r="E75" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F75" s="9">
-        <v>2769</v>
-      </c>
-      <c r="G75" s="9">
-        <v>3419</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B76" t="s">
-        <v>68</v>
-      </c>
-      <c r="C76" t="s">
-        <v>21</v>
-      </c>
-      <c r="D76"/>
-      <c r="E76" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" s="9">
-        <v>3420</v>
-      </c>
-      <c r="G76" s="9">
-        <v>5312</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" t="s">
-        <v>35</v>
-      </c>
-      <c r="B77" t="s">
-        <v>68</v>
-      </c>
-      <c r="C77" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77"/>
-      <c r="E77" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="9">
-        <v>5313</v>
-      </c>
-      <c r="G77" s="9">
-        <v>5474</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B78" t="s">
-        <v>68</v>
-      </c>
-      <c r="C78" t="s">
-        <v>21</v>
-      </c>
-      <c r="D78"/>
-      <c r="E78" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" s="9">
-        <v>5475</v>
-      </c>
-      <c r="G78" s="9">
-        <v>6257</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" t="s">
-        <v>35</v>
-      </c>
-      <c r="B79" t="s">
-        <v>68</v>
-      </c>
-      <c r="C79" t="s">
-        <v>21</v>
-      </c>
-      <c r="D79"/>
-      <c r="E79" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F79" s="9">
-        <v>6258</v>
-      </c>
-      <c r="G79" s="9">
-        <v>7601</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" t="s">
-        <v>35</v>
-      </c>
-      <c r="B80" t="s">
-        <v>68</v>
-      </c>
-      <c r="C80" t="s">
-        <v>21</v>
-      </c>
-      <c r="D80"/>
-      <c r="E80" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F80" s="9">
-        <v>7602</v>
-      </c>
-      <c r="G80" s="9">
-        <v>9374</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" t="s">
-        <v>35</v>
-      </c>
-      <c r="B81" t="s">
-        <v>68</v>
-      </c>
-      <c r="C81" t="s">
-        <v>21</v>
-      </c>
-      <c r="D81"/>
-      <c r="E81" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="9">
-        <v>9378</v>
-      </c>
-      <c r="G81" s="9">
-        <v>9646</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" t="s">
-        <v>38</v>
-      </c>
-      <c r="B82" t="s">
-        <v>66</v>
-      </c>
-      <c r="C82" t="s">
-        <v>27</v>
-      </c>
-      <c r="D82"/>
-      <c r="E82" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F82" s="10">
-        <v>1</v>
-      </c>
-      <c r="G82" s="9">
+      <c r="F111" s="27">
+        <v>9502</v>
+      </c>
+      <c r="G111" s="27">
         <v>9867</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" t="s">
-        <v>38</v>
-      </c>
-      <c r="B83" t="s">
-        <v>66</v>
-      </c>
-      <c r="C83" t="s">
-        <v>27</v>
-      </c>
-      <c r="D83"/>
-      <c r="E83" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F83" s="10">
-        <v>1</v>
-      </c>
-      <c r="G83" s="10">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" t="s">
-        <v>38</v>
-      </c>
-      <c r="B84" t="s">
-        <v>66</v>
-      </c>
-      <c r="C84" t="s">
-        <v>27</v>
-      </c>
-      <c r="D84"/>
-      <c r="E84" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F84" s="10">
-        <v>328</v>
-      </c>
-      <c r="G84" s="10">
-        <v>9501</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" t="s">
-        <v>38</v>
-      </c>
-      <c r="B85" t="s">
-        <v>66</v>
-      </c>
-      <c r="C85" t="s">
-        <v>27</v>
-      </c>
-      <c r="D85"/>
-      <c r="E85" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F85" s="9">
-        <v>328</v>
-      </c>
-      <c r="G85" s="9">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" t="s">
-        <v>38</v>
-      </c>
-      <c r="B86" t="s">
-        <v>66</v>
-      </c>
-      <c r="C86" t="s">
-        <v>27</v>
-      </c>
-      <c r="D86"/>
-      <c r="E86" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F86" s="9">
-        <v>565</v>
-      </c>
-      <c r="G86" s="9">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" t="s">
-        <v>38</v>
-      </c>
-      <c r="B87" t="s">
-        <v>66</v>
-      </c>
-      <c r="C87" t="s">
-        <v>27</v>
-      </c>
-      <c r="D87"/>
-      <c r="E87" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F87" s="9">
-        <v>1138</v>
-      </c>
-      <c r="G87" s="9">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" t="s">
-        <v>38</v>
-      </c>
-      <c r="B88" t="s">
-        <v>66</v>
-      </c>
-      <c r="C88" t="s">
-        <v>27</v>
-      </c>
-      <c r="D88"/>
-      <c r="E88" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F88" s="9">
-        <v>2200</v>
-      </c>
-      <c r="G88" s="9">
-        <v>2910</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" t="s">
-        <v>38</v>
-      </c>
-      <c r="B89" t="s">
-        <v>66</v>
-      </c>
-      <c r="C89" t="s">
-        <v>27</v>
-      </c>
-      <c r="D89"/>
-      <c r="E89" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F89" s="9">
-        <v>2911</v>
-      </c>
-      <c r="G89" s="9">
-        <v>3630</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" t="s">
-        <v>38</v>
-      </c>
-      <c r="B90" t="s">
-        <v>66</v>
-      </c>
-      <c r="C90" t="s">
-        <v>27</v>
-      </c>
-      <c r="D90"/>
-      <c r="E90" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" s="9">
-        <v>3631</v>
-      </c>
-      <c r="G90" s="9">
-        <v>5514</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" t="s">
-        <v>38</v>
-      </c>
-      <c r="B91" t="s">
-        <v>66</v>
-      </c>
-      <c r="C91" t="s">
-        <v>27</v>
-      </c>
-      <c r="D91"/>
-      <c r="E91" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="9">
-        <v>5515</v>
-      </c>
-      <c r="G91" s="9">
-        <v>5637</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" t="s">
-        <v>38</v>
-      </c>
-      <c r="B92" t="s">
-        <v>66</v>
-      </c>
-      <c r="C92" t="s">
-        <v>27</v>
-      </c>
-      <c r="D92"/>
-      <c r="E92" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F92" s="9">
-        <v>5638</v>
-      </c>
-      <c r="G92" s="9">
-        <v>6423</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" t="s">
-        <v>38</v>
-      </c>
-      <c r="B93" t="s">
-        <v>66</v>
-      </c>
-      <c r="C93" t="s">
-        <v>27</v>
-      </c>
-      <c r="D93"/>
-      <c r="E93" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F93" s="9">
-        <v>6424</v>
-      </c>
-      <c r="G93" s="9">
-        <v>7797</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" t="s">
-        <v>38</v>
-      </c>
-      <c r="B94" t="s">
-        <v>66</v>
-      </c>
-      <c r="C94" t="s">
-        <v>27</v>
-      </c>
-      <c r="D94"/>
-      <c r="E94" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F94" s="9">
-        <v>7798</v>
-      </c>
-      <c r="G94" s="9">
-        <v>9498</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" t="s">
-        <v>38</v>
-      </c>
-      <c r="B95" t="s">
-        <v>66</v>
-      </c>
-      <c r="C95" t="s">
-        <v>27</v>
-      </c>
-      <c r="D95"/>
-      <c r="E95" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" s="9">
-        <v>9502</v>
-      </c>
-      <c r="G95" s="9">
-        <v>9867</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" t="s">
-        <v>55</v>
-      </c>
-      <c r="B96" t="s">
-        <v>65</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D96" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96">
-        <v>19199</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" t="s">
-        <v>55</v>
-      </c>
-      <c r="B97" t="s">
-        <v>65</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D97" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" t="s">
-        <v>55</v>
-      </c>
-      <c r="B98" t="s">
-        <v>65</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D98" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E98" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F98">
-        <v>351</v>
-      </c>
-      <c r="G98">
-        <v>18068</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" t="s">
-        <v>55</v>
-      </c>
-      <c r="B99" t="s">
-        <v>65</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D99" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99">
-        <v>18069</v>
-      </c>
-      <c r="G99">
-        <v>19199</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" t="s">
-        <v>53</v>
-      </c>
-      <c r="B100" t="s">
-        <v>63</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D100"/>
-      <c r="E100" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100">
-        <v>10053</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" t="s">
-        <v>53</v>
-      </c>
-      <c r="B101" t="s">
-        <v>63</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D101"/>
-      <c r="E101" t="s">
-        <v>72</v>
-      </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-      <c r="G101">
-        <v>10053</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" t="s">
-        <v>53</v>
-      </c>
-      <c r="B102" t="s">
-        <v>63</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D102"/>
-      <c r="E102" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102">
-        <v>1</v>
-      </c>
-      <c r="G102">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" t="s">
-        <v>53</v>
-      </c>
-      <c r="B103" t="s">
-        <v>63</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D103"/>
-      <c r="E103" t="s">
-        <v>73</v>
-      </c>
-      <c r="F103" s="9">
-        <v>346</v>
-      </c>
-      <c r="G103" s="9">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" t="s">
-        <v>53</v>
-      </c>
-      <c r="B104" t="s">
-        <v>63</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D104"/>
-      <c r="E104" t="s">
-        <v>74</v>
-      </c>
-      <c r="F104" s="9">
-        <v>655</v>
-      </c>
-      <c r="G104" s="9">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" t="s">
-        <v>53</v>
-      </c>
-      <c r="B105" t="s">
-        <v>63</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D105"/>
-      <c r="E105" t="s">
-        <v>75</v>
-      </c>
-      <c r="F105" s="9">
-        <v>853</v>
-      </c>
-      <c r="G105" s="9">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" t="s">
-        <v>53</v>
-      </c>
-      <c r="B106" t="s">
-        <v>63</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D106"/>
-      <c r="E106" t="s">
-        <v>4</v>
-      </c>
-      <c r="F106" s="9">
-        <v>2359</v>
-      </c>
-      <c r="G106" s="9">
-        <v>3390</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" t="s">
-        <v>53</v>
-      </c>
-      <c r="B107" t="s">
-        <v>63</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D107"/>
-      <c r="E107" t="s">
-        <v>5</v>
-      </c>
-      <c r="F107" s="9">
-        <v>3391</v>
-      </c>
-      <c r="G107" s="9">
-        <v>3978</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" t="s">
-        <v>53</v>
-      </c>
-      <c r="B108" t="s">
-        <v>63</v>
-      </c>
-      <c r="C108" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D108"/>
-      <c r="E108" t="s">
-        <v>6</v>
-      </c>
-      <c r="F108" s="9">
-        <v>3979</v>
-      </c>
-      <c r="G108" s="9">
-        <v>4431</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" t="s">
-        <v>53</v>
-      </c>
-      <c r="B109" t="s">
-        <v>63</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D109"/>
-      <c r="E109" t="s">
-        <v>7</v>
-      </c>
-      <c r="F109" s="9">
-        <v>4432</v>
-      </c>
-      <c r="G109" s="9">
-        <v>6303</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" t="s">
-        <v>53</v>
-      </c>
-      <c r="B110" t="s">
-        <v>63</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D110"/>
-      <c r="E110" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" s="9">
-        <v>6304</v>
-      </c>
-      <c r="G110" s="9">
-        <v>6687</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" t="s">
-        <v>53</v>
-      </c>
-      <c r="B111" t="s">
-        <v>63</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D111"/>
-      <c r="E111" t="s">
-        <v>19</v>
-      </c>
-      <c r="F111" s="9">
-        <v>6688</v>
-      </c>
-      <c r="G111" s="9">
-        <v>6762</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B112" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D112"/>
-      <c r="E112" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112" s="9">
-        <v>6763</v>
-      </c>
-      <c r="G112" s="9">
-        <v>7557</v>
+        <v>55</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E112" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F112" s="27">
+        <v>1</v>
+      </c>
+      <c r="G112" s="27">
+        <v>19199</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B113" t="s">
+        <v>64</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D113" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E113" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" s="27">
+        <v>1</v>
+      </c>
+      <c r="G113" s="27">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>54</v>
+      </c>
+      <c r="B114" t="s">
+        <v>64</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D114" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E114" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F114" s="27">
+        <v>351</v>
+      </c>
+      <c r="G114" s="27">
+        <v>18068</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>54</v>
+      </c>
+      <c r="B115" t="s">
+        <v>64</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E115" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="27">
+        <v>18069</v>
+      </c>
+      <c r="G115" s="27">
+        <v>19199</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B116" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C116" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D116" s="6"/>
+      <c r="E116" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F116" s="27">
+        <v>1</v>
+      </c>
+      <c r="G116" s="27">
+        <v>18554</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B117" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C117" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E117" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117" s="27">
+        <v>1</v>
+      </c>
+      <c r="G117" s="27">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B118" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C118" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E118" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F118" s="27">
+        <v>200</v>
+      </c>
+      <c r="G118" s="27">
+        <v>17905</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B119" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C119" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E119" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="27">
+        <v>17906</v>
+      </c>
+      <c r="G119" s="27">
+        <v>18554</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B120" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C113" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D113"/>
-      <c r="E113" t="s">
+      <c r="C120" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D120" s="27"/>
+      <c r="E120" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F120" s="27">
+        <v>1</v>
+      </c>
+      <c r="G120" s="27">
+        <v>12573</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B121" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C121" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" s="27">
+        <v>1</v>
+      </c>
+      <c r="G121" s="27">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B122" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C122" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D122" s="27"/>
+      <c r="E122" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F122" s="27">
+        <v>386</v>
+      </c>
+      <c r="G122" s="27">
+        <v>12352</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B123" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C123" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F123" s="27">
+        <v>386</v>
+      </c>
+      <c r="G123" s="27">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B124" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C124" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D124" s="27"/>
+      <c r="E124" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F124" s="27">
+        <v>386</v>
+      </c>
+      <c r="G124" s="27">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B125" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C125" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D125" s="27"/>
+      <c r="E125" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F125" s="27">
+        <v>890</v>
+      </c>
+      <c r="G125" s="27">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B126" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C126" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D126" s="27"/>
+      <c r="E126" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F126" s="27">
+        <v>1196</v>
+      </c>
+      <c r="G126" s="27">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B127" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C127" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D127" s="27"/>
+      <c r="E127" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F127" s="27">
+        <v>1877</v>
+      </c>
+      <c r="G127" s="27">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B128" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C128" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F128" s="27">
+        <v>2462</v>
+      </c>
+      <c r="G128" s="27">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B129" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C129" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D129" s="27"/>
+      <c r="E129" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F129" s="27">
+        <v>3584</v>
+      </c>
+      <c r="G129" s="27">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B130" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C130" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D130" s="27"/>
+      <c r="E130" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130" s="27">
+        <v>3794</v>
+      </c>
+      <c r="G130" s="27">
+        <v>7471</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B131" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C131" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" s="27"/>
+      <c r="E131" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F131" s="27">
+        <v>7472</v>
+      </c>
+      <c r="G131" s="27">
+        <v>7663</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B132" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C132" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D132" s="27"/>
+      <c r="E132" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F132" s="27">
+        <v>7664</v>
+      </c>
+      <c r="G132" s="27">
+        <v>8704</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B133" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C133" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133" s="27"/>
+      <c r="E133" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F133" s="27">
+        <v>8705</v>
+      </c>
+      <c r="G133" s="27">
+        <v>10192</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B134" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C134" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134" s="27"/>
+      <c r="E134" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F134" s="27">
+        <v>10193</v>
+      </c>
+      <c r="G134" s="27">
+        <v>12349</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B135" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C135" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D135" s="27"/>
+      <c r="E135" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="27">
+        <v>12360</v>
+      </c>
+      <c r="G135" s="27">
+        <v>12573</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B136" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C136" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D136" s="27"/>
+      <c r="E136" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F136" s="27">
+        <v>1</v>
+      </c>
+      <c r="G136" s="27">
+        <v>10053</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B137" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C137" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D137" s="27"/>
+      <c r="E137" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F137" s="27">
+        <v>1</v>
+      </c>
+      <c r="G137" s="27">
+        <v>10053</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B138" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C138" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D138" s="27"/>
+      <c r="E138" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F138" s="27">
+        <v>1</v>
+      </c>
+      <c r="G138" s="27">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B139" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C139" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D139" s="27"/>
+      <c r="E139" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F139" s="27">
+        <v>1</v>
+      </c>
+      <c r="G139" s="27">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B140" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C140" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D140" s="27"/>
+      <c r="E140" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F140" s="27">
+        <v>346</v>
+      </c>
+      <c r="G140" s="27">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B141" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C141" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D141" s="27"/>
+      <c r="E141" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F141" s="27">
+        <v>655</v>
+      </c>
+      <c r="G141" s="27">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B142" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C142" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D142" s="27"/>
+      <c r="E142" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F142" s="27">
+        <v>853</v>
+      </c>
+      <c r="G142" s="27">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B143" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C143" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D143" s="27"/>
+      <c r="E143" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F143" s="27">
+        <v>2359</v>
+      </c>
+      <c r="G143" s="27">
+        <v>10050</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B144" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C144" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D144" s="27"/>
+      <c r="E144" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F144" s="27">
+        <v>2359</v>
+      </c>
+      <c r="G144" s="27">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B145" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C145" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D145" s="27"/>
+      <c r="E145" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F145" s="27">
+        <v>3391</v>
+      </c>
+      <c r="G145" s="27">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B146" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C146" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D146" s="27"/>
+      <c r="E146" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F146" s="27">
+        <v>3979</v>
+      </c>
+      <c r="G146" s="27">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B147" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C147" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D147" s="27"/>
+      <c r="E147" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F147" s="27">
+        <v>4432</v>
+      </c>
+      <c r="G147" s="27">
+        <v>6303</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B148" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C148" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D148" s="27"/>
+      <c r="E148" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F148" s="27">
+        <v>6304</v>
+      </c>
+      <c r="G148" s="27">
+        <v>6687</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B149" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C149" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D149" s="27"/>
+      <c r="E149" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F149" s="27">
+        <v>6688</v>
+      </c>
+      <c r="G149" s="27">
+        <v>6762</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B150" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C150" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D150" s="27"/>
+      <c r="E150" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F150" s="27">
+        <v>6763</v>
+      </c>
+      <c r="G150" s="27">
+        <v>7557</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B151" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C151" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D151" s="27"/>
+      <c r="E151" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F113" s="9">
+      <c r="F151" s="27">
         <v>7558</v>
       </c>
-      <c r="G113" s="9">
+      <c r="G151" s="27">
         <v>10050</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C114" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D114" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F114" s="9">
-        <v>1</v>
-      </c>
-      <c r="G114" s="9">
-        <v>10116</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C115" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D115" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F115" s="9">
-        <v>1</v>
-      </c>
-      <c r="G115" s="9">
-        <v>10116</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C116" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D116" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F116" s="1">
-        <v>1</v>
-      </c>
-      <c r="G116" s="1">
-        <v>10242</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C117" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D117" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F117" s="1">
-        <v>1</v>
-      </c>
-      <c r="G117" s="1">
-        <v>10242</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D118" s="1"/>
-      <c r="E118" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F118" s="9">
-        <v>1</v>
-      </c>
-      <c r="G118" s="9">
-        <v>12573</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D119" s="1"/>
-      <c r="E119" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F119" s="9">
-        <v>1</v>
-      </c>
-      <c r="G119" s="9">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D120" s="1"/>
-      <c r="E120" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F120" s="9">
-        <v>386</v>
-      </c>
-      <c r="G120" s="9">
-        <v>12352</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D121" s="1"/>
-      <c r="E121" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F121" s="9">
-        <v>386</v>
-      </c>
-      <c r="G121" s="9">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D122" s="1"/>
-      <c r="E122" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F122" s="9">
-        <v>890</v>
-      </c>
-      <c r="G122" s="9">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D123" s="1"/>
-      <c r="E123" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F123" s="9">
-        <v>1196</v>
-      </c>
-      <c r="G123" s="9">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D124" s="1"/>
-      <c r="E124" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F124" s="9">
-        <v>1877</v>
-      </c>
-      <c r="G124" s="9">
-        <v>2461</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D125" s="1"/>
-      <c r="E125" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F125" s="9">
-        <v>2462</v>
-      </c>
-      <c r="G125" s="9">
-        <v>3583</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D126" s="1"/>
-      <c r="E126" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F126" s="9">
-        <v>3584</v>
-      </c>
-      <c r="G126" s="9">
-        <v>3793</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D127" s="1"/>
-      <c r="E127" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F127" s="9">
-        <v>3794</v>
-      </c>
-      <c r="G127" s="9">
-        <v>7471</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D128" s="1"/>
-      <c r="E128" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F128" s="9">
-        <v>7472</v>
-      </c>
-      <c r="G128" s="9">
-        <v>7663</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D129" s="1"/>
-      <c r="E129" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F129" s="9">
-        <v>7664</v>
-      </c>
-      <c r="G129" s="9">
-        <v>8704</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D130" s="1"/>
-      <c r="E130" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F130" s="9">
-        <v>8705</v>
-      </c>
-      <c r="G130" s="9">
-        <v>10192</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D131" s="1"/>
-      <c r="E131" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F131" s="9">
-        <v>10193</v>
-      </c>
-      <c r="G131" s="9">
-        <v>12349</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D132" s="1"/>
-      <c r="E132" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" s="9">
-        <v>12360</v>
-      </c>
-      <c r="G132" s="9">
-        <v>12573</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C133" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D133" s="6"/>
-      <c r="E133" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F133" s="9">
-        <v>1</v>
-      </c>
-      <c r="G133">
-        <v>18554</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" t="s">
-        <v>87</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C134" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F134" s="9">
-        <v>1</v>
-      </c>
-      <c r="G134">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" t="s">
-        <v>87</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C135" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F135" s="9">
-        <v>200</v>
-      </c>
-      <c r="G135">
-        <v>17905</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" t="s">
-        <v>87</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C136" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F136" s="9">
-        <v>17906</v>
-      </c>
-      <c r="G136">
-        <v>18554</v>
-      </c>
-      <c r="H136" s="26"/>
-    </row>
-    <row r="178" spans="2:4">
-      <c r="B178" s="1"/>
-      <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
-    </row>
-    <row r="179" spans="2:4">
-      <c r="B179" s="1"/>
-      <c r="C179" s="5"/>
-      <c r="D179" s="5"/>
-    </row>
-    <row r="180" spans="2:4">
-      <c r="B180" s="1"/>
-      <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
-    </row>
-    <row r="181" spans="2:4">
-      <c r="B181" s="1"/>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
-    </row>
-    <row r="182" spans="2:4">
-      <c r="B182" s="1"/>
-      <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
-    </row>
-    <row r="183" spans="2:4">
-      <c r="B183" s="1"/>
-      <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
-    </row>
-    <row r="184" spans="2:4">
-      <c r="B184" s="1"/>
-      <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
-    </row>
-    <row r="185" spans="2:4">
-      <c r="B185" s="1"/>
-      <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
-    </row>
-    <row r="186" spans="2:4">
-      <c r="B186" s="1"/>
-      <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
-    </row>
-    <row r="187" spans="2:4">
-      <c r="B187" s="1"/>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
-    </row>
-    <row r="188" spans="2:4">
-      <c r="B188" s="1"/>
-      <c r="C188" s="5"/>
-      <c r="D188" s="5"/>
-    </row>
-    <row r="189" spans="2:4">
-      <c r="B189" s="1"/>
-      <c r="C189" s="5"/>
-      <c r="D189" s="5"/>
-    </row>
-    <row r="190" spans="2:4">
-      <c r="B190" s="1"/>
-      <c r="C190" s="5"/>
-      <c r="D190" s="5"/>
-    </row>
-    <row r="191" spans="2:4">
-      <c r="B191" s="1"/>
-      <c r="C191" s="5"/>
-      <c r="D191" s="5"/>
-    </row>
-    <row r="192" spans="2:4">
-      <c r="B192" s="1"/>
-      <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
+      <c r="H151" s="25"/>
     </row>
     <row r="193" spans="2:4">
       <c r="B193" s="1"/>
@@ -8276,6 +8931,8 @@
     </row>
     <row r="202" spans="2:4">
       <c r="B202" s="1"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
     </row>
     <row r="203" spans="2:4">
       <c r="B203" s="1"/>
@@ -8312,183 +8969,256 @@
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
     </row>
-    <row r="892" spans="5:5">
-      <c r="E892" s="1"/>
-    </row>
-    <row r="1028" spans="2:2">
-      <c r="B1028" s="1"/>
-    </row>
-    <row r="1029" spans="2:2">
-      <c r="B1029" s="1"/>
-    </row>
-    <row r="1154" spans="2:2">
-      <c r="B1154" s="1"/>
-    </row>
-    <row r="1155" spans="2:2">
-      <c r="B1155" s="1"/>
-    </row>
-    <row r="1156" spans="2:2">
-      <c r="B1156" s="1"/>
-    </row>
-    <row r="1157" spans="2:2">
-      <c r="B1157" s="1"/>
-    </row>
-    <row r="1158" spans="2:2">
-      <c r="B1158" s="1"/>
-    </row>
-    <row r="1159" spans="2:2">
-      <c r="B1159" s="1"/>
-    </row>
-    <row r="1204" spans="2:6">
-      <c r="E1204" s="1"/>
-      <c r="F1204" s="1"/>
-    </row>
-    <row r="1205" spans="2:6">
-      <c r="E1205" s="1"/>
-      <c r="F1205" s="1"/>
-    </row>
-    <row r="1206" spans="2:6">
-      <c r="E1206" s="1"/>
-      <c r="F1206" s="1"/>
-    </row>
-    <row r="1208" spans="2:6">
-      <c r="B1208" s="1"/>
-    </row>
-    <row r="1209" spans="2:6">
-      <c r="B1209" s="1"/>
-    </row>
-    <row r="1210" spans="2:6">
-      <c r="B1210" s="1"/>
-    </row>
-    <row r="1211" spans="2:6">
-      <c r="B1211" s="1"/>
-    </row>
-    <row r="1212" spans="2:6">
-      <c r="B1212" s="1"/>
-    </row>
-    <row r="1231" spans="2:2">
-      <c r="B1231" s="1"/>
-    </row>
-    <row r="1232" spans="2:2">
-      <c r="B1232" s="1"/>
-    </row>
-    <row r="1233" spans="2:2">
-      <c r="B1233" s="1"/>
-    </row>
-    <row r="1234" spans="2:2">
-      <c r="B1234" s="1"/>
-    </row>
-    <row r="1235" spans="2:2">
-      <c r="B1235" s="1"/>
-    </row>
-    <row r="1236" spans="2:2">
-      <c r="B1236" s="1"/>
-    </row>
-    <row r="1237" spans="2:2">
-      <c r="B1237" s="1"/>
-    </row>
-    <row r="1239" spans="2:2">
-      <c r="B1239" s="1"/>
-    </row>
-    <row r="1240" spans="2:2">
-      <c r="B1240" s="1"/>
-    </row>
-    <row r="1241" spans="2:2">
-      <c r="B1241" s="1"/>
-    </row>
-    <row r="1242" spans="2:2">
-      <c r="B1242" s="1"/>
-    </row>
-    <row r="1243" spans="2:2">
-      <c r="B1243" s="1"/>
-    </row>
-    <row r="1244" spans="2:2">
-      <c r="B1244" s="1"/>
-    </row>
-    <row r="1296" spans="2:2">
-      <c r="B1296" s="1"/>
-    </row>
-    <row r="1297" spans="2:2">
-      <c r="B1297" s="1"/>
-    </row>
-    <row r="1298" spans="2:2">
-      <c r="B1298" s="1"/>
-    </row>
-    <row r="1299" spans="2:2">
-      <c r="B1299" s="1"/>
-    </row>
-    <row r="1301" spans="2:2">
-      <c r="B1301" s="1"/>
-    </row>
-    <row r="1302" spans="2:2">
-      <c r="B1302" s="1"/>
-    </row>
-    <row r="1303" spans="2:2">
-      <c r="B1303" s="1"/>
-    </row>
-    <row r="1304" spans="2:2">
-      <c r="B1304" s="1"/>
-    </row>
-    <row r="1339" spans="2:2">
-      <c r="B1339" s="1"/>
-    </row>
-    <row r="1340" spans="2:2">
-      <c r="B1340" s="1"/>
-    </row>
-    <row r="1341" spans="2:2">
-      <c r="B1341" s="1"/>
-    </row>
-    <row r="1342" spans="2:2">
-      <c r="B1342" s="1"/>
-    </row>
-    <row r="1343" spans="2:2">
-      <c r="B1343" s="1"/>
-    </row>
-    <row r="1344" spans="2:2">
-      <c r="B1344" s="1"/>
-    </row>
-    <row r="1386" spans="3:6">
-      <c r="E1386" s="1"/>
-      <c r="F1386" s="1"/>
-    </row>
-    <row r="1387" spans="3:6">
-      <c r="C1387" s="6"/>
-      <c r="D1387" s="6"/>
-      <c r="E1387" s="1"/>
-      <c r="F1387" s="1"/>
-    </row>
-    <row r="1388" spans="3:6">
-      <c r="C1388" s="6"/>
-      <c r="D1388" s="6"/>
-      <c r="E1388" s="1"/>
-      <c r="F1388" s="1"/>
-    </row>
-    <row r="1389" spans="3:6">
-      <c r="C1389" s="6"/>
-      <c r="D1389" s="6"/>
-      <c r="E1389" s="1"/>
-      <c r="F1389" s="1"/>
-    </row>
-    <row r="1390" spans="3:6">
-      <c r="E1390" s="1"/>
-      <c r="F1390" s="1"/>
-    </row>
-    <row r="1453" spans="2:2">
-      <c r="B1453" s="1"/>
-    </row>
-    <row r="1454" spans="2:2">
-      <c r="B1454" s="1"/>
-    </row>
-    <row r="1455" spans="2:2">
-      <c r="B1455" s="1"/>
-    </row>
-    <row r="1456" spans="2:2">
-      <c r="B1456" s="1"/>
+    <row r="210" spans="2:4">
+      <c r="B210" s="1"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+    </row>
+    <row r="211" spans="2:4">
+      <c r="B211" s="1"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+    </row>
+    <row r="212" spans="2:4">
+      <c r="B212" s="1"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+    </row>
+    <row r="213" spans="2:4">
+      <c r="B213" s="1"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+    </row>
+    <row r="214" spans="2:4">
+      <c r="B214" s="1"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+    </row>
+    <row r="215" spans="2:4">
+      <c r="B215" s="1"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+    </row>
+    <row r="216" spans="2:4">
+      <c r="B216" s="1"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+    </row>
+    <row r="217" spans="2:4">
+      <c r="B217" s="1"/>
+    </row>
+    <row r="218" spans="2:4">
+      <c r="B218" s="1"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+    </row>
+    <row r="219" spans="2:4">
+      <c r="B219" s="1"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+    </row>
+    <row r="220" spans="2:4">
+      <c r="B220" s="1"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+    </row>
+    <row r="221" spans="2:4">
+      <c r="B221" s="1"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+    </row>
+    <row r="222" spans="2:4">
+      <c r="B222" s="1"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+    </row>
+    <row r="223" spans="2:4">
+      <c r="B223" s="1"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
+    </row>
+    <row r="224" spans="2:4">
+      <c r="B224" s="1"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
+    </row>
+    <row r="907" spans="5:5">
+      <c r="E907" s="1"/>
+    </row>
+    <row r="1043" spans="2:2">
+      <c r="B1043" s="1"/>
+    </row>
+    <row r="1044" spans="2:2">
+      <c r="B1044" s="1"/>
+    </row>
+    <row r="1169" spans="2:2">
+      <c r="B1169" s="1"/>
+    </row>
+    <row r="1170" spans="2:2">
+      <c r="B1170" s="1"/>
+    </row>
+    <row r="1171" spans="2:2">
+      <c r="B1171" s="1"/>
+    </row>
+    <row r="1172" spans="2:2">
+      <c r="B1172" s="1"/>
+    </row>
+    <row r="1173" spans="2:2">
+      <c r="B1173" s="1"/>
+    </row>
+    <row r="1174" spans="2:2">
+      <c r="B1174" s="1"/>
+    </row>
+    <row r="1219" spans="2:6">
+      <c r="E1219" s="1"/>
+      <c r="F1219" s="1"/>
+    </row>
+    <row r="1220" spans="2:6">
+      <c r="E1220" s="1"/>
+      <c r="F1220" s="1"/>
+    </row>
+    <row r="1221" spans="2:6">
+      <c r="E1221" s="1"/>
+      <c r="F1221" s="1"/>
+    </row>
+    <row r="1223" spans="2:6">
+      <c r="B1223" s="1"/>
+    </row>
+    <row r="1224" spans="2:6">
+      <c r="B1224" s="1"/>
+    </row>
+    <row r="1225" spans="2:6">
+      <c r="B1225" s="1"/>
+    </row>
+    <row r="1226" spans="2:6">
+      <c r="B1226" s="1"/>
+    </row>
+    <row r="1227" spans="2:6">
+      <c r="B1227" s="1"/>
+    </row>
+    <row r="1246" spans="2:2">
+      <c r="B1246" s="1"/>
+    </row>
+    <row r="1247" spans="2:2">
+      <c r="B1247" s="1"/>
+    </row>
+    <row r="1248" spans="2:2">
+      <c r="B1248" s="1"/>
+    </row>
+    <row r="1249" spans="2:2">
+      <c r="B1249" s="1"/>
+    </row>
+    <row r="1250" spans="2:2">
+      <c r="B1250" s="1"/>
+    </row>
+    <row r="1251" spans="2:2">
+      <c r="B1251" s="1"/>
+    </row>
+    <row r="1252" spans="2:2">
+      <c r="B1252" s="1"/>
+    </row>
+    <row r="1254" spans="2:2">
+      <c r="B1254" s="1"/>
+    </row>
+    <row r="1255" spans="2:2">
+      <c r="B1255" s="1"/>
+    </row>
+    <row r="1256" spans="2:2">
+      <c r="B1256" s="1"/>
+    </row>
+    <row r="1257" spans="2:2">
+      <c r="B1257" s="1"/>
+    </row>
+    <row r="1258" spans="2:2">
+      <c r="B1258" s="1"/>
+    </row>
+    <row r="1259" spans="2:2">
+      <c r="B1259" s="1"/>
+    </row>
+    <row r="1311" spans="2:2">
+      <c r="B1311" s="1"/>
+    </row>
+    <row r="1312" spans="2:2">
+      <c r="B1312" s="1"/>
+    </row>
+    <row r="1313" spans="2:2">
+      <c r="B1313" s="1"/>
+    </row>
+    <row r="1314" spans="2:2">
+      <c r="B1314" s="1"/>
+    </row>
+    <row r="1316" spans="2:2">
+      <c r="B1316" s="1"/>
+    </row>
+    <row r="1317" spans="2:2">
+      <c r="B1317" s="1"/>
+    </row>
+    <row r="1318" spans="2:2">
+      <c r="B1318" s="1"/>
+    </row>
+    <row r="1319" spans="2:2">
+      <c r="B1319" s="1"/>
+    </row>
+    <row r="1354" spans="2:2">
+      <c r="B1354" s="1"/>
+    </row>
+    <row r="1355" spans="2:2">
+      <c r="B1355" s="1"/>
+    </row>
+    <row r="1356" spans="2:2">
+      <c r="B1356" s="1"/>
+    </row>
+    <row r="1357" spans="2:2">
+      <c r="B1357" s="1"/>
+    </row>
+    <row r="1358" spans="2:2">
+      <c r="B1358" s="1"/>
+    </row>
+    <row r="1359" spans="2:2">
+      <c r="B1359" s="1"/>
+    </row>
+    <row r="1401" spans="3:6">
+      <c r="E1401" s="1"/>
+      <c r="F1401" s="1"/>
+    </row>
+    <row r="1402" spans="3:6">
+      <c r="C1402" s="6"/>
+      <c r="D1402" s="6"/>
+      <c r="E1402" s="1"/>
+      <c r="F1402" s="1"/>
+    </row>
+    <row r="1403" spans="3:6">
+      <c r="C1403" s="6"/>
+      <c r="D1403" s="6"/>
+      <c r="E1403" s="1"/>
+      <c r="F1403" s="1"/>
+    </row>
+    <row r="1404" spans="3:6">
+      <c r="C1404" s="6"/>
+      <c r="D1404" s="6"/>
+      <c r="E1404" s="1"/>
+      <c r="F1404" s="1"/>
+    </row>
+    <row r="1405" spans="3:6">
+      <c r="E1405" s="1"/>
+      <c r="F1405" s="1"/>
+    </row>
+    <row r="1468" spans="2:2">
+      <c r="B1468" s="1"/>
+    </row>
+    <row r="1469" spans="2:2">
+      <c r="B1469" s="1"/>
+    </row>
+    <row r="1470" spans="2:2">
+      <c r="B1470" s="1"/>
+    </row>
+    <row r="1471" spans="2:2">
+      <c r="B1471" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H1495">
-    <sortCondition ref="C2:C1495"/>
-    <sortCondition ref="D2:D1495"/>
+  <sortState ref="A2:G1456">
+    <sortCondition ref="C2:C1456"/>
+    <sortCondition ref="D2:D1456"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -8512,7 +9242,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -8521,7 +9251,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>15</v>
@@ -8535,7 +9265,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -8544,10 +9274,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="F2" s="7">
         <v>97</v>
@@ -8558,7 +9288,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -8567,7 +9297,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>16</v>
@@ -8581,7 +9311,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -8590,7 +9320,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>17</v>
@@ -8604,7 +9334,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -8613,7 +9343,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>18</v>
@@ -8627,7 +9357,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -8636,7 +9366,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>4</v>
@@ -8650,7 +9380,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -8659,7 +9389,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>5</v>
@@ -8673,7 +9403,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -8682,7 +9412,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>6</v>
@@ -8696,7 +9426,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -8705,7 +9435,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>7</v>
@@ -8719,7 +9449,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -8728,7 +9458,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>19</v>
@@ -8742,7 +9472,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -8751,7 +9481,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>9</v>
@@ -8765,7 +9495,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -8774,7 +9504,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>10</v>
@@ -8788,7 +9518,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -8797,7 +9527,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
@@ -8811,7 +9541,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -8820,7 +9550,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
@@ -8834,7 +9564,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -8843,10 +9573,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
         <v>40</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
       </c>
       <c r="F15">
         <v>107</v>
@@ -8857,7 +9587,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -8866,7 +9596,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
@@ -8880,7 +9610,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -8889,7 +9619,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
         <v>17</v>
@@ -8903,7 +9633,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -8912,7 +9642,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -8926,7 +9656,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -8935,7 +9665,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -8949,7 +9679,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -8958,7 +9688,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
@@ -8972,7 +9702,7 @@
     </row>
     <row r="21" spans="1:7" ht="14" customHeight="1">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -8981,7 +9711,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
@@ -8995,7 +9725,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -9004,7 +9734,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
@@ -9018,7 +9748,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -9027,7 +9757,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -9041,7 +9771,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -9050,7 +9780,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
         <v>19</v>
@@ -9064,7 +9794,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -9073,7 +9803,7 @@
         <v>14</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -9087,7 +9817,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -9096,7 +9826,7 @@
         <v>14</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -9110,7 +9840,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -9119,7 +9849,7 @@
         <v>14</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -9133,19 +9863,19 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="F28" s="9">
         <v>1</v>
@@ -9156,19 +9886,19 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -9179,13 +9909,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>15</v>
@@ -9199,16 +9929,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F31" s="10">
         <v>386</v>
@@ -9219,16 +9949,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F32" s="9">
         <v>386</v>
@@ -9239,13 +9969,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>3</v>
@@ -9259,16 +9989,16 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="F34" s="9">
         <v>1196</v>
@@ -9279,16 +10009,16 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F35" s="9">
         <v>1877</v>
@@ -9299,16 +10029,16 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F36" s="9">
         <v>2462</v>
@@ -9319,13 +10049,13 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>23</v>
@@ -9339,13 +10069,13 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>7</v>
@@ -9359,13 +10089,13 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>8</v>
@@ -9379,13 +10109,13 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>9</v>
@@ -9399,16 +10129,16 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F41" s="9">
         <v>8705</v>
@@ -9419,16 +10149,16 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F42" s="9">
         <v>10193</v>
@@ -9439,13 +10169,13 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>11</v>
@@ -9459,16 +10189,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>15</v>
@@ -9482,16 +10212,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>15</v>
@@ -9505,19 +10235,19 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F46">
         <v>105</v>
@@ -9528,16 +10258,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>11</v>

--- a/tabular/flavi-reference_feature_locations.xlsx
+++ b/tabular/flavi-reference_feature_locations.xlsx
@@ -1,29 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/Flaviviridae-GLUE/tabular/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD3D408-F9B8-044B-B0E9-E74A60FAA18D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17220" yWindow="0" windowWidth="25300" windowHeight="26740" tabRatio="500"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="115">
   <si>
     <t>featureName</t>
   </si>
@@ -193,9 +199,6 @@
     <t>Pesti-like</t>
   </si>
   <si>
-    <t>Nematode</t>
-  </si>
-  <si>
     <t>NKV1</t>
   </si>
   <si>
@@ -350,12 +353,33 @@
   </si>
   <si>
     <t>Primate</t>
+  </si>
+  <si>
+    <t>NC_024113</t>
+  </si>
+  <si>
+    <t>Jingmenvirus</t>
+  </si>
+  <si>
+    <t>PL1</t>
+  </si>
+  <si>
+    <t>PL2</t>
+  </si>
+  <si>
+    <t>Human-Tick</t>
+  </si>
+  <si>
+    <t>NC_024114</t>
+  </si>
+  <si>
+    <t>REF_JMTV_SEG3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -5499,14 +5523,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F157" sqref="F157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
@@ -5517,12 +5541,12 @@
     <col min="8" max="8" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>12</v>
@@ -5540,12 +5564,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="37" t="s">
         <v>14</v>
@@ -5554,7 +5578,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" s="7">
         <v>1</v>
@@ -5563,12 +5587,12 @@
         <v>11375</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="37" t="s">
         <v>14</v>
@@ -5586,12 +5610,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>14</v>
@@ -5600,7 +5624,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="7">
         <v>97</v>
@@ -5609,12 +5633,12 @@
         <v>10170</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>14</v>
@@ -5623,7 +5647,7 @@
         <v>42</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F5" s="7">
         <v>97</v>
@@ -5632,12 +5656,12 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>14</v>
@@ -5646,7 +5670,7 @@
         <v>42</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="7">
         <v>97</v>
@@ -5655,12 +5679,12 @@
         <v>525</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>14</v>
@@ -5669,7 +5693,7 @@
         <v>42</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="7">
         <v>526</v>
@@ -5678,12 +5702,12 @@
         <v>954</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>14</v>
@@ -5692,7 +5716,7 @@
         <v>42</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F8" s="7">
         <v>955</v>
@@ -5701,12 +5725,12 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>14</v>
@@ -5715,7 +5739,7 @@
         <v>42</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="7">
         <v>2251</v>
@@ -5724,12 +5748,12 @@
         <v>10167</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>14</v>
@@ -5747,12 +5771,12 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>14</v>
@@ -5761,7 +5785,7 @@
         <v>42</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F11" s="7">
         <v>3421</v>
@@ -5770,12 +5794,12 @@
         <v>4041</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>14</v>
@@ -5784,7 +5808,7 @@
         <v>42</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12" s="7">
         <v>4042</v>
@@ -5793,12 +5817,12 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="36" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>14</v>
@@ -5816,12 +5840,12 @@
         <v>6249</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>14</v>
@@ -5830,7 +5854,7 @@
         <v>42</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7">
         <v>6250</v>
@@ -5839,12 +5863,12 @@
         <v>6654</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="37" t="s">
         <v>14</v>
@@ -5862,12 +5886,12 @@
         <v>6723</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>14</v>
@@ -5876,7 +5900,7 @@
         <v>42</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7">
         <v>6724</v>
@@ -5885,12 +5909,12 @@
         <v>7503</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="37" t="s">
         <v>14</v>
@@ -5908,12 +5932,12 @@
         <v>10167</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="37" t="s">
         <v>14</v>
@@ -5931,12 +5955,12 @@
         <v>11375</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="38" t="s">
         <v>14</v>
@@ -5945,7 +5969,7 @@
         <v>47</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" s="26">
         <v>1</v>
@@ -5954,12 +5978,12 @@
         <v>10761</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="38" t="s">
         <v>14</v>
@@ -5977,12 +6001,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="38" t="s">
         <v>14</v>
@@ -5991,7 +6015,7 @@
         <v>47</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21" s="26">
         <v>120</v>
@@ -6000,12 +6024,12 @@
         <v>10445</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="38" t="s">
         <v>14</v>
@@ -6023,12 +6047,12 @@
         <v>10761</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="38" t="s">
         <v>14</v>
@@ -6037,7 +6061,7 @@
         <v>45</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23" s="26">
         <v>1</v>
@@ -6046,12 +6070,12 @@
         <v>10320</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="36" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="38" t="s">
         <v>14</v>
@@ -6069,12 +6093,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="36" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="38" t="s">
         <v>14</v>
@@ -6083,7 +6107,7 @@
         <v>45</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F25" s="26">
         <v>16</v>
@@ -6092,12 +6116,12 @@
         <v>10320</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="36" t="s">
         <v>14</v>
@@ -6106,7 +6130,7 @@
         <v>39</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F26" s="28">
         <v>1</v>
@@ -6115,12 +6139,12 @@
         <v>10735</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="36" t="s">
         <v>14</v>
@@ -6138,12 +6162,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="36" t="s">
         <v>14</v>
@@ -6152,7 +6176,7 @@
         <v>39</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F28" s="27">
         <v>95</v>
@@ -6161,12 +6185,12 @@
         <v>10273</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="36" t="s">
         <v>14</v>
@@ -6175,7 +6199,7 @@
         <v>39</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F29" s="27">
         <v>95</v>
@@ -6184,12 +6208,12 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="36" t="s">
         <v>14</v>
@@ -6198,7 +6222,7 @@
         <v>39</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F30" s="27">
         <v>95</v>
@@ -6207,12 +6231,12 @@
         <v>436</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="36" t="s">
         <v>14</v>
@@ -6221,7 +6245,7 @@
         <v>39</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F31" s="27">
         <v>437</v>
@@ -6230,12 +6254,12 @@
         <v>934</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="36" t="s">
         <v>14</v>
@@ -6244,7 +6268,7 @@
         <v>39</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F32" s="27">
         <v>935</v>
@@ -6253,12 +6277,12 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="36" t="s">
         <v>14</v>
@@ -6267,7 +6291,7 @@
         <v>39</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F33" s="27">
         <v>2420</v>
@@ -6276,12 +6300,12 @@
         <v>10270</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34" s="36" t="s">
         <v>14</v>
@@ -6299,12 +6323,12 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="36" t="s">
         <v>14</v>
@@ -6313,7 +6337,7 @@
         <v>39</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F35" s="27">
         <v>3476</v>
@@ -6322,12 +6346,12 @@
         <v>4129</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="36" t="s">
         <v>14</v>
@@ -6336,7 +6360,7 @@
         <v>39</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F36" s="27">
         <v>4130</v>
@@ -6345,12 +6369,12 @@
         <v>4519</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="36" t="s">
         <v>14</v>
@@ -6368,12 +6392,12 @@
         <v>6376</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="36" t="s">
         <v>14</v>
@@ -6382,7 +6406,7 @@
         <v>39</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F38" s="27">
         <v>6377</v>
@@ -6391,12 +6415,12 @@
         <v>6757</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="36" t="s">
         <v>14</v>
@@ -6414,12 +6438,12 @@
         <v>6826</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="36" t="s">
         <v>14</v>
@@ -6428,7 +6452,7 @@
         <v>39</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F40" s="27">
         <v>7574</v>
@@ -6437,12 +6461,12 @@
         <v>10270</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="36" t="s">
         <v>14</v>
@@ -6460,12 +6484,12 @@
         <v>10735</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C42" s="37" t="s">
         <v>14</v>
@@ -6474,7 +6498,7 @@
         <v>41</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F42" s="7">
         <v>1</v>
@@ -6483,12 +6507,12 @@
         <v>10862</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16" customHeight="1">
+    <row r="43" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" s="37" t="s">
         <v>14</v>
@@ -6506,12 +6530,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" s="37" t="s">
         <v>14</v>
@@ -6520,7 +6544,7 @@
         <v>41</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F44" s="7">
         <v>119</v>
@@ -6529,12 +6553,12 @@
         <v>10354</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="37" t="s">
         <v>14</v>
@@ -6543,7 +6567,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F45" s="7">
         <v>119</v>
@@ -6552,12 +6576,12 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" s="37" t="s">
         <v>14</v>
@@ -6566,7 +6590,7 @@
         <v>41</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F46" s="7">
         <v>119</v>
@@ -6575,12 +6599,12 @@
         <v>481</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="37" t="s">
         <v>14</v>
@@ -6589,7 +6613,7 @@
         <v>41</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F47" s="7">
         <v>482</v>
@@ -6598,12 +6622,12 @@
         <v>973</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" s="37" t="s">
         <v>14</v>
@@ -6612,7 +6636,7 @@
         <v>41</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F48" s="7">
         <v>974</v>
@@ -6621,12 +6645,12 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" s="37" t="s">
         <v>14</v>
@@ -6635,7 +6659,7 @@
         <v>41</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F49" s="7">
         <v>2453</v>
@@ -6644,12 +6668,12 @@
         <v>10351</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" s="37" t="s">
         <v>14</v>
@@ -6667,12 +6691,12 @@
         <v>3508</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" s="37" t="s">
         <v>14</v>
@@ -6681,7 +6705,7 @@
         <v>41</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F51" s="7">
         <v>3509</v>
@@ -6690,12 +6714,12 @@
         <v>4180</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C52" s="37" t="s">
         <v>14</v>
@@ -6704,7 +6728,7 @@
         <v>41</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F52" s="7">
         <v>4181</v>
@@ -6713,12 +6737,12 @@
         <v>4570</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" s="37" t="s">
         <v>14</v>
@@ -6736,12 +6760,12 @@
         <v>6439</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" s="37" t="s">
         <v>14</v>
@@ -6750,7 +6774,7 @@
         <v>41</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F54" s="7">
         <v>6440</v>
@@ -6759,12 +6783,12 @@
         <v>6817</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C55" s="37" t="s">
         <v>14</v>
@@ -6782,12 +6806,12 @@
         <v>6886</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56" s="37" t="s">
         <v>14</v>
@@ -6796,7 +6820,7 @@
         <v>41</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F56" s="7">
         <v>6887</v>
@@ -6805,12 +6829,12 @@
         <v>7636</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" s="37" t="s">
         <v>14</v>
@@ -6828,12 +6852,12 @@
         <v>10351</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" s="37" t="s">
         <v>14</v>
@@ -6851,21 +6875,21 @@
         <v>10862</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="37" t="s">
         <v>48</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F59" s="9">
         <v>1</v>
@@ -6874,21 +6898,21 @@
         <v>10116</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="37" t="s">
         <v>48</v>
       </c>
       <c r="B60" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E60" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="C60" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="F60" s="9">
         <v>1</v>
@@ -6897,12 +6921,12 @@
         <v>10116</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="37" t="s">
         <v>51</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C61" s="39" t="s">
         <v>14</v>
@@ -6911,7 +6935,7 @@
         <v>50</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F61" s="1">
         <v>1</v>
@@ -6920,12 +6944,12 @@
         <v>10242</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="37" t="s">
         <v>51</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62" s="39" t="s">
         <v>14</v>
@@ -6934,7 +6958,7 @@
         <v>50</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F62" s="1">
         <v>1</v>
@@ -6943,12 +6967,12 @@
         <v>10242</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C63" s="36" t="s">
         <v>14</v>
@@ -6957,7 +6981,7 @@
         <v>43</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F63" s="27">
         <v>1</v>
@@ -6966,12 +6990,12 @@
         <v>10839</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="36" t="s">
         <v>14</v>
@@ -6989,12 +7013,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65" s="36" t="s">
         <v>14</v>
@@ -7003,7 +7027,7 @@
         <v>43</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F65" s="27">
         <v>112</v>
@@ -7012,12 +7036,12 @@
         <v>10359</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="36" t="s">
         <v>14</v>
@@ -7026,7 +7050,7 @@
         <v>43</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F66" s="27">
         <v>112</v>
@@ -7035,12 +7059,12 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C67" s="36" t="s">
         <v>14</v>
@@ -7049,7 +7073,7 @@
         <v>43</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F67" s="27">
         <v>112</v>
@@ -7058,12 +7082,12 @@
         <v>441</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C68" s="36" t="s">
         <v>14</v>
@@ -7072,7 +7096,7 @@
         <v>43</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F68" s="27">
         <v>442</v>
@@ -7081,12 +7105,12 @@
         <v>945</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C69" s="36" t="s">
         <v>14</v>
@@ -7095,7 +7119,7 @@
         <v>43</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F69" s="27">
         <v>946</v>
@@ -7104,12 +7128,12 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" s="36" t="s">
         <v>14</v>
@@ -7118,7 +7142,7 @@
         <v>43</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F70" s="27">
         <v>2437</v>
@@ -7127,12 +7151,12 @@
         <v>10356</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C71" s="36" t="s">
         <v>14</v>
@@ -7150,12 +7174,12 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C72" s="36" t="s">
         <v>14</v>
@@ -7164,7 +7188,7 @@
         <v>43</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F72" s="27">
         <v>3496</v>
@@ -7173,12 +7197,12 @@
         <v>4185</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C73" s="36" t="s">
         <v>14</v>
@@ -7187,7 +7211,7 @@
         <v>43</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F73" s="27">
         <v>4186</v>
@@ -7196,12 +7220,12 @@
         <v>4578</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C74" s="36" t="s">
         <v>14</v>
@@ -7219,12 +7243,12 @@
         <v>6444</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C75" s="36" t="s">
         <v>14</v>
@@ -7233,7 +7257,7 @@
         <v>43</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="27">
         <v>6445</v>
@@ -7242,12 +7266,12 @@
         <v>6822</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C76" s="36" t="s">
         <v>14</v>
@@ -7265,12 +7289,12 @@
         <v>6891</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C77" s="36" t="s">
         <v>14</v>
@@ -7279,7 +7303,7 @@
         <v>43</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F77" s="27">
         <v>6892</v>
@@ -7288,12 +7312,12 @@
         <v>7647</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C78" s="36" t="s">
         <v>14</v>
@@ -7311,12 +7335,12 @@
         <v>10356</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C79" s="36" t="s">
         <v>14</v>
@@ -7334,21 +7358,21 @@
         <v>10839</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C80" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D80" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F80" s="27">
         <v>1</v>
@@ -7357,18 +7381,18 @@
         <v>9646</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E81" s="27" t="s">
         <v>15</v>
@@ -7380,21 +7404,21 @@
         <v>341</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C82" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F82" s="27">
         <v>342</v>
@@ -7403,21 +7427,21 @@
         <v>9377</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C83" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E83" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F83" s="27">
         <v>342</v>
@@ -7426,18 +7450,18 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C84" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E84" s="27" t="s">
         <v>22</v>
@@ -7449,21 +7473,21 @@
         <v>914</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C85" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F85" s="27">
         <v>915</v>
@@ -7472,21 +7496,21 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C86" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F86" s="27">
         <v>1491</v>
@@ -7495,21 +7519,21 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C87" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E87" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F87" s="27">
         <v>2580</v>
@@ -7518,21 +7542,21 @@
         <v>9374</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C88" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D88" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F88" s="27">
         <v>2580</v>
@@ -7541,21 +7565,21 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C89" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E89" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F89" s="27">
         <v>2769</v>
@@ -7564,18 +7588,18 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C90" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E90" s="27" t="s">
         <v>7</v>
@@ -7587,21 +7611,21 @@
         <v>5312</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C91" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D91" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E91" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F91" s="27">
         <v>5313</v>
@@ -7610,21 +7634,21 @@
         <v>5474</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C92" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D92" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E92" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F92" s="27">
         <v>5475</v>
@@ -7633,18 +7657,18 @@
         <v>6257</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C93" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D93" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E93" s="27" t="s">
         <v>24</v>
@@ -7656,18 +7680,18 @@
         <v>7601</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C94" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E94" s="27" t="s">
         <v>25</v>
@@ -7679,18 +7703,18 @@
         <v>9374</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C95" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E95" s="27" t="s">
         <v>11</v>
@@ -7702,19 +7726,19 @@
         <v>9646</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="35" t="s">
         <v>37</v>
       </c>
       <c r="B96" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C96" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D96"/>
       <c r="E96" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F96" s="27">
         <v>1</v>
@@ -7723,12 +7747,12 @@
         <v>9867</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="35" t="s">
         <v>37</v>
       </c>
       <c r="B97" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C97" s="35" t="s">
         <v>26</v>
@@ -7744,19 +7768,19 @@
         <v>327</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="35" t="s">
         <v>37</v>
       </c>
       <c r="B98" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C98" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D98"/>
       <c r="E98" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F98" s="27">
         <v>328</v>
@@ -7765,19 +7789,19 @@
         <v>9501</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="35" t="s">
         <v>37</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C99" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D99"/>
       <c r="E99" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F99" s="27">
         <v>328</v>
@@ -7786,19 +7810,19 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="35" t="s">
         <v>37</v>
       </c>
       <c r="B100" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C100" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D100"/>
       <c r="E100" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F100" s="27">
         <v>328</v>
@@ -7807,19 +7831,19 @@
         <v>564</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="35" t="s">
         <v>37</v>
       </c>
       <c r="B101" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C101" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D101"/>
       <c r="E101" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F101" s="27">
         <v>565</v>
@@ -7828,19 +7852,19 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="35" t="s">
         <v>37</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C102" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D102"/>
       <c r="E102" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F102" s="27">
         <v>1138</v>
@@ -7849,19 +7873,19 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="35" t="s">
         <v>37</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C103" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D103"/>
       <c r="E103" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F103" s="27">
         <v>2200</v>
@@ -7870,19 +7894,19 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="35" t="s">
         <v>37</v>
       </c>
       <c r="B104" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C104" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D104"/>
       <c r="E104" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F104" s="27">
         <v>2911</v>
@@ -7891,19 +7915,19 @@
         <v>9498</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="35" t="s">
         <v>37</v>
       </c>
       <c r="B105" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C105" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D105"/>
       <c r="E105" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F105" s="27">
         <v>2911</v>
@@ -7912,12 +7936,12 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="35" t="s">
         <v>37</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C106" s="35" t="s">
         <v>26</v>
@@ -7933,19 +7957,19 @@
         <v>5514</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="35" t="s">
         <v>37</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C107" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D107"/>
       <c r="E107" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F107" s="27">
         <v>5515</v>
@@ -7954,19 +7978,19 @@
         <v>5637</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="35" t="s">
         <v>37</v>
       </c>
       <c r="B108" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C108" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D108"/>
       <c r="E108" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F108" s="27">
         <v>5638</v>
@@ -7975,12 +7999,12 @@
         <v>6423</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="35" t="s">
         <v>37</v>
       </c>
       <c r="B109" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C109" s="35" t="s">
         <v>26</v>
@@ -7996,12 +8020,12 @@
         <v>7797</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="35" t="s">
         <v>37</v>
       </c>
       <c r="B110" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C110" s="35" t="s">
         <v>26</v>
@@ -8017,12 +8041,12 @@
         <v>9498</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="35" t="s">
         <v>37</v>
       </c>
       <c r="B111" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C111" s="35" t="s">
         <v>26</v>
@@ -8038,21 +8062,21 @@
         <v>9867</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>54</v>
       </c>
       <c r="B112" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C112" s="16" t="s">
         <v>55</v>
       </c>
       <c r="D112" s="22" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="E112" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F112" s="27">
         <v>1</v>
@@ -8061,18 +8085,18 @@
         <v>19199</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>54</v>
       </c>
       <c r="B113" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C113" s="16" t="s">
         <v>55</v>
       </c>
       <c r="D113" s="22" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="E113" s="27" t="s">
         <v>15</v>
@@ -8084,21 +8108,21 @@
         <v>350</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>54</v>
       </c>
       <c r="B114" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C114" s="16" t="s">
         <v>55</v>
       </c>
       <c r="D114" s="22" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="E114" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F114" s="27">
         <v>351</v>
@@ -8107,18 +8131,18 @@
         <v>18068</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>54</v>
       </c>
       <c r="B115" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C115" s="16" t="s">
         <v>55</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="E115" s="27" t="s">
         <v>11</v>
@@ -8130,19 +8154,21 @@
         <v>19199</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B116" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B116" s="32" t="s">
+      <c r="C116" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C116" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D116" s="6"/>
+      <c r="D116" s="27" t="s">
+        <v>111</v>
+      </c>
       <c r="E116" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F116" s="27">
         <v>1</v>
@@ -8151,15 +8177,18 @@
         <v>18554</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B117" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B117" s="32" t="s">
+      <c r="C117" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C117" s="33" t="s">
-        <v>87</v>
+      <c r="D117" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="E117" s="27" t="s">
         <v>15</v>
@@ -8171,18 +8200,21 @@
         <v>199</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B118" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B118" s="32" t="s">
+      <c r="C118" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C118" s="33" t="s">
-        <v>87</v>
+      <c r="D118" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="E118" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F118" s="27">
         <v>200</v>
@@ -8191,15 +8223,18 @@
         <v>17905</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B119" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B119" s="32" t="s">
+      <c r="C119" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C119" s="33" t="s">
-        <v>87</v>
+      <c r="D119" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="E119" s="27" t="s">
         <v>11</v>
@@ -8211,19 +8246,19 @@
         <v>18554</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C120" s="30" t="s">
         <v>27</v>
       </c>
       <c r="D120" s="27"/>
       <c r="E120" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F120" s="27">
         <v>1</v>
@@ -8232,12 +8267,12 @@
         <v>12573</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C121" s="30" t="s">
         <v>27</v>
@@ -8253,19 +8288,19 @@
         <v>385</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C122" s="30" t="s">
         <v>27</v>
       </c>
       <c r="D122" s="27"/>
       <c r="E122" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F122" s="27">
         <v>386</v>
@@ -8274,19 +8309,19 @@
         <v>12352</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C123" s="30" t="s">
         <v>27</v>
       </c>
       <c r="D123" s="27"/>
       <c r="E123" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F123" s="27">
         <v>386</v>
@@ -8295,19 +8330,19 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C124" s="30" t="s">
         <v>27</v>
       </c>
       <c r="D124" s="27"/>
       <c r="E124" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F124" s="27">
         <v>386</v>
@@ -8316,19 +8351,19 @@
         <v>889</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C125" s="30" t="s">
         <v>27</v>
       </c>
       <c r="D125" s="27"/>
       <c r="E125" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F125" s="27">
         <v>890</v>
@@ -8337,12 +8372,12 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C126" s="30" t="s">
         <v>27</v>
@@ -8358,19 +8393,19 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C127" s="30" t="s">
         <v>27</v>
       </c>
       <c r="D127" s="27"/>
       <c r="E127" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F127" s="27">
         <v>1877</v>
@@ -8379,19 +8414,19 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C128" s="30" t="s">
         <v>27</v>
       </c>
       <c r="D128" s="27"/>
       <c r="E128" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F128" s="27">
         <v>2462</v>
@@ -8400,19 +8435,19 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C129" s="30" t="s">
         <v>27</v>
       </c>
       <c r="D129" s="27"/>
       <c r="E129" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F129" s="27">
         <v>3584</v>
@@ -8421,12 +8456,12 @@
         <v>3793</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C130" s="30" t="s">
         <v>27</v>
@@ -8442,19 +8477,19 @@
         <v>7471</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C131" s="30" t="s">
         <v>27</v>
       </c>
       <c r="D131" s="27"/>
       <c r="E131" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F131" s="27">
         <v>7472</v>
@@ -8463,19 +8498,19 @@
         <v>7663</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C132" s="30" t="s">
         <v>27</v>
       </c>
       <c r="D132" s="27"/>
       <c r="E132" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F132" s="27">
         <v>7664</v>
@@ -8484,12 +8519,12 @@
         <v>8704</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C133" s="30" t="s">
         <v>27</v>
@@ -8505,12 +8540,12 @@
         <v>10192</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C134" s="30" t="s">
         <v>27</v>
@@ -8526,12 +8561,12 @@
         <v>12349</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C135" s="30" t="s">
         <v>27</v>
@@ -8547,19 +8582,19 @@
         <v>12573</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B136" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C136" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D136" s="27"/>
       <c r="E136" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F136" s="27">
         <v>1</v>
@@ -8568,19 +8603,19 @@
         <v>10053</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B137" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C137" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D137" s="27"/>
       <c r="E137" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F137" s="27">
         <v>1</v>
@@ -8589,19 +8624,19 @@
         <v>10053</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B138" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C138" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D138" s="27"/>
       <c r="E138" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F138" s="27">
         <v>1</v>
@@ -8610,19 +8645,19 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B139" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C139" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D139" s="27"/>
       <c r="E139" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F139" s="27">
         <v>1</v>
@@ -8631,19 +8666,19 @@
         <v>345</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B140" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C140" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D140" s="27"/>
       <c r="E140" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F140" s="27">
         <v>346</v>
@@ -8652,19 +8687,19 @@
         <v>852</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B141" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C141" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D141" s="27"/>
       <c r="E141" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F141" s="27">
         <v>655</v>
@@ -8673,19 +8708,19 @@
         <v>852</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B142" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C142" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D142" s="27"/>
       <c r="E142" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F142" s="27">
         <v>853</v>
@@ -8694,19 +8729,19 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B143" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C143" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D143" s="27"/>
       <c r="E143" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F143" s="27">
         <v>2359</v>
@@ -8715,15 +8750,15 @@
         <v>10050</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B144" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C144" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D144" s="27"/>
       <c r="E144" s="27" t="s">
@@ -8736,19 +8771,19 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B145" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C145" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D145" s="27"/>
       <c r="E145" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F145" s="27">
         <v>3391</v>
@@ -8757,19 +8792,19 @@
         <v>3978</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B146" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C146" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D146" s="27"/>
       <c r="E146" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F146" s="27">
         <v>3979</v>
@@ -8778,15 +8813,15 @@
         <v>4431</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B147" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C147" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D147" s="27"/>
       <c r="E147" s="27" t="s">
@@ -8799,19 +8834,19 @@
         <v>6303</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B148" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C148" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D148" s="27"/>
       <c r="E148" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F148" s="27">
         <v>6304</v>
@@ -8820,15 +8855,15 @@
         <v>6687</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B149" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C149" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D149" s="27"/>
       <c r="E149" s="27" t="s">
@@ -8841,19 +8876,19 @@
         <v>6762</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B150" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C150" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D150" s="27"/>
       <c r="E150" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F150" s="27">
         <v>6763</v>
@@ -8862,15 +8897,15 @@
         <v>7557</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B151" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C151" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D151" s="27"/>
       <c r="E151" s="27" t="s">
@@ -8884,339 +8919,385 @@
       </c>
       <c r="H151" s="25"/>
     </row>
-    <row r="193" spans="2:4">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B152" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C152" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D152" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E152" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F152" s="27">
+        <v>105</v>
+      </c>
+      <c r="G152" s="27">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>113</v>
+      </c>
+      <c r="B153" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C153" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D153" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E153" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F153" s="27">
+        <v>117</v>
+      </c>
+      <c r="G153" s="27">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B193" s="1"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
     </row>
-    <row r="194" spans="2:4">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B194" s="1"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="2:4">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B195" s="1"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="2:4">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B196" s="1"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="2:4">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B197" s="1"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="2:4">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B198" s="1"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="2:4">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B199" s="1"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="2:4">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B200" s="1"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="2:4">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B201" s="1"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="2:4">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B202" s="1"/>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="2:4">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B203" s="1"/>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="2:4">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B204" s="1"/>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="2:4">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B205" s="1"/>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
     </row>
-    <row r="206" spans="2:4">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B206" s="1"/>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
     </row>
-    <row r="207" spans="2:4">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B207" s="1"/>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
     </row>
-    <row r="208" spans="2:4">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B208" s="1"/>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
     </row>
-    <row r="209" spans="2:4">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B209" s="1"/>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
     </row>
-    <row r="210" spans="2:4">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B210" s="1"/>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
     </row>
-    <row r="211" spans="2:4">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B211" s="1"/>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
     </row>
-    <row r="212" spans="2:4">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B212" s="1"/>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
     </row>
-    <row r="213" spans="2:4">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B213" s="1"/>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
     </row>
-    <row r="214" spans="2:4">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B214" s="1"/>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
     </row>
-    <row r="215" spans="2:4">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B215" s="1"/>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
     </row>
-    <row r="216" spans="2:4">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B216" s="1"/>
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
     </row>
-    <row r="217" spans="2:4">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B217" s="1"/>
     </row>
-    <row r="218" spans="2:4">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B218" s="1"/>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
     </row>
-    <row r="219" spans="2:4">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B219" s="1"/>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
     </row>
-    <row r="220" spans="2:4">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B220" s="1"/>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
     </row>
-    <row r="221" spans="2:4">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B221" s="1"/>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
     </row>
-    <row r="222" spans="2:4">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B222" s="1"/>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
     </row>
-    <row r="223" spans="2:4">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B223" s="1"/>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
     </row>
-    <row r="224" spans="2:4">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B224" s="1"/>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
     </row>
-    <row r="907" spans="5:5">
+    <row r="907" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E907" s="1"/>
     </row>
-    <row r="1043" spans="2:2">
+    <row r="1043" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1043" s="1"/>
     </row>
-    <row r="1044" spans="2:2">
+    <row r="1044" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1044" s="1"/>
     </row>
-    <row r="1169" spans="2:2">
+    <row r="1169" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1169" s="1"/>
     </row>
-    <row r="1170" spans="2:2">
+    <row r="1170" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1170" s="1"/>
     </row>
-    <row r="1171" spans="2:2">
+    <row r="1171" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1171" s="1"/>
     </row>
-    <row r="1172" spans="2:2">
+    <row r="1172" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1172" s="1"/>
     </row>
-    <row r="1173" spans="2:2">
+    <row r="1173" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1173" s="1"/>
     </row>
-    <row r="1174" spans="2:2">
+    <row r="1174" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1174" s="1"/>
     </row>
-    <row r="1219" spans="2:6">
+    <row r="1219" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E1219" s="1"/>
       <c r="F1219" s="1"/>
     </row>
-    <row r="1220" spans="2:6">
+    <row r="1220" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E1220" s="1"/>
       <c r="F1220" s="1"/>
     </row>
-    <row r="1221" spans="2:6">
+    <row r="1221" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E1221" s="1"/>
       <c r="F1221" s="1"/>
     </row>
-    <row r="1223" spans="2:6">
+    <row r="1223" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1223" s="1"/>
     </row>
-    <row r="1224" spans="2:6">
+    <row r="1224" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1224" s="1"/>
     </row>
-    <row r="1225" spans="2:6">
+    <row r="1225" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1225" s="1"/>
     </row>
-    <row r="1226" spans="2:6">
+    <row r="1226" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1226" s="1"/>
     </row>
-    <row r="1227" spans="2:6">
+    <row r="1227" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1227" s="1"/>
     </row>
-    <row r="1246" spans="2:2">
+    <row r="1246" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1246" s="1"/>
     </row>
-    <row r="1247" spans="2:2">
+    <row r="1247" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1247" s="1"/>
     </row>
-    <row r="1248" spans="2:2">
+    <row r="1248" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1248" s="1"/>
     </row>
-    <row r="1249" spans="2:2">
+    <row r="1249" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1249" s="1"/>
     </row>
-    <row r="1250" spans="2:2">
+    <row r="1250" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1250" s="1"/>
     </row>
-    <row r="1251" spans="2:2">
+    <row r="1251" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1251" s="1"/>
     </row>
-    <row r="1252" spans="2:2">
+    <row r="1252" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1252" s="1"/>
     </row>
-    <row r="1254" spans="2:2">
+    <row r="1254" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1254" s="1"/>
     </row>
-    <row r="1255" spans="2:2">
+    <row r="1255" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1255" s="1"/>
     </row>
-    <row r="1256" spans="2:2">
+    <row r="1256" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1256" s="1"/>
     </row>
-    <row r="1257" spans="2:2">
+    <row r="1257" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1257" s="1"/>
     </row>
-    <row r="1258" spans="2:2">
+    <row r="1258" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1258" s="1"/>
     </row>
-    <row r="1259" spans="2:2">
+    <row r="1259" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1259" s="1"/>
     </row>
-    <row r="1311" spans="2:2">
+    <row r="1311" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1311" s="1"/>
     </row>
-    <row r="1312" spans="2:2">
+    <row r="1312" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1312" s="1"/>
     </row>
-    <row r="1313" spans="2:2">
+    <row r="1313" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1313" s="1"/>
     </row>
-    <row r="1314" spans="2:2">
+    <row r="1314" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1314" s="1"/>
     </row>
-    <row r="1316" spans="2:2">
+    <row r="1316" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1316" s="1"/>
     </row>
-    <row r="1317" spans="2:2">
+    <row r="1317" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1317" s="1"/>
     </row>
-    <row r="1318" spans="2:2">
+    <row r="1318" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1318" s="1"/>
     </row>
-    <row r="1319" spans="2:2">
+    <row r="1319" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1319" s="1"/>
     </row>
-    <row r="1354" spans="2:2">
+    <row r="1354" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1354" s="1"/>
     </row>
-    <row r="1355" spans="2:2">
+    <row r="1355" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1355" s="1"/>
     </row>
-    <row r="1356" spans="2:2">
+    <row r="1356" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1356" s="1"/>
     </row>
-    <row r="1357" spans="2:2">
+    <row r="1357" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1357" s="1"/>
     </row>
-    <row r="1358" spans="2:2">
+    <row r="1358" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1358" s="1"/>
     </row>
-    <row r="1359" spans="2:2">
+    <row r="1359" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1359" s="1"/>
     </row>
-    <row r="1401" spans="3:6">
+    <row r="1401" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E1401" s="1"/>
       <c r="F1401" s="1"/>
     </row>
-    <row r="1402" spans="3:6">
+    <row r="1402" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C1402" s="6"/>
       <c r="D1402" s="6"/>
       <c r="E1402" s="1"/>
       <c r="F1402" s="1"/>
     </row>
-    <row r="1403" spans="3:6">
+    <row r="1403" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C1403" s="6"/>
       <c r="D1403" s="6"/>
       <c r="E1403" s="1"/>
       <c r="F1403" s="1"/>
     </row>
-    <row r="1404" spans="3:6">
+    <row r="1404" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C1404" s="6"/>
       <c r="D1404" s="6"/>
       <c r="E1404" s="1"/>
       <c r="F1404" s="1"/>
     </row>
-    <row r="1405" spans="3:6">
+    <row r="1405" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E1405" s="1"/>
       <c r="F1405" s="1"/>
     </row>
-    <row r="1468" spans="2:2">
+    <row r="1468" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1468" s="1"/>
     </row>
-    <row r="1469" spans="2:2">
+    <row r="1469" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1469" s="1"/>
     </row>
-    <row r="1470" spans="2:2">
+    <row r="1470" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1470" s="1"/>
     </row>
-    <row r="1471" spans="2:2">
+    <row r="1471" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1471" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:G1456">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1456">
     <sortCondition ref="C2:C1456"/>
     <sortCondition ref="D2:D1456"/>
   </sortState>
@@ -9231,16 +9312,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G43" sqref="A28:G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -9263,7 +9344,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -9286,7 +9367,7 @@
         <v>10389</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -9309,7 +9390,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -9332,7 +9413,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -9355,7 +9436,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -9378,7 +9459,7 @@
         <v>3513</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -9401,7 +9482,7 @@
         <v>4206</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -9424,7 +9505,7 @@
         <v>4599</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -9447,7 +9528,7 @@
         <v>6456</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -9470,7 +9551,7 @@
         <v>6903</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -9493,7 +9574,7 @@
         <v>7671</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -9516,7 +9597,7 @@
         <v>10386</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -9539,7 +9620,7 @@
         <v>10962</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -9562,7 +9643,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -9585,7 +9666,7 @@
         <v>10366</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -9608,7 +9689,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -9631,7 +9712,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -9654,7 +9735,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -9677,7 +9758,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -9700,7 +9781,7 @@
         <v>4210</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14" customHeight="1">
+    <row r="21" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -9723,7 +9804,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -9746,7 +9827,7 @@
         <v>6451</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -9769,7 +9850,7 @@
         <v>6832</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -9792,7 +9873,7 @@
         <v>6901</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -9815,7 +9896,7 @@
         <v>7654</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -9838,7 +9919,7 @@
         <v>10363</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -9861,21 +9942,21 @@
         <v>10794</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>48</v>
       </c>
       <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="F28" s="9">
         <v>1</v>
@@ -9884,12 +9965,12 @@
         <v>10116</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>14</v>
@@ -9898,7 +9979,7 @@
         <v>50</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -9907,12 +9988,12 @@
         <v>10242</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -9927,18 +10008,18 @@
         <v>385</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F31" s="10">
         <v>386</v>
@@ -9947,18 +10028,18 @@
         <v>12352</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F32" s="9">
         <v>386</v>
@@ -9967,12 +10048,12 @@
         <v>889</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
         <v>27</v>
@@ -9987,12 +10068,12 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
@@ -10007,18 +10088,18 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F35" s="9">
         <v>1877</v>
@@ -10027,18 +10108,18 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F36" s="9">
         <v>2462</v>
@@ -10047,12 +10128,12 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
@@ -10067,12 +10148,12 @@
         <v>3793</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
@@ -10087,12 +10168,12 @@
         <v>7471</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -10107,12 +10188,12 @@
         <v>7663</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -10127,12 +10208,12 @@
         <v>8704</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -10147,12 +10228,12 @@
         <v>10192</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
@@ -10167,12 +10248,12 @@
         <v>12349</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
@@ -10187,12 +10268,12 @@
         <v>12573</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
         <v>49</v>
@@ -10210,12 +10291,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
         <v>49</v>
@@ -10233,12 +10314,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s">
         <v>49</v>
@@ -10247,7 +10328,7 @@
         <v>49</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F46">
         <v>105</v>
@@ -10256,12 +10337,12 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
         <v>49</v>

--- a/tabular/flavi-reference_feature_locations.xlsx
+++ b/tabular/flavi-reference_feature_locations.xlsx
@@ -1,35 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/Flaviviridae-GLUE/tabular/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD3D408-F9B8-044B-B0E9-E74A60FAA18D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="28060" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="115">
   <si>
     <t>featureName</t>
   </si>
@@ -379,7 +373,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -582,9 +576,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2269">
+  <cellStyleXfs count="2283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2918,7 +2926,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2269">
+  <cellStyles count="2283">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -4054,6 +4062,13 @@
     <cellStyle name="Followed Hyperlink" xfId="2264" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2266" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2282" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -5187,6 +5202,13 @@
     <cellStyle name="Hyperlink" xfId="2263" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2265" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2281" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5523,14 +5545,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F157" sqref="F157"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G150" sqref="A1:G155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
@@ -5541,7 +5563,7 @@
     <col min="8" max="8" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>82</v>
       </c>
@@ -5564,7 +5586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="36" t="s">
         <v>32</v>
       </c>
@@ -5587,7 +5609,7 @@
         <v>11375</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="36" t="s">
         <v>32</v>
       </c>
@@ -5610,7 +5632,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="36" t="s">
         <v>32</v>
       </c>
@@ -5633,7 +5655,7 @@
         <v>10170</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="36" t="s">
         <v>32</v>
       </c>
@@ -5656,7 +5678,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="36" t="s">
         <v>32</v>
       </c>
@@ -5679,7 +5701,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="36" t="s">
         <v>32</v>
       </c>
@@ -5702,7 +5724,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="36" t="s">
         <v>32</v>
       </c>
@@ -5725,7 +5747,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="36" t="s">
         <v>32</v>
       </c>
@@ -5748,7 +5770,7 @@
         <v>10167</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="36" t="s">
         <v>32</v>
       </c>
@@ -5771,7 +5793,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="36" t="s">
         <v>32</v>
       </c>
@@ -5794,7 +5816,7 @@
         <v>4041</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="36" t="s">
         <v>32</v>
       </c>
@@ -5817,7 +5839,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="36" t="s">
         <v>32</v>
       </c>
@@ -5840,7 +5862,7 @@
         <v>6249</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="36" t="s">
         <v>32</v>
       </c>
@@ -5863,7 +5885,7 @@
         <v>6654</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="36" t="s">
         <v>32</v>
       </c>
@@ -5886,7 +5908,7 @@
         <v>6723</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="36" t="s">
         <v>32</v>
       </c>
@@ -5909,7 +5931,7 @@
         <v>7503</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="36" t="s">
         <v>32</v>
       </c>
@@ -5932,7 +5954,7 @@
         <v>10167</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="36" t="s">
         <v>32</v>
       </c>
@@ -5955,7 +5977,7 @@
         <v>11375</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="36" t="s">
         <v>46</v>
       </c>
@@ -5978,7 +6000,7 @@
         <v>10761</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="36" t="s">
         <v>46</v>
       </c>
@@ -6001,7 +6023,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="36" t="s">
         <v>46</v>
       </c>
@@ -6024,7 +6046,7 @@
         <v>10445</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="36" t="s">
         <v>46</v>
       </c>
@@ -6047,7 +6069,7 @@
         <v>10761</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="36" t="s">
         <v>44</v>
       </c>
@@ -6070,7 +6092,7 @@
         <v>10320</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="36" t="s">
         <v>44</v>
       </c>
@@ -6093,7 +6115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="36" t="s">
         <v>44</v>
       </c>
@@ -6116,7 +6138,7 @@
         <v>10320</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="36" t="s">
         <v>29</v>
       </c>
@@ -6139,7 +6161,7 @@
         <v>10735</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="36" t="s">
         <v>29</v>
       </c>
@@ -6162,7 +6184,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="36" t="s">
         <v>29</v>
       </c>
@@ -6185,7 +6207,7 @@
         <v>10273</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="36" t="s">
         <v>29</v>
       </c>
@@ -6208,7 +6230,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="36" t="s">
         <v>29</v>
       </c>
@@ -6231,7 +6253,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="36" t="s">
         <v>29</v>
       </c>
@@ -6254,7 +6276,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="36" t="s">
         <v>29</v>
       </c>
@@ -6277,7 +6299,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="36" t="s">
         <v>29</v>
       </c>
@@ -6300,7 +6322,7 @@
         <v>10270</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="36" t="s">
         <v>29</v>
       </c>
@@ -6323,7 +6345,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="36" t="s">
         <v>29</v>
       </c>
@@ -6346,7 +6368,7 @@
         <v>4129</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="36" t="s">
         <v>29</v>
       </c>
@@ -6369,7 +6391,7 @@
         <v>4519</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="36" t="s">
         <v>29</v>
       </c>
@@ -6392,7 +6414,7 @@
         <v>6376</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="36" t="s">
         <v>29</v>
       </c>
@@ -6415,7 +6437,7 @@
         <v>6757</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="36" t="s">
         <v>29</v>
       </c>
@@ -6438,7 +6460,7 @@
         <v>6826</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="36" t="s">
         <v>29</v>
       </c>
@@ -6461,7 +6483,7 @@
         <v>10270</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="36" t="s">
         <v>29</v>
       </c>
@@ -6484,7 +6506,7 @@
         <v>10735</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="36" t="s">
         <v>30</v>
       </c>
@@ -6507,7 +6529,7 @@
         <v>10862</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="16" customHeight="1">
       <c r="A43" s="36" t="s">
         <v>30</v>
       </c>
@@ -6530,7 +6552,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="36" t="s">
         <v>30</v>
       </c>
@@ -6553,7 +6575,7 @@
         <v>10354</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="36" t="s">
         <v>30</v>
       </c>
@@ -6576,7 +6598,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="36" t="s">
         <v>30</v>
       </c>
@@ -6599,7 +6621,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="36" t="s">
         <v>30</v>
       </c>
@@ -6622,7 +6644,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="36" t="s">
         <v>30</v>
       </c>
@@ -6645,7 +6667,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="36" t="s">
         <v>30</v>
       </c>
@@ -6668,7 +6690,7 @@
         <v>10351</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="36" t="s">
         <v>30</v>
       </c>
@@ -6691,7 +6713,7 @@
         <v>3508</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="36" t="s">
         <v>30</v>
       </c>
@@ -6714,7 +6736,7 @@
         <v>4180</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="36" t="s">
         <v>30</v>
       </c>
@@ -6737,7 +6759,7 @@
         <v>4570</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="36" t="s">
         <v>30</v>
       </c>
@@ -6760,7 +6782,7 @@
         <v>6439</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="36" t="s">
         <v>30</v>
       </c>
@@ -6783,7 +6805,7 @@
         <v>6817</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="36" t="s">
         <v>30</v>
       </c>
@@ -6806,7 +6828,7 @@
         <v>6886</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="36" t="s">
         <v>30</v>
       </c>
@@ -6829,7 +6851,7 @@
         <v>7636</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="36" t="s">
         <v>30</v>
       </c>
@@ -6852,7 +6874,7 @@
         <v>10351</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="36" t="s">
         <v>30</v>
       </c>
@@ -6875,7 +6897,7 @@
         <v>10862</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="37" t="s">
         <v>48</v>
       </c>
@@ -6898,7 +6920,7 @@
         <v>10116</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="37" t="s">
         <v>48</v>
       </c>
@@ -6921,7 +6943,7 @@
         <v>10116</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="37" t="s">
         <v>51</v>
       </c>
@@ -6944,7 +6966,7 @@
         <v>10242</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="37" t="s">
         <v>51</v>
       </c>
@@ -6967,7 +6989,7 @@
         <v>10242</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="36" t="s">
         <v>33</v>
       </c>
@@ -6990,7 +7012,7 @@
         <v>10839</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="36" t="s">
         <v>33</v>
       </c>
@@ -7013,7 +7035,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="36" t="s">
         <v>33</v>
       </c>
@@ -7036,7 +7058,7 @@
         <v>10359</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="36" t="s">
         <v>33</v>
       </c>
@@ -7059,7 +7081,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="36" t="s">
         <v>33</v>
       </c>
@@ -7082,7 +7104,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="36" t="s">
         <v>33</v>
       </c>
@@ -7105,7 +7127,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="36" t="s">
         <v>33</v>
       </c>
@@ -7128,7 +7150,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="36" t="s">
         <v>33</v>
       </c>
@@ -7151,7 +7173,7 @@
         <v>10356</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="36" t="s">
         <v>33</v>
       </c>
@@ -7174,7 +7196,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="36" t="s">
         <v>33</v>
       </c>
@@ -7197,7 +7219,7 @@
         <v>4185</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="36" t="s">
         <v>33</v>
       </c>
@@ -7220,7 +7242,7 @@
         <v>4578</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="36" t="s">
         <v>33</v>
       </c>
@@ -7243,7 +7265,7 @@
         <v>6444</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="36" t="s">
         <v>33</v>
       </c>
@@ -7266,7 +7288,7 @@
         <v>6822</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="36" t="s">
         <v>33</v>
       </c>
@@ -7289,7 +7311,7 @@
         <v>6891</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="36" t="s">
         <v>33</v>
       </c>
@@ -7312,7 +7334,7 @@
         <v>7647</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="36" t="s">
         <v>33</v>
       </c>
@@ -7335,7 +7357,7 @@
         <v>10356</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="36" t="s">
         <v>33</v>
       </c>
@@ -7358,7 +7380,7 @@
         <v>10839</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="31" t="s">
         <v>34</v>
       </c>
@@ -7381,7 +7403,7 @@
         <v>9646</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="31" t="s">
         <v>34</v>
       </c>
@@ -7404,7 +7426,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="31" t="s">
         <v>34</v>
       </c>
@@ -7427,7 +7449,7 @@
         <v>9377</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="31" t="s">
         <v>34</v>
       </c>
@@ -7450,7 +7472,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="31" t="s">
         <v>34</v>
       </c>
@@ -7473,7 +7495,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="31" t="s">
         <v>34</v>
       </c>
@@ -7496,7 +7518,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" s="31" t="s">
         <v>34</v>
       </c>
@@ -7519,7 +7541,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" s="31" t="s">
         <v>34</v>
       </c>
@@ -7542,7 +7564,7 @@
         <v>9374</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" s="31" t="s">
         <v>34</v>
       </c>
@@ -7565,7 +7587,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="31" t="s">
         <v>34</v>
       </c>
@@ -7588,7 +7610,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" s="31" t="s">
         <v>34</v>
       </c>
@@ -7611,7 +7633,7 @@
         <v>5312</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" s="31" t="s">
         <v>34</v>
       </c>
@@ -7634,7 +7656,7 @@
         <v>5474</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" s="31" t="s">
         <v>34</v>
       </c>
@@ -7657,7 +7679,7 @@
         <v>6257</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" s="31" t="s">
         <v>34</v>
       </c>
@@ -7680,7 +7702,7 @@
         <v>7601</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" s="31" t="s">
         <v>34</v>
       </c>
@@ -7703,7 +7725,7 @@
         <v>9374</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" s="31" t="s">
         <v>34</v>
       </c>
@@ -7726,7 +7748,7 @@
         <v>9646</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" s="35" t="s">
         <v>37</v>
       </c>
@@ -7747,7 +7769,7 @@
         <v>9867</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" s="35" t="s">
         <v>37</v>
       </c>
@@ -7768,7 +7790,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" s="35" t="s">
         <v>37</v>
       </c>
@@ -7789,7 +7811,7 @@
         <v>9501</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" s="35" t="s">
         <v>37</v>
       </c>
@@ -7810,7 +7832,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" s="35" t="s">
         <v>37</v>
       </c>
@@ -7831,7 +7853,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" s="35" t="s">
         <v>37</v>
       </c>
@@ -7852,7 +7874,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" s="35" t="s">
         <v>37</v>
       </c>
@@ -7873,7 +7895,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" s="35" t="s">
         <v>37</v>
       </c>
@@ -7894,7 +7916,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" s="35" t="s">
         <v>37</v>
       </c>
@@ -7915,7 +7937,7 @@
         <v>9498</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" s="35" t="s">
         <v>37</v>
       </c>
@@ -7936,7 +7958,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" s="35" t="s">
         <v>37</v>
       </c>
@@ -7957,7 +7979,7 @@
         <v>5514</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" s="35" t="s">
         <v>37</v>
       </c>
@@ -7978,7 +8000,7 @@
         <v>5637</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" s="35" t="s">
         <v>37</v>
       </c>
@@ -7999,7 +8021,7 @@
         <v>6423</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" s="35" t="s">
         <v>37</v>
       </c>
@@ -8020,7 +8042,7 @@
         <v>7797</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" s="35" t="s">
         <v>37</v>
       </c>
@@ -8041,7 +8063,7 @@
         <v>9498</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" s="35" t="s">
         <v>37</v>
       </c>
@@ -8062,7 +8084,7 @@
         <v>9867</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>54</v>
       </c>
@@ -8085,7 +8107,7 @@
         <v>19199</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>54</v>
       </c>
@@ -8108,7 +8130,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>54</v>
       </c>
@@ -8131,7 +8153,7 @@
         <v>18068</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>54</v>
       </c>
@@ -8154,7 +8176,7 @@
         <v>19199</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" s="32" t="s">
         <v>84</v>
       </c>
@@ -8177,7 +8199,7 @@
         <v>18554</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" s="34" t="s">
         <v>84</v>
       </c>
@@ -8200,7 +8222,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" s="34" t="s">
         <v>84</v>
       </c>
@@ -8223,7 +8245,7 @@
         <v>17905</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" s="34" t="s">
         <v>84</v>
       </c>
@@ -8246,7 +8268,7 @@
         <v>18554</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" s="30" t="s">
         <v>35</v>
       </c>
@@ -8267,7 +8289,7 @@
         <v>12573</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" s="30" t="s">
         <v>35</v>
       </c>
@@ -8288,7 +8310,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" s="30" t="s">
         <v>35</v>
       </c>
@@ -8309,7 +8331,7 @@
         <v>12352</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" s="30" t="s">
         <v>35</v>
       </c>
@@ -8330,7 +8352,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" s="30" t="s">
         <v>35</v>
       </c>
@@ -8351,7 +8373,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" s="30" t="s">
         <v>35</v>
       </c>
@@ -8372,7 +8394,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126" s="30" t="s">
         <v>35</v>
       </c>
@@ -8393,7 +8415,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" s="30" t="s">
         <v>35</v>
       </c>
@@ -8414,7 +8436,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" s="30" t="s">
         <v>35</v>
       </c>
@@ -8435,7 +8457,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129" s="30" t="s">
         <v>35</v>
       </c>
@@ -8456,7 +8478,7 @@
         <v>3793</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130" s="30" t="s">
         <v>35</v>
       </c>
@@ -8477,7 +8499,7 @@
         <v>7471</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7">
       <c r="A131" s="30" t="s">
         <v>35</v>
       </c>
@@ -8498,7 +8520,7 @@
         <v>7663</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132" s="30" t="s">
         <v>35</v>
       </c>
@@ -8519,7 +8541,7 @@
         <v>8704</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133" s="30" t="s">
         <v>35</v>
       </c>
@@ -8540,7 +8562,7 @@
         <v>10192</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7">
       <c r="A134" s="30" t="s">
         <v>35</v>
       </c>
@@ -8561,7 +8583,7 @@
         <v>12349</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7">
       <c r="A135" s="30" t="s">
         <v>35</v>
       </c>
@@ -8582,7 +8604,7 @@
         <v>12573</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7">
       <c r="A136" s="27" t="s">
         <v>52</v>
       </c>
@@ -8603,7 +8625,7 @@
         <v>10053</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7">
       <c r="A137" s="27" t="s">
         <v>52</v>
       </c>
@@ -8624,7 +8646,7 @@
         <v>10053</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7">
       <c r="A138" s="27" t="s">
         <v>52</v>
       </c>
@@ -8645,7 +8667,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7">
       <c r="A139" s="27" t="s">
         <v>52</v>
       </c>
@@ -8666,7 +8688,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7">
       <c r="A140" s="27" t="s">
         <v>52</v>
       </c>
@@ -8687,7 +8709,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7">
       <c r="A141" s="27" t="s">
         <v>52</v>
       </c>
@@ -8708,7 +8730,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7">
       <c r="A142" s="27" t="s">
         <v>52</v>
       </c>
@@ -8729,7 +8751,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7">
       <c r="A143" s="27" t="s">
         <v>52</v>
       </c>
@@ -8750,7 +8772,7 @@
         <v>10050</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7">
       <c r="A144" s="27" t="s">
         <v>52</v>
       </c>
@@ -8771,7 +8793,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8">
       <c r="A145" s="27" t="s">
         <v>52</v>
       </c>
@@ -8792,7 +8814,7 @@
         <v>3978</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8">
       <c r="A146" s="27" t="s">
         <v>52</v>
       </c>
@@ -8813,7 +8835,7 @@
         <v>4431</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8">
       <c r="A147" s="27" t="s">
         <v>52</v>
       </c>
@@ -8834,7 +8856,7 @@
         <v>6303</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8">
       <c r="A148" s="27" t="s">
         <v>52</v>
       </c>
@@ -8855,7 +8877,7 @@
         <v>6687</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8">
       <c r="A149" s="27" t="s">
         <v>52</v>
       </c>
@@ -8876,7 +8898,7 @@
         <v>6762</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8">
       <c r="A150" s="27" t="s">
         <v>52</v>
       </c>
@@ -8897,7 +8919,7 @@
         <v>7557</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8">
       <c r="A151" s="27" t="s">
         <v>52</v>
       </c>
@@ -8919,7 +8941,7 @@
       </c>
       <c r="H151" s="25"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8">
       <c r="A152" s="27" t="s">
         <v>108</v>
       </c>
@@ -8942,7 +8964,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>113</v>
       </c>
@@ -8965,339 +8987,385 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8">
+      <c r="A154" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B154" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C154" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D154" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E154" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F154" s="27">
+        <v>1</v>
+      </c>
+      <c r="G154" s="27">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" t="s">
+        <v>113</v>
+      </c>
+      <c r="B155" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C155" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D155" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E155" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F155" s="27">
+        <v>1</v>
+      </c>
+      <c r="G155" s="27">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4">
       <c r="B193" s="1"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:4">
       <c r="B194" s="1"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:4">
       <c r="B195" s="1"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:4">
       <c r="B196" s="1"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:4">
       <c r="B197" s="1"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:4">
       <c r="B198" s="1"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:4">
       <c r="B199" s="1"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:4">
       <c r="B200" s="1"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:4">
       <c r="B201" s="1"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:4">
       <c r="B202" s="1"/>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:4">
       <c r="B203" s="1"/>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:4">
       <c r="B204" s="1"/>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:4">
       <c r="B205" s="1"/>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:4">
       <c r="B206" s="1"/>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:4">
       <c r="B207" s="1"/>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:4">
       <c r="B208" s="1"/>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:4">
       <c r="B209" s="1"/>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:4">
       <c r="B210" s="1"/>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:4">
       <c r="B211" s="1"/>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:4">
       <c r="B212" s="1"/>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:4">
       <c r="B213" s="1"/>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:4">
       <c r="B214" s="1"/>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:4">
       <c r="B215" s="1"/>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:4">
       <c r="B216" s="1"/>
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:4">
       <c r="B217" s="1"/>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:4">
       <c r="B218" s="1"/>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:4">
       <c r="B219" s="1"/>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:4">
       <c r="B220" s="1"/>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:4">
       <c r="B221" s="1"/>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:4">
       <c r="B222" s="1"/>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:4">
       <c r="B223" s="1"/>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:4">
       <c r="B224" s="1"/>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
     </row>
-    <row r="907" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="907" spans="5:5">
       <c r="E907" s="1"/>
     </row>
-    <row r="1043" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1043" spans="2:2">
       <c r="B1043" s="1"/>
     </row>
-    <row r="1044" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1044" spans="2:2">
       <c r="B1044" s="1"/>
     </row>
-    <row r="1169" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1169" spans="2:2">
       <c r="B1169" s="1"/>
     </row>
-    <row r="1170" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1170" spans="2:2">
       <c r="B1170" s="1"/>
     </row>
-    <row r="1171" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1171" spans="2:2">
       <c r="B1171" s="1"/>
     </row>
-    <row r="1172" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1172" spans="2:2">
       <c r="B1172" s="1"/>
     </row>
-    <row r="1173" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1173" spans="2:2">
       <c r="B1173" s="1"/>
     </row>
-    <row r="1174" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1174" spans="2:2">
       <c r="B1174" s="1"/>
     </row>
-    <row r="1219" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1219" spans="2:6">
       <c r="E1219" s="1"/>
       <c r="F1219" s="1"/>
     </row>
-    <row r="1220" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1220" spans="2:6">
       <c r="E1220" s="1"/>
       <c r="F1220" s="1"/>
     </row>
-    <row r="1221" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1221" spans="2:6">
       <c r="E1221" s="1"/>
       <c r="F1221" s="1"/>
     </row>
-    <row r="1223" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1223" spans="2:6">
       <c r="B1223" s="1"/>
     </row>
-    <row r="1224" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1224" spans="2:6">
       <c r="B1224" s="1"/>
     </row>
-    <row r="1225" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1225" spans="2:6">
       <c r="B1225" s="1"/>
     </row>
-    <row r="1226" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1226" spans="2:6">
       <c r="B1226" s="1"/>
     </row>
-    <row r="1227" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1227" spans="2:6">
       <c r="B1227" s="1"/>
     </row>
-    <row r="1246" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1246" spans="2:2">
       <c r="B1246" s="1"/>
     </row>
-    <row r="1247" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1247" spans="2:2">
       <c r="B1247" s="1"/>
     </row>
-    <row r="1248" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1248" spans="2:2">
       <c r="B1248" s="1"/>
     </row>
-    <row r="1249" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1249" spans="2:2">
       <c r="B1249" s="1"/>
     </row>
-    <row r="1250" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1250" spans="2:2">
       <c r="B1250" s="1"/>
     </row>
-    <row r="1251" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1251" spans="2:2">
       <c r="B1251" s="1"/>
     </row>
-    <row r="1252" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1252" spans="2:2">
       <c r="B1252" s="1"/>
     </row>
-    <row r="1254" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1254" spans="2:2">
       <c r="B1254" s="1"/>
     </row>
-    <row r="1255" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1255" spans="2:2">
       <c r="B1255" s="1"/>
     </row>
-    <row r="1256" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1256" spans="2:2">
       <c r="B1256" s="1"/>
     </row>
-    <row r="1257" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1257" spans="2:2">
       <c r="B1257" s="1"/>
     </row>
-    <row r="1258" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1258" spans="2:2">
       <c r="B1258" s="1"/>
     </row>
-    <row r="1259" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1259" spans="2:2">
       <c r="B1259" s="1"/>
     </row>
-    <row r="1311" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1311" spans="2:2">
       <c r="B1311" s="1"/>
     </row>
-    <row r="1312" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1312" spans="2:2">
       <c r="B1312" s="1"/>
     </row>
-    <row r="1313" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1313" spans="2:2">
       <c r="B1313" s="1"/>
     </row>
-    <row r="1314" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1314" spans="2:2">
       <c r="B1314" s="1"/>
     </row>
-    <row r="1316" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1316" spans="2:2">
       <c r="B1316" s="1"/>
     </row>
-    <row r="1317" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1317" spans="2:2">
       <c r="B1317" s="1"/>
     </row>
-    <row r="1318" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1318" spans="2:2">
       <c r="B1318" s="1"/>
     </row>
-    <row r="1319" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1319" spans="2:2">
       <c r="B1319" s="1"/>
     </row>
-    <row r="1354" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1354" spans="2:2">
       <c r="B1354" s="1"/>
     </row>
-    <row r="1355" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1355" spans="2:2">
       <c r="B1355" s="1"/>
     </row>
-    <row r="1356" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1356" spans="2:2">
       <c r="B1356" s="1"/>
     </row>
-    <row r="1357" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1357" spans="2:2">
       <c r="B1357" s="1"/>
     </row>
-    <row r="1358" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1358" spans="2:2">
       <c r="B1358" s="1"/>
     </row>
-    <row r="1359" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1359" spans="2:2">
       <c r="B1359" s="1"/>
     </row>
-    <row r="1401" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="1401" spans="3:6">
       <c r="E1401" s="1"/>
       <c r="F1401" s="1"/>
     </row>
-    <row r="1402" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="1402" spans="3:6">
       <c r="C1402" s="6"/>
       <c r="D1402" s="6"/>
       <c r="E1402" s="1"/>
       <c r="F1402" s="1"/>
     </row>
-    <row r="1403" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="1403" spans="3:6">
       <c r="C1403" s="6"/>
       <c r="D1403" s="6"/>
       <c r="E1403" s="1"/>
       <c r="F1403" s="1"/>
     </row>
-    <row r="1404" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="1404" spans="3:6">
       <c r="C1404" s="6"/>
       <c r="D1404" s="6"/>
       <c r="E1404" s="1"/>
       <c r="F1404" s="1"/>
     </row>
-    <row r="1405" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="1405" spans="3:6">
       <c r="E1405" s="1"/>
       <c r="F1405" s="1"/>
     </row>
-    <row r="1468" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1468" spans="2:2">
       <c r="B1468" s="1"/>
     </row>
-    <row r="1469" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1469" spans="2:2">
       <c r="B1469" s="1"/>
     </row>
-    <row r="1470" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1470" spans="2:2">
       <c r="B1470" s="1"/>
     </row>
-    <row r="1471" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1471" spans="2:2">
       <c r="B1471" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1456">
+  <sortState ref="A2:G1456">
     <sortCondition ref="C2:C1456"/>
     <sortCondition ref="D2:D1456"/>
   </sortState>
@@ -9312,16 +9380,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G43" sqref="A28:G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -9344,7 +9412,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -9367,7 +9435,7 @@
         <v>10389</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -9390,7 +9458,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -9413,7 +9481,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -9436,7 +9504,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -9459,7 +9527,7 @@
         <v>3513</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -9482,7 +9550,7 @@
         <v>4206</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -9505,7 +9573,7 @@
         <v>4599</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -9528,7 +9596,7 @@
         <v>6456</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -9551,7 +9619,7 @@
         <v>6903</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -9574,7 +9642,7 @@
         <v>7671</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -9597,7 +9665,7 @@
         <v>10386</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -9620,7 +9688,7 @@
         <v>10962</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -9643,7 +9711,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -9666,7 +9734,7 @@
         <v>10366</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -9689,7 +9757,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -9712,7 +9780,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -9735,7 +9803,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -9758,7 +9826,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -9781,7 +9849,7 @@
         <v>4210</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="14" customHeight="1">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -9804,7 +9872,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -9827,7 +9895,7 @@
         <v>6451</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -9850,7 +9918,7 @@
         <v>6832</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -9873,7 +9941,7 @@
         <v>6901</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -9896,7 +9964,7 @@
         <v>7654</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -9919,7 +9987,7 @@
         <v>10363</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -9942,7 +10010,7 @@
         <v>10794</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -9965,7 +10033,7 @@
         <v>10116</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -9988,7 +10056,7 @@
         <v>10242</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -10008,7 +10076,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -10028,7 +10096,7 @@
         <v>12352</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -10048,7 +10116,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -10068,7 +10136,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -10088,7 +10156,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -10108,7 +10176,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -10128,7 +10196,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -10148,7 +10216,7 @@
         <v>3793</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -10168,7 +10236,7 @@
         <v>7471</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -10188,7 +10256,7 @@
         <v>7663</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -10208,7 +10276,7 @@
         <v>8704</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -10228,7 +10296,7 @@
         <v>10192</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -10248,7 +10316,7 @@
         <v>12349</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -10268,7 +10336,7 @@
         <v>12573</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -10291,7 +10359,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -10314,7 +10382,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -10337,7 +10405,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>53</v>
       </c>
